--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509624729586], ["'autoclave' (unit, GLO, None)", 0.0005799645485189725], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812396649305e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483398205464e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8690875612815488e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002802659225698078], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 2.9546360352640087e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140500379755e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518668761726e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703146037205e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509624729586], ["'autoclave' (unit, GLO, None)", 0.0005799645485189725], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812396649305e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483398205464e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8690875612815488e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659225698078], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360352640087e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140500379755e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518668761726e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703146037205e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005546509624729586], ["'autoclave' (unit, GLO, None)", 0.0005799645485189725], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389534225239e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943371873808e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963222654703094e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001912725040854366], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703146037205e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385788298101], ["'autoclave' (unit, GLO, None)", 0.0007732860646919634], ["'waste polypropylene' (kilogram, CH, None)", 5.255722575873589e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351264575628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587011351017046e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.208300945786341e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0007888279277627041], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 8.892593892542162e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039573016734e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503292286554], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812069027939065]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385788298101], ["'autoclave' (unit, GLO, None)", 0.0007732860646919634], ["'waste polypropylene' (kilogram, CH, None)", 5.255722575873589e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351264575628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587011351017046e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.208300945786341e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279277627041], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593892542162e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039573016734e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503292286554], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812069027939065]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.001589385788298101], ["'autoclave' (unit, GLO, None)", 0.0007732860646919634], ["'waste polypropylene' (kilogram, CH, None)", 3.4691238124578145e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112239945479e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724674234011377], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005472200630524227], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812069027939065]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.564147641067217e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0005279122960549709], ["'autoclave' (unit, GLO, None)", 0.0011599290970379455], ["'aluminium scrap' (kilogram, RER, None)", 5.8021550135336e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854398096031], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748189279563e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205556743034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429869398325e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.816481914406381e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.564147641067217e-05], ["'wet wipe' (unit, GLO, None)", 0.0002303881951635546], ["'autoclave' (unit, GLO, None)", 0.0011599290970379455], ["'aluminium scrap' (kilogram, RER, None)", 5.8021550135336e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854398096031], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748189279563e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205556743034e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953093520643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310290349615692e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8919884389494067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.878504000418684e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00026395614802748543], ["'autoclave' (unit, GLO, None)", 0.0008699468227784589], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307346330083e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138235300825], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349637855913e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.849514601627557e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214934699144e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.4082409572031903e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.878504000418684e-05], ["'wet wipe' (unit, GLO, None)", 0.0002303881951635546], ["'autoclave' (unit, GLO, None)", 0.0008699468227784589], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307346330083e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138235300825], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349637855913e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495146016275568], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953093520643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.24108820026872e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8679060293773745e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325575935521], ["'autoclave' (unit, GLO, None)", 0.05129836583440029], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032599917], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851806656185], ["'marginal heating grid' (megajoule, GLO, None)", -0.017238873396891657], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12906649478542545], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.01346619389736235], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372803159034], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453558720702], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479465789574]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731990508225], ["'mechanical disinfection' (unit, GLO, None)", 0.0005279122960549709], ["'autoclave' (unit, GLO, None)", 0.0011599290970379455], ["'aluminium scrap' (kilogram, RER, None)", 5.8021550135336e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854398096031], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748189279563e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205556743034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429869398325e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.816481914406381e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731990508225], ["'wet wipe' (unit, GLO, None)", 0.0002303881951635546], ["'autoclave' (unit, GLO, None)", 0.0011599290970379455], ["'aluminium scrap' (kilogram, RER, None)", 5.8021550135336e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854398096031], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748189279563e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205556743034e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953093520643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310290349615692e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8919884389494067e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632855543571], ["'mechanical disinfection' (unit, GLO, None)", 0.00026395614802748543], ["'autoclave' (unit, GLO, None)", 0.0008699468227784589], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307346330083e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138235300825], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349637855913e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.849514601627557e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214934699144e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.4082409572031903e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632855543571], ["'wet wipe' (unit, GLO, None)", 0.0002303881951635546], ["'autoclave' (unit, GLO, None)", 0.0008699468227784589], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307346330083e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138235300825], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349637855913e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495146016275568], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953093520643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.24108820026872e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8679060293773745e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325575935521], ["'autoclave' (unit, GLO, None)", 0.05129836583440029], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032599917], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851806656185], ["'marginal heating grid' (megajoule, GLO, None)", -0.017238873396891657], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649478542545], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01346619389736235], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372803159034], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453558720702], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479465789574]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.2183325575935521], ["'autoclave' (unit, GLO, None)", 0.05129836583440029], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629108356], ["'waste polyethylene' (kilogram, CH, None)", 0.02210672052865119], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567871104123], ["'marginal heating grid' (megajoule, GLO, None)", -0.11492582264594438], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479465789574]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752972012203], ["'autoclave' (unit, GLO, None)", 0.06839782111253372], ["'waste polypropylene' (kilogram, CH, None)", 0.0778230589605397], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279303887538], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395051393743776], ["'marginal heating grid' (megajoule, GLO, None)", -0.049319464040613485], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.36326662439606505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.040529321438663383], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381621620747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911433016064], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375364049825403]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752972012203], ["'autoclave' (unit, GLO, None)", 0.06839782111253372], ["'waste polypropylene' (kilogram, CH, None)", 0.0778230589605397], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279303887538], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395051393743776], ["'marginal heating grid' (megajoule, GLO, None)", -0.049319464040613485], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36326662439606505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040529321438663383], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381621620747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911433016064], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375364049825403]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.6251752972012203], ["'autoclave' (unit, GLO, None)", 0.06839782111253372], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835574953116], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383487998088], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034262495862], ["'marginal heating grid' (megajoule, GLO, None)", -0.3287964269374232], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375364049825403]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02424986918861416], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177811705376], ["'autoclave' (unit, GLO, None)", 0.10259673166880061], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355498746282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613690209668], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874262950664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001536689672241025], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.314100941505321e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002893976575039844]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02424986918861416], ["'wet wipe' (unit, GLO, None)", 0.05462332866177044], ["'autoclave' (unit, GLO, None)", 0.10259673166880061], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355498746282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613690209668], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874262950664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001536689672241025], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832862600354], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890333230731732], ["'marginal heating grid' (megajoule, GLO, None)", -0.017376473007346755]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01426034044541029], ["'mechanical disinfection' (unit, GLO, None)", 0.02547588905852688], ["'autoclave' (unit, GLO, None)", 0.07694754875160044], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127944957984], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539480932068], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748525901328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0025715500606537625], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504707526587e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001446988287519922]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01426034044541029], ["'wet wipe' (unit, GLO, None)", 0.05462332866177044], ["'autoclave' (unit, GLO, None)", 0.07694754875160044], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127944957984], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539480932068], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748525901328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02571550060653762], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832862600354], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824628183656484], ["'marginal heating grid' (megajoule, GLO, None)", -0.01723177417859476]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693276897513], ["'autoclave' (unit, GLO, None)", 0.022422924865755624], ["'waste polypropylene' (kilogram, CH, None)", 0.001433560325772361], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038295881124062814], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007754420358016251], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002191312077764329], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.00023552579141451307], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173526599129], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853483018887], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726834256415]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345608690963], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177811705376], ["'autoclave' (unit, GLO, None)", 0.10259673166880061], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355498746282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613690209668], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874262950664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001536689672241025], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.314100941505321e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002893976575039844]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345608690963], ["'wet wipe' (unit, GLO, None)", 0.05462332866177044], ["'autoclave' (unit, GLO, None)", 0.10259673166880061], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355498746282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613690209668], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874262950664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001536689672241025], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832862600354], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890333230731732], ["'marginal heating grid' (megajoule, GLO, None)", -0.017376473007346755]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058093144218], ["'mechanical disinfection' (unit, GLO, None)", 0.02547588905852688], ["'autoclave' (unit, GLO, None)", 0.07694754875160044], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127944957984], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539480932068], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748525901328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0025715500606537625], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504707526587e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001446988287519922]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058093144218], ["'wet wipe' (unit, GLO, None)", 0.05462332866177044], ["'autoclave' (unit, GLO, None)", 0.07694754875160044], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127944957984], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539480932068], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748525901328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02571550060653762], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832862600354], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824628183656484], ["'marginal heating grid' (megajoule, GLO, None)", -0.01723177417859476]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693276897513], ["'autoclave' (unit, GLO, None)", 0.022422924865755624], ["'waste polypropylene' (kilogram, CH, None)", 0.001433560325772361], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038295881124062814], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007754420358016251], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002191312077764329], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552579141451307], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173526599129], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853483018887], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726834256415]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.005876693276897513], ["'autoclave' (unit, GLO, None)", 0.022422924865755624], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409638302582], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520094814358], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587416041878], ["'marginal heating grid' (megajoule, GLO, None)", -0.0051696135720108345], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726834256415]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403397677116], ["'autoclave' (unit, GLO, None)", 0.029897233154340834], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521296346032], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172206221], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239938175903], ["'marginal heating grid' (megajoule, GLO, None)", -0.0022184968077550945], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006167600218873112], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0007088640324126121], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497968709892], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01494888305075743], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841286151887712]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403397677116], ["'autoclave' (unit, GLO, None)", 0.029897233154340834], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521296346032], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172206221], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239938175903], ["'marginal heating grid' (megajoule, GLO, None)", -0.0022184968077550945], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600218873112], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640324126121], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497968709892], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01494888305075743], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841286151887712]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.01682403397677116], ["'autoclave' (unit, GLO, None)", 0.029897233154340834], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201078946], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266860582446], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159958783941], ["'marginal heating grid' (megajoule, GLO, None)", -0.014789978718367295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841286151887712]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001515536885925599], ["'mechanical disinfection' (unit, GLO, None)", 0.031852918650502306], ["'autoclave' (unit, GLO, None)", 0.04484584973151126], ["'aluminium scrap' (kilogram, RER, None)", 0.001307690050268392], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757483404646], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658742922e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122359463466504e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226065974695e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.301773634068075e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001515536885925599], ["'wet wipe' (unit, GLO, None)", 0.0016886971995246976], ["'autoclave' (unit, GLO, None)", 0.04484584973151126], ["'aluminium scrap' (kilogram, RER, None)", 0.001307690050268392], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757483404646], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658742922e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122359463466504e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297772232977e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003860155645465922], ["'marginal heating grid' (megajoule, GLO, None)", -0.00078163156568564]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008995315840223474], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459325251153], ["'autoclave' (unit, GLO, None)", 0.03363438729863344], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136099356844], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984308573015], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317485844e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726398224935426e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613032987263e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.508868170340375e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008995315840223474], ["'wet wipe' (unit, GLO, None)", 0.0016886971995246976], ["'autoclave' (unit, GLO, None)", 0.03363438729863344], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136099356844], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984308573015], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317485844e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726398224935425], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297772232977e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011032432944], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007751226975152996]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00782234131866967], ["'autoclave' (unit, GLO, None)", 0.026502074391753207], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899211445], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008895719464], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009940232285696332], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002973336218196102], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0003192075298597423], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484411205321], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511887003693], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744267115525]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532297926007], ["'mechanical disinfection' (unit, GLO, None)", 0.031852918650502306], ["'autoclave' (unit, GLO, None)", 0.04484584973151126], ["'aluminium scrap' (kilogram, RER, None)", 0.001307690050268392], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757483404646], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658742922e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122359463466504e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226065974695e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.301773634068075e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532297926007], ["'wet wipe' (unit, GLO, None)", 0.0016886971995246976], ["'autoclave' (unit, GLO, None)", 0.04484584973151126], ["'aluminium scrap' (kilogram, RER, None)", 0.001307690050268392], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757483404646], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658742922e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122359463466504e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297772232977e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003860155645465922], ["'marginal heating grid' (megajoule, GLO, None)", -0.00078163156568564]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723134335402], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459325251153], ["'autoclave' (unit, GLO, None)", 0.03363438729863344], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136099356844], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984308573015], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317485844e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726398224935426e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613032987263e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.508868170340375e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723134335402], ["'wet wipe' (unit, GLO, None)", 0.0016886971995246976], ["'autoclave' (unit, GLO, None)", 0.03363438729863344], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136099356844], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984308573015], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317485844e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726398224935425], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297772232977e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011032432944], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007751226975152996]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00782234131866967], ["'autoclave' (unit, GLO, None)", 0.026502074391753207], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899211445], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008895719464], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009940232285696332], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336218196102], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003192075298597423], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484411205321], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511887003693], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744267115525]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.00782234131866967], ["'autoclave' (unit, GLO, None)", 0.026502074391753207], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710078879682], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355628088726], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059304796424], ["'marginal heating grid' (megajoule, GLO, None)", -0.0066268215237975546], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744267115525]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575545910409], ["'autoclave' (unit, GLO, None)", 0.03533609918900427], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227519725976], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132051776052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572145844636], ["'marginal heating grid' (megajoule, GLO, None)", -0.002843845519847845], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00836866154128042], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0009607216918108747], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796231828958], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01958454052677097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525620686256]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575545910409], ["'autoclave' (unit, GLO, None)", 0.03533609918900427], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227519725976], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132051776052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572145844636], ["'marginal heating grid' (megajoule, GLO, None)", -0.002843845519847845], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00836866154128042], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216918108747], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796231828958], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01958454052677097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525620686256]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.02239575545910409], ["'autoclave' (unit, GLO, None)", 0.03533609918900427], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354951797094], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768751790138], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00901771476389643], ["'marginal heating grid' (megajoule, GLO, None)", -0.018958970132318967], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525620686256]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001993041647924838], ["'mechanical disinfection' (unit, GLO, None)", 0.038731919097836444], ["'autoclave' (unit, GLO, None)", 0.053004148783506434], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352329926103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904102977331], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976144708974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475509056535682e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146863239501e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6687169006326652e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001993041647924838], ["'wet wipe' (unit, GLO, None)", 0.0017911167033300708], ["'autoclave' (unit, GLO, None)", 0.053004148783506434], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352329926103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904102977331], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976144708974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475509056535682e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.299026979628764e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747567342656], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010019574598784588]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001183124628637503], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959548918222], ["'autoclave' (unit, GLO, None)", 0.039753111587629814], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971631852919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098420417597], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228941795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183212279041945], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.96857343161974e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.343584503163326e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001183124628637503], ["'wet wipe' (unit, GLO, None)", 0.0017911167033300708], ["'autoclave' (unit, GLO, None)", 0.039753111587629814], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971631852919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098420417597], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228941795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183212279041944], ["'waste wipe incineration' (kilogram, CH, None)", 4.299026979628764e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061833026469], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009936138753752954]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931462976383], ["'autoclave' (unit, GLO, None)", 2.0531715881076096], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178350279166], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999249256584133], ["'marginal heating grid' (megajoule, GLO, None)", -0.0780044459402673], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.36128077320527424], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.03928093800215354], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046356106437], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534575250151297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169572868921]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833453812803], ["'mechanical disinfection' (unit, GLO, None)", 0.038731919097836444], ["'autoclave' (unit, GLO, None)", 0.053004148783506434], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352329926103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904102977331], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976144708974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475509056535682e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146863239501e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6687169006326652e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833453812803], ["'wet wipe' (unit, GLO, None)", 0.0017911167033300708], ["'autoclave' (unit, GLO, None)", 0.053004148783506434], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352329926103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904102977331], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976144708974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475509056535682e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.299026979628764e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747567342656], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010019574598784588]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108774991757], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959548918222], ["'autoclave' (unit, GLO, None)", 0.039753111587629814], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971631852919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098420417597], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228941795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183212279041945], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.96857343161974e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.343584503163326e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108774991757], ["'wet wipe' (unit, GLO, None)", 0.0017911167033300708], ["'autoclave' (unit, GLO, None)", 0.039753111587629814], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971631852919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098420417597], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228941795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183212279041944], ["'waste wipe incineration' (kilogram, CH, None)", 4.299026979628764e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061833026469], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009936138753752954]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931462976383], ["'autoclave' (unit, GLO, None)", 2.0531715881076096], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178350279166], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999249256584133], ["'marginal heating grid' (megajoule, GLO, None)", -0.0780044459402673], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36128077320527424], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093800215354], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046356106437], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534575250151297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169572868921]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.7548931462976383], ["'autoclave' (unit, GLO, None)", 2.0531715881076096], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594980091782], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023450714914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999499504389422], ["'marginal heating grid' (megajoule, GLO, None)", -0.5200296396017821], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169572868921]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865635073131], ["'autoclave' (unit, GLO, None)", 2.737562117476813], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243365743806], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425244638333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052574672551], ["'marginal heating grid' (megajoule, GLO, None)", -0.2231664087313658], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0168498583592156], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.11822418233657862], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158393380068], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485985958112], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626245082307466]]</t>
+    <t>[["'H400' (unit, GLO, None)", 2.158865635073131], ["'autoclave' (unit, GLO, None)", 2.737562117476813], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243365743806], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425244638333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052574672551], ["'marginal heating grid' (megajoule, GLO, None)", -0.2231664087313658], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498583592156], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822418233657862], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158393380068], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485985958112], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626245082307466]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 2.158865635073131], ["'autoclave' (unit, GLO, None)", 2.737562117476813], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352056596574], ["'waste polyethylene' (kilogram, CH, None)", 0.1933352318716047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368383115038], ["'marginal heating grid' (megajoule, GLO, None)", -1.4877760582091053], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626245082307466]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.108779262400129], ["'mechanical disinfection' (unit, GLO, None)", 2.140537903673106], ["'autoclave' (unit, GLO, None)", 4.106343176215221], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888887703856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045810483354], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073487912374], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401651128333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00040288749483838147], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013094999545666321]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.108779262400129], ["'wet wipe' (unit, GLO, None)", 0.1450637818302995], ["'autoclave' (unit, GLO, None)", 4.106343176215221], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888887703856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045810483354], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073487912374], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401651128333], ["'waste wipe incineration' (kilogram, CH, None)", 0.0002161309139941728], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080976479666], ["'marginal heating grid' (megajoule, GLO, None)", -0.07862707255443352]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.06412429955394845], ["'mechanical disinfection' (unit, GLO, None)", 1.070268951836553], ["'autoclave' (unit, GLO, None)", 3.079757382161415], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273147188146], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181778175024], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014697582475], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0029291831353061275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437474191902], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006547499772833161]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.06412429955394845], ["'wet wipe' (unit, GLO, None)", 0.1450637818302995], ["'autoclave' (unit, GLO, None)", 3.079757382161415], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273147188146], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181778175024], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014697582475], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.029291831353061272], ["'waste wipe incineration' (kilogram, CH, None)", 0.0002161309139941728], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989366017377525], ["'marginal heating grid' (megajoule, GLO, None)", -0.07797232257715019]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192406258804], ["'autoclave' (unit, GLO, None)", 0.013280171551114134], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584177703862], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589727772333], ["'marginal heating grid' (megajoule, GLO, None)", -0.005257296846837873], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.10001930692210494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.010045942581957823], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428708948756], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959905451432], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888122133122]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252582898794], ["'mechanical disinfection' (unit, GLO, None)", 2.140537903673106], ["'autoclave' (unit, GLO, None)", 4.106343176215221], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888887703856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045810483354], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073487912374], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401651128333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00040288749483838147], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013094999545666321]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252582898794], ["'wet wipe' (unit, GLO, None)", 0.1450637818302995], ["'autoclave' (unit, GLO, None)", 4.106343176215221], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888887703856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045810483354], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073487912374], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401651128333], ["'waste wipe incineration' (kilogram, CH, None)", 0.0002161309139941728], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080976479666], ["'marginal heating grid' (megajoule, GLO, None)", -0.07862707255443352]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449858972671], ["'mechanical disinfection' (unit, GLO, None)", 1.070268951836553], ["'autoclave' (unit, GLO, None)", 3.079757382161415], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273147188146], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181778175024], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014697582475], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0029291831353061275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437474191902], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006547499772833161]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449858972671], ["'wet wipe' (unit, GLO, None)", 0.1450637818302995], ["'autoclave' (unit, GLO, None)", 3.079757382161415], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273147188146], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181778175024], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014697582475], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.029291831353061272], ["'waste wipe incineration' (kilogram, CH, None)", 0.0002161309139941728], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989366017377525], ["'marginal heating grid' (megajoule, GLO, None)", -0.07797232257715019]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192406258804], ["'autoclave' (unit, GLO, None)", 0.013280171551114134], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584177703862], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589727772333], ["'marginal heating grid' (megajoule, GLO, None)", -0.005257296846837873], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930692210494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942581957823], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428708948756], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959905451432], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888122133122]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1432192406258804], ["'autoclave' (unit, GLO, None)", 0.013280171551114134], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069874924992], ["'waste polyethylene' (kilogram, CH, None)", 8.01787414275759e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864393151848224], ["'marginal heating grid' (megajoule, GLO, None)", -0.035048645645585824], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888122133122]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337213521456], ["'autoclave' (unit, GLO, None)", 0.017706895401485512], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249538172215], ["'waste polyethylene' (kilogram, CH, None)", 3.628446482761e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647673860985], ["'marginal heating grid' (megajoule, GLO, None)", -0.015040835721619909], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.28151129431718275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.030235361168999268], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896681237658], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805607169418], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436842341036]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337213521456], ["'autoclave' (unit, GLO, None)", 0.017706895401485512], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249538172215], ["'waste polyethylene' (kilogram, CH, None)", 3.628446482761e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647673860985], ["'marginal heating grid' (megajoule, GLO, None)", -0.015040835721619909], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28151129431718275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361168999268], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896681237658], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805607169418], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436842341036]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.4098337213521456], ["'autoclave' (unit, GLO, None)", 0.017706895401485512], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746126549277], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880842694802], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804317825739922], ["'marginal heating grid' (megajoule, GLO, None)", -0.10027223814413272], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436842341036]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007827421762078198], ["'mechanical disinfection' (unit, GLO, None)", 0.01241266216991735], ["'autoclave' (unit, GLO, None)", 0.026560343102228275], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105736782597], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0321333498878409], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429656953256e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279392462239], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415788064023e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.825689227187531e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007827421762078198], ["'wet wipe' (unit, GLO, None)", 0.03256387374790948], ["'autoclave' (unit, GLO, None)", 0.026560343102228275], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105736782597], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0321333498878409], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429656953256e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279392462239], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480701348253], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450613901424624], ["'marginal heating grid' (megajoule, GLO, None)", -0.0052992602618196286]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004563232204225556], ["'mechanical disinfection' (unit, GLO, None)", 0.006206331084958675], ["'autoclave' (unit, GLO, None)", 0.0199202573266712], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233544287625], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441518458393], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485931390651e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164668604322], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078940320072e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.4128446135937656e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004563232204225556], ["'wet wipe' (unit, GLO, None)", 0.03256387374790948], ["'autoclave' (unit, GLO, None)", 0.0199202573266712], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233544287625], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441518458393], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485931390651e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164668604322], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480701348253], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288643112021466], ["'marginal heating grid' (megajoule, GLO, None)", -0.00525513181568369]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.97195625572759e-05], ["'autoclave' (unit, GLO, None)", -1.8291689640629307e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038927568667526e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797762909522e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.0191707625666924e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.3702874595091406e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 1.5836016916344015e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251168073608e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092657051376e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602829449063e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984130070655], ["'mechanical disinfection' (unit, GLO, None)", 0.01241266216991735], ["'autoclave' (unit, GLO, None)", 0.026560343102228275], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105736782597], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0321333498878409], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429656953256e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279392462239], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415788064023e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.825689227187531e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984130070655], ["'wet wipe' (unit, GLO, None)", 0.03256387374790948], ["'autoclave' (unit, GLO, None)", 0.026560343102228275], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105736782597], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0321333498878409], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429656953256e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279392462239], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480701348253], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450613901424624], ["'marginal heating grid' (megajoule, GLO, None)", -0.0052992602618196286]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0247790503759232], ["'mechanical disinfection' (unit, GLO, None)", 0.006206331084958675], ["'autoclave' (unit, GLO, None)", 0.0199202573266712], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233544287625], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441518458393], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485931390651e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164668604322], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078940320072e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.4128446135937656e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0247790503759232], ["'wet wipe' (unit, GLO, None)", 0.03256387374790948], ["'autoclave' (unit, GLO, None)", 0.0199202573266712], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233544287625], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441518458393], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485931390651e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164668604322], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480701348253], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288643112021466], ["'marginal heating grid' (megajoule, GLO, None)", -0.00525513181568369]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.97195625572759e-05], ["'autoclave' (unit, GLO, None)", -1.8291689640629307e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038927568667526e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797762909522e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.0191707625666924e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874595091406e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016916344015e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251168073608e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092657051376e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602829449063e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.97195625572759e-05], ["'autoclave' (unit, GLO, None)", -1.8291689640629307e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549194928742003e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4173531292000876e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985086063482e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.0127805083777953e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602829449063e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399968482392], ["'autoclave' (unit, GLO, None)", -2.4388919520839077e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037191638603983e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050612198468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702042180961e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.637680689953236e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.856769339678045e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 4.766179848608393e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.21647456094652e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.181434551282078e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173872388314e-05]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399968482392], ["'autoclave' (unit, GLO, None)", -2.4388919520839077e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037191638603983e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050612198468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702042180961e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.637680689953236e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769339678045e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179848608393e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.21647456094652e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.181434551282078e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173872388314e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.0001434399968482392], ["'autoclave' (unit, GLO, None)", -2.4388919520839077e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407022180847e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294364997177705e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0171346947873114e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.758453793302156e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173872388314e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.278170142989784e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.8681010215491632e-05], ["'autoclave' (unit, GLO, None)", -3.658337928125863e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865334432285e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8613070677473196e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489531350822e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255042000646823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118031990705e-09], ["'marginal heating grid' (megajoule, GLO, None)", -5.068434149814358e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.278170142989784e-05], ["'wet wipe' (unit, GLO, None)", 1.95815031489662e-05], ["'autoclave' (unit, GLO, None)", -3.658337928125863e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865334432285e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8613070677473196e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489531350822e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255042000646823e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041736871246e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799791615570194e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.0432695949707584e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.609416360009958e-06], ["'mechanical disinfection' (unit, GLO, None)", 1.4340505107745816e-05], ["'autoclave' (unit, GLO, None)", -2.7437534460943962e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045087402104e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185523384525e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979062701644e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297214659849e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590159953455e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.534217074907179e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.609416360009958e-06], ["'wet wipe' (unit, GLO, None)", 1.95815031489662e-05], ["'autoclave' (unit, GLO, None)", -2.7437534460943962e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045087402104e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185523384525e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979062701644e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972146598484e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041736871246e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.153498571397073e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.017927424221686e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816892408931e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167350664116], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178133558905e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467017203516e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.659466145152655e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.6074914434597162e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 1.7589705506728093e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383399192225e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134410160998e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.155171088515886e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521667212084e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.8681010215491632e-05], ["'autoclave' (unit, GLO, None)", -3.658337928125863e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865334432285e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8613070677473196e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489531350822e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255042000646823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118031990705e-09], ["'marginal heating grid' (megajoule, GLO, None)", -5.068434149814358e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521667212084e-05], ["'wet wipe' (unit, GLO, None)", 1.95815031489662e-05], ["'autoclave' (unit, GLO, None)", -3.658337928125863e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865334432285e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8613070677473196e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489531350822e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255042000646823e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041736871246e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799791615570194e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.0432695949707584e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.81930000652665e-05], ["'mechanical disinfection' (unit, GLO, None)", 1.4340505107745816e-05], ["'autoclave' (unit, GLO, None)", -2.7437534460943962e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045087402104e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185523384525e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979062701644e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297214659849e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590159953455e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.534217074907179e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.81930000652665e-05], ["'wet wipe' (unit, GLO, None)", 1.95815031489662e-05], ["'autoclave' (unit, GLO, None)", -2.7437534460943962e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045087402104e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185523384525e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979062701644e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972146598484e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041736871246e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.153498571397073e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.017927424221686e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816892408931e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167350664116], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178133558905e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467017203516e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.659466145152655e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914434597162e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705506728093e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383399192225e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134410160998e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.155171088515886e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.551816892408931e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167350664116], ["'waste polypropylene' (kilogram, CH, None)", 2.844125838768862e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985371848995e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780114690107e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.7729774301017705e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.155171088515886e-06]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355773491691e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313421882], ["'waste polypropylene' (kilogram, CH, None)", 1.213760745277416e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714150396588e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719859234855e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.608585659474444e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.524396446823705e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 5.293989036005542e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789497143187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.62877025638338e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886347334857e-06]]</t>
+    <t>[["'H400' (unit, GLO, None)", 1.597355773491691e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313421882], ["'waste polypropylene' (kilogram, CH, None)", 1.213760745277416e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714150396588e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719859234855e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.608585659474444e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396446823705e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989036005542e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789497143187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.62877025638338e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886347334857e-06]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 1.597355773491691e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313421882], ["'waste polypropylene' (kilogram, CH, None)", 8.011622081039049e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724616829339e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479906156575e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.072390439649629e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886347334857e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.194483839446321e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.72294780965205e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470132824], ["'aluminium scrap' (kilogram, RER, None)", 4.9039576123711576e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179858160186e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443178530416e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623839015464e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172880653651e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.464579876531284e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.194483839446321e-06], ["'wet wipe' (unit, GLO, None)", 9.715466388400812e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470132824], ["'aluminium scrap' (kilogram, RER, None)", 4.9039576123711576e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179858160186e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443178530416e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623839015464e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458444137e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3973698743648467e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.680693837773074e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.301605451448032e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.861473904826025e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751025996174], ["'aluminium scrap' (kilogram, RER, None)", 2.928122643053848e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322300279399e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488635706083e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393058677884e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290864403268183e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.232289938265642e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.301605451448032e-06], ["'wet wipe' (unit, GLO, None)", 9.715466388400812e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751025996174], ["'aluminium scrap' (kilogram, RER, None)", 2.928122643053848e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322300279399e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488635706083e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930586778836e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458444137e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790099615865e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.658370938390417e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426231809425], ["'autoclave' (unit, GLO, None)", 0.002716220310863271], ["'waste polypropylene' (kilogram, CH, None)", 6.352133509279117e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001175893240508463], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002943700661253315], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002992141536912117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0004095387213023945], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238641428331e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132959367113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000759544023239334]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832167107559e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.72294780965205e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470132824], ["'aluminium scrap' (kilogram, RER, None)", 4.9039576123711576e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179858160186e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443178530416e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623839015464e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172880653651e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.464579876531284e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832167107559e-06], ["'wet wipe' (unit, GLO, None)", 9.715466388400812e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470132824], ["'aluminium scrap' (kilogram, RER, None)", 4.9039576123711576e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179858160186e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443178530416e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623839015464e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458444137e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3973698743648467e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.680693837773074e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886978403461e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.861473904826025e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751025996174], ["'aluminium scrap' (kilogram, RER, None)", 2.928122643053848e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322300279399e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488635706083e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393058677884e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290864403268183e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.232289938265642e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886978403461e-06], ["'wet wipe' (unit, GLO, None)", 9.715466388400812e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751025996174], ["'aluminium scrap' (kilogram, RER, None)", 2.928122643053848e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322300279399e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488635706083e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930586778836e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458444137e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790099615865e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.658370938390417e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426231809425], ["'autoclave' (unit, GLO, None)", 0.002716220310863271], ["'waste polypropylene' (kilogram, CH, None)", 6.352133509279117e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001175893240508463], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002943700661253315], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002992141536912117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387213023945], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238641428331e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132959367113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000759544023239334]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.006116426231809425], ["'autoclave' (unit, GLO, None)", 0.002716220310863271], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967094942217], ["'waste polyethylene' (kilogram, CH, None)", 5.120887778525021e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000783928827005642], ["'marginal heating grid' (megajoule, GLO, None)", -0.00196246710750221], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000759544023239334]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047248923521], ["'autoclave' (unit, GLO, None)", 0.003621627081151028], ["'waste polypropylene' (kilogram, CH, None)", 0.000179878173206689], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306453022445e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000336416557252022], ["'marginal heating grid' (megajoule, GLO, None)", -0.0008421764901132737], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.008421590418461257], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.001232592267997498], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435522321932], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369333227990736], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546737093707]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047248923521], ["'autoclave' (unit, GLO, None)", 0.003621627081151028], ["'waste polypropylene' (kilogram, CH, None)", 0.000179878173206689], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306453022445e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000336416557252022], ["'marginal heating grid' (megajoule, GLO, None)", -0.0008421764901132737], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590418461257], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001232592267997498], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435522321932], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369333227990736], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546737093707]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.01754047248923521], ["'autoclave' (unit, GLO, None)", 0.003621627081151028], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146746316106], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058094869044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002242777048346815], ["'marginal heating grid' (megajoule, GLO, None)", -0.005614509934088491], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546737093707]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001238237009004444], ["'mechanical disinfection' (unit, GLO, None)", 0.006515241278991031], ["'autoclave' (unit, GLO, None)", 0.005432440621726544], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848981344502913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137750718538], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739277649787e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396130836912], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740312573980545e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.941738686434379e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001238237009004444], ["'wet wipe' (unit, GLO, None)", 0.001441630503611605], ["'autoclave' (unit, GLO, None)", 0.005432440621726544], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848981344502913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137750718538], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739277649787e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396130836912], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998788011884e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791468902501], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029671970960236935]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007342706776107407], ["'mechanical disinfection' (unit, GLO, None)", 0.0032576206394955157], ["'autoclave' (unit, GLO, None)", 0.0040743304662949065], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766932252727], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01732043439233618], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855529957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0002377180503112979], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156286990247e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4708693432171896e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007342706776107407], ["'wet wipe' (unit, GLO, None)", 0.001441630503611605], ["'autoclave' (unit, GLO, None)", 0.0040743304662949065], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766932252727], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01732043439233618], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855529957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771805031129784], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998788011884e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089906032627], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002942488402591521]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933211900392], ["'autoclave' (unit, GLO, None)", 0.11495178028214043], ["'waste polypropylene' (kilogram, CH, None)", 0.017294967987613142], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850719929991], ["'marginal heating grid' (megajoule, GLO, None)", -0.011694919422018779], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04991519485337938], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.00544527404297848], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970354935884], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562268787121], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605531252563]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096427398121], ["'mechanical disinfection' (unit, GLO, None)", 0.006515241278991031], ["'autoclave' (unit, GLO, None)", 0.005432440621726544], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848981344502913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137750718538], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739277649787e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396130836912], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740312573980545e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.941738686434379e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096427398121], ["'wet wipe' (unit, GLO, None)", 0.001441630503611605], ["'autoclave' (unit, GLO, None)", 0.005432440621726544], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848981344502913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137750718538], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739277649787e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396130836912], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998788011884e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791468902501], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029671970960236935]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452917576031], ["'mechanical disinfection' (unit, GLO, None)", 0.0032576206394955157], ["'autoclave' (unit, GLO, None)", 0.0040743304662949065], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766932252727], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01732043439233618], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855529957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0002377180503112979], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156286990247e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4708693432171896e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452917576031], ["'wet wipe' (unit, GLO, None)", 0.001441630503611605], ["'autoclave' (unit, GLO, None)", 0.0040743304662949065], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766932252727], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01732043439233618], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855529957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771805031129784], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998788011884e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089906032627], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002942488402591521]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933211900392], ["'autoclave' (unit, GLO, None)", 0.11495178028214043], ["'waste polypropylene' (kilogram, CH, None)", 0.017294967987613142], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850719929991], ["'marginal heating grid' (megajoule, GLO, None)", -0.011694919422018779], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519485337938], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00544527404297848], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970354935884], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562268787121], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605531252563]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1232933211900392], ["'autoclave' (unit, GLO, None)", 0.11495178028214043], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100253462926], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056260801601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004799533275], ["'marginal heating grid' (megajoule, GLO, None)", -0.0779661294801252], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605531252563]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902945772769], ["'autoclave' (unit, GLO, None)", 0.15326904037618722], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547009576432], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017207432911], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355183333579], ["'marginal heating grid' (megajoule, GLO, None)", -0.03345851811848261], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1404897868389817], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.016388688867216783], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537933025563], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367781038836965], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292318341946]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902945772769], ["'autoclave' (unit, GLO, None)", 0.15326904037618722], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547009576432], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017207432911], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355183333579], ["'marginal heating grid' (megajoule, GLO, None)", -0.03345851811848261], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1404897868389817], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688867216783], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537933025563], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367781038836965], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292318341946]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.3534902945772769], ["'autoclave' (unit, GLO, None)", 0.15326904037618722], ["'waste polypropylene' (kilogram, CH, None)", 0.323270429675012], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634554491816], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236788889058], ["'marginal heating grid' (megajoule, GLO, None)", -0.22305678745655075], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292318341946]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03145709912995353], ["'mechanical disinfection' (unit, GLO, None)", 0.2674130219529286], ["'autoclave' (unit, GLO, None)", 0.2299035605642809], ["'aluminium scrap' (kilogram, RER, None)", 0.0415556181526828], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068089009013], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594811602497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885401572869], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824702147191e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00019632850752534343]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03145709912995353], ["'wet wipe' (unit, GLO, None)", 0.04043778529153358], ["'autoclave' (unit, GLO, None)", 0.2299035605642809], ["'aluminium scrap' (kilogram, RER, None)", 0.0415556181526828], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068089009013], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594811602497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885401572869], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529237950274], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284656168555], ["'marginal heating grid' (megajoule, GLO, None)", -0.011788267538205055]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01863639253343208], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065109764643], ["'autoclave' (unit, GLO, None)", 0.17242767042321064], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601591826453], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738912759216], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118962320499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417364053414], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412351073587e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.816425376267171e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01863639253343208], ["'wet wipe' (unit, GLO, None)", 0.04043778529153358], ["'autoclave' (unit, GLO, None)", 0.17242767042321064], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601591826453], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738912759216], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118962320499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.05095417364053413], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529237950274], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805326578282], ["'marginal heating grid' (megajoule, GLO, None)", -0.011690103284442381]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498016157722], ["'autoclave' (unit, GLO, None)", 0.0012325865423542099], ["'waste polypropylene' (kilogram, CH, None)", 1.9399937138883554e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037235042469e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011928856427477104], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0019186360345071407], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.00024353266742559043], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957427771915], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958065397448], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586046077557]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827558417226], ["'mechanical disinfection' (unit, GLO, None)", 0.2674130219529286], ["'autoclave' (unit, GLO, None)", 0.2299035605642809], ["'aluminium scrap' (kilogram, RER, None)", 0.0415556181526828], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068089009013], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594811602497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885401572869], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824702147191e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00019632850752534343]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827558417226], ["'wet wipe' (unit, GLO, None)", 0.04043778529153358], ["'autoclave' (unit, GLO, None)", 0.2299035605642809], ["'aluminium scrap' (kilogram, RER, None)", 0.0415556181526828], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068089009013], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594811602497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885401572869], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529237950274], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284656168555], ["'marginal heating grid' (megajoule, GLO, None)", -0.011788267538205055]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962218296905], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065109764643], ["'autoclave' (unit, GLO, None)", 0.17242767042321064], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601591826453], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738912759216], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118962320499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417364053414], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412351073587e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.816425376267171e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962218296905], ["'wet wipe' (unit, GLO, None)", 0.04043778529153358], ["'autoclave' (unit, GLO, None)", 0.17242767042321064], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601591826453], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738912759216], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118962320499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.05095417364053413], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529237950274], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805326578282], ["'marginal heating grid' (megajoule, GLO, None)", -0.011690103284442381]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498016157722], ["'autoclave' (unit, GLO, None)", 0.0012325865423542099], ["'waste polypropylene' (kilogram, CH, None)", 1.9399937138883554e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037235042469e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011928856427477104], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360345071407], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266742559043], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957427771915], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958065397448], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586046077557]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007527498016157722], ["'autoclave' (unit, GLO, None)", 0.0012325865423542099], ["'waste polypropylene' (kilogram, CH, None)", 1.287285548467974e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816325386288493e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.306024823361646e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.007952570951651403], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586046077557]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467005996458], ["'autoclave' (unit, GLO, None)", 0.0016434487231389466], ["'waste polypropylene' (kilogram, CH, None)", 5.493627058954876e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317815803182e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604697258541341e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034127798962006357], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00540013453420884], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0007329623971061459], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106420451451], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0048281572015204085], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667263999123]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467005996458], ["'autoclave' (unit, GLO, None)", 0.0016434487231389466], ["'waste polypropylene' (kilogram, CH, None)", 5.493627058954876e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317815803182e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604697258541341e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034127798962006357], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00540013453420884], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623971061459], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106420451451], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0048281572015204085], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667263999123]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.02155467005996458], ["'autoclave' (unit, GLO, None)", 0.0016434487231389466], ["'waste polypropylene' (kilogram, CH, None)", 3.6261564745576738e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270667482251966e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736464839027564e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.022751865974670903], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667263999123]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997890902530693], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532383971881], ["'autoclave' (unit, GLO, None)", 0.0024651730847084206], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713495400192], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723923168865], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561501876e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096054531127e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887345578313667e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0025572595919673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001997890902530693], ["'wet wipe' (unit, GLO, None)", 0.0013201850074539604], ["'autoclave' (unit, GLO, None)", 0.0024651730847084206], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713495400192], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723923168865], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561501876e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096054531127e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558194402596e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746741478616915e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001202407181422573]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001181368441601205], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266191985941], ["'autoclave' (unit, GLO, None)", 0.001848879813531315], ["'aluminium scrap' (kilogram, RER, None)", -7.942370541507115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322489048843], ["'waste plastic, mixture' (kilogram, CH, None)", -7.2597123003752e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834175856658], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367278915679e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0012786297959836e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001181368441601205], ["'wet wipe' (unit, GLO, None)", 0.0013201850074539604], ["'autoclave' (unit, GLO, None)", 0.001848879813531315], ["'aluminium scrap' (kilogram, RER, None)", -7.942370541507115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322489048843], ["'waste plastic, mixture' (kilogram, CH, None)", -7.2597123003752e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834175856655], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558194402596e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582304750725393e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011923943951246132]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332154801881], ["'autoclave' (unit, GLO, None)", 0.17693989713444863], ["'waste polypropylene' (kilogram, CH, None)", -6.194528129449518e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155719226447], ["'marginal heating grid' (megajoule, GLO, None)", -0.005710852772291631], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.001446273787555993], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0001537626991556699], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430872220497e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205734296749336], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0049413928621111144]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316755357394], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532383971881], ["'autoclave' (unit, GLO, None)", 0.0024651730847084206], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713495400192], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723923168865], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561501876e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096054531127e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887345578313667e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0025572595919673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316755357394], ["'wet wipe' (unit, GLO, None)", 0.0013201850074539604], ["'autoclave' (unit, GLO, None)", 0.0024651730847084206], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713495400192], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723923168865], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561501876e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096054531127e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558194402596e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746741478616915e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001202407181422573]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778562644805], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266191985941], ["'autoclave' (unit, GLO, None)", 0.001848879813531315], ["'aluminium scrap' (kilogram, RER, None)", -7.942370541507115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322489048843], ["'waste plastic, mixture' (kilogram, CH, None)", -7.2597123003752e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834175856658], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367278915679e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0012786297959836e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778562644805], ["'wet wipe' (unit, GLO, None)", 0.0013201850074539604], ["'autoclave' (unit, GLO, None)", 0.001848879813531315], ["'aluminium scrap' (kilogram, RER, None)", -7.942370541507115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322489048843], ["'waste plastic, mixture' (kilogram, CH, None)", -7.2597123003752e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834175856655], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558194402596e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582304750725393e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011923943951246132]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332154801881], ["'autoclave' (unit, GLO, None)", 0.17693989713444863], ["'waste polypropylene' (kilogram, CH, None)", -6.194528129449518e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155719226447], ["'marginal heating grid' (megajoule, GLO, None)", -0.005710852772291631], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446273787555993], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001537626991556699], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430872220497e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205734296749336], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0049413928621111144]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01012332154801881], ["'autoclave' (unit, GLO, None)", 0.17693989713444863], ["'waste polypropylene' (kilogram, CH, None)", -4.1103878242141665e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035551954566241e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721038128176315], ["'marginal heating grid' (megajoule, GLO, None)", -0.038072351815277544], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0049413928621111144]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985765631955], ["'autoclave' (unit, GLO, None)", 0.23591986284593153], ["'waste polypropylene' (kilogram, CH, None)", -1.754151423573088e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788123700856853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970282430743], ["'marginal heating grid' (megajoule, GLO, None)", -0.01633843415748157], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004070638143783424], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.0004627809392063852], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002104578213227357], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508657548380096], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.01405794994632244]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985765631955], ["'autoclave' (unit, GLO, None)", 0.23591986284593153], ["'waste polypropylene' (kilogram, CH, None)", -1.754151423573088e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788123700856853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970282430743], ["'marginal heating grid' (megajoule, GLO, None)", -0.01633843415748157], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070638143783424], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627809392063852], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002104578213227357], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508657548380096], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.01405794994632244]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.02981985765631955], ["'autoclave' (unit, GLO, None)", 0.23591986284593153], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578557251307512], ["'waste polyethylene' (kilogram, CH, None)", -1.5168994196011097e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646854953835], ["'marginal heating grid' (megajoule, GLO, None)", -0.10892289438321044], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.01405794994632244]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002997350518072406], ["'mechanical disinfection' (unit, GLO, None)", 0.17642833409310324], ["'autoclave' (unit, GLO, None)", 0.3538797942688974], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835462427073594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868172432981], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588790765406667e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655637682495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880488205566e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.587096422143997e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002997350518072406], ["'wet wipe' (unit, GLO, None)", 0.007110329583038636], ["'autoclave' (unit, GLO, None)", 0.3538797942688974], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835462427073594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868172432981], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588790765406667e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655637682495], ["'waste wipe incineration' (kilogram, CH, None)", -9.067292998565836e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038889512771389644], ["'marginal heating grid' (megajoule, GLO, None)", -0.0057564364423344444]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001791891717593917], ["'mechanical disinfection' (unit, GLO, None)", 0.08821416704655162], ["'autoclave' (unit, GLO, None)", 0.265409845701673], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781904496336], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521464730823113], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177581530813334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308672873077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440244102774e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.7935482110719986e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001791891717593917], ["'wet wipe' (unit, GLO, None)", 0.007110329583038636], ["'autoclave' (unit, GLO, None)", 0.265409845701673], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781904496336], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521464730823113], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177581530813334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308672873074], ["'waste wipe incineration' (kilogram, CH, None)", -9.067292998565836e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003856566874697946], ["'marginal heating grid' (megajoule, GLO, None)", -0.005708500960223724]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648227080118], ["'autoclave' (unit, GLO, None)", 0.00032629968275748526], ["'waste polypropylene' (kilogram, CH, None)", 2.849801369905402e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462470161124e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.8560930294291158e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00013137464757166723], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 1.0456521101220135e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020695026393845e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771472367472813e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002869189660774e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497560259892915], ["'mechanical disinfection' (unit, GLO, None)", 0.17642833409310324], ["'autoclave' (unit, GLO, None)", 0.3538797942688974], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835462427073594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868172432981], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588790765406667e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655637682495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880488205566e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.587096422143997e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497560259892915], ["'wet wipe' (unit, GLO, None)", 0.007110329583038636], ["'autoclave' (unit, GLO, None)", 0.3538797942688974], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835462427073594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868172432981], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588790765406667e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655637682495], ["'waste wipe incineration' (kilogram, CH, None)", -9.067292998565836e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038889512771389644], ["'marginal heating grid' (megajoule, GLO, None)", -0.0057564364423344444]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308964804104], ["'mechanical disinfection' (unit, GLO, None)", 0.08821416704655162], ["'autoclave' (unit, GLO, None)", 0.265409845701673], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781904496336], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521464730823113], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177581530813334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308672873077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440244102774e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.7935482110719986e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308964804104], ["'wet wipe' (unit, GLO, None)", 0.007110329583038636], ["'autoclave' (unit, GLO, None)", 0.265409845701673], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781904496336], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521464730823113], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177581530813334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308672873074], ["'waste wipe incineration' (kilogram, CH, None)", -9.067292998565836e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003856566874697946], ["'marginal heating grid' (megajoule, GLO, None)", -0.005708500960223724]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612648227080118], ["'autoclave' (unit, GLO, None)", 0.00032629968275748526], ["'waste polypropylene' (kilogram, CH, None)", 2.849801369905402e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462470161124e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.8560930294291158e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013137464757166723], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456521101220135e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020695026393845e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771472367472813e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002869189660774e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0002612648227080118], ["'autoclave' (unit, GLO, None)", 0.00032629968275748526], ["'waste polypropylene' (kilogram, CH, None)", 1.890989694049379e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629455167597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641646774083e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001237395352952744], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002869189660774e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00074888496496754], ["'autoclave' (unit, GLO, None)", 0.000435066243676647], ["'waste polypropylene' (kilogram, CH, None)", 8.069998271788195e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895585626051e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270087273506e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.310179575741213e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00036976308091363295], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 3.1471082926002346e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030993412352478e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597597849992342e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613734653491e-05]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.00074888496496754], ["'autoclave' (unit, GLO, None)", 0.000435066243676647], ["'waste polypropylene' (kilogram, CH, None)", 8.069998271788195e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895585626051e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270087273506e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.310179575741213e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976308091363295], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1471082926002346e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030993412352478e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597597849992342e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613734653491e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.00074888496496754], ["'autoclave' (unit, GLO, None)", 0.000435066243676647], ["'waste polypropylene' (kilogram, CH, None)", 5.326731532533463e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486727210046e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180058182353], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035401197171608086], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613734653491e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.37364506122885e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00012895509868587681], ["'autoclave' (unit, GLO, None)", 0.0006525993655149707], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452531080363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877300915532], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411655210423e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346737686556e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.707198927204821e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.115916930645326e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.37364506122885e-05], ["'wet wipe' (unit, GLO, None)", 7.156212237646342e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993655149707], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452531080363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877300915532], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411655210423e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346737686556e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543010657327e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634484260599e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.870908248030577e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.782847410833721e-05], ["'mechanical disinfection' (unit, GLO, None)", 6.447754934293841e-05], ["'autoclave' (unit, GLO, None)", 0.0004894495241362279], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082484125814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605339907759], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823310420846e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.001608785714383e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994636024083e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.557958465322663e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.782847410833721e-05], ["'wet wipe' (unit, GLO, None)", 7.156212237646342e-05], ["'autoclave' (unit, GLO, None)", 0.0004894495241362279], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082484125814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605339907759], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823310420846e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001001608785714383], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543010657327e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165274537900382e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.8553286633773506e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943683774693e-08], ["'autoclave' (unit, GLO, None)", -1.8381427782080275e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598020851016e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468508736725e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.246873433718454e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 9.689895240336679e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 2.0227278607207424e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531001615064e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171578294756e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570687009940702e-09]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639843050021], ["'mechanical disinfection' (unit, GLO, None)", 0.00012895509868587681], ["'autoclave' (unit, GLO, None)", 0.0006525993655149707], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452531080363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877300915532], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411655210423e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346737686556e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.707198927204821e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.115916930645326e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639843050021], ["'wet wipe' (unit, GLO, None)", 7.156212237646342e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993655149707], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452531080363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877300915532], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411655210423e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346737686556e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543010657327e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634484260599e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.870908248030577e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049238619795], ["'mechanical disinfection' (unit, GLO, None)", 6.447754934293841e-05], ["'autoclave' (unit, GLO, None)", 0.0004894495241362279], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082484125814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605339907759], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823310420846e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.001608785714383e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994636024083e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.557958465322663e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049238619795], ["'wet wipe' (unit, GLO, None)", 7.156212237646342e-05], ["'autoclave' (unit, GLO, None)", 0.0004894495241362279], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082484125814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605339907759], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823310420846e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001001608785714383], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543010657327e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165274537900382e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.8553286633773506e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943683774693e-08], ["'autoclave' (unit, GLO, None)", -1.8381427782080275e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598020851016e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468508736725e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.246873433718454e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895240336679e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278607207424e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531001615064e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171578294756e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570687009940702e-09]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 3.107943683774693e-08], ["'autoclave' (unit, GLO, None)", -1.8381427782080275e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976256826374e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.7147694286730317e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564567249115e-08], ["'marginal heating grid' (megajoule, GLO, None)", -6.164582289145636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570687009940702e-09]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348546916082e-08], ["'autoclave' (unit, GLO, None)", -2.4508570376107034e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798318054073e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098239799551e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931610691329e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.6454793843118075e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7272883954589993e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 6.087821716732331e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232860183905e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581910689454e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255576562244e-09]]</t>
+    <t>[["'H400' (unit, GLO, None)", 8.915348546916082e-08], ["'autoclave' (unit, GLO, None)", -2.4508570376107034e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798318054073e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098239799551e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931610691329e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.6454793843118075e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883954589993e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821716732331e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232860183905e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581910689454e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255576562244e-09]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 8.915348546916082e-08], ["'autoclave' (unit, GLO, None)", -2.4508570376107034e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454244581345e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536518286024e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.06528774046089e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.7636529228745382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255576562244e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.796235414437857e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027964878618e-07], ["'autoclave' (unit, GLO, None)", -3.676285556416056e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559625649205e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.794868746852846e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003704739e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137981922454e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673787687318e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.5523192550601707e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.796235414437857e-09], ["'wet wipe' (unit, GLO, None)", 9.851215154269382e-08], ["'autoclave' (unit, GLO, None)", -3.676285556416056e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559625649205e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.794868746852846e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003704739e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137981922454e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203595923763e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7339147160082095e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.320681399767828e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.569782875213407e-09], ["'mechanical disinfection' (unit, GLO, None)", 6.030513982439309e-08], ["'autoclave' (unit, GLO, None)", -2.7572141673120414e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630789873718e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.67147922273536e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007409478e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205523047898e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368938436513e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.761596275300854e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.569782875213407e-09], ["'wet wipe' (unit, GLO, None)", 9.851215154269382e-08], ["'autoclave' (unit, GLO, None)", -2.7572141673120414e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630789873718e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.67147922273536e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007409478e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205523047897e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203595923763e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.702821347069782e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.243065437014818e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187543691307], ["'autoclave' (unit, GLO, None)", 0.0002406014761306299], ["'waste polypropylene' (kilogram, CH, None)", 6.53968351531185e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907307296089136e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.7548156592295207e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00012053625762267103], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 1.3063240249675641e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259677527801e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952304926655906e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026686039032e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272610782914e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027964878618e-07], ["'autoclave' (unit, GLO, None)", -3.676285556416056e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559625649205e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.794868746852846e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003704739e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137981922454e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673787687318e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.5523192550601707e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272610782914e-08], ["'wet wipe' (unit, GLO, None)", 9.851215154269382e-08], ["'autoclave' (unit, GLO, None)", -3.676285556416056e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559625649205e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.794868746852846e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003704739e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137981922454e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203595923763e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7339147160082095e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.320681399767828e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293512585162e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.030513982439309e-08], ["'autoclave' (unit, GLO, None)", -2.7572141673120414e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630789873718e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.67147922273536e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007409478e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205523047898e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368938436513e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.761596275300854e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293512585162e-08], ["'wet wipe' (unit, GLO, None)", 9.851215154269382e-08], ["'autoclave' (unit, GLO, None)", -2.7572141673120414e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630789873718e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.67147922273536e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007409478e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205523047897e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203595923763e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.702821347069782e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.243065437014818e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187543691307], ["'autoclave' (unit, GLO, None)", 0.0002406014761306299], ["'waste polypropylene' (kilogram, CH, None)", 6.53968351531185e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907307296089136e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.7548156592295207e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625762267103], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240249675641e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259677527801e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952304926655906e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026686039032e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0002937187543691307], ["'autoclave' (unit, GLO, None)", 0.0002406014761306299], ["'waste polypropylene' (kilogram, CH, None)", 4.3394161643658065e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478294314752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382048640594243e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011698771061530138], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026686039032e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452304969618], ["'autoclave' (unit, GLO, None)", 0.00032080196817417316], ["'waste polypropylene' (kilogram, CH, None)", 1.851891687046253e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036689942634844e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645494765075e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0204306169381706e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00033925767873930584], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 3.931654832426649e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556904234646e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719697649554e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487312497119]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452304969618], ["'autoclave' (unit, GLO, None)", 0.00032080196817417316], ["'waste polypropylene' (kilogram, CH, None)", 1.851891687046253e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036689942634844e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645494765075e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0204306169381706e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767873930584], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654832426649e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556904234646e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719697649554e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487312497119]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.0008425452304969618], ["'autoclave' (unit, GLO, None)", 0.00032080196817417316], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707505255795e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453183699182e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096996510054e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00033469537446254466], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487312497119]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.597139532280596e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474642604730844], ["'autoclave' (unit, GLO, None)", 0.00048120295226125994], ["'aluminium scrap' (kilogram, RER, None)", 1.871157583989667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358675176707], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705216008435e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904340028696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643309812504e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.945897504090389e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.597139532280596e-05], ["'wet wipe' (unit, GLO, None)", 7.240358756195984e-05], ["'autoclave' (unit, GLO, None)", 0.00048120295226125994], ["'aluminium scrap' (kilogram, RER, None)", 1.871157583989667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358675176707], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705216008435e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904340028696e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332383363674e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305132412924443e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.7688224881893544e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.128689139144586e-05], ["'mechanical disinfection' (unit, GLO, None)", 9.737321302365422e-05], ["'autoclave' (unit, GLO, None)", 0.00036090221419594486], ["'aluminium scrap' (kilogram, RER, None)", 1.117256575909286e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622017143234], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741043201687e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788229090166464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216549062456e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.4729487520451946e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.128689139144586e-05], ["'wet wipe' (unit, GLO, None)", 7.240358756195984e-05], ["'autoclave' (unit, GLO, None)", 0.00036090221419594486], ["'aluminium scrap' (kilogram, RER, None)", 1.117256575909286e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622017143234], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741043201687e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229090166463], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332383363674e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061100247433883e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.754093000668902e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848640260709], ["'autoclave' (unit, GLO, None)", 0.00041334987771120165], ["'waste polypropylene' (kilogram, CH, None)", 4.470534415134473e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361112209453e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.8286801600044743e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00024974548472578496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 2.762205999471421e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098213972914583e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316209491355e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.676483337244163e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673936154427], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474642604730844], ["'autoclave' (unit, GLO, None)", 0.00048120295226125994], ["'aluminium scrap' (kilogram, RER, None)", 1.871157583989667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358675176707], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705216008435e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904340028696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643309812504e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.945897504090389e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673936154427], ["'wet wipe' (unit, GLO, None)", 7.240358756195984e-05], ["'autoclave' (unit, GLO, None)", 0.00048120295226125994], ["'aluminium scrap' (kilogram, RER, None)", 1.871157583989667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358675176707], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705216008435e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904340028696e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332383363674e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305132412924443e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.7688224881893544e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853504506451], ["'mechanical disinfection' (unit, GLO, None)", 9.737321302365422e-05], ["'autoclave' (unit, GLO, None)", 0.00036090221419594486], ["'aluminium scrap' (kilogram, RER, None)", 1.117256575909286e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622017143234], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741043201687e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788229090166464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216549062456e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.4729487520451946e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853504506451], ["'wet wipe' (unit, GLO, None)", 7.240358756195984e-05], ["'autoclave' (unit, GLO, None)", 0.00036090221419594486], ["'aluminium scrap' (kilogram, RER, None)", 1.117256575909286e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622017143234], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741043201687e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229090166463], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332383363674e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061100247433883e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.754093000668902e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848640260709], ["'autoclave' (unit, GLO, None)", 0.00041334987771120165], ["'waste polypropylene' (kilogram, CH, None)", 4.470534415134473e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361112209453e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.8286801600044743e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548472578496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205999471421e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098213972914583e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316209491355e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.676483337244163e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0004875848640260709], ["'autoclave' (unit, GLO, None)", 0.00041334987771120165], ["'waste polypropylene' (kilogram, CH, None)", 2.9664293782668e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730539830346e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417574074806301e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00025524534400029827], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.676483337244163e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529922842165], ["'autoclave' (unit, GLO, None)", 0.0005511331702816022], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550726969584e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576819262976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.75404871179795e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010953642336534512], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0007029260331686], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 8.313435532389714e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869133518973e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455270279257], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425696780071e-05]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529922842165], ["'autoclave' (unit, GLO, None)", 0.0005511331702816022], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550726969584e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576819262976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.75404871179795e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010953642336534512], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260331686], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435532389714e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869133518973e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455270279257], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425696780071e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.001396529922842165], ["'autoclave' (unit, GLO, None)", 0.0005511331702816022], ["'waste polypropylene' (kilogram, CH, None)", 8.356139093709297e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.078996146935742e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001836032474531968], ["'marginal heating grid' (megajoule, GLO, None)", -0.000730242822435634], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425696780071e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.236833749837874e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004684476318586067], ["'autoclave' (unit, GLO, None)", 0.0008266997554224035], ["'aluminium scrap' (kilogram, RER, None)", 1.7673587382712478e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741723277664], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828759996426e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701431364875e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257645741433e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.427398381132381e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.236833749837874e-05], ["'wet wipe' (unit, GLO, None)", 0.0010830399586158146], ["'autoclave' (unit, GLO, None)", 0.0008266997554224035], ["'aluminium scrap' (kilogram, RER, None)", 1.7673587382712478e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741723277664], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828759996426e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701431364875e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688156931716e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703198125200025e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.859240445844776e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.491696334049057e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381592930335], ["'autoclave' (unit, GLO, None)", 0.0006200248165668025], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789295886445e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170988886503], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657519992852e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525485594e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128822870695e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.2136991905661907e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.491696334049057e-05], ["'wet wipe' (unit, GLO, None)", 0.0010830399586158146], ["'autoclave' (unit, GLO, None)", 0.0006200248165668025], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789295886445e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170988886503], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657519992852e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525485594e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688156931716e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396836971341e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.8271034539391136e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374186365376], ["'autoclave' (unit, GLO, None)", 0.0004220355390944841], ["'waste polypropylene' (kilogram, CH, None)", 4.519055433915455e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745193516155e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.046181802824494e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002702196891397971], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 3.0062456999128123e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690978654399e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7084264429231866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312272909095e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694719003331], ["'mechanical disinfection' (unit, GLO, None)", 0.0004684476318586067], ["'autoclave' (unit, GLO, None)", 0.0008266997554224035], ["'aluminium scrap' (kilogram, RER, None)", 1.7673587382712478e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741723277664], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828759996426e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701431364875e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257645741433e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.427398381132381e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694719003331], ["'wet wipe' (unit, GLO, None)", 0.0010830399586158146], ["'autoclave' (unit, GLO, None)", 0.0008266997554224035], ["'aluminium scrap' (kilogram, RER, None)", 1.7673587382712478e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741723277664], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828759996426e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701431364875e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688156931716e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703198125200025e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.859240445844776e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687392797], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381592930335], ["'autoclave' (unit, GLO, None)", 0.0006200248165668025], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789295886445e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170988886503], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657519992852e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525485594e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128822870695e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.2136991905661907e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687392797], ["'wet wipe' (unit, GLO, None)", 0.0010830399586158146], ["'autoclave' (unit, GLO, None)", 0.0006200248165668025], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789295886445e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170988886503], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657519992852e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525485594e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688156931716e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396836971341e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.8271034539391136e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374186365376], ["'autoclave' (unit, GLO, None)", 0.0004220355390944841], ["'waste polypropylene' (kilogram, CH, None)", 4.519055433915455e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745193516155e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.046181802824494e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002702196891397971], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456999128123e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690978654399e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7084264429231866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312272909095e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005212374186365376], ["'autoclave' (unit, GLO, None)", 0.0004220355390944841], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255682990402e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067891692529e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496795677436e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00026974545352163295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312272909095e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175627717679], ["'autoclave' (unit, GLO, None)", 0.0005627140521259787], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951368938159e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900087576917e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245291947167e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011575902515889999], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0007605521051947931], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 9.047923951193901e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258931572399e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173078656865], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036940932049e-05]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175627717679], ["'autoclave' (unit, GLO, None)", 0.0005627140521259787], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951368938159e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900087576917e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245291947167e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011575902515889999], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521051947931], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923951193901e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258931572399e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173078656865], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036940932049e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.001493175627717679], ["'autoclave' (unit, GLO, None)", 0.0005627140521259787], ["'waste polypropylene' (kilogram, CH, None)", 8.446832586757861e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006441274604e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763496861298124], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007717268343926665], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036940932049e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.542920747590567e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00047937384862607366], ["'autoclave' (unit, GLO, None)", 0.0008440710781889685], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879838539998e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133093894859], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159330246144e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565997876354e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.651511875850314e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.792529352781211e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.542920747590567e-05], ["'wet wipe' (unit, GLO, None)", 0.0016808440335478573], ["'autoclave' (unit, GLO, None)", 0.0008440710781889685], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879838539998e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133093894859], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159330246144e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565997876354e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744349011596e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916269461037493e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.078478173189366e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.674050131068914e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692431303683], ["'autoclave' (unit, GLO, None)", 0.0006330533086417262], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859560132203e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487209663275], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318660492287e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590138578195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559379251548e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.3962646763906055e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.674050131068914e-05], ["'wet wipe' (unit, GLO, None)", 0.0016808440335478573], ["'autoclave' (unit, GLO, None)", 0.0006330533086417262], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859560132203e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487209663275], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318660492287e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590138578195e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744349011596e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693867245e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.04451552642546e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981155178312], ["'autoclave' (unit, GLO, None)", 0.0005822019868211771], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618818235694e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434616032558e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0661054658820576e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009525025802858562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.00011080135792221098], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533385917307e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251699871872], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282323164784]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623095988], ["'mechanical disinfection' (unit, GLO, None)", 0.00047937384862607366], ["'autoclave' (unit, GLO, None)", 0.0008440710781889685], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879838539998e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133093894859], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159330246144e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565997876354e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.651511875850314e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.792529352781211e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623095988], ["'wet wipe' (unit, GLO, None)", 0.0016808440335478573], ["'autoclave' (unit, GLO, None)", 0.0008440710781889685], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879838539998e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133093894859], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159330246144e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565997876354e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744349011596e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916269461037493e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.078478173189366e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020402021573], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692431303683], ["'autoclave' (unit, GLO, None)", 0.0006330533086417262], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859560132203e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487209663275], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318660492287e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590138578195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559379251548e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.3962646763906055e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020402021573], ["'wet wipe' (unit, GLO, None)", 0.0016808440335478573], ["'autoclave' (unit, GLO, None)", 0.0006330533086417262], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859560132203e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487209663275], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318660492287e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590138578195e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744349011596e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693867245e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.04451552642546e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981155178312], ["'autoclave' (unit, GLO, None)", 0.0005822019868211771], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618818235694e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434616032558e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0661054658820576e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025802858562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135792221098], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533385917307e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251699871872], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282323164784]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.001802981155178312], ["'autoclave' (unit, GLO, None)", 0.0005822019868211771], ["'waste polypropylene' (kilogram, CH, None)", 8.925176972847984e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553540933203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089564106883724e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003377403643921372], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282323164784]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367498428735], ["'autoclave' (unit, GLO, None)", 0.0007762693157615695], ["'waste polypropylene' (kilogram, CH, None)", 3.808913553201323e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440323200857e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.449951315761246e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00014493847747357866], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0026808847458376747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.00033347981510568355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077187288722e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648366161092], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517660925677]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367498428735], ["'autoclave' (unit, GLO, None)", 0.0007762693157615695], ["'waste polypropylene' (kilogram, CH, None)", 3.808913553201323e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440323200857e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.449951315761246e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00014493847747357866], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847458376747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033347981510568355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077187288722e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648366161092], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517660925677]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.005190367498428735], ["'autoclave' (unit, GLO, None)", 0.0007762693157615695], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134358548728], ["'waste polyethylene' (kilogram, CH, None)", 2.845961795686893e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008771741652], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009662565164905243], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517660925677]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0006417387338054277], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740225863319], ["'autoclave' (unit, GLO, None)", 0.0011644039736423545], ["'aluminium scrap' (kilogram, RER, None)", 9.40357286293191e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436552888074], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434910989386e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153434490629e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869356492924e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.50472661838073e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0006417387338054277], ["'wet wipe' (unit, GLO, None)", 0.010861422351787395], ["'autoclave' (unit, GLO, None)", 0.0011644039736423545], ["'aluminium scrap' (kilogram, RER, None)", 9.40357286293191e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436552888074], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434910989386e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153434490629e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922935677383e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787416137e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.106542803205708e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003793332984371446], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148701129316595], ["'autoclave' (unit, GLO, None)", 0.0008733029802317657], ["'aluminium scrap' (kilogram, RER, None)", 5.614814972318657e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071930099961], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869821978772e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987727091763e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934678246444e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.252363309190365e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003793332984371446], ["'wet wipe' (unit, GLO, None)", 0.010861422351787395], ["'autoclave' (unit, GLO, None)", 0.0008733029802317657], ["'aluminium scrap' (kilogram, RER, None)", 5.614814972318657e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071930099961], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869821978772e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00041369877270917626], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922935677383e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908069354554e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.064019170113804e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.32989174233156e-10], ["'autoclave' (unit, GLO, None)", 1.9197084793361892e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846529290111e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125565084775e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.137750872991606e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.837873343555351e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 5.093294995295116e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998062104825e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964207022434268e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330226095470536e-11]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990077410637], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740225863319], ["'autoclave' (unit, GLO, None)", 0.0011644039736423545], ["'aluminium scrap' (kilogram, RER, None)", 9.40357286293191e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436552888074], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434910989386e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153434490629e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869356492924e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.50472661838073e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990077410637], ["'wet wipe' (unit, GLO, None)", 0.010861422351787395], ["'autoclave' (unit, GLO, None)", 0.0011644039736423545], ["'aluminium scrap' (kilogram, RER, None)", 9.40357286293191e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436552888074], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434910989386e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153434490629e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922935677383e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787416137e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.106542803205708e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932953786265], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148701129316595], ["'autoclave' (unit, GLO, None)", 0.0008733029802317657], ["'aluminium scrap' (kilogram, RER, None)", 5.614814972318657e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071930099961], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869821978772e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987727091763e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934678246444e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.252363309190365e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932953786265], ["'wet wipe' (unit, GLO, None)", 0.010861422351787395], ["'autoclave' (unit, GLO, None)", 0.0008733029802317657], ["'aluminium scrap' (kilogram, RER, None)", 5.614814972318657e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071930099961], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869821978772e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00041369877270917626], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922935677383e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908069354554e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.064019170113804e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.32989174233156e-10], ["'autoclave' (unit, GLO, None)", 1.9197084793361892e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846529290111e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125565084775e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.137750872991606e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873343555351e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294995295116e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998062104825e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964207022434268e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330226095470536e-11]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 9.32989174233156e-10], ["'autoclave' (unit, GLO, None)", 1.9197084793361892e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300033454185e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784136727628e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750376723183e-10], ["'marginal heating grid' (megajoule, GLO, None)", -7.585005819944041e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330226095470536e-11]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934541754374e-09], ["'autoclave' (unit, GLO, None)", 2.5596113057815855e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266339952372e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932573567248e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469543478275e-10], ["'marginal heating grid' (megajoule, GLO, None)", -3.255042367084377e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.361653093384784e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 1.5329334451859084e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876995324562e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.3701991612490905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390272097472e-10]]</t>
+    <t>[["'H400' (unit, GLO, None)", 2.679934541754374e-09], ["'autoclave' (unit, GLO, None)", 2.5596113057815855e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266339952372e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932573567248e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469543478275e-10], ["'marginal heating grid' (megajoule, GLO, None)", -3.255042367084377e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.361653093384784e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334451859084e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876995324562e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.3701991612490905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390272097472e-10]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 2.679934541754374e-09], ["'autoclave' (unit, GLO, None)", 2.5596113057815855e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.495859164353292e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037495781985e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979695652189e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.1700282447229182e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390272097472e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.25335551779315e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722391853935e-09], ["'autoclave' (unit, GLO, None)", 3.839416958672379e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343459940336e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647995694142e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229599585686e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.744988488108572e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787345623672e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.9099997423628244e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.25335551779315e-10], ["'wet wipe' (unit, GLO, None)", 4.979514046355072e-10], ["'autoclave' (unit, GLO, None)", 3.839416958672379e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343459940336e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647995694142e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229599585686e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.744988488108572e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028566556188e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.054015211265469e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.1468323293788211e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.407749700051532e-11], ["'mechanical disinfection' (unit, GLO, None)", 9.753611959269674e-10], ["'autoclave' (unit, GLO, None)", 2.879562719004284e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669007833973e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979668268164e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245919917137e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124559626696e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893672811827e-13], ["'marginal heating grid' (megajoule, GLO, None)", -9.549998711814122e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 7.407749700051532e-11], ["'wet wipe' (unit, GLO, None)", 4.979514046355072e-10], ["'autoclave' (unit, GLO, None)", 2.879562719004284e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669007833973e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979668268164e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245919917137e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245596266963e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028566556188e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.02025627453736e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.1372823306670069e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419977428301e-07], ["'autoclave' (unit, GLO, None)", 2.3557948596929223e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553163203958e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844134159900646e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.083636920395339e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.1918114303372586e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 2.357979177737429e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276615188648e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419045348218e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417664784124e-08]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.115628035574533e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722391853935e-09], ["'autoclave' (unit, GLO, None)", 3.839416958672379e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343459940336e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647995694142e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229599585686e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.744988488108572e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787345623672e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.9099997423628244e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.115628035574533e-10], ["'wet wipe' (unit, GLO, None)", 4.979514046355072e-10], ["'autoclave' (unit, GLO, None)", 3.839416958672379e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343459940336e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647995694142e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229599585686e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.744988488108572e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028566556188e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.054015211265469e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.1468323293788211e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174969988033e-10], ["'mechanical disinfection' (unit, GLO, None)", 9.753611959269674e-10], ["'autoclave' (unit, GLO, None)", 2.879562719004284e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669007833973e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979668268164e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245919917137e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124559626696e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893672811827e-13], ["'marginal heating grid' (megajoule, GLO, None)", -9.549998711814122e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174969988033e-10], ["'wet wipe' (unit, GLO, None)", 4.979514046355072e-10], ["'autoclave' (unit, GLO, None)", 2.879562719004284e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669007833973e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979668268164e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245919917137e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245596266963e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028566556188e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.02025627453736e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.1372823306670069e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419977428301e-07], ["'autoclave' (unit, GLO, None)", 2.3557948596929223e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553163203958e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844134159900646e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.083636920395339e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114303372586e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979177737429e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276615188648e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419045348218e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417664784124e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.401419977428301e-07], ["'autoclave' (unit, GLO, None)", 2.3557948596929223e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567718456169e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.420272819929606e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627561066004303e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0557579469302262e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417664784124e-08]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507914289122e-06], ["'autoclave' (unit, GLO, None)", 3.141059812923896e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211293932703e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816475334804e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.09978553761349e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.822114804623381e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.169005681412814e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 7.096830534937893e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828856569895e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940972811882e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826101468648e-07]]</t>
+    <t>[["'H400' (unit, GLO, None)", 1.261507914289122e-06], ["'autoclave' (unit, GLO, None)", 3.141059812923896e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211293932703e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816475334804e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.09978553761349e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.822114804623381e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005681412814e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830534937893e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828856569895e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940972811882e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826101468648e-07]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 1.261507914289122e-06], ["'autoclave' (unit, GLO, None)", 3.141059812923896e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202174213006e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780571727422e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903584089939e-08], ["'marginal heating grid' (megajoule, GLO, None)", -5.88140986974892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826101468648e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.787755429139421e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.5389551254833566e-07], ["'autoclave' (unit, GLO, None)", 4.711589719385846e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226603997983e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427447764963e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879950699115e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739999643727e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.45334178976503e-11], ["'marginal heating grid' (megajoule, GLO, None)", -5.17665673857852e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.787755429139421e-08], ["'wet wipe' (unit, GLO, None)", 1.3536805261481254e-07], ["'autoclave' (unit, GLO, None)", 4.711589719385846e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226603997983e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427447764963e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879950699115e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739999643727e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005177132276e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817798602621e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.108250317643669e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.417551774888387e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775627416783e-07], ["'autoclave' (unit, GLO, None)", 3.5336922895393835e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496225232112e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747986841355e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775990139823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348324276896e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266708948825065e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.58832836928926e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.417551774888387e-08], ["'wet wipe' (unit, GLO, None)", 1.3536805261481254e-07], ["'autoclave' (unit, GLO, None)", 3.5336922895393835e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496225232112e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747986841355e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775990139823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348324276895e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005177132276e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842551089653805e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.082367033950776e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384662145908], ["'autoclave' (unit, GLO, None)", 0.002277034841696899], ["'waste polypropylene' (kilogram, CH, None)", 3.488480804310018e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758596171901e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0017940475265593753], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04075824943214496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.004061377925456134], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144800595757], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791283817436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258921206119215e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685206867025e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.5389551254833566e-07], ["'autoclave' (unit, GLO, None)", 4.711589719385846e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226603997983e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427447764963e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879950699115e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739999643727e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.45334178976503e-11], ["'marginal heating grid' (megajoule, GLO, None)", -5.17665673857852e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685206867025e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805261481254e-07], ["'autoclave' (unit, GLO, None)", 4.711589719385846e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226603997983e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427447764963e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879950699115e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739999643727e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005177132276e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817798602621e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.108250317643669e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460574434907e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775627416783e-07], ["'autoclave' (unit, GLO, None)", 3.5336922895393835e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496225232112e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747986841355e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775990139823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348324276896e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266708948825065e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.58832836928926e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460574434907e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805261481254e-07], ["'autoclave' (unit, GLO, None)", 3.5336922895393835e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496225232112e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747986841355e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775990139823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348324276895e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005177132276e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842551089653805e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.082367033950776e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384662145908], ["'autoclave' (unit, GLO, None)", 0.002277034841696899], ["'waste polypropylene' (kilogram, CH, None)", 3.488480804310018e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758596171901e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0017940475265593753], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824943214496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377925456134], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144800595757], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791283817436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258921206119215e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05619384662145908], ["'autoclave' (unit, GLO, None)", 0.002277034841696899], ["'waste polypropylene' (kilogram, CH, None)", 0.0002314786328093563], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380532550776e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004273839064114601], ["'marginal heating grid' (megajoule, GLO, None)", -0.011960316843729168], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258921206119215e-07]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628556781826], ["'autoclave' (unit, GLO, None)", 0.0030360464555958654], ["'waste polypropylene' (kilogram, CH, None)", 9.878595174821827e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077297399181e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340826037620503], ["'marginal heating grid' (megajoule, GLO, None)", -0.005132670821125166], ["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11471692720967953], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", 0.012223564630013608], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114323665343], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074038922358], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116361279434095e-06]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628556781826], ["'autoclave' (unit, GLO, None)", 0.0030360464555958654], ["'waste polypropylene' (kilogram, CH, None)", 9.878595174821827e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077297399181e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340826037620503], ["'marginal heating grid' (megajoule, GLO, None)", -0.005132670821125166], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692720967953], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564630013608], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114323665343], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074038922358], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116361279434095e-06]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.1607628556781826], ["'autoclave' (unit, GLO, None)", 0.0030360464555958654], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524867869192], ["'waste polyethylene' (kilogram, CH, None)", 8.322717106779394e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227217358413678], ["'marginal heating grid' (megajoule, GLO, None)", -0.03421780547416777], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116361279434095e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002402334906690005], ["'mechanical disinfection' (unit, GLO, None)", 0.003536636522107254], ["'autoclave' (unit, GLO, None)", 0.0045540696833938], ["'aluminium scrap' (kilogram, RER, None)", 0.000666791750596878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997255424005], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804429e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965260863343216e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063609621987e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.011758017381323e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002402334906690005], ["'wet wipe' (unit, GLO, None)", 0.01260025444826999], ["'autoclave' (unit, GLO, None)", 0.0045540696833938], ["'aluminium scrap' (kilogram, RER, None)", 0.000666791750596878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997255424005], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804429e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965260863343216e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437281020746e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928870774287e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018083675018332242]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001392201835804126], ["'mechanical disinfection' (unit, GLO, None)", 0.001768318261053627], ["'autoclave' (unit, GLO, None)", 0.003415552262545349], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813721435903406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00346452000275832], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608858e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329345167252862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.38103180481098e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.5058790086906615e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001392201835804126], ["'wet wipe' (unit, GLO, None)", 0.01260025444826999], ["'autoclave' (unit, GLO, None)", 0.003415552262545349], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813721435903406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00346452000275832], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608858e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332934516725286e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437281020746e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118552726193e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0017933087117463175]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642872460727], ["'mechanical disinfection' (unit, GLO, None)", 0.003536636522107254], ["'autoclave' (unit, GLO, None)", 0.0045540696833938], ["'aluminium scrap' (kilogram, RER, None)", 0.000666791750596878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997255424005], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804429e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965260863343216e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063609621987e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.011758017381323e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642872460727], ["'wet wipe' (unit, GLO, None)", 0.01260025444826999], ["'autoclave' (unit, GLO, None)", 0.0045540696833938], ["'aluminium scrap' (kilogram, RER, None)", 0.000666791750596878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997255424005], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804429e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965260863343216e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437281020746e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928870774287e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018083675018332242]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168838017], ["'mechanical disinfection' (unit, GLO, None)", 0.001768318261053627], ["'autoclave' (unit, GLO, None)", 0.003415552262545349], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813721435903406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00346452000275832], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608858e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329345167252862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.38103180481098e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.5058790086906615e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168838017], ["'wet wipe' (unit, GLO, None)", 0.01260025444826999], ["'autoclave' (unit, GLO, None)", 0.003415552262545349], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813721435903406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00346452000275832], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608858e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332934516725286e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437281020746e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118552726193e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0017933087117463175]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509624729586], ["'autoclave' (unit, GLO, None)", 0.0005799645485189725], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812396649305e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483398205464e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8690875612815488e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659225698078], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360352640087e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140500379755e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518668761726e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703146037205e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509624729586], ["'autoclave' (unit, GLO, None)", 0.0005799645485189725], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389534225239e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943371873808e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963222654703094e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001912725040854366], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703146037205e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385788298101], ["'autoclave' (unit, GLO, None)", 0.0007732860646919634], ["'waste polypropylene' (kilogram, CH, None)", 5.255722575873589e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351264575628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587011351017046e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.208300945786341e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279277627041], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593892542162e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039573016734e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503292286554], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812069027939065]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385788298101], ["'autoclave' (unit, GLO, None)", 0.0007732860646919634], ["'waste polypropylene' (kilogram, CH, None)", 3.4691238124578145e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112239945479e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724674234011377], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005472200630524227], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812069027939065]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731990508225], ["'mechanical disinfection' (unit, GLO, None)", 0.0005279122960549709], ["'autoclave' (unit, GLO, None)", 0.0011599290970379455], ["'aluminium scrap' (kilogram, RER, None)", 5.8021550135336e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854398096031], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748189279563e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205556743034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429869398325e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.816481914406381e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731990508225], ["'wet wipe' (unit, GLO, None)", 0.0002303881951635546], ["'autoclave' (unit, GLO, None)", 0.0011599290970379455], ["'aluminium scrap' (kilogram, RER, None)", 5.8021550135336e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854398096031], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748189279563e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205556743034e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953093520643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310290349615692e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8919884389494067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632855543571], ["'mechanical disinfection' (unit, GLO, None)", 0.00026395614802748543], ["'autoclave' (unit, GLO, None)", 0.0008699468227784589], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307346330083e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138235300825], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349637855913e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.849514601627557e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214934699144e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.4082409572031903e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632855543571], ["'wet wipe' (unit, GLO, None)", 0.0002303881951635546], ["'autoclave' (unit, GLO, None)", 0.0008699468227784589], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307346330083e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138235300825], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349637855913e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495146016275568], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953093520643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.21987321531533e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.24108820026872e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8679060293773745e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325575935521], ["'autoclave' (unit, GLO, None)", 0.05129836583440029], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032599917], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851806656185], ["'marginal heating grid' (megajoule, GLO, None)", -0.017238873396891657], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649478542545], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01346619389736235], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372803159034], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453558720702], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479465789574]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325575935521], ["'autoclave' (unit, GLO, None)", 0.05129836583440029], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629108356], ["'waste polyethylene' (kilogram, CH, None)", 0.02210672052865119], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567871104123], ["'marginal heating grid' (megajoule, GLO, None)", -0.11492582264594438], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479465789574]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752972012203], ["'autoclave' (unit, GLO, None)", 0.06839782111253372], ["'waste polypropylene' (kilogram, CH, None)", 0.0778230589605397], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279303887538], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395051393743776], ["'marginal heating grid' (megajoule, GLO, None)", -0.049319464040613485], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36326662439606505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040529321438663383], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381621620747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911433016064], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375364049825403]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752972012203], ["'autoclave' (unit, GLO, None)", 0.06839782111253372], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835574953116], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383487998088], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034262495862], ["'marginal heating grid' (megajoule, GLO, None)", -0.3287964269374232], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375364049825403]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345608690963], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177811705376], ["'autoclave' (unit, GLO, None)", 0.10259673166880061], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355498746282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613690209668], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874262950664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001536689672241025], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.314100941505321e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002893976575039844]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345608690963], ["'wet wipe' (unit, GLO, None)", 0.05462332866177044], ["'autoclave' (unit, GLO, None)", 0.10259673166880061], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355498746282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613690209668], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874262950664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001536689672241025], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832862600354], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890333230731732], ["'marginal heating grid' (megajoule, GLO, None)", -0.017376473007346755]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058093144218], ["'mechanical disinfection' (unit, GLO, None)", 0.02547588905852688], ["'autoclave' (unit, GLO, None)", 0.07694754875160044], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127944957984], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539480932068], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748525901328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0025715500606537625], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504707526587e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001446988287519922]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058093144218], ["'wet wipe' (unit, GLO, None)", 0.05462332866177044], ["'autoclave' (unit, GLO, None)", 0.07694754875160044], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127944957984], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539480932068], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748525901328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02571550060653762], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832862600354], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876721086375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824628183656484], ["'marginal heating grid' (megajoule, GLO, None)", -0.01723177417859476]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693276897513], ["'autoclave' (unit, GLO, None)", 0.022422924865755624], ["'waste polypropylene' (kilogram, CH, None)", 0.001433560325772361], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038295881124062814], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007754420358016251], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002191312077764329], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552579141451307], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173526599129], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853483018887], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726834256415]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693276897513], ["'autoclave' (unit, GLO, None)", 0.022422924865755624], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409638302582], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520094814358], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587416041878], ["'marginal heating grid' (megajoule, GLO, None)", -0.0051696135720108345], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726834256415]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403397677116], ["'autoclave' (unit, GLO, None)", 0.029897233154340834], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521296346032], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172206221], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239938175903], ["'marginal heating grid' (megajoule, GLO, None)", -0.0022184968077550945], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600218873112], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640324126121], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497968709892], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01494888305075743], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841286151887712]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403397677116], ["'autoclave' (unit, GLO, None)", 0.029897233154340834], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201078946], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266860582446], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159958783941], ["'marginal heating grid' (megajoule, GLO, None)", -0.014789978718367295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841286151887712]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532297926007], ["'mechanical disinfection' (unit, GLO, None)", 0.031852918650502306], ["'autoclave' (unit, GLO, None)", 0.04484584973151126], ["'aluminium scrap' (kilogram, RER, None)", 0.001307690050268392], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757483404646], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658742922e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122359463466504e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226065974695e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.301773634068075e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532297926007], ["'wet wipe' (unit, GLO, None)", 0.0016886971995246976], ["'autoclave' (unit, GLO, None)", 0.04484584973151126], ["'aluminium scrap' (kilogram, RER, None)", 0.001307690050268392], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757483404646], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658742922e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122359463466504e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297772232977e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003860155645465922], ["'marginal heating grid' (megajoule, GLO, None)", -0.00078163156568564]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723134335402], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459325251153], ["'autoclave' (unit, GLO, None)", 0.03363438729863344], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136099356844], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984308573015], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317485844e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726398224935426e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613032987263e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.508868170340375e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723134335402], ["'wet wipe' (unit, GLO, None)", 0.0016886971995246976], ["'autoclave' (unit, GLO, None)", 0.03363438729863344], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136099356844], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984308573015], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317485844e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726398224935425], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297772232977e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335199910268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011032432944], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007751226975152996]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00782234131866967], ["'autoclave' (unit, GLO, None)", 0.026502074391753207], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899211445], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008895719464], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009940232285696332], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336218196102], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003192075298597423], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484411205321], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511887003693], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744267115525]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.00782234131866967], ["'autoclave' (unit, GLO, None)", 0.026502074391753207], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710078879682], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355628088726], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059304796424], ["'marginal heating grid' (megajoule, GLO, None)", -0.0066268215237975546], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744267115525]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575545910409], ["'autoclave' (unit, GLO, None)", 0.03533609918900427], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227519725976], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132051776052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572145844636], ["'marginal heating grid' (megajoule, GLO, None)", -0.002843845519847845], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00836866154128042], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216918108747], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796231828958], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01958454052677097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525620686256]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575545910409], ["'autoclave' (unit, GLO, None)", 0.03533609918900427], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354951797094], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768751790138], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00901771476389643], ["'marginal heating grid' (megajoule, GLO, None)", -0.018958970132318967], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525620686256]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833453812803], ["'mechanical disinfection' (unit, GLO, None)", 0.038731919097836444], ["'autoclave' (unit, GLO, None)", 0.053004148783506434], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352329926103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904102977331], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976144708974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475509056535682e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146863239501e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6687169006326652e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833453812803], ["'wet wipe' (unit, GLO, None)", 0.0017911167033300708], ["'autoclave' (unit, GLO, None)", 0.053004148783506434], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352329926103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904102977331], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976144708974e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475509056535682e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.299026979628764e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747567342656], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010019574598784588]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108774991757], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959548918222], ["'autoclave' (unit, GLO, None)", 0.039753111587629814], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971631852919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098420417597], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228941795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183212279041945], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.96857343161974e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.343584503163326e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108774991757], ["'wet wipe' (unit, GLO, None)", 0.0017911167033300708], ["'autoclave' (unit, GLO, None)", 0.039753111587629814], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971631852919], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098420417597], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228941795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183212279041944], ["'waste wipe incineration' (kilogram, CH, None)", 4.299026979628764e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054518042243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061833026469], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009936138753752954]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931462976383], ["'autoclave' (unit, GLO, None)", 2.0531715881076096], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178350279166], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999249256584133], ["'marginal heating grid' (megajoule, GLO, None)", -0.0780044459402673], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36128077320527424], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093800215354], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046356106437], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534575250151297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169572868921]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931462976383], ["'autoclave' (unit, GLO, None)", 2.0531715881076096], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594980091782], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023450714914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999499504389422], ["'marginal heating grid' (megajoule, GLO, None)", -0.5200296396017821], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169572868921]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865635073131], ["'autoclave' (unit, GLO, None)", 2.737562117476813], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243365743806], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425244638333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052574672551], ["'marginal heating grid' (megajoule, GLO, None)", -0.2231664087313658], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498583592156], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822418233657862], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158393380068], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485985958112], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626245082307466]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865635073131], ["'autoclave' (unit, GLO, None)", 2.737562117476813], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352056596574], ["'waste polyethylene' (kilogram, CH, None)", 0.1933352318716047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368383115038], ["'marginal heating grid' (megajoule, GLO, None)", -1.4877760582091053], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626245082307466]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252582898794], ["'mechanical disinfection' (unit, GLO, None)", 2.140537903673106], ["'autoclave' (unit, GLO, None)", 4.106343176215221], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888887703856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045810483354], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073487912374], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401651128333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00040288749483838147], ["'marginal heating grid' (megajoule, GLO, None)", -0.0013094999545666321]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252582898794], ["'wet wipe' (unit, GLO, None)", 0.1450637818302995], ["'autoclave' (unit, GLO, None)", 4.106343176215221], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888887703856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045810483354], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073487912374], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401651128333], ["'waste wipe incineration' (kilogram, CH, None)", 0.0002161309139941728], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080976479666], ["'marginal heating grid' (megajoule, GLO, None)", -0.07862707255443352]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449858972671], ["'mechanical disinfection' (unit, GLO, None)", 1.070268951836553], ["'autoclave' (unit, GLO, None)", 3.079757382161415], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273147188146], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181778175024], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014697582475], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0029291831353061275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437474191902], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006547499772833161]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449858972671], ["'wet wipe' (unit, GLO, None)", 0.1450637818302995], ["'autoclave' (unit, GLO, None)", 3.079757382161415], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273147188146], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181778175024], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014697582475], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.029291831353061272], ["'waste wipe incineration' (kilogram, CH, None)", 0.0002161309139941728], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262112968261], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989366017377525], ["'marginal heating grid' (megajoule, GLO, None)", -0.07797232257715019]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192406258804], ["'autoclave' (unit, GLO, None)", 0.013280171551114134], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584177703862], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589727772333], ["'marginal heating grid' (megajoule, GLO, None)", -0.005257296846837873], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930692210494], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942581957823], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428708948756], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959905451432], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888122133122]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192406258804], ["'autoclave' (unit, GLO, None)", 0.013280171551114134], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069874924992], ["'waste polyethylene' (kilogram, CH, None)", 8.01787414275759e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864393151848224], ["'marginal heating grid' (megajoule, GLO, None)", -0.035048645645585824], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888122133122]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337213521456], ["'autoclave' (unit, GLO, None)", 0.017706895401485512], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249538172215], ["'waste polyethylene' (kilogram, CH, None)", 3.628446482761e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647673860985], ["'marginal heating grid' (megajoule, GLO, None)", -0.015040835721619909], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28151129431718275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361168999268], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896681237658], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805607169418], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436842341036]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337213521456], ["'autoclave' (unit, GLO, None)", 0.017706895401485512], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746126549277], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880842694802], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804317825739922], ["'marginal heating grid' (megajoule, GLO, None)", -0.10027223814413272], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436842341036]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984130070655], ["'mechanical disinfection' (unit, GLO, None)", 0.01241266216991735], ["'autoclave' (unit, GLO, None)", 0.026560343102228275], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105736782597], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0321333498878409], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429656953256e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279392462239], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415788064023e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.825689227187531e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984130070655], ["'wet wipe' (unit, GLO, None)", 0.03256387374790948], ["'autoclave' (unit, GLO, None)", 0.026560343102228275], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105736782597], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0321333498878409], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429656953256e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279392462239], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480701348253], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450613901424624], ["'marginal heating grid' (megajoule, GLO, None)", -0.0052992602618196286]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0247790503759232], ["'mechanical disinfection' (unit, GLO, None)", 0.006206331084958675], ["'autoclave' (unit, GLO, None)", 0.0199202573266712], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233544287625], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441518458393], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485931390651e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164668604322], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078940320072e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.4128446135937656e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0247790503759232], ["'wet wipe' (unit, GLO, None)", 0.03256387374790948], ["'autoclave' (unit, GLO, None)", 0.0199202573266712], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233544287625], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441518458393], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485931390651e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164668604322], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480701348253], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296857779605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288643112021466], ["'marginal heating grid' (megajoule, GLO, None)", -0.00525513181568369]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.97195625572759e-05], ["'autoclave' (unit, GLO, None)", -1.8291689640629307e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038927568667526e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797762909522e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.0191707625666924e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874595091406e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016916344015e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251168073608e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092657051376e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602829449063e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.97195625572759e-05], ["'autoclave' (unit, GLO, None)", -1.8291689640629307e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549194928742003e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4173531292000876e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985086063482e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.0127805083777953e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602829449063e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399968482392], ["'autoclave' (unit, GLO, None)", -2.4388919520839077e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037191638603983e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050612198468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702042180961e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.637680689953236e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769339678045e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179848608393e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.21647456094652e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.181434551282078e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173872388314e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399968482392], ["'autoclave' (unit, GLO, None)", -2.4388919520839077e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407022180847e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294364997177705e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0171346947873114e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.758453793302156e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173872388314e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521667212084e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.8681010215491632e-05], ["'autoclave' (unit, GLO, None)", -3.658337928125863e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865334432285e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8613070677473196e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489531350822e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255042000646823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118031990705e-09], ["'marginal heating grid' (megajoule, GLO, None)", -5.068434149814358e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521667212084e-05], ["'wet wipe' (unit, GLO, None)", 1.95815031489662e-05], ["'autoclave' (unit, GLO, None)", -3.658337928125863e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865334432285e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8613070677473196e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489531350822e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255042000646823e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041736871246e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799791615570194e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.0432695949707584e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.81930000652665e-05], ["'mechanical disinfection' (unit, GLO, None)", 1.4340505107745816e-05], ["'autoclave' (unit, GLO, None)", -2.7437534460943962e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045087402104e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185523384525e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979062701644e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297214659849e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590159953455e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.534217074907179e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.81930000652665e-05], ["'wet wipe' (unit, GLO, None)", 1.95815031489662e-05], ["'autoclave' (unit, GLO, None)", -2.7437534460943962e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045087402104e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185523384525e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979062701644e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972146598484e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041736871246e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.12367938215694e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.153498571397073e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.017927424221686e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816892408931e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167350664116], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178133558905e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467017203516e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.659466145152655e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914434597162e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705506728093e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383399192225e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134410160998e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.155171088515886e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816892408931e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167350664116], ["'waste polypropylene' (kilogram, CH, None)", 2.844125838768862e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985371848995e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780114690107e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.7729774301017705e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.155171088515886e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355773491691e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313421882], ["'waste polypropylene' (kilogram, CH, None)", 1.213760745277416e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714150396588e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719859234855e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.608585659474444e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396446823705e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989036005542e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789497143187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.62877025638338e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886347334857e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355773491691e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313421882], ["'waste polypropylene' (kilogram, CH, None)", 8.011622081039049e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724616829339e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479906156575e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.072390439649629e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886347334857e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832167107559e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.72294780965205e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470132824], ["'aluminium scrap' (kilogram, RER, None)", 4.9039576123711576e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179858160186e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443178530416e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623839015464e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172880653651e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.464579876531284e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832167107559e-06], ["'wet wipe' (unit, GLO, None)", 9.715466388400812e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470132824], ["'aluminium scrap' (kilogram, RER, None)", 4.9039576123711576e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179858160186e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443178530416e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623839015464e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458444137e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3973698743648467e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.680693837773074e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886978403461e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.861473904826025e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751025996174], ["'aluminium scrap' (kilogram, RER, None)", 2.928122643053848e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322300279399e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488635706083e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393058677884e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290864403268183e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.232289938265642e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886978403461e-06], ["'wet wipe' (unit, GLO, None)", 9.715466388400812e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751025996174], ["'aluminium scrap' (kilogram, RER, None)", 2.928122643053848e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322300279399e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488635706083e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930586778836e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458444137e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735083262091e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790099615865e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.658370938390417e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426231809425], ["'autoclave' (unit, GLO, None)", 0.002716220310863271], ["'waste polypropylene' (kilogram, CH, None)", 6.352133509279117e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001175893240508463], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002943700661253315], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002992141536912117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387213023945], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238641428331e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132959367113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000759544023239334]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426231809425], ["'autoclave' (unit, GLO, None)", 0.002716220310863271], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967094942217], ["'waste polyethylene' (kilogram, CH, None)", 5.120887778525021e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000783928827005642], ["'marginal heating grid' (megajoule, GLO, None)", -0.00196246710750221], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000759544023239334]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047248923521], ["'autoclave' (unit, GLO, None)", 0.003621627081151028], ["'waste polypropylene' (kilogram, CH, None)", 0.000179878173206689], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306453022445e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000336416557252022], ["'marginal heating grid' (megajoule, GLO, None)", -0.0008421764901132737], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590418461257], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001232592267997498], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435522321932], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369333227990736], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546737093707]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047248923521], ["'autoclave' (unit, GLO, None)", 0.003621627081151028], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146746316106], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058094869044], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002242777048346815], ["'marginal heating grid' (megajoule, GLO, None)", -0.005614509934088491], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546737093707]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096427398121], ["'mechanical disinfection' (unit, GLO, None)", 0.006515241278991031], ["'autoclave' (unit, GLO, None)", 0.005432440621726544], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848981344502913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137750718538], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739277649787e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396130836912], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740312573980545e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.941738686434379e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096427398121], ["'wet wipe' (unit, GLO, None)", 0.001441630503611605], ["'autoclave' (unit, GLO, None)", 0.005432440621726544], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848981344502913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137750718538], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739277649787e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396130836912], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998788011884e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791468902501], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029671970960236935]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452917576031], ["'mechanical disinfection' (unit, GLO, None)", 0.0032576206394955157], ["'autoclave' (unit, GLO, None)", 0.0040743304662949065], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766932252727], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01732043439233618], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855529957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0002377180503112979], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156286990247e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4708693432171896e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452917576031], ["'wet wipe' (unit, GLO, None)", 0.001441630503611605], ["'autoclave' (unit, GLO, None)", 0.0040743304662949065], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766932252727], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01732043439233618], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855529957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771805031129784], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998788011884e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809736715643e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089906032627], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002942488402591521]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933211900392], ["'autoclave' (unit, GLO, None)", 0.11495178028214043], ["'waste polypropylene' (kilogram, CH, None)", 0.017294967987613142], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850719929991], ["'marginal heating grid' (megajoule, GLO, None)", -0.011694919422018779], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519485337938], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00544527404297848], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970354935884], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562268787121], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605531252563]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933211900392], ["'autoclave' (unit, GLO, None)", 0.11495178028214043], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100253462926], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056260801601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004799533275], ["'marginal heating grid' (megajoule, GLO, None)", -0.0779661294801252], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605531252563]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902945772769], ["'autoclave' (unit, GLO, None)", 0.15326904037618722], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547009576432], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017207432911], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355183333579], ["'marginal heating grid' (megajoule, GLO, None)", -0.03345851811848261], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1404897868389817], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688867216783], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537933025563], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367781038836965], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292318341946]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902945772769], ["'autoclave' (unit, GLO, None)", 0.15326904037618722], ["'waste polypropylene' (kilogram, CH, None)", 0.323270429675012], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634554491816], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236788889058], ["'marginal heating grid' (megajoule, GLO, None)", -0.22305678745655075], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292318341946]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827558417226], ["'mechanical disinfection' (unit, GLO, None)", 0.2674130219529286], ["'autoclave' (unit, GLO, None)", 0.2299035605642809], ["'aluminium scrap' (kilogram, RER, None)", 0.0415556181526828], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068089009013], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594811602497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885401572869], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824702147191e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00019632850752534343]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827558417226], ["'wet wipe' (unit, GLO, None)", 0.04043778529153358], ["'autoclave' (unit, GLO, None)", 0.2299035605642809], ["'aluminium scrap' (kilogram, RER, None)", 0.0415556181526828], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068089009013], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594811602497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885401572869], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529237950274], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284656168555], ["'marginal heating grid' (megajoule, GLO, None)", -0.011788267538205055]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962218296905], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065109764643], ["'autoclave' (unit, GLO, None)", 0.17242767042321064], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601591826453], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738912759216], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118962320499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417364053414], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412351073587e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.816425376267171e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962218296905], ["'wet wipe' (unit, GLO, None)", 0.04043778529153358], ["'autoclave' (unit, GLO, None)", 0.17242767042321064], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601591826453], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738912759216], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118962320499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.05095417364053413], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529237950274], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519015507213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805326578282], ["'marginal heating grid' (megajoule, GLO, None)", -0.011690103284442381]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498016157722], ["'autoclave' (unit, GLO, None)", 0.0012325865423542099], ["'waste polypropylene' (kilogram, CH, None)", 1.9399937138883554e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037235042469e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011928856427477104], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360345071407], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266742559043], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957427771915], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958065397448], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586046077557]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498016157722], ["'autoclave' (unit, GLO, None)", 0.0012325865423542099], ["'waste polypropylene' (kilogram, CH, None)", 1.287285548467974e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816325386288493e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.306024823361646e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.007952570951651403], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586046077557]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467005996458], ["'autoclave' (unit, GLO, None)", 0.0016434487231389466], ["'waste polypropylene' (kilogram, CH, None)", 5.493627058954876e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317815803182e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604697258541341e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034127798962006357], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00540013453420884], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623971061459], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106420451451], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0048281572015204085], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667263999123]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467005996458], ["'autoclave' (unit, GLO, None)", 0.0016434487231389466], ["'waste polypropylene' (kilogram, CH, None)", 3.6261564745576738e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270667482251966e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736464839027564e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.022751865974670903], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667263999123]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316755357394], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532383971881], ["'autoclave' (unit, GLO, None)", 0.0024651730847084206], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713495400192], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723923168865], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561501876e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096054531127e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887345578313667e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0025572595919673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316755357394], ["'wet wipe' (unit, GLO, None)", 0.0013201850074539604], ["'autoclave' (unit, GLO, None)", 0.0024651730847084206], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713495400192], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723923168865], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561501876e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096054531127e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558194402596e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746741478616915e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001202407181422573]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778562644805], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266191985941], ["'autoclave' (unit, GLO, None)", 0.001848879813531315], ["'aluminium scrap' (kilogram, RER, None)", -7.942370541507115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322489048843], ["'waste plastic, mixture' (kilogram, CH, None)", -7.2597123003752e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834175856658], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367278915679e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0012786297959836e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778562644805], ["'wet wipe' (unit, GLO, None)", 0.0013201850074539604], ["'autoclave' (unit, GLO, None)", 0.001848879813531315], ["'aluminium scrap' (kilogram, RER, None)", -7.942370541507115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322489048843], ["'waste plastic, mixture' (kilogram, CH, None)", -7.2597123003752e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834175856655], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558194402596e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210171487007507e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582304750725393e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011923943951246132]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332154801881], ["'autoclave' (unit, GLO, None)", 0.17693989713444863], ["'waste polypropylene' (kilogram, CH, None)", -6.194528129449518e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155719226447], ["'marginal heating grid' (megajoule, GLO, None)", -0.005710852772291631], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446273787555993], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001537626991556699], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430872220497e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205734296749336], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0049413928621111144]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332154801881], ["'autoclave' (unit, GLO, None)", 0.17693989713444863], ["'waste polypropylene' (kilogram, CH, None)", -4.1103878242141665e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035551954566241e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721038128176315], ["'marginal heating grid' (megajoule, GLO, None)", -0.038072351815277544], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0049413928621111144]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985765631955], ["'autoclave' (unit, GLO, None)", 0.23591986284593153], ["'waste polypropylene' (kilogram, CH, None)", -1.754151423573088e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788123700856853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970282430743], ["'marginal heating grid' (megajoule, GLO, None)", -0.01633843415748157], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070638143783424], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627809392063852], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002104578213227357], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508657548380096], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.01405794994632244]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985765631955], ["'autoclave' (unit, GLO, None)", 0.23591986284593153], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578557251307512], ["'waste polyethylene' (kilogram, CH, None)", -1.5168994196011097e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646854953835], ["'marginal heating grid' (megajoule, GLO, None)", -0.10892289438321044], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.01405794994632244]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497560259892915], ["'mechanical disinfection' (unit, GLO, None)", 0.17642833409310324], ["'autoclave' (unit, GLO, None)", 0.3538797942688974], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835462427073594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868172432981], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588790765406667e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655637682495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880488205566e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.587096422143997e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497560259892915], ["'wet wipe' (unit, GLO, None)", 0.007110329583038636], ["'autoclave' (unit, GLO, None)", 0.3538797942688974], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835462427073594], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868172432981], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588790765406667e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655637682495], ["'waste wipe incineration' (kilogram, CH, None)", -9.067292998565836e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038889512771389644], ["'marginal heating grid' (megajoule, GLO, None)", -0.0057564364423344444]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308964804104], ["'mechanical disinfection' (unit, GLO, None)", 0.08821416704655162], ["'autoclave' (unit, GLO, None)", 0.265409845701673], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781904496336], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521464730823113], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177581530813334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308672873077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440244102774e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.7935482110719986e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308964804104], ["'wet wipe' (unit, GLO, None)", 0.007110329583038636], ["'autoclave' (unit, GLO, None)", 0.265409845701673], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781904496336], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521464730823113], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177581530813334e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308672873074], ["'waste wipe incineration' (kilogram, CH, None)", -9.067292998565836e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549864691165341e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003856566874697946], ["'marginal heating grid' (megajoule, GLO, None)", -0.005708500960223724]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648227080118], ["'autoclave' (unit, GLO, None)", 0.00032629968275748526], ["'waste polypropylene' (kilogram, CH, None)", 2.849801369905402e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462470161124e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.8560930294291158e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013137464757166723], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456521101220135e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020695026393845e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771472367472813e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002869189660774e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648227080118], ["'autoclave' (unit, GLO, None)", 0.00032629968275748526], ["'waste polypropylene' (kilogram, CH, None)", 1.890989694049379e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629455167597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641646774083e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001237395352952744], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002869189660774e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00074888496496754], ["'autoclave' (unit, GLO, None)", 0.000435066243676647], ["'waste polypropylene' (kilogram, CH, None)", 8.069998271788195e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895585626051e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270087273506e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.310179575741213e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976308091363295], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1471082926002346e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030993412352478e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597597849992342e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613734653491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00074888496496754], ["'autoclave' (unit, GLO, None)", 0.000435066243676647], ["'waste polypropylene' (kilogram, CH, None)", 5.326731532533463e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486727210046e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180058182353], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035401197171608086], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613734653491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639843050021], ["'mechanical disinfection' (unit, GLO, None)", 0.00012895509868587681], ["'autoclave' (unit, GLO, None)", 0.0006525993655149707], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452531080363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877300915532], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411655210423e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346737686556e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.707198927204821e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.115916930645326e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639843050021], ["'wet wipe' (unit, GLO, None)", 7.156212237646342e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993655149707], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452531080363], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877300915532], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411655210423e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346737686556e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543010657327e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634484260599e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.870908248030577e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049238619795], ["'mechanical disinfection' (unit, GLO, None)", 6.447754934293841e-05], ["'autoclave' (unit, GLO, None)", 0.0004894495241362279], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082484125814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605339907759], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823310420846e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.001608785714383e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994636024083e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.557958465322663e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049238619795], ["'wet wipe' (unit, GLO, None)", 7.156212237646342e-05], ["'autoclave' (unit, GLO, None)", 0.0004894495241362279], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082484125814], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605339907759], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823310420846e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001001608785714383], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543010657327e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778687940408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165274537900382e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.8553286633773506e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943683774693e-08], ["'autoclave' (unit, GLO, None)", -1.8381427782080275e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598020851016e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468508736725e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.246873433718454e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895240336679e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278607207424e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531001615064e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171578294756e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570687009940702e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943683774693e-08], ["'autoclave' (unit, GLO, None)", -1.8381427782080275e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976256826374e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.7147694286730317e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564567249115e-08], ["'marginal heating grid' (megajoule, GLO, None)", -6.164582289145636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570687009940702e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348546916082e-08], ["'autoclave' (unit, GLO, None)", -2.4508570376107034e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798318054073e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098239799551e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931610691329e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.6454793843118075e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883954589993e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821716732331e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232860183905e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581910689454e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255576562244e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348546916082e-08], ["'autoclave' (unit, GLO, None)", -2.4508570376107034e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454244581345e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536518286024e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.06528774046089e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.7636529228745382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255576562244e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272610782914e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027964878618e-07], ["'autoclave' (unit, GLO, None)", -3.676285556416056e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559625649205e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.794868746852846e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003704739e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137981922454e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673787687318e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.5523192550601707e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272610782914e-08], ["'wet wipe' (unit, GLO, None)", 9.851215154269382e-08], ["'autoclave' (unit, GLO, None)", -3.676285556416056e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559625649205e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.794868746852846e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003704739e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137981922454e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203595923763e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7339147160082095e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.320681399767828e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293512585162e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.030513982439309e-08], ["'autoclave' (unit, GLO, None)", -2.7572141673120414e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630789873718e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.67147922273536e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007409478e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205523047898e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368938436513e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.761596275300854e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293512585162e-08], ["'wet wipe' (unit, GLO, None)", 9.851215154269382e-08], ["'autoclave' (unit, GLO, None)", -2.7572141673120414e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630789873718e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.67147922273536e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007409478e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205523047897e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203595923763e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747967724957e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.702821347069782e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.243065437014818e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187543691307], ["'autoclave' (unit, GLO, None)", 0.0002406014761306299], ["'waste polypropylene' (kilogram, CH, None)", 6.53968351531185e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907307296089136e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.7548156592295207e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625762267103], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240249675641e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259677527801e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952304926655906e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026686039032e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187543691307], ["'autoclave' (unit, GLO, None)", 0.0002406014761306299], ["'waste polypropylene' (kilogram, CH, None)", 4.3394161643658065e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478294314752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382048640594243e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011698771061530138], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026686039032e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452304969618], ["'autoclave' (unit, GLO, None)", 0.00032080196817417316], ["'waste polypropylene' (kilogram, CH, None)", 1.851891687046253e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036689942634844e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645494765075e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0204306169381706e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767873930584], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654832426649e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556904234646e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719697649554e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487312497119]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452304969618], ["'autoclave' (unit, GLO, None)", 0.00032080196817417316], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707505255795e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453183699182e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096996510054e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00033469537446254466], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487312497119]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673936154427], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474642604730844], ["'autoclave' (unit, GLO, None)", 0.00048120295226125994], ["'aluminium scrap' (kilogram, RER, None)", 1.871157583989667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358675176707], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705216008435e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904340028696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643309812504e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.945897504090389e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673936154427], ["'wet wipe' (unit, GLO, None)", 7.240358756195984e-05], ["'autoclave' (unit, GLO, None)", 0.00048120295226125994], ["'aluminium scrap' (kilogram, RER, None)", 1.871157583989667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358675176707], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705216008435e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904340028696e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332383363674e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305132412924443e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.7688224881893544e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853504506451], ["'mechanical disinfection' (unit, GLO, None)", 9.737321302365422e-05], ["'autoclave' (unit, GLO, None)", 0.00036090221419594486], ["'aluminium scrap' (kilogram, RER, None)", 1.117256575909286e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622017143234], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741043201687e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788229090166464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216549062456e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.4729487520451946e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853504506451], ["'wet wipe' (unit, GLO, None)", 7.240358756195984e-05], ["'autoclave' (unit, GLO, None)", 0.00036090221419594486], ["'aluminium scrap' (kilogram, RER, None)", 1.117256575909286e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622017143234], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741043201687e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229090166463], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332383363674e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216424763521e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061100247433883e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.754093000668902e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848640260709], ["'autoclave' (unit, GLO, None)", 0.00041334987771120165], ["'waste polypropylene' (kilogram, CH, None)", 4.470534415134473e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361112209453e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.8286801600044743e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548472578496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205999471421e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098213972914583e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316209491355e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.676483337244163e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848640260709], ["'autoclave' (unit, GLO, None)", 0.00041334987771120165], ["'waste polypropylene' (kilogram, CH, None)", 2.9664293782668e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730539830346e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417574074806301e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00025524534400029827], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.676483337244163e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529922842165], ["'autoclave' (unit, GLO, None)", 0.0005511331702816022], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550726969584e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576819262976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.75404871179795e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010953642336534512], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260331686], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435532389714e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869133518973e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455270279257], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425696780071e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529922842165], ["'autoclave' (unit, GLO, None)", 0.0005511331702816022], ["'waste polypropylene' (kilogram, CH, None)", 8.356139093709297e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.078996146935742e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001836032474531968], ["'marginal heating grid' (megajoule, GLO, None)", -0.000730242822435634], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425696780071e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694719003331], ["'mechanical disinfection' (unit, GLO, None)", 0.0004684476318586067], ["'autoclave' (unit, GLO, None)", 0.0008266997554224035], ["'aluminium scrap' (kilogram, RER, None)", 1.7673587382712478e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741723277664], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828759996426e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701431364875e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257645741433e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.427398381132381e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694719003331], ["'wet wipe' (unit, GLO, None)", 0.0010830399586158146], ["'autoclave' (unit, GLO, None)", 0.0008266997554224035], ["'aluminium scrap' (kilogram, RER, None)", 1.7673587382712478e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741723277664], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828759996426e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701431364875e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688156931716e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703198125200025e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.859240445844776e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687392797], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381592930335], ["'autoclave' (unit, GLO, None)", 0.0006200248165668025], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789295886445e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170988886503], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657519992852e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525485594e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128822870695e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.2136991905661907e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687392797], ["'wet wipe' (unit, GLO, None)", 0.0010830399586158146], ["'autoclave' (unit, GLO, None)", 0.0006200248165668025], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789295886445e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170988886503], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657519992852e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525485594e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688156931716e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346119451868e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396836971341e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.8271034539391136e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374186365376], ["'autoclave' (unit, GLO, None)", 0.0004220355390944841], ["'waste polypropylene' (kilogram, CH, None)", 4.519055433915455e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745193516155e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.046181802824494e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002702196891397971], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456999128123e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690978654399e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7084264429231866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312272909095e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374186365376], ["'autoclave' (unit, GLO, None)", 0.0004220355390944841], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255682990402e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067891692529e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496795677436e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00026974545352163295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312272909095e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175627717679], ["'autoclave' (unit, GLO, None)", 0.0005627140521259787], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951368938159e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900087576917e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245291947167e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011575902515889999], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521051947931], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923951193901e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258931572399e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173078656865], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036940932049e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175627717679], ["'autoclave' (unit, GLO, None)", 0.0005627140521259787], ["'waste polypropylene' (kilogram, CH, None)", 8.446832586757861e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006441274604e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763496861298124], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007717268343926665], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036940932049e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623095988], ["'mechanical disinfection' (unit, GLO, None)", 0.00047937384862607366], ["'autoclave' (unit, GLO, None)", 0.0008440710781889685], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879838539998e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133093894859], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159330246144e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565997876354e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.651511875850314e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.792529352781211e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623095988], ["'wet wipe' (unit, GLO, None)", 0.0016808440335478573], ["'autoclave' (unit, GLO, None)", 0.0008440710781889685], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879838539998e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133093894859], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159330246144e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565997876354e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744349011596e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916269461037493e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.078478173189366e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020402021573], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692431303683], ["'autoclave' (unit, GLO, None)", 0.0006330533086417262], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859560132203e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487209663275], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318660492287e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590138578195e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559379251548e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.3962646763906055e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020402021573], ["'wet wipe' (unit, GLO, None)", 0.0016808440335478573], ["'autoclave' (unit, GLO, None)", 0.0006330533086417262], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859560132203e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487209663275], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318660492287e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590138578195e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744349011596e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112794972291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693867245e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.04451552642546e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981155178312], ["'autoclave' (unit, GLO, None)", 0.0005822019868211771], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618818235694e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434616032558e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0661054658820576e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025802858562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135792221098], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533385917307e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251699871872], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282323164784]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981155178312], ["'autoclave' (unit, GLO, None)", 0.0005822019868211771], ["'waste polypropylene' (kilogram, CH, None)", 8.925176972847984e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553540933203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089564106883724e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003377403643921372], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282323164784]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367498428735], ["'autoclave' (unit, GLO, None)", 0.0007762693157615695], ["'waste polypropylene' (kilogram, CH, None)", 3.808913553201323e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440323200857e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.449951315761246e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00014493847747357866], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847458376747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033347981510568355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077187288722e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648366161092], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517660925677]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367498428735], ["'autoclave' (unit, GLO, None)", 0.0007762693157615695], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134358548728], ["'waste polyethylene' (kilogram, CH, None)", 2.845961795686893e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008771741652], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009662565164905243], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517660925677]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990077410637], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740225863319], ["'autoclave' (unit, GLO, None)", 0.0011644039736423545], ["'aluminium scrap' (kilogram, RER, None)", 9.40357286293191e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436552888074], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434910989386e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153434490629e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869356492924e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.50472661838073e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990077410637], ["'wet wipe' (unit, GLO, None)", 0.010861422351787395], ["'autoclave' (unit, GLO, None)", 0.0011644039736423545], ["'aluminium scrap' (kilogram, RER, None)", 9.40357286293191e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436552888074], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434910989386e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153434490629e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922935677383e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787416137e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.106542803205708e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932953786265], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148701129316595], ["'autoclave' (unit, GLO, None)", 0.0008733029802317657], ["'aluminium scrap' (kilogram, RER, None)", 5.614814972318657e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071930099961], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869821978772e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987727091763e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934678246444e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.252363309190365e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932953786265], ["'wet wipe' (unit, GLO, None)", 0.010861422351787395], ["'autoclave' (unit, GLO, None)", 0.0008733029802317657], ["'aluminium scrap' (kilogram, RER, None)", 5.614814972318657e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071930099961], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869821978772e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00041369877270917626], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922935677383e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832681729285e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908069354554e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.064019170113804e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.32989174233156e-10], ["'autoclave' (unit, GLO, None)", 1.9197084793361892e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846529290111e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125565084775e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.137750872991606e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873343555351e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294995295116e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998062104825e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964207022434268e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330226095470536e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.32989174233156e-10], ["'autoclave' (unit, GLO, None)", 1.9197084793361892e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300033454185e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784136727628e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750376723183e-10], ["'marginal heating grid' (megajoule, GLO, None)", -7.585005819944041e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330226095470536e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934541754374e-09], ["'autoclave' (unit, GLO, None)", 2.5596113057815855e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266339952372e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932573567248e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469543478275e-10], ["'marginal heating grid' (megajoule, GLO, None)", -3.255042367084377e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.361653093384784e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334451859084e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876995324562e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.3701991612490905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390272097472e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934541754374e-09], ["'autoclave' (unit, GLO, None)", 2.5596113057815855e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.495859164353292e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037495781985e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979695652189e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.1700282447229182e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390272097472e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.115628035574533e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722391853935e-09], ["'autoclave' (unit, GLO, None)", 3.839416958672379e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343459940336e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647995694142e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229599585686e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.744988488108572e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787345623672e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.9099997423628244e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.115628035574533e-10], ["'wet wipe' (unit, GLO, None)", 4.979514046355072e-10], ["'autoclave' (unit, GLO, None)", 3.839416958672379e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343459940336e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647995694142e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229599585686e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.744988488108572e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028566556188e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.054015211265469e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.1468323293788211e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174969988033e-10], ["'mechanical disinfection' (unit, GLO, None)", 9.753611959269674e-10], ["'autoclave' (unit, GLO, None)", 2.879562719004284e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669007833973e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979668268164e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245919917137e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124559626696e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893672811827e-13], ["'marginal heating grid' (megajoule, GLO, None)", -9.549998711814122e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174969988033e-10], ["'wet wipe' (unit, GLO, None)", 4.979514046355072e-10], ["'autoclave' (unit, GLO, None)", 2.879562719004284e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669007833973e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979668268164e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245919917137e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245596266963e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028566556188e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749255891491e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.02025627453736e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.1372823306670069e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419977428301e-07], ["'autoclave' (unit, GLO, None)", 2.3557948596929223e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553163203958e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844134159900646e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.083636920395339e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114303372586e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979177737429e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276615188648e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419045348218e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417664784124e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419977428301e-07], ["'autoclave' (unit, GLO, None)", 2.3557948596929223e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567718456169e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.420272819929606e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627561066004303e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0557579469302262e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417664784124e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507914289122e-06], ["'autoclave' (unit, GLO, None)", 3.141059812923896e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211293932703e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816475334804e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.09978553761349e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.822114804623381e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005681412814e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830534937893e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828856569895e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940972811882e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826101468648e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507914289122e-06], ["'autoclave' (unit, GLO, None)", 3.141059812923896e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202174213006e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780571727422e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903584089939e-08], ["'marginal heating grid' (megajoule, GLO, None)", -5.88140986974892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826101468648e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685206867025e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.5389551254833566e-07], ["'autoclave' (unit, GLO, None)", 4.711589719385846e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226603997983e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427447764963e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879950699115e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739999643727e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.45334178976503e-11], ["'marginal heating grid' (megajoule, GLO, None)", -5.17665673857852e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685206867025e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805261481254e-07], ["'autoclave' (unit, GLO, None)", 4.711589719385846e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226603997983e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427447764963e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879950699115e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739999643727e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005177132276e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817798602621e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.108250317643669e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460574434907e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775627416783e-07], ["'autoclave' (unit, GLO, None)", 3.5336922895393835e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496225232112e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747986841355e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775990139823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348324276896e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266708948825065e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.58832836928926e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460574434907e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805261481254e-07], ["'autoclave' (unit, GLO, None)", 3.5336922895393835e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496225232112e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747986841355e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775990139823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348324276895e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005177132276e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446681200416e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842551089653805e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.082367033950776e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384662145908], ["'autoclave' (unit, GLO, None)", 0.002277034841696899], ["'waste polypropylene' (kilogram, CH, None)", 3.488480804310018e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758596171901e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0017940475265593753], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824943214496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377925456134], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144800595757], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791283817436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258921206119215e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384662145908], ["'autoclave' (unit, GLO, None)", 0.002277034841696899], ["'waste polypropylene' (kilogram, CH, None)", 0.0002314786328093563], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380532550776e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004273839064114601], ["'marginal heating grid' (megajoule, GLO, None)", -0.011960316843729168], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258921206119215e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628556781826], ["'autoclave' (unit, GLO, None)", 0.0030360464555958654], ["'waste polypropylene' (kilogram, CH, None)", 9.878595174821827e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077297399181e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340826037620503], ["'marginal heating grid' (megajoule, GLO, None)", -0.005132670821125166], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692720967953], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564630013608], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114323665343], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074038922358], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116361279434095e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628556781826], ["'autoclave' (unit, GLO, None)", 0.0030360464555958654], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524867869192], ["'waste polyethylene' (kilogram, CH, None)", 8.322717106779394e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227217358413678], ["'marginal heating grid' (megajoule, GLO, None)", -0.03421780547416777], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116361279434095e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642872460727], ["'mechanical disinfection' (unit, GLO, None)", 0.003536636522107254], ["'autoclave' (unit, GLO, None)", 0.0045540696833938], ["'aluminium scrap' (kilogram, RER, None)", 0.000666791750596878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997255424005], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804429e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965260863343216e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063609621987e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.011758017381323e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642872460727], ["'wet wipe' (unit, GLO, None)", 0.01260025444826999], ["'autoclave' (unit, GLO, None)", 0.0045540696833938], ["'aluminium scrap' (kilogram, RER, None)", 0.000666791750596878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997255424005], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804429e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965260863343216e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437281020746e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928870774287e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018083675018332242]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168838017], ["'mechanical disinfection' (unit, GLO, None)", 0.001768318261053627], ["'autoclave' (unit, GLO, None)", 0.003415552262545349], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813721435903406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00346452000275832], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608858e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329345167252862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.38103180481098e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.5058790086906615e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168838017], ["'wet wipe' (unit, GLO, None)", 0.01260025444826999], ["'autoclave' (unit, GLO, None)", 0.003415552262545349], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813721435903406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00346452000275832], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608858e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332934516725286e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437281020746e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569161596074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118552726193e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0017933087117463175]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.000554650961291966], ["'autoclave' (unit, GLO, None)", 0.0005799645459735028], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812694931212e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873248997589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483395120557e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.619092641869904e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592178533304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.954636024236681e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140694951257e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518653352781e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470295846441e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000554650961291966], ["'autoclave' (unit, GLO, None)", 0.0005799645459735028], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389732150618e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943596525203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963222634137046e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001746061761246603], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470295846441e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385777806803], ["'autoclave' (unit, GLO, None)", 0.0007732860612980038], ["'waste polypropylene' (kilogram, CH, None)", 5.255722660340334e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351366240429e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.35870113421913e-05], ["'marginal heating grid' (megajoule, GLO, None)", -7.493079297921474e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279255547453], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593859353118e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039631629057e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503248881075], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068974575791]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385777806803], ["'autoclave' (unit, GLO, None)", 0.0007732860612980038], ["'waste polypropylene' (kilogram, CH, None)", 3.469123868211442e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112307619008e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724674228127545], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004995386198614316], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068974575791]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731988910179], ["'mechanical disinfection' (unit, GLO, None)", 0.000527912292609732], ["'autoclave' (unit, GLO, None)", 0.0011599290919470059], ["'aluminium scrap' (kilogram, RER, None)", 5.802154987375351e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854409346273], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674892431912e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205521662174e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429864219534e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.3968028414185113e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731988910179], ["'wet wipe' (unit, GLO, None)", 0.0002303881981855204], ["'autoclave' (unit, GLO, None)", 0.0011599290919470059], ["'aluminium scrap' (kilogram, RER, None)", 5.802154987375351e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854409346273], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674892431912e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205521662174e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495318548296e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873248997589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.31029034650616e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.639998075709455e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632856077018], ["'mechanical disinfection' (unit, GLO, None)", 0.000263956146304866], ["'autoclave' (unit, GLO, None)", 0.0008699468189602542], ["'aluminium scrap' (kilogram, RER, None)", 3.46443071901408e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382420290644], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349784863824e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8495145957570034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214932109748e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.1984014207092556e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632856077018], ["'wet wipe' (unit, GLO, None)", 0.0002303881981855204], ["'autoclave' (unit, GLO, None)", 0.0008699468189602542], ["'aluminium scrap' (kilogram, RER, None)", 3.46443071901408e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382420290644], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349784863824e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001849514595757003], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495318548296e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873248997589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241088197185083e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.6180140615023623e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325576023956], ["'autoclave' (unit, GLO, None)", 0.05129836423672475], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070330374465], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672600577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851833934656], ["'marginal heating grid' (megajoule, GLO, None)", -0.00760620554970334], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649460658653], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193879221875], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372881430594], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535670908535], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479426422512]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325576023956], ["'autoclave' (unit, GLO, None)", 0.05129836423672475], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766293986794], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720531932293], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567889289771], ["'marginal heating grid' (megajoule, GLO, None)", -0.050708036998022274], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479426422512]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752943020052], ["'autoclave' (unit, GLO, None)", 0.06839781898229967], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305897292957], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279305372385], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395051471785976], ["'marginal heating grid' (megajoule, GLO, None)", -0.02176093370241637], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36326662389271047], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932138406584], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00360773818574044], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911456593955], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0233753639378286]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752943020052], ["'autoclave' (unit, GLO, None)", 0.06839781898229967], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575770928], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488986481], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034314523995], ["'marginal heating grid' (megajoule, GLO, None)", -0.14507289134944246], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0233753639378286]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609236966], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177722069442], ["'autoclave' (unit, GLO, None)", 0.10259672847344954], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554900571257], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1480561371157029], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742639860307], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896648783875], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141009460846953e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001276892067073742]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609236966], ["'wet wipe' (unit, GLO, None)", 0.0546233293328048], ["'autoclave' (unit, GLO, None)", 0.10259672847344954], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554900571257], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1480561371157029], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742639860307], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896648783875], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832877727331], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672600577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890333258227938], ["'marginal heating grid' (megajoule, GLO, None)", -0.007666917807203259]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092660721], ["'mechanical disinfection' (unit, GLO, None)", 0.02547588861034721], ["'autoclave' (unit, GLO, None)", 0.07694754635508713], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127893075572], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539493706848], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527972061], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0025715500483328687], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.57050473042346e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.38446033536871e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092660721], ["'wet wipe' (unit, GLO, None)", 0.0546233293328048], ["'autoclave' (unit, GLO, None)", 0.07694754635508713], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127893075572], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539493706848], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527972061], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02571550048332868], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832877727331], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672600577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824628210923722], ["'marginal heating grid' (megajoule, GLO, None)", -0.007603073203849571]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693268255438], ["'autoclave' (unit, GLO, None)", 0.022422924663418848], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603266253116], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352008949674], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038295881129967726], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009414587864598232], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913120484098303], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552578631502133], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173535675211], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853481615186], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726761480915]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693268255438], ["'autoclave' (unit, GLO, None)", 0.022422924663418848], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409643962348], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520101382032], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587419978486], ["'marginal heating grid' (megajoule, GLO, None)", -0.006276391909732155], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726761480915]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403352065734], ["'autoclave' (unit, GLO, None)", 0.029897232884558464], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521298761397], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718175178388], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239939865268], ["'marginal heating grid' (megajoule, GLO, None)", -0.002693461556072282], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600136252834], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640170646273], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497996050497], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948883046803344], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285944846021]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403352065734], ["'autoclave' (unit, GLO, None)", 0.029897232884558464], ["'waste polypropylene' (kilogram, CH, None)", 0.026795520123837603], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266880366776], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159959910184], ["'marginal heating grid' (megajoule, GLO, None)", -0.01795641037381521], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285944846021]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532312260503], ["'mechanical disinfection' (unit, GLO, None)", 0.0318529184903366], ["'autoclave' (unit, GLO, None)", 0.04484584932683771], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900347955126], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757937756667], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116607205715e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122358102380414e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922607588757e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.580474321988717e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532312260503], ["'wet wipe' (unit, GLO, None)", 0.001688697327916856], ["'autoclave' (unit, GLO, None)", 0.04484584932683771], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900347955126], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757937756667], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116607205715e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122358102380414e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429802550616e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352008949674], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556460611265], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009489734516756928]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723132448188], ["'mechanical disinfection' (unit, GLO, None)", 0.0159264592451683], ["'autoclave' (unit, GLO, None)", 0.033634386995128274], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136006969242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984580299536], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321441143e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726397997166536e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.21446130379437e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.902371609943585e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723132448188], ["'wet wipe' (unit, GLO, None)", 0.001688697327916856], ["'autoclave' (unit, GLO, None)", 0.033634386995128274], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136006969242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984580299536], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321441143e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726397997166534], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429802550616e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352008949674], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038280110330231917], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009410710800657491]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341302022574], ["'autoclave' (unit, GLO, None)", 0.026502074141552243], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454900349096], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405453118606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008895912784], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011905705749304138], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336180760677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920752326457203], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00037434844229335747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511884842729], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744173884383]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341302022574], ["'autoclave' (unit, GLO, None)", 0.026502074141552243], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710086428579], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355636855292], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003152005930608523], ["'marginal heating grid' (megajoule, GLO, None)", -0.007937137166202759], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744173884383]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575487331208], ["'autoclave' (unit, GLO, None)", 0.03533609885540299], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222755194169], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132055743316], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572146397714], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034061566151231534], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661435915813], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216719613332], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001127679626715891], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540520683747], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525355449559]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575487331208], ["'autoclave' (unit, GLO, None)", 0.03533609885540299], ["'waste polypropylene' (kilogram, CH, None)", 0.038793549539235445], ["'waste polyethylene' (kilogram, CH, None)", 0.0050277687544309614], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714764265149], ["'marginal heating grid' (megajoule, GLO, None)", -0.022707710767487687], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525355449559]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833473499987], ["'mechanical disinfection' (unit, GLO, None)", 0.038731918894471244], ["'autoclave' (unit, GLO, None)", 0.0530041482831045], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352120971014], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904162574366], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976171210063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508882169843e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146863564038e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9986708385488765e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833473499987], ["'wet wipe' (unit, GLO, None)", 0.001791116876743252], ["'autoclave' (unit, GLO, None)", 0.0530041482831045], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352120971014], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904162574366], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976171210063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508882169843e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990270125821674e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405453118606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747567537519], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012000736348785925]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108773885734], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959447235622], ["'autoclave' (unit, GLO, None)", 0.039753111212328364], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716193763405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984560597735], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952342420126e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183211987252073], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573431782009e-06], ["'marginal heating grid' (megajoule, GLO, None)", -9.993354192744382e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108773885734], ["'wet wipe' (unit, GLO, None)", 0.001791116876743252], ["'autoclave' (unit, GLO, None)", 0.039753111212328364], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716193763405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984560597735], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952342420126e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183211987252072], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990270125821674e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405453118606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047260618332197103], ["'marginal heating grid' (megajoule, GLO, None)", -0.001190080280685848]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931368434122], ["'autoclave' (unit, GLO, None)", 2.0531715668103674], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178360929588], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262114233432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999249099711878], ["'marginal heating grid' (megajoule, GLO, None)", -0.0882561418330977], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807710930318], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039280937391501417], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00908304642616313], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534574959323027], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169135276239]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931368434122], ["'autoclave' (unit, GLO, None)", 2.0531715668103674], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594987158885], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023459153258], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999499399807918], ["'marginal heating grid' (megajoule, GLO, None)", -0.5883742788873181], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169135276239]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865612717873], ["'autoclave' (unit, GLO, None)", 2.7375620890804897], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243395903414], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442528282561], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052529792266], ["'marginal heating grid' (megajoule, GLO, None)", -0.25249594409606774], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498524141623], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822418049869357], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158414483804], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29674859040346563], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626243837383982]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865612717873], ["'autoclave' (unit, GLO, None)", 2.7375620890804897], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352076503903], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523212579964], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368353194848], ["'marginal heating grid' (megajoule, GLO, None)", -1.683306293973785], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626243837383982]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252627806815], ["'mechanical disinfection' (unit, GLO, None)", 2.14053788419671], ["'autoclave' (unit, GLO, None)", 4.106343133620736], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888877542412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458710798697], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073728178124], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504015692874231], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874922048878], ["'marginal heating grid' (megajoule, GLO, None)", -0.0014816003412057776]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252627806815], ["'wet wipe' (unit, GLO, None)", 0.1450638028721645], ["'autoclave' (unit, GLO, None)", 4.106343133620736], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888877542412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458710798697], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073728178124], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504015692874231], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093454274422], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262114233432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.024190809606672258], ["'marginal heating grid' (megajoule, GLO, None)", -0.08896059684340561]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449883843798], ["'mechanical disinfection' (unit, GLO, None)", 1.070268942098355], ["'autoclave' (unit, GLO, None)", 3.079757350215551], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273086514797], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818144149428], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014745635625], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002929182998350696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144374610244338], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007408001706028888]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449883843798], ["'wet wipe' (unit, GLO, None)", 0.1450638028721645], ["'autoclave' (unit, GLO, None)", 3.079757350215551], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273086514797], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818144149428], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014745635625], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02929182998350696], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093454274422], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262114233432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936586056987], ["'marginal heating grid' (megajoule, GLO, None)", -0.08821979667280272]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.143219240642437], ["'autoclave' (unit, GLO, None)", 0.013280171026194715], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584265344831], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296956647738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589806118867], ["'marginal heating grid' (megajoule, GLO, None)", -0.002021844076290596], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930687947098], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942577386512], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428734333619], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095994029543], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888006299475]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.143219240642437], ["'autoclave' (unit, GLO, None)", 0.013280171026194715], ["'waste polypropylene' (kilogram, CH, None)", 0.000674206993307928], ["'waste polyethylene' (kilogram, CH, None)", 8.017874208699914e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864393204079243], ["'marginal heating grid' (megajoule, GLO, None)", -0.013478960508603975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888006299475]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337206180414], ["'autoclave' (unit, GLO, None)", 0.017706894701592955], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249562990172], ["'waste polyethylene' (kilogram, CH, None)", 3.628446512602849e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647696275494], ["'marginal heating grid' (megajoule, GLO, None)", -0.0057843841601807515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28151129419718657], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03023536115524096], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966888845425], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805616984629], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436809387097]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337206180414], ["'autoclave' (unit, GLO, None)", 0.017706894701592955], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746290364171], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152881041338115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804317975169987], ["'marginal heating grid' (megajoule, GLO, None)", -0.038562561067871676], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436809387097]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133581276], ["'mechanical disinfection' (unit, GLO, None)", 0.012412661851074513], ["'autoclave' (unit, GLO, None)", 0.026560342052389437], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105504079613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334994970702], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429866100937e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279370798415], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.23941580121645e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.394171568208791e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133581276], ["'wet wipe' (unit, GLO, None)", 0.03256387390328512], ["'autoclave' (unit, GLO, None)", 0.026560342052389437], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105504079613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334994970702], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429866100937e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279370798415], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480738387267], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296956647738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450613980396511], ["'marginal heating grid' (megajoule, GLO, None)", -0.0020379823093928068]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036516247], ["'mechanical disinfection' (unit, GLO, None)", 0.0062063309255372566], ["'autoclave' (unit, GLO, None)", 0.019920256539292074], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723340534212], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441555457602], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485973220187e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164632351324], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197079006082207e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6970857841043956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036516247], ["'wet wipe' (unit, GLO, None)", 0.03256387390328512], ["'autoclave' (unit, GLO, None)", 0.019920256539292074], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723340534212], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441555457602], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485973220187e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164632351323], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480738387267], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296956647738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288643190335734], ["'marginal heating grid' (megajoule, GLO, None)", -0.0020210114515517626]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956247445752e-05], ["'autoclave' (unit, GLO, None)", -1.8291689705411176e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.603893062070029e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679733650608e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547977752581873e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.880130895626421e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874513225324e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016824128245e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511744853095e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092624863506e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602814988049e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956247445752e-05], ["'autoclave' (unit, GLO, None)", -1.8291689705411176e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919695392262e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4173533636366905e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.103198516838792e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9200872637509473e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602814988049e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399956464652], ["'autoclave' (unit, GLO, None)", -2.43889196072149e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192502871205e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.54650516731289e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.02570207750981e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.239895315010527e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769316636267e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179820854131e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745628779678e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814345422150723e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173831247646e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399956464652], ["'autoclave' (unit, GLO, None)", -2.43889196072149e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.60540759265426e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365703389754e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134718339877e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.493263543340351e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173831247646e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521671035358e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.86810103629844e-05], ["'autoclave' (unit, GLO, None)", -3.658337941082236e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652972940578e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307085422795e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214896044247286e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.825504197360107e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118052721032e-09], ["'marginal heating grid' (megajoule, GLO, None)", -4.835020916444736e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521671035358e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503573100504e-05], ["'autoclave' (unit, GLO, None)", -3.658337941082236e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652972940578e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307085422795e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214896044247286e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.825504197360107e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041825212508e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679733650608e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799791740042506e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.903119920499087e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300012805019e-05], ["'mechanical disinfection' (unit, GLO, None)", 1.43405051814922e-05], ["'autoclave' (unit, GLO, None)", -2.7437534558116764e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045065227099e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318562909321e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429792088494573e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297210133918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590263605088e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.417510458222368e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300012805019e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503573100504e-05], ["'autoclave' (unit, GLO, None)", -2.7437534558116764e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045065227099e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318562909321e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429792088494573e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972101339175e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041825212508e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679733650608e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.153498583740653e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.878944815916863e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816891170517e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167351974808], ["'waste polypropylene' (kilogram, CH, None)", 4.286217843437965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735116776314e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3704670422217625e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.536093493172089e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.607491434422551e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705433562523e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738342770621e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.7821344132621705e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710849650616e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816891170517e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167351974808], ["'waste polypropylene' (kilogram, CH, None)", 2.8441258587298646e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.435398559537964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.246978028147842e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.6907289954480595e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710849650616e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355759089066e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313596641], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607537959847e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714251554196e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719930810677e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.255623320645052e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396421387975e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989013984837e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789505732683e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.6287702572569497e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388624631615e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355759089066e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313596641], ["'waste polypropylene' (kilogram, CH, None)", 8.011622137267226e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724684165255e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479953873789e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.837082213763368e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388624631615e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832147154717e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.7229478068778e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470394962], ["'aluminium scrap' (kilogram, RER, None)", 4.903957109124667e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917984178849e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244325293113e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.160462377260606e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172922653044e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.257467986669223e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832147154717e-06], ["'wet wipe' (unit, GLO, None)", 9.715466391038748e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470394962], ["'aluminium scrap' (kilogram, RER, None)", 4.903957109124667e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917984178849e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244325293113e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.160462377260606e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458549984e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735116776314e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.397369899582788e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.556336432992107e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886967979789e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.8614739034389e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751027962212], ["'aluminium scrap' (kilogram, RER, None)", 2.928122342568493e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222993002854e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488650586226e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930475647026e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086461326514e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.1287339933346117e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886967979789e-06], ["'wet wipe' (unit, GLO, None)", 9.715466391038748e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751027962212], ["'aluminium scrap' (kilogram, RER, None)", 2.928122342568493e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222993002854e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488650586226e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393047564702e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458549984e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735116776314e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.369079034969531e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.5350490930587604e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426236658847], ["'autoclave' (unit, GLO, None)", 0.002716220104584677], ["'waste polypropylene' (kilogram, CH, None)", 6.352133564768712e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.6778098029027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758932408343929], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002957449258929697], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415376438394], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040953871966279505], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238731558581e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961133069425753], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440227691942]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426236658847], ["'autoclave' (unit, GLO, None)", 0.002716220104584677], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967131762417], ["'waste polyethylene' (kilogram, CH, None)", 5.120887822669966e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839288272229285], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019716328392864646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440227691942]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047242611424], ["'autoclave' (unit, GLO, None)", 0.0036216268061129027], ["'waste polypropylene' (kilogram, CH, None)", 0.0001798781747780299], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306652798056e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165573452687], ["'marginal heating grid' (megajoule, GLO, None)", -0.0008461098879235472], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00842159042052074], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922630627812], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435793828464], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00336933325899317], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002160854672371853]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047242611424], ["'autoclave' (unit, GLO, None)", 0.0036216268061129027], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146850034978], ["'waste polyethylene' (kilogram, CH, None)", 0.0001542605822785038], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00224277704896846], ["'marginal heating grid' (megajoule, GLO, None)", -0.005640732586156981], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002160854672371853]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096433201898], ["'mechanical disinfection' (unit, GLO, None)", 0.006515241157981769], ["'autoclave' (unit, GLO, None)", 0.005432440209169356], ["'aluminium scrap' (kilogram, RER, None)", 0.0004184898073720396], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377553080158], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573943575743e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396122044108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740312579452094e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.9648191503945536e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096433201898], ["'wet wipe' (unit, GLO, None)", 0.0014416306017707963], ["'autoclave' (unit, GLO, None)", 0.005432440209169356], ["'aluminium scrap' (kilogram, RER, None)", 0.0004184898073720396], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377553080158], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573943575743e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396122044108], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998996504612e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.6778098029027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791472187816], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002981055434147784]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452919930552], ["'mechanical disinfection' (unit, GLO, None)", 0.0032576205789908845], ["'autoclave' (unit, GLO, None)", 0.004074330156877016], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776656963829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434419783683], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887151486e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023771805016415605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156289726022e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4824095751972768e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452919930552], ["'wet wipe' (unit, GLO, None)", 0.0014416306017707963], ["'autoclave' (unit, GLO, None)", 0.004074330156877016], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776656963829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434419783683], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887151486e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771805016415603], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998996504612e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.6778098029027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089909290584], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002956231338395811]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933204296411], ["'autoclave' (unit, GLO, None)", 0.1149517800762535], ["'waste polypropylene' (kilogram, CH, None)", 0.017294968006566713], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519037281827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128507119221263], ["'marginal heating grid' (megajoule, GLO, None)", -0.012157011986791259], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.049915194554250523], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005445273970017151], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970366852375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562244655653], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605439866307]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933204296411], ["'autoclave' (unit, GLO, None)", 0.1149517800762535], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100266039595], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056275324668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004746147507], ["'marginal heating grid' (megajoule, GLO, None)", -0.0810467465786084], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605439866307]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902901439402], ["'autoclave' (unit, GLO, None)", 0.15326904010167133], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547014943659], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017214005248], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090835516042352], ["'marginal heating grid' (megajoule, GLO, None)", -0.03478053940763719], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978599706274], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688647624435], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.01402253796892256], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367780970861], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292058353825]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902901439402], ["'autoclave' (unit, GLO, None)", 0.15326904010167133], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704300292844], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634558866716], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236773615685], ["'marginal heating grid' (megajoule, GLO, None)", -0.23187026271758124], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292058353825]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560936841], ["'mechanical disinfection' (unit, GLO, None)", 0.267413020154003], ["'autoclave' (unit, GLO, None)", 0.22990356015250707], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561789101383], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068156257098], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059485740858], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885384481325], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824688703984e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00020408588834231007]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560936841], ["'wet wipe' (unit, GLO, None)", 0.04043778807613494], ["'autoclave' (unit, GLO, None)", 0.22990356015250707], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561789101383], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068156257098], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059485740858], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885384481325], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529287449027], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519037281827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038432846480967718], ["'marginal heating grid' (megajoule, GLO, None)", -0.01225404849696031]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962236507203], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065100770015], ["'autoclave' (unit, GLO, None)", 0.17242767011438026], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601435585533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738952977124], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118971481716], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417335451828], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412344351984e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010204294417115503]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962236507203], ["'wet wipe' (unit, GLO, None)", 0.04043778807613494], ["'autoclave' (unit, GLO, None)", 0.17242767011438026], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601435585533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738952977124], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118971481716], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.050954173354518274], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529287449027], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519037281827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805246532607], ["'marginal heating grid' (megajoule, GLO, None)", -0.012152005552789153]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498015198887], ["'autoclave' (unit, GLO, None)", 0.0012325865445521433], ["'waste polypropylene' (kilogram, CH, None)", 1.9399936142370724e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210170660466325e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037309229421e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001160505994396528], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360378864319], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266743448574], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957433632196], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958087275095], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586039925217]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498015198887], ["'autoclave' (unit, GLO, None)", 0.0012325865445521433], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854823442257e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816324835008275e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.306024872819614e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.007736706629310188], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586039925217]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0215546700700864], ["'autoclave' (unit, GLO, None)", 0.0016434487260695244], ["'waste polypropylene' (kilogram, CH, None)", 5.493626776764795e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317566324239e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.60469747078611e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0033201435118072223], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00540013454372009], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623971329182], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064206279849], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157207683126], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667246496108]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0215546700700864], ["'autoclave' (unit, GLO, None)", 0.0016434487260695244], ["'waste polypropylene' (kilogram, CH, None)", 3.626156288293594e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270667316185435e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736464980524076e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.022134290078714813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667246496108]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316771231771], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532601029993], ["'autoclave' (unit, GLO, None)", 0.0024651730891042875], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713413697077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724004930936], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561745530463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096043024694e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887346823727424e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.948199911707943e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316771231771], ["'wet wipe' (unit, GLO, None)", 0.0013201850154176686], ["'autoclave' (unit, GLO, None)", 0.0024651730891042875], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713413697077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724004930936], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561745530463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096043024694e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955824169937e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210170660466325e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974674222640799e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011697690807411707]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778569665574], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266300514997], ["'autoclave' (unit, GLO, None)", 0.001848879816828215], ["'aluminium scrap' (kilogram, RER, None)", -7.942370492722692e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932297802924], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712349106093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834156601393], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367341186367e-08], ["'marginal heating grid' (megajoule, GLO, None)", -9.740999558539715e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778569665574], ["'wet wipe' (unit, GLO, None)", 0.0013201850154176686], ["'autoclave' (unit, GLO, None)", 0.001848879816828215], ["'aluminium scrap' (kilogram, RER, None)", -7.942370492722692e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932297802924], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712349106093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001582583415660139], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955824169937e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210170660466325e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582305492289398e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011600280811826307]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0101233198885803], ["'autoclave' (unit, GLO, None)", 0.17693989560168966], ["'waste polypropylene' (kilogram, CH, None)", -6.194517280465445e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549890402305013e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155745834189], ["'marginal heating grid' (megajoule, GLO, None)", -0.005971377291023172], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0014462728318244624], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376268129671655], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430946258798e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.003020574302322788], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392655695989]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0101233198885803], ["'autoclave' (unit, GLO, None)", 0.17693989560168966], ["'waste polypropylene' (kilogram, CH, None)", -4.1103806253555756e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035569103188757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721038305561262], ["'marginal heating grid' (megajoule, GLO, None)", -0.03980918194015448], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392655695989]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985488169428], ["'autoclave' (unit, GLO, None)", 0.23591986080225286], ["'waste polypropylene' (kilogram, CH, None)", -1.7541483513841402e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.27882013060399e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970358554023], ["'marginal heating grid' (megajoule, GLO, None)", -0.01708378040705697], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070635453810573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046278088545613716], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045782355305043], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508660006543066], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949359084476]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985488169428], ["'autoclave' (unit, GLO, None)", 0.23591986080225286], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578536972832608], ["'waste polyethylene' (kilogram, CH, None)", -1.5169045854172457e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646905702687], ["'marginal heating grid' (megajoule, GLO, None)", -0.11389186938037979], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949359084476]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558041068301], ["'mechanical disinfection' (unit, GLO, None)", 0.1764283439074388], ["'autoclave' (unit, GLO, None)", 0.3538797912033794], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835463505966407], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248673436664874], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588917704072445e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655251633955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880532873324e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010024452064287384]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558041068301], ["'wet wipe' (unit, GLO, None)", 0.007110329581984], ["'autoclave' (unit, GLO, None)", 0.3538797912033794], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835463505966407], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248673436664874], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588917704072445e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655251633955], ["'waste wipe incineration' (kilogram, CH, None)", -9.067288860185191e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549890402305013e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951303959088], ["'marginal heating grid' (megajoule, GLO, None)", -0.0060190404514982275]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688309383603425], ["'mechanical disinfection' (unit, GLO, None)", 0.0882141719537194], ["'autoclave' (unit, GLO, None)", 0.2654098434025345], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781968916356], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521459774361468], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117783540814489e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308026845993], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440266436653e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.012226032143692e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688309383603425], ["'wet wipe' (unit, GLO, None)", 0.007110329581984], ["'autoclave' (unit, GLO, None)", 0.2654098434025345], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781968916356], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521459774361468], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117783540814489e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308026845991], ["'waste wipe incineration' (kilogram, CH, None)", -9.067288860185191e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549890402305013e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565669012947303], ["'marginal heating grid' (megajoule, GLO, None)", -0.00596891819117679]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000261264828552426], ["'autoclave' (unit, GLO, None)", 0.0003262996560343637], ["'waste polypropylene' (kilogram, CH, None)", 2.8498015535736614e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880780752142696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462696994512e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.469217856592344e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013137463982881167], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456520747475483e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020697567921243e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771477087792246e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002868384742006e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000261264828552426], ["'autoclave' (unit, GLO, None)", 0.0003262996560343637], ["'waste polypropylene' (kilogram, CH, None)", 1.8909898159227098e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.059663083193371e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641797996341e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.6461452377282295e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002868384742006e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488848478615855], ["'autoclave' (unit, GLO, None)", 0.00043506620804581827], ["'waste polypropylene' (kilogram, CH, None)", 8.069998791895509e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320896208674263e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270736231295e-05], ["'marginal heating grid' (megajoule, GLO, None)", -7.064295820433665e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003697630591208276], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147108186133398e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030994177957018e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597599179659788e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613505659196e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488848478615855], ["'autoclave' (unit, GLO, None)", 0.00043506620804581827], ["'waste polypropylene' (kilogram, CH, None)", 5.32673187583862e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204487141944266e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180490820878], ["'marginal heating grid' (megajoule, GLO, None)", -4.709530546955776e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613505659196e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639847839466], ["'mechanical disinfection' (unit, GLO, None)", 0.00012895511062666675], ["'autoclave' (unit, GLO, None)", 0.0006525993120687276], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526056268245], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001813987740019139], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457412144001514e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346587146369e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989652844853e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.1452004844683226e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639847839466], ["'wet wipe' (unit, GLO, None)", 7.1562137246838e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993120687276], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526056268245], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001813987740019139], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457412144001514e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346587146369e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430845268023e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880780752142696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634712904558e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.488926999259239e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049240460119], ["'mechanical disinfection' (unit, GLO, None)", 6.447755531333338e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494840515456], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082929238106], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605399279968], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914824288003028e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0016087605224634e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994826422405e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0726002422341613e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049240460119], ["'wet wipe' (unit, GLO, None)", 7.1562137246838e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494840515456], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082929238106], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605399279968], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914824288003028e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010016087605224632], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430845268023e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880780752142696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165274764640356e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.468200996836897e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943672080459e-08], ["'autoclave' (unit, GLO, None)", -1.8381427912471174e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803224276e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.570974798074034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468528131633e-09], ["'marginal heating grid' (megajoule, GLO, None)", -8.719748167109355e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895097806142e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727854258018e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531031224456e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.171715819119725e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686706580915e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943672080459e-08], ["'autoclave' (unit, GLO, None)", -1.8381427912471174e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264385382e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429541122e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564568542109e-08], ["'marginal heating grid' (megajoule, GLO, None)", -5.8131654447395705e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686706580915e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348368219524e-08], ["'autoclave' (unit, GLO, None)", -2.450857054996157e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321279959e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098243728048e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931616240106e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.494671758819797e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883553427887e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821697281414e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232869103378e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819208787963e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255490258304e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348368219524e-08], ["'autoclave' (unit, GLO, None)", -2.450857054996157e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454265874324e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520901041e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287744160075e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.6631145058798645e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255490258304e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272601853051e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027924324237e-07], ["'autoclave' (unit, GLO, None)", -3.6762855824942365e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559614670825e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687566496473e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003918224e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137925186494e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.21867379094324e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.4638280794156288e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272601853051e-08], ["'wet wipe' (unit, GLO, None)", 9.851215178253762e-08], ["'autoclave' (unit, GLO, None)", -3.6762855824942365e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559614670825e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687566496473e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003918224e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137925186494e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203596342082e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974798074034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914717963182e-09], ["'marginal heating grid' (megajoule, GLO, None)", -8.789348652212815e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293507225033e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.030513962162119e-08], ["'autoclave' (unit, GLO, None)", -2.7572141868706764e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630724322496e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.671479228594365e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007836448e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205428103963e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336895471612e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.319140397078144e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293507225033e-08], ["'wet wipe' (unit, GLO, None)", 9.851215178253762e-08], ["'autoclave' (unit, GLO, None)", -2.7572141868706764e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630724322496e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.671479228594365e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007836448e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205428103963e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203596342082e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974798074034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213490084746e-09], ["'marginal heating grid' (megajoule, GLO, None)", -8.716157248242034e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187540471094], ["'autoclave' (unit, GLO, None)", 0.00024060147439256734], ["'waste polypropylene' (kilogram, CH, None)", 6.539683655093171e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216582701107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073073009382625e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6374956821700934e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001205362572429283], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240203744194e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259749053565e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952304881246084e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0860266792181526e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187540471094], ["'autoclave' (unit, GLO, None)", 0.00024060147439256734], ["'waste polypropylene' (kilogram, CH, None)", 4.339416257117899e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478399654775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.938204867292175e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010916637881133957], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0860266792181526e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452251752265], ["'autoclave' (unit, GLO, None)", 0.00032080196585675645], ["'waste polypropylene' (kilogram, CH, None)", 1.8518917266291878e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690419345543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645508638156e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.684784646542488e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576776704936], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654818602621e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556925780922e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719684858054e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001162448729309215]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452251752265], ["'autoclave' (unit, GLO, None)", 0.00032080196585675645], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707766529293e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453501023324e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545097005758775e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003123189764361658], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001162448729309215]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673938509838], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474642577374887], ["'autoclave' (unit, GLO, None)", 0.0004812029487851348], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575711820086e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358761503427], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705554688054e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904327271926e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643317952976e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.7489465447223526e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673938509838], ["'wet wipe' (unit, GLO, None)", 7.24035892807715e-05], ["'autoclave' (unit, GLO, None)", 0.0004812029487851348], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575711820086e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358761503427], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705554688054e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904327271926e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332387622194e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216582701107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305132461802754e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.650566070402606e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853507252954], ["'mechanical disinfection' (unit, GLO, None)", 9.737321288687443e-05], ["'autoclave' (unit, GLO, None)", 0.000360902211588851], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565682619125e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001744362206877117], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741110937611e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.278822906881884e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216589764818e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.3744732723611763e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853507252954], ["'wet wipe' (unit, GLO, None)", 7.24035892807715e-05], ["'autoclave' (unit, GLO, None)", 0.000360902211588851], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565682619125e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001744362206877117], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741110937611e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229068818837], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332387622194e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216582701107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061100295905178e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6368213376789944e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848637055429], ["'autoclave' (unit, GLO, None)", 0.00041334986820796405], ["'waste polypropylene' (kilogram, CH, None)", 4.470534431074347e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137101469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361124999146e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.2129623744183904e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454838633382], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059934671027e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214221259204e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.165731645557311e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833185602522e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848637055429], ["'autoclave' (unit, GLO, None)", 0.00041334986820796405], ["'waste polypropylene' (kilogram, CH, None)", 2.9664293888437257e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.581873065754833e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417574083332763e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00021419749162789273], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833185602522e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529911458029], ["'autoclave' (unit, GLO, None)", 0.0005511331576106188], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550772107733e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576872535627e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540487154570102e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.192107781100368e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260307411837], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435514318464e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869208329801e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001173445533959806], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425643625528e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529911458029], ["'autoclave' (unit, GLO, None)", 0.0005511331576106188], ["'waste polypropylene' (kilogram, CH, None)", 8.356139123503454e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961504818547e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360324769713416], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006128071854066911], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425643625528e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694718864862], ["'mechanical disinfection' (unit, GLO, None)", 0.0004684476285889447], ["'autoclave' (unit, GLO, None)", 0.0008266997364159283], ["'aluminium scrap' (kilogram, RER, None)", 1.767358715056724e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741825959324], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287635603602e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701396421232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257667212135e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.393761897298802e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694718864862], ["'wet wipe' (unit, GLO, None)", 0.0010830399610908274], ["'autoclave' (unit, GLO, None)", 0.0008266997364159283], ["'aluminium scrap' (kilogram, RER, None)", 1.767358715056724e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741825959324], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287635603602e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701396421232e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881623906124e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137101469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703198138091803e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.238608039361123e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687001384], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381429447236], ["'autoclave' (unit, GLO, None)", 0.0006200248023119461], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789157273964e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171050295562], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575271207204e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671519638003e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128833606046e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.696880948649401e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687001384], ["'wet wipe' (unit, GLO, None)", 0.0010830399610908274], ["'autoclave' (unit, GLO, None)", 0.0006200248023119461], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789157273964e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171050295562], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575271207204e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671519638003e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881623906124e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137101469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396849755765e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.211639229874628e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374183691354], ["'autoclave' (unit, GLO, None)", 0.00042203552885297733], ["'waste polypropylene' (kilogram, CH, None)", 4.519055450052897e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812833384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745206971776e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.3211213251813856e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968825402765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.006245693595004e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910070174935e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7084264735819806e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312076014694e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374183691354], ["'autoclave' (unit, GLO, None)", 0.00042203552885297733], ["'waste polypropylene' (kilogram, CH, None)", 2.998625579007062e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.6190679036053854e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.55849680464785e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00022140808834542573], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312076014694e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175615726857], ["'autoclave' (unit, GLO, None)", 0.0005627140384706364], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951414635774e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.637790014148792e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245330442954e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.50154456156816e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521027017335], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923932179137e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259017012806e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173165019664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036884916839e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175615726857], ["'autoclave' (unit, GLO, None)", 0.0005627140384706364], ["'waste polypropylene' (kilogram, CH, None)", 8.446832616921304e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.090200647716065e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763496886961984], ["'marginal heating grid' (megajoule, GLO, None)", -0.000633436304104544], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036884916839e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623788757], ["'mechanical disinfection' (unit, GLO, None)", 0.0004793738447806231], ["'autoclave' (unit, GLO, None)", 0.0008440710577059549], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879582408595e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133104626054], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159366359661e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565961052116e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.651511878109177e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.575333780032992e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623788757], ["'wet wipe' (unit, GLO, None)", 0.0016808440360905135], ["'autoclave' (unit, GLO, None)", 0.0008440710577059549], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879582408595e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133104626054], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159366359661e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565961052116e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.7487443546712e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812833384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916269474600514e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.347630308111876e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020401419454], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692239031156], ["'autoclave' (unit, GLO, None)", 0.000633053293279466], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859407197733e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848727384149], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318732719322e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590076955232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559390545862e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.787666890016496e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020401419454], ["'wet wipe' (unit, GLO, None)", 0.0016808440360905135], ["'autoclave' (unit, GLO, None)", 0.000633053293279466], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859407197733e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848727384149], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318732719322e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590076955232e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.7487443546712e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812833384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.83369388069508e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.3197536392117105e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981154870495], ["'autoclave' (unit, GLO, None)", 0.0005822019787702494], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618849052784e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.416483271665866e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434644562748e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010378450143309037], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025787083351], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135779744804], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533418158885e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025173163273], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282290392992]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981154870495], ["'autoclave' (unit, GLO, None)", 0.0005822019787702494], ["'waste polypropylene' (kilogram, CH, None)", 8.925176993296708e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553564230134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089564297084986e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006918966762206025], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282290392992]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367476055936], ["'autoclave' (unit, GLO, None)", 0.0007762693050269991], ["'waste polypropylene' (kilogram, CH, None)", 3.808913561928032e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440333743761e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513239235756e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029692172269942153], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884741397632], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798147301834], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077284412597e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648375107812], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000376051765160231]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367476055936], ["'autoclave' (unit, GLO, None)", 0.0007762693050269991], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134364308932], ["'waste polyethylene' (kilogram, CH, None)", 2.8459618027048134e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008826157182], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019794781513294765], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000376051765160231]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990076844925], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740202624837], ["'autoclave' (unit, GLO, None)", 0.001164403957540499], ["'aluminium scrap' (kilogram, RER, None)", 9.40357242118236e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436569172691], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911714838e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4721534283614742e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869404387992e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.7422827413635326e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990076844925], ["'wet wipe' (unit, GLO, None)", 0.010861422355493902], ["'autoclave' (unit, GLO, None)", 0.001164403957540499], ["'aluminium scrap' (kilogram, RER, None)", 9.40357242118236e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436569172691], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911714838e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4721534283614742e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923044162037e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.416483271665866e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787444894915e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010461290283959091]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000908893295037417], ["'mechanical disinfection' (unit, GLO, None)", 0.0002514870101312419], ["'autoclave' (unit, GLO, None)", 0.0008733029681553741], ["'aluminium scrap' (kilogram, RER, None)", 5.614814708552743e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071939839022], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869823429676e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987716835022e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934702193976e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.711413706817663e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000908893295037417], ["'wet wipe' (unit, GLO, None)", 0.010861422355493902], ["'autoclave' (unit, GLO, None)", 0.0008733029681553741], ["'aluminium scrap' (kilogram, RER, None)", 5.614814708552743e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071939839022], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869823429676e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00041369877168350214], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923044162037e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.416483271665866e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908097872995e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010374176146890914]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891590716367e-10], ["'autoclave' (unit, GLO, None)", 1.9197084589408576e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846541383144e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749235852297e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125809075526e-11], ["'marginal heating grid' (megajoule, GLO, None)", -8.77999977162887e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873249871452e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0932949694719523e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998100367318e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964206266353423e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225892629263e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891590716367e-10], ["'autoclave' (unit, GLO, None)", 1.9197084589408576e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300041478534e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784123362037e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750539383686e-10], ["'marginal heating grid' (megajoule, GLO, None)", -5.853333181085914e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225892629263e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934503795805e-09], ["'autoclave' (unit, GLO, None)", 2.55961127858781e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266374197127e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932567518721e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469613282681e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.511909409877814e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530670167996e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334374138887e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248770068506775e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.37019894826857e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390214390414e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934503795805e-09], ["'autoclave' (unit, GLO, None)", 2.55961127858781e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591666136717e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037455519752e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979742188459e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.674606273251876e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390214390414e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627840784888e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722474979477e-09], ["'autoclave' (unit, GLO, None)", 3.839416917881716e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343412242603e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647934130848e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229718117194e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884501721188e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.75178738658363e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.473942819983274e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627840784888e-10], ["'wet wipe' (unit, GLO, None)", 4.979514081051248e-10], ["'autoclave' (unit, GLO, None)", 3.839416917881716e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343412242603e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647934130848e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229718117194e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884501721188e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602861124281e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749235852297e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.054015235859296e-11], ["'marginal heating grid' (megajoule, GLO, None)", -8.850081181275386e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.841175006533619e-10], ["'mechanical disinfection' (unit, GLO, None)", 9.753612374897384e-10], ["'autoclave' (unit, GLO, None)", 2.8795626884112864e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668723033765e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979300087126e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245943623439e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124496142514e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893693291806e-13], ["'marginal heating grid' (megajoule, GLO, None)", -7.36971409991637e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.841175006533619e-10], ["'wet wipe' (unit, GLO, None)", 4.979514081051248e-10], ["'autoclave' (unit, GLO, None)", 2.8795626884112864e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668723033765e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979300087126e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245943623439e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124496142513e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602861124281e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749235852297e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0202562989263875e-11], ["'marginal heating grid' (megajoule, GLO, None)", -8.776384040276221e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419973907526e-07], ["'autoclave' (unit, GLO, None)", 2.35579482635739e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553165113264e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446702948443e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.84413416384816e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.1381719945430676e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114255901236e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791709274327e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276790842465e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190456657656e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417654513483e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419973907526e-07], ["'autoclave' (unit, GLO, None)", 2.35579482635739e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567731125394e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728213801394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627561092321064e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.425447996362045e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417654513483e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507906972537e-06], ["'autoclave' (unit, GLO, None)", 3.14105976847652e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.52521129933943e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816481899118e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997855387428521e-08], ["'marginal heating grid' (megajoule, GLO, None)", -6.117191905158254e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005668051672e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830514441787e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828909483492e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5279409737063823e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260985467154e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507906972537e-06], ["'autoclave' (unit, GLO, None)", 3.14105976847652e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202177781802e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780576096981e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.33190359161902e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.0781279367721694e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260985467154e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685211342481e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.5389551072558487e-07], ["'autoclave' (unit, GLO, None)", 4.7115896527147813e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.903222636180397e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274582756154e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.59438799974823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739980435028e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341796391921e-11], ["'marginal heating grid' (megajoule, GLO, None)", -3.5894571084497813e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685211342481e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805528925848e-07], ["'autoclave' (unit, GLO, None)", 4.7115896527147813e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.903222636180397e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274582756154e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.59438799974823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739980435028e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518306311e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446702948443e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8748178025816445e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.1552387498211807e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576901424e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775536279243e-07], ["'autoclave' (unit, GLO, None)", 3.533692239536085e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334962107708578e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479931272805e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.18877599949646e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.247334829213239e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266708981959516e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.7947285542248907e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576901424e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805528925848e-07], ["'autoclave' (unit, GLO, None)", 3.533692239536085e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334962107708578e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479931272805e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.18877599949646e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348292132386e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518306311e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446702948443e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842551093599694e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.1372914642789317e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384663425862], ["'autoclave' (unit, GLO, None)", 0.002277034620609344], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808211277824e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356934778974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758621383731e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006378330186646955], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824942025315], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377924212403], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001160614490142606], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791300081615], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2588846893617836e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384663425862], ["'autoclave' (unit, GLO, None)", 0.002277034620609344], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863392530143], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380656736828e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738390809224873], ["'marginal heating grid' (megajoule, GLO, None)", -0.004252220124431304], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2588846893617836e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628554612132], ["'autoclave' (unit, GLO, None)", 0.0030360461608124585], ["'waste polypropylene' (kilogram, CH, None)", 9.878595222445964e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077353598921e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340826109750153], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018248050150203854], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1147169271762092], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564626270339], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114627404495], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074084736946], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116257391570391e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628554612132], ["'autoclave' (unit, GLO, None)", 0.0030360461608124585], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524899304267], ["'waste polyethylene' (kilogram, CH, None)", 8.322717144188947e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227217406500111], ["'marginal heating grid' (megajoule, GLO, None)", -0.012165366766802568], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116257391570391e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642887800588], ["'mechanical disinfection' (unit, GLO, None)", 0.003536636387858462], ["'autoclave' (unit, GLO, None)", 0.004554069241218689], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917427376836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997414285185], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799844953408e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96519256776207e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063651946355e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0707624403897591e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642887800588], ["'wet wipe' (unit, GLO, None)", 0.012600254485570348], ["'autoclave' (unit, GLO, None)", 0.004554069241218689], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917427376836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997414285185], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799844953408e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96519256776207e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437290484582e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356934778974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928896187355e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006429241619710491]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709162241238], ["'mechanical disinfection' (unit, GLO, None)", 0.001768318193929231], ["'autoclave' (unit, GLO, None)", 0.003415551930914016], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372096663579], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200122590584], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599689906816e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332923087904685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031825973164e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.3538122019487955e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709162241238], ["'wet wipe' (unit, GLO, None)", 0.012600254485570348], ["'autoclave' (unit, GLO, None)", 0.003415551930914016], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372096663579], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200122590584], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599689906816e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329230879046847e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437290484582e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356934778974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118577927639e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006375703497691002]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000554650961291966], ["'autoclave' (unit, GLO, None)", 0.0005799645459735028], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812694931212e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873248997589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483395120557e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.619092641869904e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592178533304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.954636024236681e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140694951257e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518653352781e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470295846441e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000554650961291966], ["'autoclave' (unit, GLO, None)", 0.0005799645459735028], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389732150618e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943596525203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963222634137046e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001746061761246603], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470295846441e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385777806803], ["'autoclave' (unit, GLO, None)", 0.0007732860612980038], ["'waste polypropylene' (kilogram, CH, None)", 5.255722660340334e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351366240429e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.35870113421913e-05], ["'marginal heating grid' (megajoule, GLO, None)", -7.493079297921474e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279255547453], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593859353118e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039631629057e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503248881075], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068974575791]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385777806803], ["'autoclave' (unit, GLO, None)", 0.0007732860612980038], ["'waste polypropylene' (kilogram, CH, None)", 3.469123868211442e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112307619008e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724674228127545], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004995386198614316], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068974575791]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731988910179], ["'mechanical disinfection' (unit, GLO, None)", 0.000527912292609732], ["'autoclave' (unit, GLO, None)", 0.0011599290919470059], ["'aluminium scrap' (kilogram, RER, None)", 5.802154987375351e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854409346273], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674892431912e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205521662174e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429864219534e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.3968028414185113e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455731988910179], ["'wet wipe' (unit, GLO, None)", 0.0002303881981855204], ["'autoclave' (unit, GLO, None)", 0.0011599290919470059], ["'aluminium scrap' (kilogram, RER, None)", 5.802154987375351e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854409346273], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674892431912e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205521662174e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495318548296e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873248997589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.31029034650616e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.639998075709455e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632856077018], ["'mechanical disinfection' (unit, GLO, None)", 0.000263956146304866], ["'autoclave' (unit, GLO, None)", 0.0008699468189602542], ["'aluminium scrap' (kilogram, RER, None)", 3.46443071901408e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382420290644], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349784863824e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8495145957570034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214932109748e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.1984014207092556e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632856077018], ["'wet wipe' (unit, GLO, None)", 0.0002303881981855204], ["'autoclave' (unit, GLO, None)", 0.0008699468189602542], ["'aluminium scrap' (kilogram, RER, None)", 3.46443071901408e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382420290644], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349784863824e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001849514595757003], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495318548296e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873248997589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241088197185083e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.6180140615023623e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325576023956], ["'autoclave' (unit, GLO, None)", 0.05129836423672475], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070330374465], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672600577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851833934656], ["'marginal heating grid' (megajoule, GLO, None)", -0.00760620554970334], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649460658653], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193879221875], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372881430594], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535670908535], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479426422512]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325576023956], ["'autoclave' (unit, GLO, None)", 0.05129836423672475], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766293986794], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720531932293], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567889289771], ["'marginal heating grid' (megajoule, GLO, None)", -0.050708036998022274], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479426422512]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752943020052], ["'autoclave' (unit, GLO, None)", 0.06839781898229967], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305897292957], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279305372385], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395051471785976], ["'marginal heating grid' (megajoule, GLO, None)", -0.02176093370241637], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36326662389271047], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932138406584], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00360773818574044], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911456593955], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0233753639378286]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752943020052], ["'autoclave' (unit, GLO, None)", 0.06839781898229967], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575770928], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488986481], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034314523995], ["'marginal heating grid' (megajoule, GLO, None)", -0.14507289134944246], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0233753639378286]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609236966], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177722069442], ["'autoclave' (unit, GLO, None)", 0.10259672847344954], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554900571257], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1480561371157029], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742639860307], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896648783875], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141009460846953e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001276892067073742]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609236966], ["'wet wipe' (unit, GLO, None)", 0.0546233293328048], ["'autoclave' (unit, GLO, None)", 0.10259672847344954], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554900571257], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1480561371157029], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742639860307], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896648783875], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832877727331], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672600577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890333258227938], ["'marginal heating grid' (megajoule, GLO, None)", -0.007666917807203259]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092660721], ["'mechanical disinfection' (unit, GLO, None)", 0.02547588861034721], ["'autoclave' (unit, GLO, None)", 0.07694754635508713], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127893075572], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539493706848], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527972061], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0025715500483328687], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.57050473042346e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.38446033536871e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092660721], ["'wet wipe' (unit, GLO, None)", 0.0546233293328048], ["'autoclave' (unit, GLO, None)", 0.07694754635508713], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127893075572], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539493706848], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527972061], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02571550048332868], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832877727331], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672600577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824628210923722], ["'marginal heating grid' (megajoule, GLO, None)", -0.007603073203849571]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693268255438], ["'autoclave' (unit, GLO, None)", 0.022422924663418848], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603266253116], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352008949674], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038295881129967726], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009414587864598232], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913120484098303], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552578631502133], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173535675211], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853481615186], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726761480915]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693268255438], ["'autoclave' (unit, GLO, None)", 0.022422924663418848], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409643962348], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520101382032], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587419978486], ["'marginal heating grid' (megajoule, GLO, None)", -0.006276391909732155], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003107726761480915]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403352065734], ["'autoclave' (unit, GLO, None)", 0.029897232884558464], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521298761397], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718175178388], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239939865268], ["'marginal heating grid' (megajoule, GLO, None)", -0.002693461556072282], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600136252834], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640170646273], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497996050497], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948883046803344], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285944846021]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403352065734], ["'autoclave' (unit, GLO, None)", 0.029897232884558464], ["'waste polypropylene' (kilogram, CH, None)", 0.026795520123837603], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266880366776], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159959910184], ["'marginal heating grid' (megajoule, GLO, None)", -0.01795641037381521], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285944846021]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532312260503], ["'mechanical disinfection' (unit, GLO, None)", 0.0318529184903366], ["'autoclave' (unit, GLO, None)", 0.04484584932683771], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900347955126], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757937756667], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116607205715e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122358102380414e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922607588757e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.580474321988717e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532312260503], ["'wet wipe' (unit, GLO, None)", 0.001688697327916856], ["'autoclave' (unit, GLO, None)", 0.04484584932683771], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900347955126], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757937756667], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116607205715e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.8122358102380414e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429802550616e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352008949674], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556460611265], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009489734516756928]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723132448188], ["'mechanical disinfection' (unit, GLO, None)", 0.0159264592451683], ["'autoclave' (unit, GLO, None)", 0.033634386995128274], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136006969242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984580299536], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321441143e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726397997166536e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.21446130379437e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.902371609943585e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003124723132448188], ["'wet wipe' (unit, GLO, None)", 0.001688697327916856], ["'autoclave' (unit, GLO, None)", 0.033634386995128274], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808136006969242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984580299536], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321441143e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726397997166534], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429802550616e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352008949674], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038280110330231917], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009410710800657491]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341302022574], ["'autoclave' (unit, GLO, None)", 0.026502074141552243], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454900349096], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405453118606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008895912784], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011905705749304138], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336180760677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920752326457203], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00037434844229335747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511884842729], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744173884383]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341302022574], ["'autoclave' (unit, GLO, None)", 0.026502074141552243], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710086428579], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355636855292], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003152005930608523], ["'marginal heating grid' (megajoule, GLO, None)", -0.007937137166202759], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004531744173884383]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575487331208], ["'autoclave' (unit, GLO, None)", 0.03533609885540299], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222755194169], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132055743316], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572146397714], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034061566151231534], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661435915813], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216719613332], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001127679626715891], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540520683747], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525355449559]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575487331208], ["'autoclave' (unit, GLO, None)", 0.03533609885540299], ["'waste polypropylene' (kilogram, CH, None)", 0.038793549539235445], ["'waste polyethylene' (kilogram, CH, None)", 0.0050277687544309614], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714764265149], ["'marginal heating grid' (megajoule, GLO, None)", -0.022707710767487687], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525355449559]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833473499987], ["'mechanical disinfection' (unit, GLO, None)", 0.038731918894471244], ["'autoclave' (unit, GLO, None)", 0.0530041482831045], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352120971014], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904162574366], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976171210063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508882169843e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146863564038e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9986708385488765e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833473499987], ["'wet wipe' (unit, GLO, None)", 0.001791116876743252], ["'autoclave' (unit, GLO, None)", 0.0530041482831045], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338352120971014], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904162574366], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976171210063e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508882169843e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990270125821674e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405453118606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747567537519], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012000736348785925]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108773885734], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959447235622], ["'autoclave' (unit, GLO, None)", 0.039753111212328364], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716193763405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984560597735], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952342420126e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183211987252073], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573431782009e-06], ["'marginal heating grid' (megajoule, GLO, None)", -9.993354192744382e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108773885734], ["'wet wipe' (unit, GLO, None)", 0.001791116876743252], ["'autoclave' (unit, GLO, None)", 0.039753111212328364], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716193763405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984560597735], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952342420126e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183211987252072], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990270125821674e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405453118606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047260618332197103], ["'marginal heating grid' (megajoule, GLO, None)", -0.001190080280685848]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931368434122], ["'autoclave' (unit, GLO, None)", 2.0531715668103674], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178360929588], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262114233432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999249099711878], ["'marginal heating grid' (megajoule, GLO, None)", -0.0882561418330977], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807710930318], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039280937391501417], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00908304642616313], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534574959323027], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169135276239]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931368434122], ["'autoclave' (unit, GLO, None)", 2.0531715668103674], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594987158885], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023459153258], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999499399807918], ["'marginal heating grid' (megajoule, GLO, None)", -0.5883742788873181], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359169135276239]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865612717873], ["'autoclave' (unit, GLO, None)", 2.7375620890804897], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243395903414], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442528282561], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052529792266], ["'marginal heating grid' (megajoule, GLO, None)", -0.25249594409606774], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498524141623], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822418049869357], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158414483804], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29674859040346563], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626243837383982]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865612717873], ["'autoclave' (unit, GLO, None)", 2.7375620890804897], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352076503903], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523212579964], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368353194848], ["'marginal heating grid' (megajoule, GLO, None)", -1.683306293973785], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626243837383982]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252627806815], ["'mechanical disinfection' (unit, GLO, None)", 2.14053788419671], ["'autoclave' (unit, GLO, None)", 4.106343133620736], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888877542412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458710798697], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073728178124], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504015692874231], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874922048878], ["'marginal heating grid' (megajoule, GLO, None)", -0.0014816003412057776]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252627806815], ["'wet wipe' (unit, GLO, None)", 0.1450638028721645], ["'autoclave' (unit, GLO, None)", 4.106343133620736], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888877542412], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458710798697], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073728178124], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504015692874231], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093454274422], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262114233432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.024190809606672258], ["'marginal heating grid' (megajoule, GLO, None)", -0.08896059684340561]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449883843798], ["'mechanical disinfection' (unit, GLO, None)", 1.070268942098355], ["'autoclave' (unit, GLO, None)", 3.079757350215551], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273086514797], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818144149428], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014745635625], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002929182998350696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144374610244338], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007408001706028888]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449883843798], ["'wet wipe' (unit, GLO, None)", 0.1450638028721645], ["'autoclave' (unit, GLO, None)", 3.079757350215551], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273086514797], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818144149428], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014745635625], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02929182998350696], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093454274422], ["'waste polyethylene' (kilogram, CH, None)", 0.0962262114233432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936586056987], ["'marginal heating grid' (megajoule, GLO, None)", -0.08821979667280272]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.143219240642437], ["'autoclave' (unit, GLO, None)", 0.013280171026194715], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584265344831], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296956647738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589806118867], ["'marginal heating grid' (megajoule, GLO, None)", -0.002021844076290596], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930687947098], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942577386512], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428734333619], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095994029543], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888006299475]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.143219240642437], ["'autoclave' (unit, GLO, None)", 0.013280171026194715], ["'waste polypropylene' (kilogram, CH, None)", 0.000674206993307928], ["'waste polyethylene' (kilogram, CH, None)", 8.017874208699914e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864393204079243], ["'marginal heating grid' (megajoule, GLO, None)", -0.013478960508603975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458888006299475]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337206180414], ["'autoclave' (unit, GLO, None)", 0.017706894701592955], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249562990172], ["'waste polyethylene' (kilogram, CH, None)", 3.628446512602849e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647696275494], ["'marginal heating grid' (megajoule, GLO, None)", -0.0057843841601807515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28151129419718657], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03023536115524096], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966888845425], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805616984629], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436809387097]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337206180414], ["'autoclave' (unit, GLO, None)", 0.017706894701592955], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746290364171], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152881041338115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804317975169987], ["'marginal heating grid' (megajoule, GLO, None)", -0.038562561067871676], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436809387097]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133581276], ["'mechanical disinfection' (unit, GLO, None)", 0.012412661851074513], ["'autoclave' (unit, GLO, None)", 0.026560342052389437], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105504079613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334994970702], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429866100937e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279370798415], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.23941580121645e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.394171568208791e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133581276], ["'wet wipe' (unit, GLO, None)", 0.03256387390328512], ["'autoclave' (unit, GLO, None)", 0.026560342052389437], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105504079613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334994970702], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429866100937e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003452279370798415], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480738387267], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296956647738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450613980396511], ["'marginal heating grid' (megajoule, GLO, None)", -0.0020379823093928068]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036516247], ["'mechanical disinfection' (unit, GLO, None)", 0.0062063309255372566], ["'autoclave' (unit, GLO, None)", 0.019920256539292074], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723340534212], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441555457602], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485973220187e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164632351324], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197079006082207e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6970857841043956e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036516247], ["'wet wipe' (unit, GLO, None)", 0.03256387390328512], ["'autoclave' (unit, GLO, None)", 0.019920256539292074], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723340534212], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441555457602], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485973220187e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164632351323], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480738387267], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296956647738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288643190335734], ["'marginal heating grid' (megajoule, GLO, None)", -0.0020210114515517626]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956247445752e-05], ["'autoclave' (unit, GLO, None)", -1.8291689705411176e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.603893062070029e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679733650608e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547977752581873e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.880130895626421e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874513225324e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016824128245e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511744853095e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092624863506e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602814988049e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956247445752e-05], ["'autoclave' (unit, GLO, None)", -1.8291689705411176e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919695392262e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4173533636366905e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.103198516838792e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9200872637509473e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.5107602814988049e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399956464652], ["'autoclave' (unit, GLO, None)", -2.43889196072149e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192502871205e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.54650516731289e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.02570207750981e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.239895315010527e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769316636267e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179820854131e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745628779678e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814345422150723e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173831247646e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399956464652], ["'autoclave' (unit, GLO, None)", -2.43889196072149e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.60540759265426e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365703389754e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134718339877e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.493263543340351e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2980173831247646e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521671035358e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.86810103629844e-05], ["'autoclave' (unit, GLO, None)", -3.658337941082236e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652972940578e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307085422795e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214896044247286e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.825504197360107e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118052721032e-09], ["'marginal heating grid' (megajoule, GLO, None)", -4.835020916444736e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521671035358e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503573100504e-05], ["'autoclave' (unit, GLO, None)", -3.658337941082236e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652972940578e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307085422795e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214896044247286e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.825504197360107e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041825212508e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679733650608e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799791740042506e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.903119920499087e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300012805019e-05], ["'mechanical disinfection' (unit, GLO, None)", 1.43405051814922e-05], ["'autoclave' (unit, GLO, None)", -2.7437534558116764e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045065227099e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318562909321e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429792088494573e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297210133918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590263605088e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.417510458222368e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300012805019e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503573100504e-05], ["'autoclave' (unit, GLO, None)", -2.7437534558116764e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045065227099e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318562909321e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429792088494573e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972101339175e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041825212508e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679733650608e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.153498583740653e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.878944815916863e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816891170517e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167351974808], ["'waste polypropylene' (kilogram, CH, None)", 4.286217843437965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735116776314e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3704670422217625e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.536093493172089e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.607491434422551e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705433562523e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738342770621e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.7821344132621705e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710849650616e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816891170517e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167351974808], ["'waste polypropylene' (kilogram, CH, None)", 2.8441258587298646e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.435398559537964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.246978028147842e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.6907289954480595e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710849650616e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355759089066e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313596641], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607537959847e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714251554196e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719930810677e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.255623320645052e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396421387975e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989013984837e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789505732683e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.6287702572569497e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388624631615e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355759089066e-05], ["'autoclave' (unit, GLO, None)", 0.0001774022313596641], ["'waste polypropylene' (kilogram, CH, None)", 8.011622137267226e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724684165255e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479953873789e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.837082213763368e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388624631615e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832147154717e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.7229478068778e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470394962], ["'aluminium scrap' (kilogram, RER, None)", 4.903957109124667e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917984178849e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244325293113e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.160462377260606e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172922653044e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.257467986669223e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832147154717e-06], ["'wet wipe' (unit, GLO, None)", 9.715466391038748e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033470394962], ["'aluminium scrap' (kilogram, RER, None)", 4.903957109124667e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917984178849e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244325293113e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.160462377260606e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458549984e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735116776314e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.397369899582788e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.556336432992107e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886967979789e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.8614739034389e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751027962212], ["'aluminium scrap' (kilogram, RER, None)", 2.928122342568493e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222993002854e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488650586226e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930475647026e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086461326514e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.1287339933346117e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886967979789e-06], ["'wet wipe' (unit, GLO, None)", 9.715466391038748e-05], ["'autoclave' (unit, GLO, None)", 0.00019957751027962212], ["'aluminium scrap' (kilogram, RER, None)", 2.928122342568493e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222993002854e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488650586226e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393047564702e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458549984e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735116776314e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.369079034969531e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.5350490930587604e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426236658847], ["'autoclave' (unit, GLO, None)", 0.002716220104584677], ["'waste polypropylene' (kilogram, CH, None)", 6.352133564768712e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.6778098029027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758932408343929], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002957449258929697], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415376438394], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040953871966279505], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238731558581e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961133069425753], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440227691942]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426236658847], ["'autoclave' (unit, GLO, None)", 0.002716220104584677], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967131762417], ["'waste polyethylene' (kilogram, CH, None)", 5.120887822669966e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839288272229285], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019716328392864646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440227691942]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047242611424], ["'autoclave' (unit, GLO, None)", 0.0036216268061129027], ["'waste polypropylene' (kilogram, CH, None)", 0.0001798781747780299], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306652798056e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165573452687], ["'marginal heating grid' (megajoule, GLO, None)", -0.0008461098879235472], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00842159042052074], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922630627812], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435793828464], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00336933325899317], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002160854672371853]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047242611424], ["'autoclave' (unit, GLO, None)", 0.0036216268061129027], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146850034978], ["'waste polyethylene' (kilogram, CH, None)", 0.0001542605822785038], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00224277704896846], ["'marginal heating grid' (megajoule, GLO, None)", -0.005640732586156981], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002160854672371853]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096433201898], ["'mechanical disinfection' (unit, GLO, None)", 0.006515241157981769], ["'autoclave' (unit, GLO, None)", 0.005432440209169356], ["'aluminium scrap' (kilogram, RER, None)", 0.0004184898073720396], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377553080158], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573943575743e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396122044108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740312579452094e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.9648191503945536e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096433201898], ["'wet wipe' (unit, GLO, None)", 0.0014416306017707963], ["'autoclave' (unit, GLO, None)", 0.005432440209169356], ["'aluminium scrap' (kilogram, RER, None)", 0.0004184898073720396], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377553080158], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573943575743e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396122044108], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998996504612e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.6778098029027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791472187816], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002981055434147784]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452919930552], ["'mechanical disinfection' (unit, GLO, None)", 0.0032576205789908845], ["'autoclave' (unit, GLO, None)", 0.004074330156877016], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776656963829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434419783683], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887151486e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023771805016415605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156289726022e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4824095751972768e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452919930552], ["'wet wipe' (unit, GLO, None)", 0.0014416306017707963], ["'autoclave' (unit, GLO, None)", 0.004074330156877016], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776656963829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434419783683], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887151486e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771805016415603], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998996504612e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.6778098029027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089909290584], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002956231338395811]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933204296411], ["'autoclave' (unit, GLO, None)", 0.1149517800762535], ["'waste polypropylene' (kilogram, CH, None)", 0.017294968006566713], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519037281827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128507119221263], ["'marginal heating grid' (megajoule, GLO, None)", -0.012157011986791259], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.049915194554250523], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005445273970017151], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970366852375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562244655653], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605439866307]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933204296411], ["'autoclave' (unit, GLO, None)", 0.1149517800762535], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100266039595], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056275324668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004746147507], ["'marginal heating grid' (megajoule, GLO, None)", -0.0810467465786084], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605439866307]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902901439402], ["'autoclave' (unit, GLO, None)", 0.15326904010167133], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547014943659], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017214005248], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090835516042352], ["'marginal heating grid' (megajoule, GLO, None)", -0.03478053940763719], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978599706274], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688647624435], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.01402253796892256], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367780970861], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292058353825]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902901439402], ["'autoclave' (unit, GLO, None)", 0.15326904010167133], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704300292844], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634558866716], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236773615685], ["'marginal heating grid' (megajoule, GLO, None)", -0.23187026271758124], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317292058353825]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560936841], ["'mechanical disinfection' (unit, GLO, None)", 0.267413020154003], ["'autoclave' (unit, GLO, None)", 0.22990356015250707], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561789101383], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068156257098], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059485740858], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885384481325], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824688703984e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00020408588834231007]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560936841], ["'wet wipe' (unit, GLO, None)", 0.04043778807613494], ["'autoclave' (unit, GLO, None)", 0.22990356015250707], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561789101383], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068156257098], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059485740858], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003044885384481325], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529287449027], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519037281827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038432846480967718], ["'marginal heating grid' (megajoule, GLO, None)", -0.01225404849696031]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962236507203], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065100770015], ["'autoclave' (unit, GLO, None)", 0.17242767011438026], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601435585533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738952977124], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118971481716], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417335451828], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412344351984e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010204294417115503]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962236507203], ["'wet wipe' (unit, GLO, None)", 0.04043778807613494], ["'autoclave' (unit, GLO, None)", 0.17242767011438026], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601435585533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738952977124], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118971481716], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.050954173354518274], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529287449027], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519037281827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805246532607], ["'marginal heating grid' (megajoule, GLO, None)", -0.012152005552789153]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498015198887], ["'autoclave' (unit, GLO, None)", 0.0012325865445521433], ["'waste polypropylene' (kilogram, CH, None)", 1.9399936142370724e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210170660466325e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037309229421e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001160505994396528], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360378864319], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266743448574], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957433632196], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958087275095], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586039925217]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498015198887], ["'autoclave' (unit, GLO, None)", 0.0012325865445521433], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854823442257e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816324835008275e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.306024872819614e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.007736706629310188], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586039925217]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0215546700700864], ["'autoclave' (unit, GLO, None)", 0.0016434487260695244], ["'waste polypropylene' (kilogram, CH, None)", 5.493626776764795e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317566324239e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.60469747078611e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0033201435118072223], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00540013454372009], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623971329182], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064206279849], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157207683126], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667246496108]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0215546700700864], ["'autoclave' (unit, GLO, None)", 0.0016434487260695244], ["'waste polypropylene' (kilogram, CH, None)", 3.626156288293594e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270667316185435e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736464980524076e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.022134290078714813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667246496108]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316771231771], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532601029993], ["'autoclave' (unit, GLO, None)", 0.0024651730891042875], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713413697077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724004930936], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561745530463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096043024694e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887346823727424e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.948199911707943e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316771231771], ["'wet wipe' (unit, GLO, None)", 0.0013201850154176686], ["'autoclave' (unit, GLO, None)", 0.0024651730891042875], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713413697077], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724004930936], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298561745530463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096043024694e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955824169937e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210170660466325e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974674222640799e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011697690807411707]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778569665574], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266300514997], ["'autoclave' (unit, GLO, None)", 0.001848879816828215], ["'aluminium scrap' (kilogram, RER, None)", -7.942370492722692e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932297802924], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712349106093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834156601393], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367341186367e-08], ["'marginal heating grid' (megajoule, GLO, None)", -9.740999558539715e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001675778569665574], ["'wet wipe' (unit, GLO, None)", 0.0013201850154176686], ["'autoclave' (unit, GLO, None)", 0.001848879816828215], ["'aluminium scrap' (kilogram, RER, None)", -7.942370492722692e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932297802924], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712349106093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001582583415660139], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955824169937e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210170660466325e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582305492289398e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011600280811826307]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0101233198885803], ["'autoclave' (unit, GLO, None)", 0.17693989560168966], ["'waste polypropylene' (kilogram, CH, None)", -6.194517280465445e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549890402305013e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155745834189], ["'marginal heating grid' (megajoule, GLO, None)", -0.005971377291023172], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0014462728318244624], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376268129671655], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430946258798e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.003020574302322788], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392655695989]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0101233198885803], ["'autoclave' (unit, GLO, None)", 0.17693989560168966], ["'waste polypropylene' (kilogram, CH, None)", -4.1103806253555756e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035569103188757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721038305561262], ["'marginal heating grid' (megajoule, GLO, None)", -0.03980918194015448], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392655695989]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985488169428], ["'autoclave' (unit, GLO, None)", 0.23591986080225286], ["'waste polypropylene' (kilogram, CH, None)", -1.7541483513841402e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.27882013060399e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970358554023], ["'marginal heating grid' (megajoule, GLO, None)", -0.01708378040705697], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070635453810573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046278088545613716], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045782355305043], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508660006543066], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949359084476]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985488169428], ["'autoclave' (unit, GLO, None)", 0.23591986080225286], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578536972832608], ["'waste polyethylene' (kilogram, CH, None)", -1.5169045854172457e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646905702687], ["'marginal heating grid' (megajoule, GLO, None)", -0.11389186938037979], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949359084476]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558041068301], ["'mechanical disinfection' (unit, GLO, None)", 0.1764283439074388], ["'autoclave' (unit, GLO, None)", 0.3538797912033794], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835463505966407], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248673436664874], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588917704072445e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655251633955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880532873324e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010024452064287384]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558041068301], ["'wet wipe' (unit, GLO, None)", 0.007110329581984], ["'autoclave' (unit, GLO, None)", 0.3538797912033794], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835463505966407], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248673436664874], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588917704072445e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655251633955], ["'waste wipe incineration' (kilogram, CH, None)", -9.067288860185191e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549890402305013e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951303959088], ["'marginal heating grid' (megajoule, GLO, None)", -0.0060190404514982275]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688309383603425], ["'mechanical disinfection' (unit, GLO, None)", 0.0882141719537194], ["'autoclave' (unit, GLO, None)", 0.2654098434025345], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781968916356], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521459774361468], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117783540814489e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308026845993], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440266436653e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.012226032143692e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688309383603425], ["'wet wipe' (unit, GLO, None)", 0.007110329581984], ["'autoclave' (unit, GLO, None)", 0.2654098434025345], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781968916356], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521459774361468], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117783540814489e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308026845991], ["'waste wipe incineration' (kilogram, CH, None)", -9.067288860185191e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549890402305013e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565669012947303], ["'marginal heating grid' (megajoule, GLO, None)", -0.00596891819117679]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000261264828552426], ["'autoclave' (unit, GLO, None)", 0.0003262996560343637], ["'waste polypropylene' (kilogram, CH, None)", 2.8498015535736614e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880780752142696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462696994512e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.469217856592344e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013137463982881167], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456520747475483e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020697567921243e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771477087792246e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002868384742006e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000261264828552426], ["'autoclave' (unit, GLO, None)", 0.0003262996560343637], ["'waste polypropylene' (kilogram, CH, None)", 1.8909898159227098e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.059663083193371e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641797996341e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.6461452377282295e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002868384742006e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488848478615855], ["'autoclave' (unit, GLO, None)", 0.00043506620804581827], ["'waste polypropylene' (kilogram, CH, None)", 8.069998791895509e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320896208674263e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270736231295e-05], ["'marginal heating grid' (megajoule, GLO, None)", -7.064295820433665e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003697630591208276], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147108186133398e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030994177957018e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597599179659788e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613505659196e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488848478615855], ["'autoclave' (unit, GLO, None)", 0.00043506620804581827], ["'waste polypropylene' (kilogram, CH, None)", 5.32673187583862e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204487141944266e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180490820878], ["'marginal heating grid' (megajoule, GLO, None)", -4.709530546955776e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613505659196e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639847839466], ["'mechanical disinfection' (unit, GLO, None)", 0.00012895511062666675], ["'autoclave' (unit, GLO, None)", 0.0006525993120687276], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526056268245], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001813987740019139], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457412144001514e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346587146369e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989652844853e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.1452004844683226e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639847839466], ["'wet wipe' (unit, GLO, None)", 7.1562137246838e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993120687276], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526056268245], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001813987740019139], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457412144001514e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346587146369e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430845268023e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880780752142696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634712904558e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.488926999259239e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049240460119], ["'mechanical disinfection' (unit, GLO, None)", 6.447755531333338e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494840515456], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082929238106], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605399279968], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914824288003028e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0016087605224634e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994826422405e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.0726002422341613e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049240460119], ["'wet wipe' (unit, GLO, None)", 7.1562137246838e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494840515456], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082929238106], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605399279968], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914824288003028e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010016087605224632], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430845268023e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880780752142696e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165274764640356e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.468200996836897e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943672080459e-08], ["'autoclave' (unit, GLO, None)", -1.8381427912471174e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803224276e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.570974798074034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468528131633e-09], ["'marginal heating grid' (megajoule, GLO, None)", -8.719748167109355e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895097806142e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727854258018e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531031224456e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.171715819119725e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686706580915e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943672080459e-08], ["'autoclave' (unit, GLO, None)", -1.8381427912471174e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264385382e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429541122e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564568542109e-08], ["'marginal heating grid' (megajoule, GLO, None)", -5.8131654447395705e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686706580915e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348368219524e-08], ["'autoclave' (unit, GLO, None)", -2.450857054996157e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321279959e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098243728048e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931616240106e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.494671758819797e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883553427887e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821697281414e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232869103378e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819208787963e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255490258304e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348368219524e-08], ["'autoclave' (unit, GLO, None)", -2.450857054996157e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454265874324e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520901041e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287744160075e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.6631145058798645e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255490258304e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272601853051e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027924324237e-07], ["'autoclave' (unit, GLO, None)", -3.6762855824942365e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559614670825e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687566496473e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003918224e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137925186494e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.21867379094324e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.4638280794156288e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272601853051e-08], ["'wet wipe' (unit, GLO, None)", 9.851215178253762e-08], ["'autoclave' (unit, GLO, None)", -3.6762855824942365e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559614670825e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687566496473e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.634822003918224e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137925186494e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203596342082e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974798074034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914717963182e-09], ["'marginal heating grid' (megajoule, GLO, None)", -8.789348652212815e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293507225033e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.030513962162119e-08], ["'autoclave' (unit, GLO, None)", -2.7572141868706764e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630724322496e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.671479228594365e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007836448e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205428103963e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336895471612e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.319140397078144e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293507225033e-08], ["'wet wipe' (unit, GLO, None)", 9.851215178253762e-08], ["'autoclave' (unit, GLO, None)", -2.7572141868706764e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630724322496e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.671479228594365e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.269644007836448e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205428103963e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203596342082e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974798074034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213490084746e-09], ["'marginal heating grid' (megajoule, GLO, None)", -8.716157248242034e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187540471094], ["'autoclave' (unit, GLO, None)", 0.00024060147439256734], ["'waste polypropylene' (kilogram, CH, None)", 6.539683655093171e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216582701107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073073009382625e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6374956821700934e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001205362572429283], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240203744194e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259749053565e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952304881246084e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0860266792181526e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187540471094], ["'autoclave' (unit, GLO, None)", 0.00024060147439256734], ["'waste polypropylene' (kilogram, CH, None)", 4.339416257117899e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478399654775e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.938204867292175e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010916637881133957], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.0860266792181526e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452251752265], ["'autoclave' (unit, GLO, None)", 0.00032080196585675645], ["'waste polypropylene' (kilogram, CH, None)", 1.8518917266291878e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690419345543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645508638156e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.684784646542488e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576776704936], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654818602621e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556925780922e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719684858054e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001162448729309215]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452251752265], ["'autoclave' (unit, GLO, None)", 0.00032080196585675645], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707766529293e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453501023324e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545097005758775e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003123189764361658], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001162448729309215]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673938509838], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474642577374887], ["'autoclave' (unit, GLO, None)", 0.0004812029487851348], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575711820086e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358761503427], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705554688054e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904327271926e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643317952976e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.7489465447223526e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673938509838], ["'wet wipe' (unit, GLO, None)", 7.24035892807715e-05], ["'autoclave' (unit, GLO, None)", 0.0004812029487851348], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575711820086e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358761503427], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705554688054e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.641904327271926e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332387622194e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216582701107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305132461802754e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.650566070402606e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853507252954], ["'mechanical disinfection' (unit, GLO, None)", 9.737321288687443e-05], ["'autoclave' (unit, GLO, None)", 0.000360902211588851], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565682619125e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001744362206877117], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741110937611e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.278822906881884e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216589764818e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.3744732723611763e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853507252954], ["'wet wipe' (unit, GLO, None)", 7.24035892807715e-05], ["'autoclave' (unit, GLO, None)", 0.000360902211588851], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565682619125e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001744362206877117], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741110937611e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229068818837], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332387622194e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216582701107e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061100295905178e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6368213376789944e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848637055429], ["'autoclave' (unit, GLO, None)", 0.00041334986820796405], ["'waste polypropylene' (kilogram, CH, None)", 4.470534431074347e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137101469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361124999146e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.2129623744183904e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454838633382], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059934671027e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214221259204e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.165731645557311e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833185602522e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848637055429], ["'autoclave' (unit, GLO, None)", 0.00041334986820796405], ["'waste polypropylene' (kilogram, CH, None)", 2.9664293888437257e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.581873065754833e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417574083332763e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00021419749162789273], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833185602522e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529911458029], ["'autoclave' (unit, GLO, None)", 0.0005511331576106188], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550772107733e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576872535627e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540487154570102e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.192107781100368e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260307411837], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435514318464e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869208329801e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001173445533959806], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425643625528e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529911458029], ["'autoclave' (unit, GLO, None)", 0.0005511331576106188], ["'waste polypropylene' (kilogram, CH, None)", 8.356139123503454e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961504818547e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360324769713416], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006128071854066911], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425643625528e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694718864862], ["'mechanical disinfection' (unit, GLO, None)", 0.0004684476285889447], ["'autoclave' (unit, GLO, None)", 0.0008266997364159283], ["'aluminium scrap' (kilogram, RER, None)", 1.767358715056724e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741825959324], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287635603602e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701396421232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257667212135e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.393761897298802e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694718864862], ["'wet wipe' (unit, GLO, None)", 0.0010830399610908274], ["'autoclave' (unit, GLO, None)", 0.0008266997364159283], ["'aluminium scrap' (kilogram, RER, None)", 1.767358715056724e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741825959324], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287635603602e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701396421232e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881623906124e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137101469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703198138091803e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.238608039361123e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687001384], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381429447236], ["'autoclave' (unit, GLO, None)", 0.0006200248023119461], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789157273964e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171050295562], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575271207204e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671519638003e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128833606046e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.696880948649401e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421687001384], ["'wet wipe' (unit, GLO, None)", 0.0010830399610908274], ["'autoclave' (unit, GLO, None)", 0.0006200248023119461], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789157273964e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171050295562], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575271207204e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671519638003e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881623906124e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137101469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396849755765e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.211639229874628e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374183691354], ["'autoclave' (unit, GLO, None)", 0.00042203552885297733], ["'waste polypropylene' (kilogram, CH, None)", 4.519055450052897e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812833384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745206971776e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.3211213251813856e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968825402765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.006245693595004e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910070174935e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7084264735819806e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312076014694e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374183691354], ["'autoclave' (unit, GLO, None)", 0.00042203552885297733], ["'waste polypropylene' (kilogram, CH, None)", 2.998625579007062e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.6190679036053854e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.55849680464785e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00022140808834542573], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312076014694e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175615726857], ["'autoclave' (unit, GLO, None)", 0.0005627140384706364], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951414635774e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.637790014148792e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245330442954e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.50154456156816e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521027017335], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923932179137e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259017012806e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173165019664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036884916839e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175615726857], ["'autoclave' (unit, GLO, None)", 0.0005627140384706364], ["'waste polypropylene' (kilogram, CH, None)", 8.446832616921304e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.090200647716065e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763496886961984], ["'marginal heating grid' (megajoule, GLO, None)", -0.000633436304104544], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036884916839e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623788757], ["'mechanical disinfection' (unit, GLO, None)", 0.0004793738447806231], ["'autoclave' (unit, GLO, None)", 0.0008440710577059549], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879582408595e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133104626054], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159366359661e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565961052116e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.651511878109177e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.575333780032992e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651623788757], ["'wet wipe' (unit, GLO, None)", 0.0016808440360905135], ["'autoclave' (unit, GLO, None)", 0.0008440710577059549], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879582408595e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133104626054], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159366359661e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565961052116e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.7487443546712e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812833384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916269474600514e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.347630308111876e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020401419454], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692239031156], ["'autoclave' (unit, GLO, None)", 0.000633053293279466], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859407197733e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848727384149], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318732719322e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590076955232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559390545862e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.787666890016496e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020401419454], ["'wet wipe' (unit, GLO, None)", 0.0016808440360905135], ["'autoclave' (unit, GLO, None)", 0.000633053293279466], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859407197733e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848727384149], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318732719322e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590076955232e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.7487443546712e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812833384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.83369388069508e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.3197536392117105e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981154870495], ["'autoclave' (unit, GLO, None)", 0.0005822019787702494], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618849052784e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.416483271665866e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434644562748e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010378450143309037], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025787083351], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135779744804], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533418158885e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025173163273], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282290392992]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981154870495], ["'autoclave' (unit, GLO, None)", 0.0005822019787702494], ["'waste polypropylene' (kilogram, CH, None)", 8.925176993296708e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553564230134e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089564297084986e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006918966762206025], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282290392992]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367476055936], ["'autoclave' (unit, GLO, None)", 0.0007762693050269991], ["'waste polypropylene' (kilogram, CH, None)", 3.808913561928032e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440333743761e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513239235756e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029692172269942153], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884741397632], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798147301834], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077284412597e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648375107812], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000376051765160231]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367476055936], ["'autoclave' (unit, GLO, None)", 0.0007762693050269991], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134364308932], ["'waste polyethylene' (kilogram, CH, None)", 2.8459618027048134e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008826157182], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019794781513294765], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000376051765160231]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990076844925], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740202624837], ["'autoclave' (unit, GLO, None)", 0.001164403957540499], ["'aluminium scrap' (kilogram, RER, None)", 9.40357242118236e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436569172691], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911714838e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4721534283614742e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869404387992e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.7422827413635326e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990076844925], ["'wet wipe' (unit, GLO, None)", 0.010861422355493902], ["'autoclave' (unit, GLO, None)", 0.001164403957540499], ["'aluminium scrap' (kilogram, RER, None)", 9.40357242118236e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436569172691], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911714838e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4721534283614742e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923044162037e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.416483271665866e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787444894915e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010461290283959091]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000908893295037417], ["'mechanical disinfection' (unit, GLO, None)", 0.0002514870101312419], ["'autoclave' (unit, GLO, None)", 0.0008733029681553741], ["'aluminium scrap' (kilogram, RER, None)", 5.614814708552743e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071939839022], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869823429676e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987716835022e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934702193976e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.711413706817663e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000908893295037417], ["'wet wipe' (unit, GLO, None)", 0.010861422355493902], ["'autoclave' (unit, GLO, None)", 0.0008733029681553741], ["'aluminium scrap' (kilogram, RER, None)", 5.614814708552743e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071939839022], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869823429676e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00041369877168350214], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923044162037e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.416483271665866e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908097872995e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010374176146890914]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891590716367e-10], ["'autoclave' (unit, GLO, None)", 1.9197084589408576e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846541383144e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749235852297e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125809075526e-11], ["'marginal heating grid' (megajoule, GLO, None)", -8.77999977162887e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873249871452e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0932949694719523e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998100367318e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964206266353423e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225892629263e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891590716367e-10], ["'autoclave' (unit, GLO, None)", 1.9197084589408576e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300041478534e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784123362037e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750539383686e-10], ["'marginal heating grid' (megajoule, GLO, None)", -5.853333181085914e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225892629263e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934503795805e-09], ["'autoclave' (unit, GLO, None)", 2.55961127858781e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266374197127e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932567518721e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469613282681e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.511909409877814e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530670167996e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334374138887e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248770068506775e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.37019894826857e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390214390414e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934503795805e-09], ["'autoclave' (unit, GLO, None)", 2.55961127858781e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591666136717e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037455519752e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979742188459e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.674606273251876e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390214390414e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627840784888e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722474979477e-09], ["'autoclave' (unit, GLO, None)", 3.839416917881716e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343412242603e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647934130848e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229718117194e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884501721188e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.75178738658363e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.473942819983274e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627840784888e-10], ["'wet wipe' (unit, GLO, None)", 4.979514081051248e-10], ["'autoclave' (unit, GLO, None)", 3.839416917881716e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343412242603e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647934130848e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229718117194e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884501721188e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602861124281e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749235852297e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.054015235859296e-11], ["'marginal heating grid' (megajoule, GLO, None)", -8.850081181275386e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.841175006533619e-10], ["'mechanical disinfection' (unit, GLO, None)", 9.753612374897384e-10], ["'autoclave' (unit, GLO, None)", 2.8795626884112864e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668723033765e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979300087126e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245943623439e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124496142514e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893693291806e-13], ["'marginal heating grid' (megajoule, GLO, None)", -7.36971409991637e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.841175006533619e-10], ["'wet wipe' (unit, GLO, None)", 4.979514081051248e-10], ["'autoclave' (unit, GLO, None)", 2.8795626884112864e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668723033765e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979300087126e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245943623439e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124496142513e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602861124281e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749235852297e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0202562989263875e-11], ["'marginal heating grid' (megajoule, GLO, None)", -8.776384040276221e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419973907526e-07], ["'autoclave' (unit, GLO, None)", 2.35579482635739e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553165113264e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446702948443e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.84413416384816e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.1381719945430676e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114255901236e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791709274327e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276790842465e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190456657656e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417654513483e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419973907526e-07], ["'autoclave' (unit, GLO, None)", 2.35579482635739e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567731125394e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728213801394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627561092321064e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.425447996362045e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417654513483e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507906972537e-06], ["'autoclave' (unit, GLO, None)", 3.14105976847652e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.52521129933943e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816481899118e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997855387428521e-08], ["'marginal heating grid' (megajoule, GLO, None)", -6.117191905158254e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005668051672e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830514441787e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828909483492e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5279409737063823e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260985467154e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507906972537e-06], ["'autoclave' (unit, GLO, None)", 3.14105976847652e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202177781802e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780576096981e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.33190359161902e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.0781279367721694e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260985467154e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685211342481e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.5389551072558487e-07], ["'autoclave' (unit, GLO, None)", 4.7115896527147813e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.903222636180397e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274582756154e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.59438799974823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739980435028e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341796391921e-11], ["'marginal heating grid' (megajoule, GLO, None)", -3.5894571084497813e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.287685211342481e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805528925848e-07], ["'autoclave' (unit, GLO, None)", 4.7115896527147813e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.903222636180397e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274582756154e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.59438799974823e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739980435028e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518306311e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446702948443e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8748178025816445e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.1552387498211807e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576901424e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775536279243e-07], ["'autoclave' (unit, GLO, None)", 3.533692239536085e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334962107708578e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479931272805e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.18877599949646e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.247334829213239e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266708981959516e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.7947285542248907e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576901424e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805528925848e-07], ["'autoclave' (unit, GLO, None)", 3.533692239536085e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334962107708578e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479931272805e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.18877599949646e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348292132386e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518306311e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446702948443e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842551093599694e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.1372914642789317e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384663425862], ["'autoclave' (unit, GLO, None)", 0.002277034620609344], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808211277824e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356934778974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758621383731e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006378330186646955], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824942025315], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377924212403], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001160614490142606], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791300081615], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2588846893617836e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384663425862], ["'autoclave' (unit, GLO, None)", 0.002277034620609344], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863392530143], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380656736828e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738390809224873], ["'marginal heating grid' (megajoule, GLO, None)", -0.004252220124431304], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.2588846893617836e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628554612132], ["'autoclave' (unit, GLO, None)", 0.0030360461608124585], ["'waste polypropylene' (kilogram, CH, None)", 9.878595222445964e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077353598921e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340826109750153], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018248050150203854], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1147169271762092], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564626270339], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114627404495], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074084736946], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116257391570391e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628554612132], ["'autoclave' (unit, GLO, None)", 0.0030360461608124585], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524899304267], ["'waste polyethylene' (kilogram, CH, None)", 8.322717144188947e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227217406500111], ["'marginal heating grid' (megajoule, GLO, None)", -0.012165366766802568], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116257391570391e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642887800588], ["'mechanical disinfection' (unit, GLO, None)", 0.003536636387858462], ["'autoclave' (unit, GLO, None)", 0.004554069241218689], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917427376836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997414285185], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799844953408e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96519256776207e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063651946355e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0707624403897591e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642887800588], ["'wet wipe' (unit, GLO, None)", 0.012600254485570348], ["'autoclave' (unit, GLO, None)", 0.004554069241218689], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917427376836], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057929997414285185], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799844953408e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96519256776207e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437290484582e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356934778974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928896187355e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006429241619710491]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709162241238], ["'mechanical disinfection' (unit, GLO, None)", 0.001768318193929231], ["'autoclave' (unit, GLO, None)", 0.003415551930914016], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372096663579], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200122590584], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599689906816e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332923087904685e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031825973164e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.3538122019487955e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709162241238], ["'wet wipe' (unit, GLO, None)", 0.012600254485570348], ["'autoclave' (unit, GLO, None)", 0.003415551930914016], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372096663579], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200122590584], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599689906816e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329230879046847e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437290484582e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356934778974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118577927639e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006375703497691002]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509623908738], ["'autoclave' (unit, GLO, None)", 0.0005799644756189666], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812615928127e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873231347088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244481886895309e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8425438645492016e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659219763314], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360203593777e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089141271849715e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518679171694e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703040953924e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509623908738], ["'autoclave' (unit, GLO, None)", 0.0005799644756189666], ["'waste polypropylene' (kilogram, CH, None)", 1.231538967972801e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.480594347880122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.496321257930206e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018950292430328013], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703040953924e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385780653278], ["'autoclave' (unit, GLO, None)", 0.0007732859674919554], ["'waste polypropylene' (kilogram, CH, None)", 5.255722637968433e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351312965063e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587007027242218e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.132360896436482e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279260923236], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593847683564e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039805412774e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503321610406], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068998043537]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385780653278], ["'autoclave' (unit, GLO, None)", 0.0007732859674919554], ["'waste polypropylene' (kilogram, CH, None)", 3.46912385344451e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.4601122721560755e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724671351494823], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005421573930957654], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068998043537]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455732002176474], ["'mechanical disinfection' (unit, GLO, None)", 0.0005279122713801783], ["'autoclave' (unit, GLO, None)", 0.0011599289512379334], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549599782845e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854414034374], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748429241866e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205537089801e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840427332285782e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.771921672684189e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455732002176474], ["'wet wipe' (unit, GLO, None)", 0.0002303881969091924], ["'autoclave' (unit, GLO, None)", 0.0011599289512379334], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549599782845e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854414034374], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748429241866e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205537089801e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531805589e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873231347088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310288826242352e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.86523287208806e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632861363645], ["'mechanical disinfection' (unit, GLO, None)", 0.00026395613569008913], ["'autoclave' (unit, GLO, None)", 0.0008699467134284499], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307026554614e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138244832797], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349685848373e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8495145983387164e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920213666142874e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.3859608363420947e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632861363645], ["'wet wipe' (unit, GLO, None)", 0.0002303881969091924], ["'autoclave' (unit, GLO, None)", 0.0008699467134284499], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307026554614e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138244832797], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349685848373e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495145983387162], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531805589e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873231347088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241086689580944e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.841373263724639e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325575242417], ["'autoclave' (unit, GLO, None)", 0.05129835634596331], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070327977556], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672227464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827850504288457], ["'marginal heating grid' (megajoule, GLO, None)", -0.005981033569538022], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649459817318], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193875652727], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001197637298686345], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453578486031], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479416734755]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325575242417], ["'autoclave' (unit, GLO, None)", 0.05129835634596331], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766292396322], ["'waste polyethylene' (kilogram, CH, None)", 0.02210672052944373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567002858971], ["'marginal heating grid' (megajoule, GLO, None)", -0.039873557130253486], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479416734755]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752939774826], ["'autoclave' (unit, GLO, None)", 0.06839780846128442], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896614206], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304246199], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395047667741687], ["'marginal heating grid' (megajoule, GLO, None)", -0.017111406486210446], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36326662386903047], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932137332374], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.003607738217500819], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911488693046], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363910267545]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752939774826], ["'autoclave' (unit, GLO, None)", 0.06839780846128442], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575322908], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488236831], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01493003177849447], ["'marginal heating grid' (megajoule, GLO, None)", -0.11407604324140297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363910267545]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609314245], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177773560573], ["'autoclave' (unit, GLO, None)", 0.10259671269192665], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554837476449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613699862158], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263132818], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896630665317], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141007228702856e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010040662545785017]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609314245], ["'wet wipe' (unit, GLO, None)", 0.05462332923765058], ["'autoclave' (unit, GLO, None)", 0.10259671269192665], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554837476449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613699862158], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263132818], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896630665317], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286905293], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672227464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890331917968586], ["'marginal heating grid' (megajoule, GLO, None)", -0.006028773805824907]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092547111], ["'mechanical disinfection' (unit, GLO, None)", 0.025475888867802866], ["'autoclave' (unit, GLO, None)", 0.07694753451894497], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127855402054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539486704767], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526265636], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002571550045300846], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.57050361435141e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0203312728925086e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092547111], ["'wet wipe' (unit, GLO, None)", 0.05462332923765058], ["'autoclave' (unit, GLO, None)", 0.07694753451894497], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127855402054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539486704767], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526265636], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.025715500453008456], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286905293], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672227464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824626881825091], ["'marginal heating grid' (megajoule, GLO, None)", -0.0059785704930959815]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693280781824], ["'autoclave' (unit, GLO, None)", 0.022422923408854798], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261621192], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352001470735], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829587823833413], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010109422413938736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913120506634916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002355257845813522], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173566850285], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853508151664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077267048757286]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693280781824], ["'autoclave' (unit, GLO, None)", 0.022422923408854798], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409640888828], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520096393784], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530585492222753], ["'marginal heating grid' (megajoule, GLO, None)", -0.006739614942625824], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077267048757286]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403351388237], ["'autoclave' (unit, GLO, None)", 0.0298972312118064], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521297449739], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172920984], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239112584875], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028922498804679693], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600142595921], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640118467881], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754498089961656], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948883121553985], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285783807849]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403351388237], ["'autoclave' (unit, GLO, None)", 0.0298972312118064], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201151798], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266865340285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159408389923], ["'marginal heating grid' (megajoule, GLO, None)", -0.01928166586978646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285783807849]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532294622954], ["'mechanical disinfection' (unit, GLO, None)", 0.031852918475492924], ["'autoclave' (unit, GLO, None)", 0.04484584681770961], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900246474885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757657748653], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116587388976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235704372012e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922122155649e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6971197003161872e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532294622954], ["'wet wipe' (unit, GLO, None)", 0.001688697304322538], ["'autoclave' (unit, GLO, None)", 0.04484584681770961], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900246474885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757657748653], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116587388976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235704372012e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429787131498e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352001470735], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003860155354589683], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010190115192060469]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00312472312426367], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459237746462], ["'autoclave' (unit, GLO, None)", 0.0336343851132822], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135946376021], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984412839944], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317477795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726397820006632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461061077816e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.485598501580936e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00312472312426367], ["'wet wipe' (unit, GLO, None)", 0.001688697304322538], ["'autoclave' (unit, GLO, None)", 0.0336343851132822], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135946376021], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984412839944], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317477795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726397820006632], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429787131498e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352001470735], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828010743978914], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010105259207044658]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341323354515], ["'autoclave' (unit, GLO, None)", 0.026502072405126066], ["'waste polypropylene' (kilogram, CH, None)", 0.0020754548997542156], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054521391036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280084932724785], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012735798963704223], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733361848333713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920752100083325], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484463919708], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525119200019424], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317441018762116]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341323354515], ["'autoclave' (unit, GLO, None)", 0.026502072405126066], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082481242], ["'waste polyethylene' (kilogram, CH, None)", 0.001669035563032228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520056621816522], ["'marginal heating grid' (megajoule, GLO, None)", -0.008490532642469482], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317441018762116]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0223957548766552], ["'autoclave' (unit, GLO, None)", 0.03533609654016809], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222753509601], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052786836], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526570994466054], ["'marginal heating grid' (megajoule, GLO, None)", -0.00364364169605277], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661447378694], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216651481389], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796390624704], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540619723784], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525150590866]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0223957548766552], ["'autoclave' (unit, GLO, None)", 0.03533609654016809], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952811618], ["'waste polyethylene' (kilogram, CH, None)", 0.00502776875246297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00901771399631071], ["'marginal heating grid' (megajoule, GLO, None)", -0.024290944640351798], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525150590866]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833452520149], ["'mechanical disinfection' (unit, GLO, None)", 0.038731918837214496], ["'autoclave' (unit, GLO, None)", 0.05300414481025215], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835199214738], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0049529041259734705], ["'waste plastic, mixture' (kilogram, CH, None)", 2.516497614512009e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508747496333e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.93714618763146e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.1380227707932732e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833452520149], ["'wet wipe' (unit, GLO, None)", 0.0017911168411050078], ["'autoclave' (unit, GLO, None)", 0.05300414481025215], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835199214738], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0049529041259734705], ["'waste plastic, mixture' (kilogram, CH, None)", 2.516497614512009e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508747496333e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269930421236e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054521391036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747161683364], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012837455315363267]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108764034674], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959418607248], ["'autoclave' (unit, GLO, None)", 0.0397531086076891], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716116843613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984341705036], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995229024018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183211761884725], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.96857309381572e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0690113853966366e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108764034674], ["'wet wipe' (unit, GLO, None)", 0.0017911168411050078], ["'autoclave' (unit, GLO, None)", 0.0397531086076891], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716116843613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984341705036], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995229024018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183211761884724], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269930421236e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054521391036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061430745218], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012730554176823602]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931496497638], ["'autoclave' (unit, GLO, None)", 2.0531711910952346], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178360582809], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621136133123], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999239820916694], ["'marginal heating grid' (megajoule, GLO, None)", -0.09260613615587956], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36128077499480776], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093716833067], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046770928464], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534575246698431], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359168751776285]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931496497638], ["'autoclave' (unit, GLO, None)", 2.0531711910952346], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594986928779], ["'waste polyethylene' (kilogram, CH, None)", 0.0641802345501723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999493213944463], ["'marginal heating grid' (megajoule, GLO, None)", -0.6173742410391971], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359168751776285]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865634459231], ["'autoclave' (unit, GLO, None)", 2.73756158812698], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243394921413], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425264108234], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866049875180247], ["'marginal heating grid' (megajoule, GLO, None)", -0.2649410374406245], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498633959822], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822417982701465], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158518340211], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485984985474], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626242746350885]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865634459231], ["'autoclave' (unit, GLO, None)", 2.73756158812698], ["'waste polypropylene' (kilogram, CH, None)", 1.491435207585572], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523200120678], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577366583453501], ["'marginal heating grid' (megajoule, GLO, None)", -1.7662735829374967], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626242746350885]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252658964512], ["'mechanical disinfection' (unit, GLO, None)", 2.1405377704284896], ["'autoclave' (unit, GLO, None)", 4.106342382190471], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888644507454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458738699362], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073520077983], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401497563223], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00040288733643707584], ["'marginal heating grid' (megajoule, GLO, None)", -0.001554625888652265]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252658964512], ["'wet wipe' (unit, GLO, None)", 0.1450637965999957], ["'autoclave' (unit, GLO, None)", 4.106342382190471], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888644507454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458738699362], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073520077983], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401497563223], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613094157427003], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621136133123], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080025381431], ["'marginal heating grid' (megajoule, GLO, None)", -0.09334531254910595]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449905244089], ["'mechanical disinfection' (unit, GLO, None)", 1.0702688852142448], ["'autoclave' (unit, GLO, None)", 3.0797567866428524], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327300834527], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818160835501], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147040155966], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0029291828783249195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144366821853738], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007773129443261325]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449905244089], ["'wet wipe' (unit, GLO, None)", 0.1450637965999957], ["'autoclave' (unit, GLO, None)", 3.0797567866428524], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327300834527], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818160835501], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147040155966], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02929182878324919], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613094157427003], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621136133123], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989356585595832], ["'marginal heating grid' (megajoule, GLO, None)", -0.09256799960477981]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192406125239], ["'autoclave' (unit, GLO, None)", 0.013280169104562024], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584211005412], ["'waste polyethylene' (kilogram, CH, None)", 0.0001202129686840645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296586631234092], ["'marginal heating grid' (megajoule, GLO, None)", -0.0014352536576676283], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930686816157], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942575398353], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00035284287580833684], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959951655002], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001845888796769106]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192406125239], ["'autoclave' (unit, GLO, None)", 0.013280169104562024], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069897022283], ["'waste polyethylene' (kilogram, CH, None)", 8.017874149845403e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864391087489394], ["'marginal heating grid' (megajoule, GLO, None)", -0.00956835771778419], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001845888796769106]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337204665093], ["'autoclave' (unit, GLO, None)", 0.017706892139416033], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249547602467], ["'waste polyethylene' (kilogram, CH, None)", 3.628446485968552e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520646787958507], ["'marginal heating grid' (megajoule, GLO, None)", -0.004106181391833935], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112941653554], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361149257175], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896696038869], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805620184508], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436798403247]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337204665093], ["'autoclave' (unit, GLO, None)", 0.017706892139416033], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746188795164], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880864045985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003680431191972341], ["'marginal heating grid' (megajoule, GLO, None)", -0.02737454261222623], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436798403247]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133890402], ["'mechanical disinfection' (unit, GLO, None)", 0.012412662103314131], ["'autoclave' (unit, GLO, None)", 0.026560338209124058], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105374271114], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334993503541], ["'waste plastic, mixture' (kilogram, CH, None)", 2.439742967411539e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793635776637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415268232539e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.40943266355173e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133890402], ["'wet wipe' (unit, GLO, None)", 0.03256387387433392], ["'autoclave' (unit, GLO, None)", 0.026560338209124058], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105374271114], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334993503541], ["'waste plastic, mixture' (kilogram, CH, None)", 2.439742967411539e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793635776637], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715504182], ["'waste polyethylene' (kilogram, CH, None)", 0.0001202129686840645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450610780170007], ["'marginal heating grid' (megajoule, GLO, None)", -0.001446709762695636]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036641722], ["'mechanical disinfection' (unit, GLO, None)", 0.006206331051657066], ["'autoclave' (unit, GLO, None)", 0.019920253656843037], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723332783427], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441546683207], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485934823078e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164620267867], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197076341162653e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.204716331775865e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036641722], ["'wet wipe' (unit, GLO, None)", 0.03256387387433392], ["'autoclave' (unit, GLO, None)", 0.019920253656843037], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723332783427], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441546683207], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485934823078e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164620267866], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715504182], ["'waste polyethylene' (kilogram, CH, None)", 0.0001202129686840645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288640016758426], ["'marginal heating grid' (megajoule, GLO, None)", -0.0014346625993778774]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956257531304e-05], ["'autoclave' (unit, GLO, None)", -1.8291692812754497e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929024346453e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679500462718e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547971037733785e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.8993369919874955e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874524350733e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016794025304e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251278808682e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092733566891e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760281027549e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956257531304e-05], ["'autoclave' (unit, GLO, None)", -1.8291692812754497e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549195894659794e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.417353208106786e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031980691822524e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.932891327991664e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760281027549e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399959538142], ["'autoclave' (unit, GLO, None)", -2.438892375033933e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192050819605e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050969286552e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025700156428883e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.29484289522835e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.85676931976759e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179811794023e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745943041283e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814345728357443e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017381784071e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399959538142], ["'autoclave' (unit, GLO, None)", -2.438892375033933e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407294270366e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365234874634e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0171334376192595e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.5298952634855655e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017381784071e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521660038101e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.868101058336699e-05], ["'autoclave' (unit, GLO, None)", -3.658338562550901e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652592726487e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307065579125e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895436537212e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041964787386e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296116925465634e-09], ["'marginal heating grid' (megajoule, GLO, None)", -4.867263158549102e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521660038101e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503472500088e-05], ["'autoclave' (unit, GLO, None)", -3.658338562550901e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652592726487e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307065579125e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895436537212e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041964787386e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417741306365e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679500462718e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.179978497159692e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.9224793187214147e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300003717079e-05], ["'mechanical disinfection' (unit, GLO, None)", 1.4340505291683495e-05], ["'autoclave' (unit, GLO, None)", -2.743753921913175e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450425247518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318551041758e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790873074424e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297208659006e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.64805846273281e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.433631579274551e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300003717079e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503472500088e-05], ["'autoclave' (unit, GLO, None)", -2.743753921913175e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450425247518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318551041758e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790873074424e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972086590055e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417741306365e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679500462718e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534979125323713e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.898143002928669e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816894361423e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167329178365], ["'waste polypropylene' (kilogram, CH, None)", 4.286217825891986e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735094274964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370466734173576e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.5652375261675256e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914333736078e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705426166387e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383486969863e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134417602451e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710837814188e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816894361423e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167329178365], ["'waste polypropylene' (kilogram, CH, None)", 2.8441258470872056e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985445301826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469778227823838e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.7101583507783507e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710837814188e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355760411184e-05], ["'autoclave' (unit, GLO, None)", 0.00017740223105571154], ["'waste polypropylene' (kilogram, CH, None)", 1.213760748827357e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714183637277e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719049501838e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.33900278832976e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396418435651e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989011758815e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789523585144e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770258479564e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388621264226e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355760411184e-05], ["'autoclave' (unit, GLO, None)", 0.00017740223105571154], ["'waste polypropylene' (kilogram, CH, None)", 8.011622104471003e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724638956121e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479366334564e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.892668525553173e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388621264226e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832141953604e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.722947816716281e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033465835674], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567669725624e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917974537999e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244319869479e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623750468943e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172405517024e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.306393543954302e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832141953604e-06], ["'wet wipe' (unit, GLO, None)", 9.715466390509226e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033465835674], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567669725624e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917974537999e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244319869479e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623750468943e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458494207e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735094274964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3973695890757796e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.58571309183814e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886963412607e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.8614739083581404e-05], ["'autoclave' (unit, GLO, None)", 0.0001995775099376755], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221382715956e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222935345473e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488639738958e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930438602003e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290862027585043e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.153196771977151e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886963412607e-06], ["'wet wipe' (unit, GLO, None)", 9.715466390509226e-05], ["'autoclave' (unit, GLO, None)", 0.0001995775099376755], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221382715956e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222935345473e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488639738958e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930438601997e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458494207e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735094274964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.369078727048202e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.564181124118368e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426235591773], ["'autoclave' (unit, GLO, None)", 0.0027162194945116323], ["'waste polypropylene' (kilogram, CH, None)", 6.352133523715645e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809739162865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758930874220188], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003171283241434234], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415408818205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040953871890012236], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.92423892834179e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961133186258156], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440178426891]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426235591773], ["'autoclave' (unit, GLO, None)", 0.0027162194945116323], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967104521596], ["'waste polyethylene' (kilogram, CH, None)", 5.120887780157251e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839287249480126], ["'marginal heating grid' (megajoule, GLO, None)", -0.002114188827622823], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440178426891]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047242180015], ["'autoclave' (unit, GLO, None)", 0.0036216259926821763], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817361549914], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306460409013e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165134548364], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009072866085130451], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590429634262], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922607673585], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858436386614196], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0033693332919037065], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546583562578]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047242180015], ["'autoclave' (unit, GLO, None)", 0.0036216259926821763], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146773300272], ["'waste polyethylene' (kilogram, CH, None)", 0.0001542605809978594], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427767563655775], ["'marginal heating grid' (megajoule, GLO, None)", -0.0060485773900869665], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546583562578]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096430702879], ["'mechanical disinfection' (unit, GLO, None)", 0.00651524132323225], ["'autoclave' (unit, GLO, None)", 0.005432438989023266], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489799160728], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137751752453], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739275967605e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396029905992], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031000404124e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.323793035791955e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096430702879], ["'wet wipe' (unit, GLO, None)", 0.0014416305610600515], ["'autoclave' (unit, GLO, None)", 0.005432438989023266], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489799160728], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137751752453], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739275967605e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396029905992], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998807467454e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809739162865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852789925818796], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003196596226141391]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452918440838], ["'mechanical disinfection' (unit, GLO, None)", 0.003257620661616125], ["'autoclave' (unit, GLO, None)", 0.004074329241767449], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776607934598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434398519536], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855193521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023771804862228468], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870155002020592e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.6618965178959773e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452918440838], ["'wet wipe' (unit, GLO, None)", 0.0014416305610600515], ["'autoclave' (unit, GLO, None)", 0.004074329241767449], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776607934598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434398519536], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855193521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771804862228467], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998807467454e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809739162865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754088375798617], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003169977260962431]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933215233541], ["'autoclave' (unit, GLO, None)", 0.11495174315729884], ["'waste polypropylene' (kilogram, CH, None)", 0.017294968000363464], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519024402723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128498416652146], ["'marginal heating grid' (megajoule, GLO, None)", -0.01305501259641599], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519480014396], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00544527393693782], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970421021412], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562289680397], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605360990134]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933215233541], ["'autoclave' (unit, GLO, None)", 0.11495174315729884], ["'waste polypropylene' (kilogram, CH, None)", 0.1147610026192342], ["'waste polyethylene' (kilogram, CH, None)", 0.01390805626673466], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025418998944434765], ["'marginal heating grid' (megajoule, GLO, None)", -0.08703341730943995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605360990134]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902922030173], ["'autoclave' (unit, GLO, None)", 0.15326899087639845], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470131870376], ["'waste polyethylene' (kilogram, CH, None)", 0.0062940172101178865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908352670666593], ["'marginal heating grid' (megajoule, GLO, None)", -0.03734966952160518], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1404897866891469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688548065286], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022538132100264], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367781097691265], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04631729183395611]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902922030173], ["'autoclave' (unit, GLO, None)", 0.15326899087639845], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704299133358], ["'waste polyethylene' (kilogram, CH, None)", 0.041896345562790795], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272235113777734], ["'marginal heating grid' (megajoule, GLO, None)", -0.24899779681070114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04631729183395611]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560804581], ["'mechanical disinfection' (unit, GLO, None)", 0.2674130140900254], ["'autoclave' (unit, GLO, None)", 0.22990348631459773], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561767173947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068109166028], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059482037377], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853697294842], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400823227759839e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00021916107724122071]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560804581], ["'wet wipe' (unit, GLO, None)", 0.04043778738880496], ["'autoclave' (unit, GLO, None)", 0.22990348631459773], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561767173947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068109166028], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059482037377], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853697294842], ["'waste wipe incineration' (kilogram, CH, None)", 0.000795952927311992], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519024402723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843283770893524], ["'marginal heating grid' (megajoule, GLO, None)", -0.013159216891348463]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962231210754], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065070450127], ["'autoclave' (unit, GLO, None)", 0.17242761473594825], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601304658177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738924814176], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118964074754], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417310765583], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2004116138799106e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010958053862061036]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962231210754], ["'wet wipe' (unit, GLO, None)", 0.04043778738880496], ["'autoclave' (unit, GLO, None)", 0.17242761473594825], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601304658177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738924814176], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118964074754], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.05095417310765583], ["'waste wipe incineration' (kilogram, CH, None)", 0.000795952927311992], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519024402723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003811279654754734], ["'marginal heating grid' (megajoule, GLO, None)", -0.013049636352727852]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498021692145], ["'autoclave' (unit, GLO, None)", 0.0012325864712535582], ["'waste polypropylene' (kilogram, CH, None)", 1.939993550886308e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016967875079e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590358640181234e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011571349110519348], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360377870867], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266749012708], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957404686928], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958016301564], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586051036747]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498021692145], ["'autoclave' (unit, GLO, None)", 0.0012325864712535582], ["'waste polypropylene' (kilogram, CH, None)", 1.287285440307737e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816324180231036e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060239093454157e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.007714232740346233], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586051036747]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467008738475], ["'autoclave' (unit, GLO, None)", 0.0016434486283380778], ["'waste polypropylene' (kilogram, CH, None)", 5.493626597369639e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317270008267e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604693336116462e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.003310499028669388], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134543440476], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623973003825], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064197560436], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157187690582], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667278107707]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467008738475], ["'autoclave' (unit, GLO, None)", 0.0016434486283380778], ["'waste polypropylene' (kilogram, CH, None)", 3.62615616988095e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270667118941673e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736462224077644e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.022069993524462584], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667278107707]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316769406032], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532510498344], ["'autoclave' (unit, GLO, None)", 0.0024651729425071173], ["'aluminium scrap' (kilogram, RER, None)", -0.000133017134834149], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724003162347], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856155947461e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096063806069e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288732256223687e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.942540704167432e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316769406032], ["'wet wipe' (unit, GLO, None)", 0.0013201850156741607], ["'autoclave' (unit, GLO, None)", 0.0024651729425071173], ["'aluminium scrap' (kilogram, RER, None)", -0.000133017134834149], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724003162347], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856155947461e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096063806069e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955815905066e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016967875079e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746727658939155e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011663710896199293]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00167577856887594], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266255249172], ["'autoclave' (unit, GLO, None)", 0.0018488797068803376], ["'aluminium scrap' (kilogram, RER, None)", -7.942370534350771e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932296745214], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712311894921e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834191377668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443661281118393e-08], ["'marginal heating grid' (megajoule, GLO, None)", -9.71270352083716e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00167577856887594], ["'wet wipe' (unit, GLO, None)", 0.0013201850156741607], ["'autoclave' (unit, GLO, None)", 0.0018488797068803376], ["'aluminium scrap' (kilogram, RER, None)", -7.942370534350771e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932296745214], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712311894921e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834191377666], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955815905066e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016967875079e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582291046128015e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001156658386099092]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332002129519], ["'autoclave' (unit, GLO, None)", 0.17693989093842366], ["'waste polypropylene' (kilogram, CH, None)", -6.194524811066381e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869420690104e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581556071968525], ["'marginal heating grid' (megajoule, GLO, None)", -0.007340879527234262], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272680542636], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001537627317097942], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430962284067e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742481074537], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392760870645]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332002129519], ["'autoclave' (unit, GLO, None)", 0.17693989093842366], ["'waste polypropylene' (kilogram, CH, None)", -4.1103856222963836e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555109029088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103738131235], ["'marginal heating grid' (megajoule, GLO, None)", -0.048939196848228415], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392760870645]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985510405061], ["'autoclave' (unit, GLO, None)", 0.23591985458456488], ["'waste polypropylene' (kilogram, CH, None)", -1.7541504838814148e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788137976211416e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037969961920264], ["'marginal heating grid' (megajoule, GLO, None)", -0.021001850616014554], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070635028017353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046278103718481745], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045782403579237], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659853823814], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949658299715]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985510405061], ["'autoclave' (unit, GLO, None)", 0.23591985458456488], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578551048722209], ["'waste polyethylene' (kilogram, CH, None)", -1.516900369845076e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646641280182], ["'marginal heating grid' (megajoule, GLO, None)", -0.140012337440097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949658299715]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558710571135], ["'mechanical disinfection' (unit, GLO, None)", 0.1764283427378885], ["'autoclave' (unit, GLO, None)", 0.35387978187684743], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458161579657], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248685497522191], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588822730338625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655448337188], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880300135837e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000123235045022351]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558710571135], ["'wet wipe' (unit, GLO, None)", 0.007110329501036088], ["'autoclave' (unit, GLO, None)", 0.35387978187684743], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458161579657], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248685497522191], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588822730338625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655448337188], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291828157181e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869420690104e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038889511642151565], ["'marginal heating grid' (megajoule, GLO, None)", -0.00739947396899908]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308402589196], ["'mechanical disinfection' (unit, GLO, None)", 0.08821417136894424], ["'autoclave' (unit, GLO, None)", 0.2654098364076355], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037816498063414], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521466987391575], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117764546067725e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001546530835601604], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401500679106e-05], ["'marginal heating grid' (megajoule, GLO, None)", -6.16175225111755e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308402589196], ["'wet wipe' (unit, GLO, None)", 0.007110329501036088], ["'autoclave' (unit, GLO, None)", 0.2654098364076355], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037816498063414], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521466987391575], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117764546067725e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308356016037], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291828157181e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869420690104e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667627144867], ["'marginal heating grid' (megajoule, GLO, None)", -0.007337856446487904]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612648179187289], ["'autoclave' (unit, GLO, None)", 0.0003262996596683228], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013939513032e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778898293866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169464664602253e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.9262610496445776e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013137463609970654], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456520502881347e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020704073961854e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771485640532348e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002867638924556e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612648179187289], ["'autoclave' (unit, GLO, None)", 0.0003262996596683228], ["'waste polypropylene' (kilogram, CH, None)", 1.8909897100050703e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.059662959546756e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779643109734836e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.9508406997630517e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002867638924556e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.000748884834272438], ["'autoclave' (unit, GLO, None)", 0.00043506621289109707], ["'waste polypropylene' (kilogram, CH, None)", 8.069998339880795e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895649118056e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094276365448297e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.371871136162312e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976304862500187], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147108112517687e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030996137823447e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597601588882352e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613293478853e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.000748884834272438], ["'autoclave' (unit, GLO, None)", 0.00043506621289109707], ["'waste polypropylene' (kilogram, CH, None)", 5.326731577479072e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486769473721e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396184243632213], ["'marginal heating grid' (megajoule, GLO, None)", -5.581247424108208e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613293478853e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639836448201], ["'mechanical disinfection' (unit, GLO, None)", 0.0001289552200304427], ["'autoclave' (unit, GLO, None)", 0.0006525993193366458], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452613198164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877246796813], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117032653756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346447659625e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071992955967153e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.912461931328921e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639836448201], ["'wet wipe' (unit, GLO, None)", 7.156213310761524e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993193366458], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452613198164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877246796813], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117032653756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346447659625e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430216184552e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778898293866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250636696217621e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.9496182825246346e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049232020598], ["'mechanical disinfection' (unit, GLO, None)", 6.447761001522135e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494895024842], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082974446103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605307541904], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823406530751e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0016087371802654e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535996477983554e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.4562309656644605e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049232020598], ["'wet wipe' (unit, GLO, None)", 7.156213310761524e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494895024842], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082974446103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605307541904], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823406530751e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010016087371802653], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430216184552e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778898293866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165276731437809e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.92505597286799e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943681456653e-08], ["'autoclave' (unit, GLO, None)", -1.8381428395758507e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598028807505e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797243421e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346777118528e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.218923766150248e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895121827664e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278543917635e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531054340021e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171581037246e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686761776131e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943681456653e-08], ["'autoclave' (unit, GLO, None)", -1.8381428395758507e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976262105914e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769428987126e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4695645180790187e-08], ["'marginal heating grid' (megajoule, GLO, None)", -6.1459491774335e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686761776131e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348379034914e-08], ["'autoclave' (unit, GLO, None)", -2.450857119434468e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798320307173e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098241220969e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931399681937e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.6374831388911196e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.727288362103813e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821697683949e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328760666637e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581918414778e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255505960994e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348379034914e-08], ["'autoclave' (unit, GLO, None)", -2.450857119434468e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454259453284e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536519232195e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287599787963e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.7583220925940794e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255505960994e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272609461125e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027839484393e-07], ["'autoclave' (unit, GLO, None)", -3.676285679151703e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559595487995e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687601206027e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220037782818e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137935509397e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.21867366387084e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.547627203476503e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272609461125e-08], ["'wet wipe' (unit, GLO, None)", 9.851215174392547e-08], ["'autoclave' (unit, GLO, None)", -3.676285679151703e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559595487995e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687601206027e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220037782818e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137935509397e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359625836e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797243421e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914641664357e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.29250863969925e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293510655843e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.030513919742196e-08], ["'autoclave' (unit, GLO, None)", -2.7572142593637763e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630609783007e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792306701797e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440075565635e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.18620544537867e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368319354115e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.738136017382515e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293510655843e-08], ["'wet wipe' (unit, GLO, None)", 9.851215174392547e-08], ["'autoclave' (unit, GLO, None)", -2.7572142593637763e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630609783007e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792306701797e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440075565635e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205445378669e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359625836e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797243421e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.702821273345011e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.215127279525423e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187544875], ["'autoclave' (unit, GLO, None)", 0.00024060144367103715], ["'waste polypropylene' (kilogram, CH, None)", 6.539683604019833e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216489071378e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907306723440829e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.701889100593915e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625726971711], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240193162069e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077260092085663e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.49523050390758e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026684557561e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187544875], ["'autoclave' (unit, GLO, None)", 0.00024060144367103715], ["'waste polypropylene' (kilogram, CH, None)", 4.339416223228114e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478337206323e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.938204482293886e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011345927337292767], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026684557561e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452267906769], ["'autoclave' (unit, GLO, None)", 0.0003208019248947162], ["'waste polypropylene' (kilogram, CH, None)", 1.8518917121663643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.303669013673838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317643856449916e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.869010657795548e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767774589254], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.93165481541771e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.4455570291152125e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719729317127e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487308282428]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452267906769], ["'autoclave' (unit, GLO, None)", 0.0003208019248947162], ["'waste polypropylene' (kilogram, CH, None)", 1.222370767106511e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453312904878e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545095904299949e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003246007105197032], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487308282428]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673943244636], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474641914641794], ["'autoclave' (unit, GLO, None)", 0.00048120288734207446], ["'aluminium scrap' (kilogram, RER, None)", 1.871157556879819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735875853597], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705333345315e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190433725797e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880642348478924e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.8570470221809784e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673943244636], ["'wet wipe' (unit, GLO, None)", 7.240358872527754e-05], ["'autoclave' (unit, GLO, None)", 0.00048120288734207446], ["'aluminium scrap' (kilogram, RER, None)", 1.871157556879819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735875853597], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705333345315e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190433725797e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323866355155e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216489071378e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.930512664073294e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.715473473069307e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853508296448], ["'mechanical disinfection' (unit, GLO, None)", 9.737320957320897e-05], ["'autoclave' (unit, GLO, None)", 0.00036090216550655575], ["'aluminium scrap' (kilogram, RER, None)", 1.117256559722164e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622066996476], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741066669063e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788229085529835e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403211742394558e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.4285235110904892e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853508296448], ["'wet wipe' (unit, GLO, None)", 7.240358872527754e-05], ["'autoclave' (unit, GLO, None)", 0.00036090216550655575], ["'aluminium scrap' (kilogram, RER, None)", 1.117256559722164e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622066996476], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741066669063e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229085529835], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323866355155e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216489071378e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.906109452330906e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.701188237958402e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848636360645], ["'autoclave' (unit, GLO, None)", 0.0004133497928004711], ["'waste polypropylene' (kilogram, CH, None)", 4.470534426721245e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346126044591e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360071035026e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.36480602366762e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548366852174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059916165465e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214624778189e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316050795464e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833377429023e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848636360645], ["'autoclave' (unit, GLO, None)", 0.0004133497928004711], ["'waste polypropylene' (kilogram, CH, None)", 2.966429385955219e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730583802e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573380690017e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00022432040157784137], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833377429023e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529911099827], ["'autoclave' (unit, GLO, None)", 0.0005511330570672948], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550759780723e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576839162113e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.754048413923701e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.626524069597112e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260301928593], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435508748828e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869329885039e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455225576189], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425698198953e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529911099827], ["'autoclave' (unit, GLO, None)", 0.0005511330570672948], ["'waste polypropylene' (kilogram, CH, None)", 8.356139115366815e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961482603352e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360322759491352], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006417682713064741], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425698198953e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694745067978], ["'mechanical disinfection' (unit, GLO, None)", 0.00046844761386000366], ["'autoclave' (unit, GLO, None)", 0.0008266995856009424], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586981264462e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774199916744], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287624043218e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701432297644e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.616025589786944e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.648669485444946e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694745067978], ["'wet wipe' (unit, GLO, None)", 0.0010830399605650453], ["'autoclave' (unit, GLO, None)", 0.0008266995856009424], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586981264462e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774199916744], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287624043218e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701432297644e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881612944646e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346126044591e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703197075715009e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.391663695132225e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421699751811], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422380693000183], ["'autoclave' (unit, GLO, None)", 0.0006200246892007066], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789056184327e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171153883168], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575248086437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525641687e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080127948934699e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.824334742722473e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421699751811], ["'wet wipe' (unit, GLO, None)", 0.0010830399605650453], ["'autoclave' (unit, GLO, None)", 0.0006200246892007066], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789056184327e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171153883168], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575248086437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.376715256416868e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881612944646e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346126044591e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622395796225684e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.363420347705e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374182051417], ["'autoclave' (unit, GLO, None)", 0.0004220354525658159], ["'waste polypropylene' (kilogram, CH, None)", 4.519055445215794e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112801030112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744139394414e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.4582446020521e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968803072423], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456914708222e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910483866855e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426432130007e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312260311035e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374182051417], ["'autoclave' (unit, GLO, None)", 0.0004220354525658159], ["'waste polypropylene' (kilogram, CH, None)", 2.998625575797396e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067895732928e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.55849609292961e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002305496401368067], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312260311035e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175615027853], ["'autoclave' (unit, GLO, None)", 0.0005627139367544212], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951400938184e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900105861531e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145242276163127e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.893846678246836e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521020732305], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.04792392578597e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259141632519e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173048253543], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036937347982e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175615027853], ["'autoclave' (unit, GLO, None)", 0.0005627139367544212], ["'waste polypropylene' (kilogram, CH, None)", 8.44683260787999e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006453445822e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763494850775433], ["'marginal heating grid' (megajoule, GLO, None)", -0.000659589778549789], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036937347982e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651650121825], ["'mechanical disinfection' (unit, GLO, None)", 0.0004793738307358025], ["'autoclave' (unit, GLO, None)", 0.000844070905131632], ["'aluminium scrap' (kilogram, RER, None)", 1.881087940513773e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000391913312218731], ["'waste plastic, mixture' (kilogram, CH, None)", 1.01831593534037e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565995520197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515116988895838e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.805529537041165e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651650121825], ["'wet wipe' (unit, GLO, None)", 0.0016808440355539714], ["'autoclave' (unit, GLO, None)", 0.000844070905131632], ["'aluminium scrap' (kilogram, RER, None)", 1.881087940513773e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000391913312218731], ["'waste plastic, mixture' (kilogram, CH, None)", 1.01831593534037e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565995520197e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353327732e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112801030112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916268398501818e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.4858480944117936e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020414359524], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968691536790124], ["'autoclave' (unit, GLO, None)", 0.0006330531788487239], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859301350402e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848737886708], ["'waste plastic, mixture' (kilogram, CH, None)", 2.03663187068074e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590134635321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558494447898e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.9027647685205824e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020414359524], ["'wet wipe' (unit, GLO, None)", 0.0016808440355539714], ["'autoclave' (unit, GLO, None)", 0.0006330531788487239], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859301350402e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848737886708], ["'waste plastic, mixture' (kilogram, CH, None)", 2.03663187068074e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.40159013463532e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353327732e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112801030112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833692813557363e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.456820446726587e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981154975146], ["'autoclave' (unit, GLO, None)", 0.0005822019602635406], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827809948e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832688764275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.56343427151561e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.835781415087053e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025786435487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001108013577698327], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533511616424e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251831110832], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282279930737]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981154975146], ["'autoclave' (unit, GLO, None)", 0.0005822019602635406], ["'waste polypropylene' (kilogram, CH, None)", 8.925176979200992e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553545625347e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.708956181010406e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00032238542767247026], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282279930737]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367476401762], ["'autoclave' (unit, GLO, None)", 0.0007762692803513875], ["'waste polypropylene' (kilogram, CH, None)", 3.808913555912537e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440325324262e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.449951217196851e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00013834903367447235], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847412152863], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798146470693], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077565942184e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648403129813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517648625865]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367476401762], ["'autoclave' (unit, GLO, None)", 0.0007762692803513875], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134360338308], ["'waste polyethylene' (kilogram, CH, None)", 2.845961797100345e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008114645685], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009223268911631488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517648625865]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990075479413], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740316536207], ["'autoclave' (unit, GLO, None)", 0.0011644039205270815], ["'aluminium scrap' (kilogram, RER, None)", 9.403572010880705e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000841743654868884], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110148757e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153426404768e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375868778134955e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.118070024110936e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990075479413], ["'wet wipe' (unit, GLO, None)", 0.010861422354823142], ["'autoclave' (unit, GLO, None)", 0.0011644039205270815], ["'aluminium scrap' (kilogram, RER, None)", 9.403572010880705e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000841743654868884], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110148757e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153426404768e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922969009532e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832688764275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787068870137e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.8743803202267565e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932940394781], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148701582681035], ["'autoclave' (unit, GLO, None)", 0.000873302940395311], ["'aluminium scrap' (kilogram, RER, None)", 5.614814463564173e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071927588596], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220297515e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987713560601e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934389067459e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.059035012055468e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932940394781], ["'wet wipe' (unit, GLO, None)", 0.010861422354823142], ["'autoclave' (unit, GLO, None)", 0.000873302940395311], ["'aluminium scrap' (kilogram, RER, None)", 5.614814463564173e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071927588596], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220297515e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004136987713560601], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922969009532e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832688764275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559907724979482e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.833789970106202e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891604668997e-10], ["'autoclave' (unit, GLO, None)", 1.9197083632730882e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846533648107e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252616676e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.02191235734951e-11], ["'marginal heating grid' (megajoule, GLO, None)", -9.61612999151659e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873236863367e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.09329501152704e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998162389793e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420635931133e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225986180074e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891604668997e-10], ["'autoclave' (unit, GLO, None)", 1.9197083632730882e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.31030003634594e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134543416e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.681274904899673e-10], ["'marginal heating grid' (megajoule, GLO, None)", -6.410753327677728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225986180074e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934505822763e-09], ["'autoclave' (unit, GLO, None)", 2.5596111510307845e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266352293237e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.9129325725787946e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506468973695475e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.7511216447124767e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530633555834e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.532933450071245e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248770255342015e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.3701989744538964e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390241005027e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934505822763e-09], ["'autoclave' (unit, GLO, None)", 2.5596111510307845e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591651678707e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037489202311e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979315796989e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.8340810964749844e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390241005027e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627906115743e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722458560927e-09], ["'autoclave' (unit, GLO, None)", 3.839416726546178e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343429036806e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648039642676e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229629396522e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884676684887e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787011285474e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.6143082147702838e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627906115743e-10], ["'wet wipe' (unit, GLO, None)", 4.97951406621442e-10], ["'autoclave' (unit, GLO, None)", 3.839416726546178e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343429036806e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648039642676e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229629396522e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884676684887e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028581800844e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252616676e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0540150105168266e-11], ["'marginal heating grid' (megajoule, GLO, None)", -9.692885340341001e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174921493054e-10], ["'mechanical disinfection' (unit, GLO, None)", 9.753612292804634e-10], ["'autoclave' (unit, GLO, None)", 2.8795625449096326e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668823310913e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979931103625e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459258793044e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245254215487e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893505642728e-13], ["'marginal heating grid' (megajoule, GLO, None)", -8.071541073851419e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174921493054e-10], ["'wet wipe' (unit, GLO, None)", 4.97951406621442e-10], ["'autoclave' (unit, GLO, None)", 2.8795625449096326e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668823310913e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979931103625e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459258793044e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245254215485e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028581800844e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252616676e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256075460409e-11], ["'marginal heating grid' (megajoule, GLO, None)", -9.612169929602486e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419978407263e-07], ["'autoclave' (unit, GLO, None)", 2.3557944545314716e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553164286739e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744668847492e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844133426563796e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.043271888955077e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114263435586e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791689167714e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579277295577172e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190491464872e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417653531083e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419978407263e-07], ["'autoclave' (unit, GLO, None)", 2.3557944545314716e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.997656772564098e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728204147955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562755617709197e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.3621812593033846e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417653531083e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507908142072e-06], ["'autoclave' (unit, GLO, None)", 3.1410592727086287e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211296998898e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816477530504e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997853278098702e-08], ["'marginal heating grid' (megajoule, GLO, None)", -5.845687947954111e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005670172268e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830508390282e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717829061528748e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940983511232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826098267229e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507908142072e-06], ["'autoclave' (unit, GLO, None)", 3.1410592727086287e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202176236896e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573188998e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331902185399141e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.897125298636074e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826098267229e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.28768521352401e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.538955062215218e-07], ["'autoclave' (unit, GLO, None)", 4.7115889090629443e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226135015746e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274547180395e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387996173978e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739978597691e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453340558675494e-11], ["'marginal heating grid' (megajoule, GLO, None)", -3.4301435174642056e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.28768521352401e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805455810179e-07], ["'autoclave' (unit, GLO, None)", 4.7115889090629443e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226135015746e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274547180395e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387996173978e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739978597691e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518066466e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744668847492e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817059412323e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.0595811575192722e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576825336e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.269477531107609e-07], ["'autoclave' (unit, GLO, None)", 3.5336916817972074e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961972294737e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747990999662e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775992347956e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348289057726e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266702793377384e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.7150717587321028e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576825336e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805455810179e-07], ["'autoclave' (unit, GLO, None)", 3.5336916817972074e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961972294737e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747990999662e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775992347956e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348289057725e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518066466e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744668847492e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842550356618954e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.042430439931951e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384661433595], ["'autoclave' (unit, GLO, None)", 0.0022770339773345023], ["'waste polypropylene' (kilogram, CH, None)", 3.488480808112662e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.14235691213272e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410757719561104e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004305808288201983], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249414208254], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377923542622], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144944868492], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0049497912993141996], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258872846422036e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384661433595], ["'autoclave' (unit, GLO, None)", 0.0022770339773345023], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863306168128], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380505692547e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738384797074027], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028705388588013223], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258872846422036e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628553779617], ["'autoclave' (unit, GLO, None)", 0.0030360453031126697], ["'waste polypropylene' (kilogram, CH, None)", 9.878595185590061e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077285244631e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001834082352968546], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012318679541671435], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692715919542], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564624254495], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114758269595], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01394307408257521], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116223699156362e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628553779617], ["'autoclave' (unit, GLO, None)", 0.0030360453031126697], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524874976939], ["'waste polyethylene' (kilogram, CH, None)", 8.322717098688675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227215686456982], ["'marginal heating grid' (megajoule, GLO, None)", -0.008212453027780956], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116223699156362e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642897267486], ["'mechanical disinfection' (unit, GLO, None)", 0.0035366364665724605], ["'autoclave' (unit, GLO, None)", 0.004554067954669006], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917399839302], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999749271972], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804208108e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96517041846653e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062138011254e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.228377421064985e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642897267486], ["'wet wipe' (unit, GLO, None)", 0.012600254476956316], ["'autoclave' (unit, GLO, None)", 0.004554067954669006], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917399839302], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999749271972], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804208108e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96517041846653e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372839232126e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.14235691213272e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461927987166438e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00043401769809529693]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168993602], ["'mechanical disinfection' (unit, GLO, None)", 0.0017683182332862302], ["'autoclave' (unit, GLO, None)", 0.0034155509660017537], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813720802210883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200169498578], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608416216e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332919381364365e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031069005613e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.6141887105324923e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168993602], ["'wet wipe' (unit, GLO, None)", 0.012600254476956316], ["'autoclave' (unit, GLO, None)", 0.0034155509660017537], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813720802210883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200169498578], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608416216e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329193813643649e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372839232126e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.14235691213272e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117676476396e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004304035093847644]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509623908738], ["'autoclave' (unit, GLO, None)", 0.0005799644756189666], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812615928127e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873231347088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244481886895309e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8425438645492016e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659219763314], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360203593777e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089141271849715e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518679171694e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703040953924e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509623908738], ["'autoclave' (unit, GLO, None)", 0.0005799644756189666], ["'waste polypropylene' (kilogram, CH, None)", 1.231538967972801e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.480594347880122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.496321257930206e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018950292430328013], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.9094703040953924e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385780653278], ["'autoclave' (unit, GLO, None)", 0.0007732859674919554], ["'waste polypropylene' (kilogram, CH, None)", 5.255722637968433e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351312965063e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587007027242218e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.132360896436482e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279260923236], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593847683564e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039805412774e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503321610406], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068998043537]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385780653278], ["'autoclave' (unit, GLO, None)", 0.0007732859674919554], ["'waste polypropylene' (kilogram, CH, None)", 3.46912385344451e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.4601122721560755e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724671351494823], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005421573930957654], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068998043537]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455732002176474], ["'mechanical disinfection' (unit, GLO, None)", 0.0005279122713801783], ["'autoclave' (unit, GLO, None)", 0.0011599289512379334], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549599782845e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854414034374], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748429241866e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205537089801e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840427332285782e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.771921672684189e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007455732002176474], ["'wet wipe' (unit, GLO, None)", 0.0002303881969091924], ["'autoclave' (unit, GLO, None)", 0.0011599289512379334], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549599782845e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854414034374], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748429241866e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205537089801e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531805589e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873231347088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310288826242352e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.86523287208806e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632861363645], ["'mechanical disinfection' (unit, GLO, None)", 0.00026395613569008913], ["'autoclave' (unit, GLO, None)", 0.0008699467134284499], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307026554614e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138244832797], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349685848373e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8495145983387164e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920213666142874e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.3859608363420947e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004450632861363645], ["'wet wipe' (unit, GLO, None)", 0.0002303881969091924], ["'autoclave' (unit, GLO, None)", 0.0008699467134284499], ["'aluminium scrap' (kilogram, RER, None)", 3.4644307026554614e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138244832797], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349685848373e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495145983387162], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531805589e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.219873231347088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241086689580944e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.841373263724639e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325575242417], ["'autoclave' (unit, GLO, None)", 0.05129835634596331], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070327977556], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672227464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827850504288457], ["'marginal heating grid' (megajoule, GLO, None)", -0.005981033569538022], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649459817318], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193875652727], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001197637298686345], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453578486031], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479416734755]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325575242417], ["'autoclave' (unit, GLO, None)", 0.05129835634596331], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766292396322], ["'waste polyethylene' (kilogram, CH, None)", 0.02210672052944373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567002858971], ["'marginal heating grid' (megajoule, GLO, None)", -0.039873557130253486], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479416734755]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752939774826], ["'autoclave' (unit, GLO, None)", 0.06839780846128442], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896614206], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304246199], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395047667741687], ["'marginal heating grid' (megajoule, GLO, None)", -0.017111406486210446], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36326662386903047], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932137332374], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.003607738217500819], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911488693046], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363910267545]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752939774826], ["'autoclave' (unit, GLO, None)", 0.06839780846128442], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575322908], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488236831], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01493003177849447], ["'marginal heating grid' (megajoule, GLO, None)", -0.11407604324140297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363910267545]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609314245], ["'mechanical disinfection' (unit, GLO, None)", 0.05095177773560573], ["'autoclave' (unit, GLO, None)", 0.10259671269192665], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554837476449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613699862158], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263132818], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896630665317], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141007228702856e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010040662545785017]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1801345609314245], ["'wet wipe' (unit, GLO, None)", 0.05462332923765058], ["'autoclave' (unit, GLO, None)", 0.10259671269192665], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554837476449], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613699862158], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263132818], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896630665317], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286905293], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672227464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890331917968586], ["'marginal heating grid' (megajoule, GLO, None)", -0.006028773805824907]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092547111], ["'mechanical disinfection' (unit, GLO, None)", 0.025475888867802866], ["'autoclave' (unit, GLO, None)", 0.07694753451894497], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127855402054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539486704767], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526265636], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002571550045300846], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.57050361435141e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.0203312728925086e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1074058092547111], ["'wet wipe' (unit, GLO, None)", 0.05462332923765058], ["'autoclave' (unit, GLO, None)", 0.07694753451894497], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127855402054], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539486704767], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526265636], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.025715500453008456], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286905293], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672227464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824626881825091], ["'marginal heating grid' (megajoule, GLO, None)", -0.0059785704930959815]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693280781824], ["'autoclave' (unit, GLO, None)", 0.022422923408854798], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261621192], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352001470735], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829587823833413], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010109422413938736], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913120506634916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002355257845813522], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173566850285], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853508151664], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077267048757286]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693280781824], ["'autoclave' (unit, GLO, None)", 0.022422923408854798], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409640888828], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520096393784], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530585492222753], ["'marginal heating grid' (megajoule, GLO, None)", -0.006739614942625824], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077267048757286]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403351388237], ["'autoclave' (unit, GLO, None)", 0.0298972312118064], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521297449739], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172920984], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239112584875], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028922498804679693], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600142595921], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640118467881], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754498089961656], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948883121553985], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285783807849]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403351388237], ["'autoclave' (unit, GLO, None)", 0.0298972312118064], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201151798], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266865340285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159408389923], ["'marginal heating grid' (megajoule, GLO, None)", -0.01928166586978646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285783807849]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532294622954], ["'mechanical disinfection' (unit, GLO, None)", 0.031852918475492924], ["'autoclave' (unit, GLO, None)", 0.04484584681770961], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900246474885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757657748653], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116587388976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235704372012e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922122155649e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.6971197003161872e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005239532294622954], ["'wet wipe' (unit, GLO, None)", 0.001688697304322538], ["'autoclave' (unit, GLO, None)", 0.04484584681770961], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900246474885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369757657748653], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116587388976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235704372012e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429787131498e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352001470735], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003860155354589683], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010190115192060469]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00312472312426367], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459237746462], ["'autoclave' (unit, GLO, None)", 0.0336343851132822], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135946376021], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984412839944], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317477795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726397820006632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461061077816e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.485598501580936e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00312472312426367], ["'wet wipe' (unit, GLO, None)", 0.001688697304322538], ["'autoclave' (unit, GLO, None)", 0.0336343851132822], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135946376021], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152984412839944], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317477795e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009726397820006632], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429787131498e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352001470735], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828010743978914], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010105259207044658]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341323354515], ["'autoclave' (unit, GLO, None)", 0.026502072405126066], ["'waste polypropylene' (kilogram, CH, None)", 0.0020754548997542156], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054521391036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280084932724785], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012735798963704223], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733361848333713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920752100083325], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484463919708], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525119200019424], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317441018762116]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341323354515], ["'autoclave' (unit, GLO, None)", 0.026502072405126066], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082481242], ["'waste polyethylene' (kilogram, CH, None)", 0.001669035563032228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520056621816522], ["'marginal heating grid' (megajoule, GLO, None)", -0.008490532642469482], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317441018762116]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0223957548766552], ["'autoclave' (unit, GLO, None)", 0.03533609654016809], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222753509601], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052786836], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526570994466054], ["'marginal heating grid' (megajoule, GLO, None)", -0.00364364169605277], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661447378694], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216651481389], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796390624704], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540619723784], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525150590866]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0223957548766552], ["'autoclave' (unit, GLO, None)", 0.03533609654016809], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952811618], ["'waste polyethylene' (kilogram, CH, None)", 0.00502776875246297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00901771399631071], ["'marginal heating grid' (megajoule, GLO, None)", -0.024290944640351798], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892525150590866]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833452520149], ["'mechanical disinfection' (unit, GLO, None)", 0.038731918837214496], ["'autoclave' (unit, GLO, None)", 0.05300414481025215], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835199214738], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0049529041259734705], ["'waste plastic, mixture' (kilogram, CH, None)", 2.516497614512009e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508747496333e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.93714618763146e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.1380227707932732e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007207833452520149], ["'wet wipe' (unit, GLO, None)", 0.0017911168411050078], ["'autoclave' (unit, GLO, None)", 0.05300414481025215], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835199214738], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0049529041259734705], ["'waste plastic, mixture' (kilogram, CH, None)", 2.516497614512009e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508747496333e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269930421236e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054521391036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747161683364], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012837455315363267]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108764034674], ["'mechanical disinfection' (unit, GLO, None)", 0.019365959418607248], ["'autoclave' (unit, GLO, None)", 0.0397531086076891], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716116843613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984341705036], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995229024018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014183211761884725], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.96857309381572e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0690113853966366e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004299108764034674], ["'wet wipe' (unit, GLO, None)", 0.0017911168411050078], ["'autoclave' (unit, GLO, None)", 0.0397531086076891], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716116843613], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984341705036], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995229024018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183211761884724], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269930421236e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054521391036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061430745218], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012730554176823602]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931496497638], ["'autoclave' (unit, GLO, None)", 2.0531711910952346], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178360582809], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621136133123], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999239820916694], ["'marginal heating grid' (megajoule, GLO, None)", -0.09260613615587956], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36128077499480776], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093716833067], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046770928464], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534575246698431], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359168751776285]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931496497638], ["'autoclave' (unit, GLO, None)", 2.0531711910952346], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594986928779], ["'waste polyethylene' (kilogram, CH, None)", 0.0641802345501723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999493213944463], ["'marginal heating grid' (megajoule, GLO, None)", -0.6173742410391971], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359168751776285]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865634459231], ["'autoclave' (unit, GLO, None)", 2.73756158812698], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243394921413], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425264108234], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866049875180247], ["'marginal heating grid' (megajoule, GLO, None)", -0.2649410374406245], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498633959822], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822417982701465], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158518340211], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485984985474], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626242746350885]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865634459231], ["'autoclave' (unit, GLO, None)", 2.73756158812698], ["'waste polypropylene' (kilogram, CH, None)", 1.491435207585572], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523200120678], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577366583453501], ["'marginal heating grid' (megajoule, GLO, None)", -1.7662735829374967], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626242746350885]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252658964512], ["'mechanical disinfection' (unit, GLO, None)", 2.1405377704284896], ["'autoclave' (unit, GLO, None)", 4.106342382190471], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888644507454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458738699362], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073520077983], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401497563223], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00040288733643707584], ["'marginal heating grid' (megajoule, GLO, None)", -0.001554625888652265]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2410252658964512], ["'wet wipe' (unit, GLO, None)", 0.1450637965999957], ["'autoclave' (unit, GLO, None)", 4.106342382190471], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888644507454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560458738699362], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073520077983], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001750401497563223], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613094157427003], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621136133123], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080025381431], ["'marginal heating grid' (megajoule, GLO, None)", -0.09334531254910595]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449905244089], ["'mechanical disinfection' (unit, GLO, None)", 1.0702688852142448], ["'autoclave' (unit, GLO, None)", 3.0797567866428524], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327300834527], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818160835501], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147040155966], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0029291828783249195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144366821853738], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007773129443261325]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1431449905244089], ["'wet wipe' (unit, GLO, None)", 0.1450637965999957], ["'autoclave' (unit, GLO, None)", 3.0797567866428524], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327300834527], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818160835501], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147040155966], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.02929182878324919], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613094157427003], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621136133123], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989356585595832], ["'marginal heating grid' (megajoule, GLO, None)", -0.09256799960477981]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192406125239], ["'autoclave' (unit, GLO, None)", 0.013280169104562024], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584211005412], ["'waste polyethylene' (kilogram, CH, None)", 0.0001202129686840645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296586631234092], ["'marginal heating grid' (megajoule, GLO, None)", -0.0014352536576676283], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930686816157], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942575398353], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00035284287580833684], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959951655002], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001845888796769106]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192406125239], ["'autoclave' (unit, GLO, None)", 0.013280169104562024], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069897022283], ["'waste polyethylene' (kilogram, CH, None)", 8.017874149845403e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864391087489394], ["'marginal heating grid' (megajoule, GLO, None)", -0.00956835771778419], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001845888796769106]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337204665093], ["'autoclave' (unit, GLO, None)", 0.017706892139416033], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249547602467], ["'waste polyethylene' (kilogram, CH, None)", 3.628446485968552e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520646787958507], ["'marginal heating grid' (megajoule, GLO, None)", -0.004106181391833935], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112941653554], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361149257175], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896696038869], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805620184508], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436798403247]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337204665093], ["'autoclave' (unit, GLO, None)", 0.017706892139416033], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746188795164], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880864045985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003680431191972341], ["'marginal heating grid' (megajoule, GLO, None)", -0.02737454261222623], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436798403247]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133890402], ["'mechanical disinfection' (unit, GLO, None)", 0.012412662103314131], ["'autoclave' (unit, GLO, None)", 0.026560338209124058], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105374271114], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334993503541], ["'waste plastic, mixture' (kilogram, CH, None)", 2.439742967411539e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793635776637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415268232539e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.40943266355173e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04165984133890402], ["'wet wipe' (unit, GLO, None)", 0.03256387387433392], ["'autoclave' (unit, GLO, None)", 0.026560338209124058], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105374271114], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334993503541], ["'waste plastic, mixture' (kilogram, CH, None)", 2.439742967411539e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793635776637], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715504182], ["'waste polyethylene' (kilogram, CH, None)", 0.0001202129686840645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450610780170007], ["'marginal heating grid' (megajoule, GLO, None)", -0.001446709762695636]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036641722], ["'mechanical disinfection' (unit, GLO, None)", 0.006206331051657066], ["'autoclave' (unit, GLO, None)", 0.019920253656843037], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723332783427], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441546683207], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485934823078e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164620267867], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197076341162653e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.204716331775865e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02477905036641722], ["'wet wipe' (unit, GLO, None)", 0.03256387387433392], ["'autoclave' (unit, GLO, None)", 0.019920253656843037], ["'aluminium scrap' (kilogram, RER, None)", 0.001360723332783427], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441546683207], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485934823078e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164620267866], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715504182], ["'waste polyethylene' (kilogram, CH, None)", 0.0001202129686840645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288640016758426], ["'marginal heating grid' (megajoule, GLO, None)", -0.0014346625993778774]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956257531304e-05], ["'autoclave' (unit, GLO, None)", -1.8291692812754497e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929024346453e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679500462718e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547971037733785e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.8993369919874955e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874524350733e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016794025304e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251278808682e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092733566891e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760281027549e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956257531304e-05], ["'autoclave' (unit, GLO, None)", -1.8291692812754497e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549195894659794e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.417353208106786e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031980691822524e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.932891327991664e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760281027549e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399959538142], ["'autoclave' (unit, GLO, None)", -2.438892375033933e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192050819605e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050969286552e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025700156428883e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.29484289522835e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.85676931976759e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179811794023e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745943041283e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814345728357443e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017381784071e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399959538142], ["'autoclave' (unit, GLO, None)", -2.438892375033933e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407294270366e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365234874634e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0171334376192595e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.5298952634855655e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017381784071e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521660038101e-05], ["'mechanical disinfection' (unit, GLO, None)", 2.868101058336699e-05], ["'autoclave' (unit, GLO, None)", -3.658338562550901e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652592726487e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307065579125e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895436537212e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041964787386e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296116925465634e-09], ["'marginal heating grid' (megajoule, GLO, None)", -4.867263158549102e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.396521660038101e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503472500088e-05], ["'autoclave' (unit, GLO, None)", -3.658338562550901e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652592726487e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307065579125e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895436537212e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041964787386e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417741306365e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679500462718e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.179978497159692e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.9224793187214147e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300003717079e-05], ["'mechanical disinfection' (unit, GLO, None)", 1.4340505291683495e-05], ["'autoclave' (unit, GLO, None)", -2.743753921913175e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450425247518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318551041758e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790873074424e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297208659006e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.64805846273281e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.433631579274551e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.819300003717079e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503472500088e-05], ["'autoclave' (unit, GLO, None)", -2.743753921913175e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450425247518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.907318551041758e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790873074424e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972086590055e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417741306365e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679500462718e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534979125323713e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.898143002928669e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816894361423e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167329178365], ["'waste polypropylene' (kilogram, CH, None)", 4.286217825891986e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735094274964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370466734173576e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.5652375261675256e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914333736078e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705426166387e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383486969863e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134417602451e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710837814188e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816894361423e-06], ["'autoclave' (unit, GLO, None)", 0.00013305167329178365], ["'waste polypropylene' (kilogram, CH, None)", 2.8441258470872056e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985445301826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469778227823838e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.7101583507783507e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710837814188e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355760411184e-05], ["'autoclave' (unit, GLO, None)", 0.00017740223105571154], ["'waste polypropylene' (kilogram, CH, None)", 1.213760748827357e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714183637277e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719049501838e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.33900278832976e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396418435651e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989011758815e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789523585144e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770258479564e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388621264226e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355760411184e-05], ["'autoclave' (unit, GLO, None)", 0.00017740223105571154], ["'waste polypropylene' (kilogram, CH, None)", 8.011622104471003e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724638956121e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479366334564e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.892668525553173e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.286388621264226e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832141953604e-06], ["'mechanical disinfection' (unit, GLO, None)", 7.722947816716281e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033465835674], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567669725624e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917974537999e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244319869479e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623750468943e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172405517024e-10], ["'marginal heating grid' (megajoule, GLO, None)", -4.306393543954302e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.886832141953604e-06], ["'wet wipe' (unit, GLO, None)", 9.715466390509226e-05], ["'autoclave' (unit, GLO, None)", 0.0002661033465835674], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567669725624e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917974537999e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244319869479e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623750468943e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458494207e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735094274964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3973695890757796e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.58571309183814e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886963412607e-06], ["'mechanical disinfection' (unit, GLO, None)", 3.8614739083581404e-05], ["'autoclave' (unit, GLO, None)", 0.0001995775099376755], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221382715956e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222935345473e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488639738958e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930438602003e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290862027585043e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.153196771977151e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.507886963412607e-06], ["'wet wipe' (unit, GLO, None)", 9.715466390509226e-05], ["'autoclave' (unit, GLO, None)", 0.0001995775099376755], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221382715956e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222935345473e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488639738958e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930438601997e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458494207e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.150735094274964e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.369078727048202e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.564181124118368e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426235591773], ["'autoclave' (unit, GLO, None)", 0.0027162194945116323], ["'waste polypropylene' (kilogram, CH, None)", 6.352133523715645e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809739162865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758930874220188], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003171283241434234], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415408818205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040953871890012236], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.92423892834179e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961133186258156], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440178426891]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426235591773], ["'autoclave' (unit, GLO, None)", 0.0027162194945116323], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967104521596], ["'waste polyethylene' (kilogram, CH, None)", 5.120887780157251e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839287249480126], ["'marginal heating grid' (megajoule, GLO, None)", -0.002114188827622823], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440178426891]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047242180015], ["'autoclave' (unit, GLO, None)", 0.0036216259926821763], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817361549914], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306460409013e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165134548364], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009072866085130451], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590429634262], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922607673585], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858436386614196], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0033693332919037065], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546583562578]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047242180015], ["'autoclave' (unit, GLO, None)", 0.0036216259926821763], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146773300272], ["'waste polyethylene' (kilogram, CH, None)", 0.0001542605809978594], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427767563655775], ["'marginal heating grid' (megajoule, GLO, None)", -0.0060485773900869665], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546583562578]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096430702879], ["'mechanical disinfection' (unit, GLO, None)", 0.00651524132323225], ["'autoclave' (unit, GLO, None)", 0.005432438989023266], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489799160728], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137751752453], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739275967605e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396029905992], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031000404124e-06], ["'marginal heating grid' (megajoule, GLO, None)", -5.323793035791955e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03173096430702879], ["'wet wipe' (unit, GLO, None)", 0.0014416305610600515], ["'autoclave' (unit, GLO, None)", 0.005432438989023266], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489799160728], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137751752453], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739275967605e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205396029905992], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998807467454e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809739162865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852789925818796], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003196596226141391]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452918440838], ["'mechanical disinfection' (unit, GLO, None)", 0.003257620661616125], ["'autoclave' (unit, GLO, None)", 0.004074329241767449], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776607934598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434398519536], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855193521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023771804862228468], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870155002020592e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.6618965178959773e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01895452918440838], ["'wet wipe' (unit, GLO, None)", 0.0014416305610600515], ["'autoclave' (unit, GLO, None)", 0.004074329241767449], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776607934598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434398519536], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147855193521e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0023771804862228467], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998807467454e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809739162865e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754088375798617], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003169977260962431]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933215233541], ["'autoclave' (unit, GLO, None)", 0.11495174315729884], ["'waste polypropylene' (kilogram, CH, None)", 0.017294968000363464], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519024402723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128498416652146], ["'marginal heating grid' (megajoule, GLO, None)", -0.01305501259641599], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519480014396], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00544527393693782], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970421021412], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562289680397], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605360990134]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933215233541], ["'autoclave' (unit, GLO, None)", 0.11495174315729884], ["'waste polypropylene' (kilogram, CH, None)", 0.1147610026192342], ["'waste polyethylene' (kilogram, CH, None)", 0.01390805626673466], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025418998944434765], ["'marginal heating grid' (megajoule, GLO, None)", -0.08703341730943995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605360990134]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902922030173], ["'autoclave' (unit, GLO, None)", 0.15326899087639845], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470131870376], ["'waste polyethylene' (kilogram, CH, None)", 0.0062940172101178865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908352670666593], ["'marginal heating grid' (megajoule, GLO, None)", -0.03734966952160518], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1404897866891469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688548065286], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022538132100264], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29367781097691265], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04631729183395611]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902922030173], ["'autoclave' (unit, GLO, None)", 0.15326899087639845], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704299133358], ["'waste polyethylene' (kilogram, CH, None)", 0.041896345562790795], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272235113777734], ["'marginal heating grid' (megajoule, GLO, None)", -0.24899779681070114], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04631729183395611]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560804581], ["'mechanical disinfection' (unit, GLO, None)", 0.2674130140900254], ["'autoclave' (unit, GLO, None)", 0.22990348631459773], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561767173947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068109166028], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059482037377], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853697294842], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400823227759839e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00021916107724122071]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1617827560804581], ["'wet wipe' (unit, GLO, None)", 0.04043778738880496], ["'autoclave' (unit, GLO, None)", 0.22990348631459773], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561767173947], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068109166028], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059482037377], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853697294842], ["'waste wipe incineration' (kilogram, CH, None)", 0.000795952927311992], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519024402723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843283770893524], ["'marginal heating grid' (megajoule, GLO, None)", -0.013159216891348463]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962231210754], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065070450127], ["'autoclave' (unit, GLO, None)", 0.17242761473594825], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601304658177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738924814176], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118964074754], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417310765583], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2004116138799106e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00010958053862061036]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09650962231210754], ["'wet wipe' (unit, GLO, None)", 0.04043778738880496], ["'autoclave' (unit, GLO, None)", 0.17242761473594825], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601304658177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738924814176], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118964074754], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.05095417310765583], ["'waste wipe incineration' (kilogram, CH, None)", 0.000795952927311992], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519024402723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003811279654754734], ["'marginal heating grid' (megajoule, GLO, None)", -0.013049636352727852]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498021692145], ["'autoclave' (unit, GLO, None)", 0.0012325864712535582], ["'waste polypropylene' (kilogram, CH, None)", 1.939993550886308e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016967875079e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590358640181234e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011571349110519348], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360377870867], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266749012708], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957404686928], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958016301564], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586051036747]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498021692145], ["'autoclave' (unit, GLO, None)", 0.0012325864712535582], ["'waste polypropylene' (kilogram, CH, None)", 1.287285440307737e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816324180231036e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060239093454157e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.007714232740346233], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005056586051036747]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467008738475], ["'autoclave' (unit, GLO, None)", 0.0016434486283380778], ["'waste polypropylene' (kilogram, CH, None)", 5.493626597369639e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317270008267e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604693336116462e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.003310499028669388], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134543440476], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623973003825], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064197560436], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157187690582], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667278107707]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467008738475], ["'autoclave' (unit, GLO, None)", 0.0016434486283380778], ["'waste polypropylene' (kilogram, CH, None)", 3.62615616988095e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270667118941673e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736462224077644e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.022069993524462584], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667278107707]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316769406032], ["'mechanical disinfection' (unit, GLO, None)", 0.0011018532510498344], ["'autoclave' (unit, GLO, None)", 0.0024651729425071173], ["'aluminium scrap' (kilogram, RER, None)", -0.000133017134834149], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724003162347], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856155947461e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096063806069e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288732256223687e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.942540704167432e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002825316769406032], ["'wet wipe' (unit, GLO, None)", 0.0013201850156741607], ["'autoclave' (unit, GLO, None)", 0.0024651729425071173], ["'aluminium scrap' (kilogram, RER, None)", -0.000133017134834149], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724003162347], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856155947461e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096063806069e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955815905066e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016967875079e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746727658939155e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0011663710896199293]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00167577856887594], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266255249172], ["'autoclave' (unit, GLO, None)", 0.0018488797068803376], ["'aluminium scrap' (kilogram, RER, None)", -7.942370534350771e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932296745214], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712311894921e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015825834191377668], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443661281118393e-08], ["'marginal heating grid' (megajoule, GLO, None)", -9.71270352083716e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00167577856887594], ["'wet wipe' (unit, GLO, None)", 0.0013201850156741607], ["'autoclave' (unit, GLO, None)", 0.0018488797068803376], ["'aluminium scrap' (kilogram, RER, None)", -7.942370534350771e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932296745214], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712311894921e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834191377666], ["'waste wipe incineration' (kilogram, CH, None)", -9.96955815905066e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016967875079e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582291046128015e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.001156658386099092]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332002129519], ["'autoclave' (unit, GLO, None)", 0.17693989093842366], ["'waste polypropylene' (kilogram, CH, None)", -6.194524811066381e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869420690104e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581556071968525], ["'marginal heating grid' (megajoule, GLO, None)", -0.007340879527234262], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272680542636], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001537627317097942], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430962284067e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742481074537], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392760870645]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332002129519], ["'autoclave' (unit, GLO, None)", 0.17693989093842366], ["'waste polypropylene' (kilogram, CH, None)", -4.1103856222963836e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555109029088e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103738131235], ["'marginal heating grid' (megajoule, GLO, None)", -0.048939196848228415], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392760870645]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985510405061], ["'autoclave' (unit, GLO, None)", 0.23591985458456488], ["'waste polypropylene' (kilogram, CH, None)", -1.7541504838814148e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788137976211416e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037969961920264], ["'marginal heating grid' (megajoule, GLO, None)", -0.021001850616014554], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070635028017353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046278103718481745], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045782403579237], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659853823814], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949658299715]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985510405061], ["'autoclave' (unit, GLO, None)", 0.23591985458456488], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578551048722209], ["'waste polyethylene' (kilogram, CH, None)", -1.516900369845076e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646641280182], ["'marginal heating grid' (megajoule, GLO, None)", -0.140012337440097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949658299715]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558710571135], ["'mechanical disinfection' (unit, GLO, None)", 0.1764283427378885], ["'autoclave' (unit, GLO, None)", 0.35387978187684743], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458161579657], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248685497522191], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588822730338625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655448337188], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880300135837e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000123235045022351]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004497558710571135], ["'wet wipe' (unit, GLO, None)", 0.007110329501036088], ["'autoclave' (unit, GLO, None)", 0.35387978187684743], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458161579657], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248685497522191], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588822730338625e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655448337188], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291828157181e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869420690104e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038889511642151565], ["'marginal heating grid' (megajoule, GLO, None)", -0.00739947396899908]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308402589196], ["'mechanical disinfection' (unit, GLO, None)", 0.08821417136894424], ["'autoclave' (unit, GLO, None)", 0.2654098364076355], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037816498063414], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521466987391575], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117764546067725e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001546530835601604], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401500679106e-05], ["'marginal heating grid' (megajoule, GLO, None)", -6.16175225111755e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.002688308402589196], ["'wet wipe' (unit, GLO, None)", 0.007110329501036088], ["'autoclave' (unit, GLO, None)", 0.2654098364076355], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037816498063414], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521466987391575], ["'waste plastic, mixture' (kilogram, CH, None)", 1.117764546067725e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308356016037], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291828157181e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869420690104e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667627144867], ["'marginal heating grid' (megajoule, GLO, None)", -0.007337856446487904]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648179187289], ["'autoclave' (unit, GLO, None)", 0.0003262996596683228], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013939513032e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778898293866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169464664602253e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.9262610496445776e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013137463609970654], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456520502881347e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020704073961854e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771485640532348e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002867638924556e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648179187289], ["'autoclave' (unit, GLO, None)", 0.0003262996596683228], ["'waste polypropylene' (kilogram, CH, None)", 1.8909897100050703e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.059662959546756e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779643109734836e-05], ["'marginal heating grid' (megajoule, GLO, None)", -1.9508406997630517e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2002867638924556e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.000748884834272438], ["'autoclave' (unit, GLO, None)", 0.00043506621289109707], ["'waste polypropylene' (kilogram, CH, None)", 8.069998339880795e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895649118056e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094276365448297e-05], ["'marginal heating grid' (megajoule, GLO, None)", -8.371871136162312e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976304862500187], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147108112517687e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030996137823447e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597601588882352e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613293478853e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.000748884834272438], ["'autoclave' (unit, GLO, None)", 0.00043506621289109707], ["'waste polypropylene' (kilogram, CH, None)", 5.326731577479072e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486769473721e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396184243632213], ["'marginal heating grid' (megajoule, GLO, None)", -5.581247424108208e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613293478853e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639836448201], ["'mechanical disinfection' (unit, GLO, None)", 0.0001289552200304427], ["'autoclave' (unit, GLO, None)", 0.0006525993193366458], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452613198164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877246796813], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117032653756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346447659625e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071992955967153e-07], ["'marginal heating grid' (megajoule, GLO, None)", -4.912461931328921e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001973639836448201], ["'wet wipe' (unit, GLO, None)", 7.156213310761524e-05], ["'autoclave' (unit, GLO, None)", 0.0006525993193366458], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452613198164], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877246796813], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117032653756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346447659625e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430216184552e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778898293866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250636696217621e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.9496182825246346e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049232020598], ["'mechanical disinfection' (unit, GLO, None)", 6.447761001522135e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494895024842], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082974446103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605307541904], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823406530751e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0016087371802654e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535996477983554e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.4562309656644605e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001179049232020598], ["'wet wipe' (unit, GLO, None)", 7.156213310761524e-05], ["'autoclave' (unit, GLO, None)", 0.0004894494895024842], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082974446103], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605307541904], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823406530751e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010016087371802653], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430216184552e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778898293866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0165276731437809e-05], ["'marginal heating grid' (megajoule, GLO, None)", -2.92505597286799e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943681456653e-08], ["'autoclave' (unit, GLO, None)", -1.8381428395758507e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598028807505e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797243421e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346777118528e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.218923766150248e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895121827664e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278543917635e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531054340021e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171581037246e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686761776131e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943681456653e-08], ["'autoclave' (unit, GLO, None)", -1.8381428395758507e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976262105914e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769428987126e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4695645180790187e-08], ["'marginal heating grid' (megajoule, GLO, None)", -6.1459491774335e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686761776131e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348379034914e-08], ["'autoclave' (unit, GLO, None)", -2.450857119434468e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798320307173e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098241220969e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931399681937e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.6374831388911196e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.727288362103813e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821697683949e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328760666637e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581918414778e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255505960994e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348379034914e-08], ["'autoclave' (unit, GLO, None)", -2.450857119434468e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454259453284e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536519232195e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287599787963e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.7583220925940794e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255505960994e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272609461125e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2061027839484393e-07], ["'autoclave' (unit, GLO, None)", -3.676285679151703e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559595487995e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687601206027e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220037782818e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137935509397e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.21867366387084e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.547627203476503e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.722272609461125e-08], ["'wet wipe' (unit, GLO, None)", 9.851215174392547e-08], ["'autoclave' (unit, GLO, None)", -3.676285679151703e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559595487995e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687601206027e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220037782818e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.099137935509397e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359625836e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797243421e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914641664357e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.29250863969925e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293510655843e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.030513919742196e-08], ["'autoclave' (unit, GLO, None)", -2.7572142593637763e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630609783007e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792306701797e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440075565635e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.18620544537867e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368319354115e-11], ["'marginal heating grid' (megajoule, GLO, None)", -7.738136017382515e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.215293510655843e-08], ["'wet wipe' (unit, GLO, None)", 9.851215174392547e-08], ["'autoclave' (unit, GLO, None)", -2.7572142593637763e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630609783007e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792306701797e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440075565635e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205445378669e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359625836e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797243421e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.702821273345011e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.215127279525423e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187544875], ["'autoclave' (unit, GLO, None)", 0.00024060144367103715], ["'waste polypropylene' (kilogram, CH, None)", 6.539683604019833e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216489071378e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907306723440829e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.701889100593915e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625726971711], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240193162069e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077260092085663e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.49523050390758e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026684557561e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187544875], ["'autoclave' (unit, GLO, None)", 0.00024060144367103715], ["'waste polypropylene' (kilogram, CH, None)", 4.339416223228114e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478337206323e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.938204482293886e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011345927337292767], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026684557561e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452267906769], ["'autoclave' (unit, GLO, None)", 0.0003208019248947162], ["'waste polypropylene' (kilogram, CH, None)", 1.8518917121663643e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.303669013673838e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317643856449916e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.869010657795548e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767774589254], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.93165481541771e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.4455570291152125e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719729317127e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487308282428]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452267906769], ["'autoclave' (unit, GLO, None)", 0.0003208019248947162], ["'waste polypropylene' (kilogram, CH, None)", 1.222370767106511e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453312904878e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545095904299949e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003246007105197032], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487308282428]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673943244636], ["'mechanical disinfection' (unit, GLO, None)", 0.00019474641914641794], ["'autoclave' (unit, GLO, None)", 0.00048120288734207446], ["'aluminium scrap' (kilogram, RER, None)", 1.871157556879819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735875853597], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705333345315e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190433725797e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880642348478924e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.8570470221809784e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003430673943244636], ["'wet wipe' (unit, GLO, None)", 7.240358872527754e-05], ["'autoclave' (unit, GLO, None)", 0.00048120288734207446], ["'aluminium scrap' (kilogram, RER, None)", 1.871157556879819e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735875853597], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705333345315e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190433725797e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323866355155e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216489071378e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.930512664073294e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.715473473069307e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853508296448], ["'mechanical disinfection' (unit, GLO, None)", 9.737320957320897e-05], ["'autoclave' (unit, GLO, None)", 0.00036090216550655575], ["'aluminium scrap' (kilogram, RER, None)", 1.117256559722164e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622066996476], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741066669063e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788229085529835e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403211742394558e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.4285235110904892e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002047853508296448], ["'wet wipe' (unit, GLO, None)", 7.240358872527754e-05], ["'autoclave' (unit, GLO, None)", 0.00036090216550655575], ["'aluminium scrap' (kilogram, RER, None)", 1.117256559722164e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622066996476], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741066669063e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012788229085529835], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323866355155e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216489071378e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.906109452330906e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.701188237958402e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848636360645], ["'autoclave' (unit, GLO, None)", 0.0004133497928004711], ["'waste polypropylene' (kilogram, CH, None)", 4.470534426721245e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346126044591e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360071035026e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.36480602366762e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548366852174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059916165465e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214624778189e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316050795464e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833377429023e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848636360645], ["'autoclave' (unit, GLO, None)", 0.0004133497928004711], ["'waste polypropylene' (kilogram, CH, None)", 2.966429385955219e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730583802e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573380690017e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00022432040157784137], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764833377429023e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529911099827], ["'autoclave' (unit, GLO, None)", 0.0005511330570672948], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550759780723e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576839162113e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.754048413923701e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.626524069597112e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260301928593], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435508748828e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869329885039e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455225576189], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425698198953e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529911099827], ["'autoclave' (unit, GLO, None)", 0.0005511330570672948], ["'waste polypropylene' (kilogram, CH, None)", 8.356139115366815e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961482603352e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360322759491352], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006417682713064741], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425698198953e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694745067978], ["'mechanical disinfection' (unit, GLO, None)", 0.00046844761386000366], ["'autoclave' (unit, GLO, None)", 0.0008266995856009424], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586981264462e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774199916744], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287624043218e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701432297644e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.616025589786944e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.648669485444946e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004450694745067978], ["'wet wipe' (unit, GLO, None)", 0.0010830399605650453], ["'autoclave' (unit, GLO, None)", 0.0008266995856009424], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586981264462e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774199916744], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287624043218e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701432297644e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881612944646e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346126044591e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.703197075715009e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.391663695132225e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421699751811], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422380693000183], ["'autoclave' (unit, GLO, None)", 0.0006200246892007066], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789056184327e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171153883168], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575248086437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.37671525641687e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080127948934699e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.824334742722473e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002655421699751811], ["'wet wipe' (unit, GLO, None)", 0.0010830399605650453], ["'autoclave' (unit, GLO, None)", 0.0006200246892007066], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789056184327e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874171153883168], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575248086437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.376715256416868e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.6966881612944646e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346126044591e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622395796225684e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.363420347705e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374182051417], ["'autoclave' (unit, GLO, None)", 0.0004220354525658159], ["'waste polypropylene' (kilogram, CH, None)", 4.519055445215794e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112801030112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744139394414e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.4582446020521e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968803072423], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456914708222e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910483866855e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426432130007e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312260311035e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374182051417], ["'autoclave' (unit, GLO, None)", 0.0004220354525658159], ["'waste polypropylene' (kilogram, CH, None)", 2.998625575797396e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067895732928e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.55849609292961e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002305496401368067], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844312260311035e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175615027853], ["'autoclave' (unit, GLO, None)", 0.0005627139367544212], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951400938184e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900105861531e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145242276163127e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.893846678246836e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521020732305], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.04792392578597e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259141632519e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173048253543], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036937347982e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175615027853], ["'autoclave' (unit, GLO, None)", 0.0005627139367544212], ["'waste polypropylene' (kilogram, CH, None)", 8.44683260787999e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006453445822e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763494850775433], ["'marginal heating grid' (megajoule, GLO, None)", -0.000659589778549789], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036937347982e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651650121825], ["'mechanical disinfection' (unit, GLO, None)", 0.0004793738307358025], ["'autoclave' (unit, GLO, None)", 0.000844070905131632], ["'aluminium scrap' (kilogram, RER, None)", 1.881087940513773e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000391913312218731], ["'waste plastic, mixture' (kilogram, CH, None)", 1.01831593534037e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565995520197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515116988895838e-07], ["'marginal heating grid' (megajoule, GLO, None)", -5.805529537041165e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004580651650121825], ["'wet wipe' (unit, GLO, None)", 0.0016808440355539714], ["'autoclave' (unit, GLO, None)", 0.000844070905131632], ["'aluminium scrap' (kilogram, RER, None)", 1.881087940513773e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000391913312218731], ["'waste plastic, mixture' (kilogram, CH, None)", 1.01831593534037e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565995520197e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353327732e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112801030112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916268398501818e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.4858480944117936e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020414359524], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968691536790124], ["'autoclave' (unit, GLO, None)", 0.0006330531788487239], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859301350402e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848737886708], ["'waste plastic, mixture' (kilogram, CH, None)", 2.03663187068074e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401590134635321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558494447898e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.9027647685205824e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002733020414359524], ["'wet wipe' (unit, GLO, None)", 0.0016808440355539714], ["'autoclave' (unit, GLO, None)", 0.0006330531788487239], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859301350402e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848737886708], ["'waste plastic, mixture' (kilogram, CH, None)", 2.03663187068074e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.40159013463532e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353327732e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112801030112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833692813557363e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.456820446726587e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981154975146], ["'autoclave' (unit, GLO, None)", 0.0005822019602635406], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827809948e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832688764275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.56343427151561e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.835781415087053e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025786435487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001108013577698327], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533511616424e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251831110832], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282279930737]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981154975146], ["'autoclave' (unit, GLO, None)", 0.0005822019602635406], ["'waste polypropylene' (kilogram, CH, None)", 8.925176979200992e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553545625347e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.708956181010406e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00032238542767247026], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013218282279930737]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367476401762], ["'autoclave' (unit, GLO, None)", 0.0007762692803513875], ["'waste polypropylene' (kilogram, CH, None)", 3.808913555912537e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440325324262e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.449951217196851e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00013834903367447235], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847412152863], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798146470693], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077565942184e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648403129813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517648625865]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367476401762], ["'autoclave' (unit, GLO, None)", 0.0007762692803513875], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134360338308], ["'waste polyethylene' (kilogram, CH, None)", 2.845961797100345e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008114645685], ["'marginal heating grid' (megajoule, GLO, None)", -0.0009223268911631488], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0003760517648625865]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990075479413], ["'mechanical disinfection' (unit, GLO, None)", 0.0005029740316536207], ["'autoclave' (unit, GLO, None)", 0.0011644039205270815], ["'aluminium scrap' (kilogram, RER, None)", 9.403572010880705e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000841743654868884], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110148757e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153426404768e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375868778134955e-07], ["'marginal heating grid' (megajoule, GLO, None)", -8.118070024110936e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001527990075479413], ["'wet wipe' (unit, GLO, None)", 0.010861422354823142], ["'autoclave' (unit, GLO, None)", 0.0011644039205270815], ["'aluminium scrap' (kilogram, RER, None)", 9.403572010880705e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000841743654868884], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110148757e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153426404768e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922969009532e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832688764275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787068870137e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.8743803202267565e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932940394781], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148701582681035], ["'autoclave' (unit, GLO, None)", 0.000873302940395311], ["'aluminium scrap' (kilogram, RER, None)", 5.614814463564173e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071927588596], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220297515e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.136987713560601e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934389067459e-08], ["'marginal heating grid' (megajoule, GLO, None)", -4.059035012055468e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009088932940394781], ["'wet wipe' (unit, GLO, None)", 0.010861422354823142], ["'autoclave' (unit, GLO, None)", 0.000873302940395311], ["'aluminium scrap' (kilogram, RER, None)", 5.614814463564173e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071927588596], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220297515e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004136987713560601], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922969009532e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832688764275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559907724979482e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.833789970106202e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891604668997e-10], ["'autoclave' (unit, GLO, None)", 1.9197083632730882e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846533648107e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252616676e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.02191235734951e-11], ["'marginal heating grid' (megajoule, GLO, None)", -9.61612999151659e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873236863367e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.09329501152704e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998162389793e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420635931133e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225986180074e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891604668997e-10], ["'autoclave' (unit, GLO, None)", 1.9197083632730882e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.31030003634594e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134543416e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.681274904899673e-10], ["'marginal heating grid' (megajoule, GLO, None)", -6.410753327677728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225986180074e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934505822763e-09], ["'autoclave' (unit, GLO, None)", 2.5596111510307845e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266352293237e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.9129325725787946e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506468973695475e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.7511216447124767e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530633555834e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.532933450071245e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248770255342015e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.3701989744538964e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390241005027e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934505822763e-09], ["'autoclave' (unit, GLO, None)", 2.5596111510307845e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591651678707e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037489202311e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979315796989e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.8340810964749844e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.654390241005027e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627906115743e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.950722458560927e-09], ["'autoclave' (unit, GLO, None)", 3.839416726546178e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343429036806e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648039642676e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229629396522e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884676684887e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787011285474e-13], ["'marginal heating grid' (megajoule, GLO, None)", -1.6143082147702838e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.115627906115743e-10], ["'wet wipe' (unit, GLO, None)", 4.97951406621442e-10], ["'autoclave' (unit, GLO, None)", 3.839416726546178e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343429036806e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648039642676e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229629396522e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884676684887e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028581800844e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252616676e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0540150105168266e-11], ["'marginal heating grid' (megajoule, GLO, None)", -9.692885340341001e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174921493054e-10], ["'mechanical disinfection' (unit, GLO, None)", 9.753612292804634e-10], ["'autoclave' (unit, GLO, None)", 2.8795625449096326e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668823310913e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979931103625e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459258793044e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245254215487e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893505642728e-13], ["'marginal heating grid' (megajoule, GLO, None)", -8.071541073851419e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.841174921493054e-10], ["'wet wipe' (unit, GLO, None)", 4.97951406621442e-10], ["'autoclave' (unit, GLO, None)", 2.8795625449096326e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668823310913e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979931103625e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459258793044e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245254215485e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028581800844e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252616676e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256075460409e-11], ["'marginal heating grid' (megajoule, GLO, None)", -9.612169929602486e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419978407263e-07], ["'autoclave' (unit, GLO, None)", 2.3557944545314716e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553164286739e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744668847492e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844133426563796e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.043271888955077e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114263435586e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791689167714e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579277295577172e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190491464872e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417653531083e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419978407263e-07], ["'autoclave' (unit, GLO, None)", 2.3557944545314716e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.997656772564098e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728204147955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562755617709197e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.3621812593033846e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.985417653531083e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507908142072e-06], ["'autoclave' (unit, GLO, None)", 3.1410592727086287e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211296998898e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816477530504e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997853278098702e-08], ["'marginal heating grid' (megajoule, GLO, None)", -5.845687947954111e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005670172268e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830508390282e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717829061528748e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940983511232e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826098267229e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507908142072e-06], ["'autoclave' (unit, GLO, None)", 3.1410592727086287e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202176236896e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573188998e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331902185399141e-08], ["'marginal heating grid' (megajoule, GLO, None)", -3.897125298636074e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.133826098267229e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.28768521352401e-07], ["'mechanical disinfection' (unit, GLO, None)", 2.538955062215218e-07], ["'autoclave' (unit, GLO, None)", 4.7115889090629443e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226135015746e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274547180395e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387996173978e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739978597691e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453340558675494e-11], ["'marginal heating grid' (megajoule, GLO, None)", -3.4301435174642056e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.28768521352401e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805455810179e-07], ["'autoclave' (unit, GLO, None)", 4.7115889090629443e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226135015746e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274547180395e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387996173978e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739978597691e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518066466e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744668847492e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817059412323e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.0595811575192722e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576825336e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.269477531107609e-07], ["'autoclave' (unit, GLO, None)", 3.5336916817972074e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961972294737e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747990999662e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775992347956e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348289057726e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266702793377384e-11], ["'marginal heating grid' (megajoule, GLO, None)", -1.7150717587321028e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.155460576825336e-07], ["'wet wipe' (unit, GLO, None)", 1.3536805455810179e-07], ["'autoclave' (unit, GLO, None)", 3.5336916817972074e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961972294737e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674747990999662e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775992347956e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348289057725e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.49700518066466e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744668847492e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842550356618954e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.042430439931951e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384661433595], ["'autoclave' (unit, GLO, None)", 0.0022770339773345023], ["'waste polypropylene' (kilogram, CH, None)", 3.488480808112662e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.14235691213272e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410757719561104e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004305808288201983], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249414208254], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377923542622], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144944868492], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0049497912993141996], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258872846422036e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384661433595], ["'autoclave' (unit, GLO, None)", 0.0022770339773345023], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863306168128], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380505692547e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738384797074027], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028705388588013223], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258872846422036e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628553779617], ["'autoclave' (unit, GLO, None)", 0.0030360453031126697], ["'waste polypropylene' (kilogram, CH, None)", 9.878595185590061e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077285244631e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001834082352968546], ["'marginal heating grid' (megajoule, GLO, None)", -0.0012318679541671435], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692715919542], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564624254495], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114758269595], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01394307408257521], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116223699156362e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628553779617], ["'autoclave' (unit, GLO, None)", 0.0030360453031126697], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524874976939], ["'waste polyethylene' (kilogram, CH, None)", 8.322717098688675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227215686456982], ["'marginal heating grid' (megajoule, GLO, None)", -0.008212453027780956], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116223699156362e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642897267486], ["'mechanical disinfection' (unit, GLO, None)", 0.0035366364665724605], ["'autoclave' (unit, GLO, None)", 0.004554067954669006], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917399839302], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999749271972], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804208108e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96517041846653e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062138011254e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.228377421064985e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008501642897267486], ["'wet wipe' (unit, GLO, None)", 0.012600254476956316], ["'autoclave' (unit, GLO, None)", 0.004554067954669006], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917399839302], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999749271972], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799804208108e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.96517041846653e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372839232126e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.14235691213272e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461927987166438e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00043401769809529693]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168993602], ["'mechanical disinfection' (unit, GLO, None)", 0.0017683182332862302], ["'autoclave' (unit, GLO, None)", 0.0034155509660017537], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813720802210883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200169498578], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608416216e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.332919381364365e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031069005613e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.6141887105324923e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005036709168993602], ["'wet wipe' (unit, GLO, None)", 0.012600254476956316], ["'autoclave' (unit, GLO, None)", 0.0034155509660017537], ["'aluminium scrap' (kilogram, RER, None)", 0.00039813720802210883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0034645200169498578], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599608416216e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329193813643649e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372839232126e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.14235691213272e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117676476396e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004304035093847644]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509584447492], ["'autoclave' (unit, DK, None)", 0.0005799645237772328], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812676531922e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732348878593e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.24448300031147e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425438487096082e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659208228008], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360061919633e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089139638114144e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518433388141e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470240117913e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509584447492], ["'autoclave' (unit, DK, None)", 0.0005799645237772328], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389719941743e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943502417192e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.496322000207647e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018950292324730722], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470240117913e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385770546687], ["'autoclave' (unit, DK, None)", 0.0007732860317029771], ["'waste polypropylene' (kilogram, CH, None)", 5.255722655130068e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351323652346e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587010212664322e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360851120279e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279228456314], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593805043772e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039313269596e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502629262372], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068816031658]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385770546687], ["'autoclave' (unit, DK, None)", 0.0007732860317029771], ["'waste polypropylene' (kilogram, CH, None)", 3.469123864772322e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112279270103e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467347510956], ["'marginal heating grid' (megajoule, DK, None)", -0.0005421573900746853], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068816031658]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779162560875], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123097380747], ["'autoclave' (unit, DK, None)", 0.001159929047554466], ["'aluminium scrap' (kilogram, RER, None)", 5.802154951987099e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854376534508], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674859925844e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205417435718e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384042920143362e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921646093465e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779162560875], ["'wet wipe' (unit, GLO, None)", 0.0002303881961012154], ["'autoclave' (unit, DK, None)", 0.001159929047554466], ["'aluminium scrap' (kilogram, RER, None)", 5.802154951987099e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854376534508], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674859925844e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205417435718e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531504852e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732348878593e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310289948545733e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8652328561220358e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109947081175], ["'mechanical disinfection' (unit, DK, None)", 0.00026395615486903733], ["'autoclave' (unit, DK, None)", 0.0008699467856658493], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306978839744e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382224058947], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349719851688e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.849514578315385e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214600716791e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608230467326e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109947081175], ["'wet wipe' (unit, GLO, None)", 0.0002303881961012154], ["'autoclave' (unit, DK, None)", 0.0008699467856658493], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306978839744e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382224058947], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349719851688e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495145783153848], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531504852e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732348878593e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087802538585e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732478915684e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325568740978], ["'autoclave' (unit, DK, None)", 0.05129836488669746], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070328440886], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722535424], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851479176389], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033447052309], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649432453812], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193844852762], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001197637258266051], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453518897975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479350992737]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325568740978], ["'autoclave' (unit, DK, None)", 0.05129836488669746], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766292703764], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720529617666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567652784259], ["'marginal heating grid' (megajoule, DK, None)", -0.03987355631368207], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479350992737]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752922034259], ["'autoclave' (unit, DK, None)", 0.06839781984892994], ["'waste polypropylene' (kilogram, CH, None)", 0.0778230589674541], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304324912], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002239505045684218], ["'marginal heating grid' (megajoule, DK, None)", -0.017111406135785594], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666230988656], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040529321280624815], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.003607738095739548], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911320839367], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363723235665]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752922034259], ["'autoclave' (unit, DK, None)", 0.06839781984892994], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575409512], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488289228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930033637894798], ["'marginal heating grid' (megajoule, DK, None)", -0.11407604090523728], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363723235665]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866788631344], ["'mechanical disinfection' (unit, DK, None)", 0.05095178624229582], ["'autoclave' (unit, DK, None)", 0.10259672977339494], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554840721846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613655360356], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742634612616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896507711101], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141008865296369e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040662340162079]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866788631344], ["'wet wipe' (unit, GLO, None)", 0.0546233287958177], ["'autoclave' (unit, DK, None)", 0.10259672977339494], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554840721846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613655360356], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742634612616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896507711101], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866462043], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722535424], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890332900638013], ["'marginal heating grid' (megajoule, DK, None)", -0.006028773682361521]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348325634377], ["'mechanical disinfection' (unit, DK, None)", 0.02547589312114791], ["'autoclave' (unit, DK, None)", 0.07694754733004619], ["'aluminium scrap' (kilogram, RER, None)", 0.0041101278573398604], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539460090338], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526922523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002571550024725259], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.5705044326481666e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.020331170081039e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348325634377], ["'wet wipe' (unit, GLO, None)", 0.0546233287958177], ["'autoclave' (unit, DK, None)", 0.07694754733004619], ["'aluminium scrap' (kilogram, RER, None)", 0.0041101278573398604], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539460090338], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526922523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.025715500247252585], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866462043], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722535424], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627856311549], ["'marginal heating grid' (megajoule, DK, None)", -0.00597857037066071]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693090266931], ["'autoclave' (unit, DK, None)", 0.022422925061976066], ["'waste polypropylene' (kilogram, CH, None)", 0.001433560326184235], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200031416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588126873337], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109422130460434], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119801794945], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002355257768907168], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173485924745], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853372318711], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077266026914026]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693090266931], ["'autoclave' (unit, DK, None)", 0.022422925061976066], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409641035578], ["'waste polyethylene' (kilogram, CH, None)", 0.001152752009562238], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002553058751248891], ["'marginal heating grid' (megajoule, DK, None)", -0.0067396147536402905], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077266026914026]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403301253739], ["'autoclave' (unit, DK, None)", 0.02989723341596809], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521297512367], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172571888], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001095623997956535], ["'marginal heating grid' (megajoule, DK, None)", -0.0028922497993663938], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167599944213809], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088639887002156], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497846183207], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882738925948], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285493099907]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403301253739], ["'autoclave' (unit, DK, None)", 0.02989723341596809], ["'waste polypropylene' (kilogram, CH, None)", 0.02679552011559318], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266863016523], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159986376905], ["'marginal heating grid' (megajoule, DK, None)", -0.019281665329109292], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285493099907]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528944138579], ["'mechanical disinfection' (unit, DK, None)", 0.03185291911372791], ["'autoclave' (unit, DK, None)", 0.04484585012395215], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900240123388], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756809273266], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658625368e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235513261453e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922630884045e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971196527272558e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528944138579], ["'wet wipe' (unit, GLO, None)", 0.0016886972418080975], ["'autoclave' (unit, DK, None)", 0.04484585012395215], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900240123388], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756809273266], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658625368e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235513261453e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780561318e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200031416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556600484523], ["'marginal heating grid' (megajoule, DK, None)", -0.001019011490631946]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00320120452166698], ["'mechanical disinfection' (unit, DK, None)", 0.015926459556863955], ["'autoclave' (unit, DK, None)", 0.0336343875929641], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135942583581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298390540682], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317250736e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726397500195562e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461315442014e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598263636279e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00320120452166698], ["'wet wipe' (unit, GLO, None)", 0.0016886972418080975], ["'autoclave' (unit, DK, None)", 0.0336343875929641], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135942583581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298390540682], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317250736e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000972639750019556], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780561318e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200031416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011046894041], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258923683096]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341071062385], ["'autoclave' (unit, DK, None)", 0.026502074653614885], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899791578], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054519894477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008910295468], ["'marginal heating grid' (megajoule, DK, None)", -0.0012735798597540275], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336091424703], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003192075107692116], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484357389187], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511738425056], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317439605538134]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341071062385], ["'autoclave' (unit, DK, None)", 0.026502074653614885], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082729162], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355629324115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059401969787], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532398360184], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317439605538134]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575421089156], ["'autoclave' (unit, DK, None)", 0.03533609953815318], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222753615403], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052335122], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572187545778], ["'marginal heating grid' (megajoule, DK, None)", -0.0036436415912952883], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661184473502], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216343539378], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001127679606971433], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540108239595], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892524748537588]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575421089156], ["'autoclave' (unit, DK, None)", 0.03533609953815318], ["'waste polypropylene' (kilogram, CH, None)", 0.038793549528814544], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768752162285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714791697192], ["'marginal heating grid' (megajoule, DK, None)", -0.024290943941968585], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892524748537588]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011953725715], ["'mechanical disinfection' (unit, DK, None)", 0.0387319196794597], ["'autoclave' (unit, DK, None)", 0.053004149307229784], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351981995135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904010482816], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143702814e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508483187671e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146887708975e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1380227093234854e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011953725715], ["'wet wipe' (unit, GLO, None)", 0.001791116759410556], ["'autoclave' (unit, DK, None)", 0.053004149307229784], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351981995135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904010482816], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143702814e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508483187671e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269840878646e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054519894477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747582035005], ["'marginal heating grid' (megajoule, DK, None)", -0.0012837454946276622]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209758735091], ["'mechanical disinfection' (unit, DK, None)", 0.01936595983972985], ["'autoclave' (unit, DK, None)", 0.03975311198042233], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611078177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098365100989], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228740563e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000141832113195814], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573443854477e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113546617427e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209758735091], ["'wet wipe' (unit, GLO, None)", 0.001791116759410556], ["'autoclave' (unit, DK, None)", 0.03975311198042233], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611078177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098365100989], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228740563e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183211319581397], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269840878646e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054519894477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061847596471], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553810810445]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931196024554], ["'autoclave' (unit, DK, None)", 2.0531715887651507], ["'waste polypropylene' (kilogram, CH, None)", 0.079791783628079], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135068365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248205248708], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613455496336], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36128076422750305], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093595449441], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083045817671487], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534572941270262], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359165580291795]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931196024554], ["'autoclave' (unit, DK, None)", 2.0531715887651507], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594988405242], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454307066], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999498803499138], ["'marginal heating grid' (megajoule, DK, None)", -0.6173742303664225], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359165580291795]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865557855223], ["'autoclave' (unit, DK, None)", 2.737562118353534], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243401222373], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425260894423], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052273891297], ["'marginal heating grid' (megajoule, DK, None)", -0.26494103286049175], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498330906544], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822417617372104], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0273615823118302], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29674853355690883], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626233723678238]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865557855223], ["'autoclave' (unit, DK, None)", 2.737562118353534], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352080014768], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523197981395], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.45773681825942014], ["'marginal heating grid' (megajoule, DK, None)", -1.7662735524032782], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626233723678238]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.247111384923991], ["'mechanical disinfection' (unit, DK, None)", 2.140537855420658], ["'autoclave' (unit, DK, None)", 4.106343177530303], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888858441976], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045677329142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513570485], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504009044153326], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874771890837], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546258617768777]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.247111384923991], ["'wet wipe' (unit, GLO, None)", 0.14506379016430065], ["'autoclave' (unit, DK, None)", 4.106343177530303], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888858441976], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045677329142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513570485], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504009044153326], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092648845663], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135068365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080870506954], ["'marginal heating grid' (megajoule, DK, None)", -0.09334531093541133]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160858222083], ["'mechanical disinfection' (unit, DK, None)", 1.070268927710329], ["'autoclave' (unit, DK, None)", 3.0797573831477263], ["'aluminium scrap' (kilogram, RER, None)", 0.27543272972467275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511816985417678], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014702714097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002929181885730565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437385945413], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129308884389]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160858222083], ["'wet wipe' (unit, GLO, None)", 0.14506379016430065], ["'autoclave' (unit, DK, None)", 3.0797573831477263], ["'aluminium scrap' (kilogram, RER, None)", 0.27543272972467275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511816985417678], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014702714097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.029291818857305647], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092648845663], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135068365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989364966475055], ["'marginal heating grid' (megajoule, DK, None)", -0.0925679980045229]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404296181], ["'autoclave' (unit, DK, None)", 0.013280171304077791], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584221584767], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296877822654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296588706820938], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536177007632], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930680310751], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942568255], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428652004272], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095979934157], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458887794262522]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404296181], ["'autoclave' (unit, DK, None)", 0.013280171304077791], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069904042228], ["'waste polyethylene' (kilogram, CH, None)", 8.017874156125753e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001286439247121396], ["'marginal heating grid' (megajoule, DK, None)", -0.009568357451338423], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458887794262522]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337199908204], ["'autoclave' (unit, DK, None)", 0.01770689507210372], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249550598303], ["'waste polyethylene' (kilogram, CH, None)", 3.628446488810691e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647381772432], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181277490943], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112939822562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03023536112775777], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896664083818], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805577279316], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436749063926]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337199908204], ["'autoclave' (unit, DK, None)", 0.01770689507210372], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746208569659], ["'waste polyethylene' (kilogram, CH, None)", 0.0002415288088296478], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003680431587848291], ["'marginal heating grid' (megajoule, DK, None)", -0.027374541849939617], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436749063926]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363992423546], ["'mechanical disinfection' (unit, DK, None)", 0.012412664554994332], ["'autoclave' (unit, DK, None)", 0.02656034260815559], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105383020773], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334981160548], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429769386118e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793311421364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394156166717655e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.4094325964573388e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363992423546], ["'wet wipe' (unit, GLO, None)", 0.03256387378383678], ["'autoclave' (unit, DK, None)", 0.02656034260815559], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105383020773], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334981160548], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429769386118e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793311421364], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480709081661], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296877822654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450612872324056], ["'marginal heating grid' (megajoule, DK, None)", -0.0014467097224097581]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230871032806], ["'mechanical disinfection' (unit, DK, None)", 0.006206332277497166], ["'autoclave' (unit, DK, None)", 0.019920256956116687], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233333058637], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01921744147286559], ["'waste plastic, mixture' (kilogram, CH, None)", 4.8794859538772235e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164565989125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078083358785e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047162982286694e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230871032806], ["'wet wipe' (unit, GLO, None)", 0.03256387378383678], ["'autoclave' (unit, DK, None)", 0.019920256956116687], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233333058637], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01921744147286559], ["'waste plastic, mixture' (kilogram, CH, None)", 4.8794859538772235e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164565989124], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480709081661], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296877822654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642091490514], ["'marginal heating grid' (megajoule, DK, None)", -0.0014346625594274713]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956209597833e-05], ["'autoclave' (unit, DK, None)", -1.829168864679963e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929090561355e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679477665665e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797834886157e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.8993368969489813e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874338426384e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016595624974e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.03825101716574e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092293625629e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760278550683e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956209597833e-05], ["'autoclave' (unit, DK, None)", -1.829168864679963e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549195938596785e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.417353192901779e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985565907715e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912646326542e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760278550683e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399947021301], ["'autoclave' (unit, DK, None)", -2.4388918195732843e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192069570177e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.54650509004771e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702248102134e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842623328412e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769267437889e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179752081303e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.216474515487341e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814344489086283e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017374737544e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399947021301], ["'autoclave' (unit, DK, None)", -2.4388918195732843e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407306646983e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365189071382e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134832068094e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.5298950822189413e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017374737544e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.477328741794376e-05], ["'mechanical disinfection' (unit, DK, None)", 2.8681012349335156e-05], ["'autoclave' (unit, DK, None)", -3.6583377293599275e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652611474794e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307051508537e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489544787142e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041918463726e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118152821509e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.867262999003157e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.477328741794376e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503274846142e-05], ["'autoclave' (unit, DK, None)", -3.6583377293599275e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652611474794e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307051508537e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489544787142e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041918463726e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041765352834e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679477665665e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.179979234108167e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.9224792229243092e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584264853971e-05], ["'mechanical disinfection' (unit, DK, None)", 1.4340506174667578e-05], ["'autoclave' (unit, DK, None)", -2.743753297019945e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450436442015e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185426268027e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979089574284e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297200907043e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.648059076410748e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336314995015785e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584264853971e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503274846142e-05], ["'autoclave' (unit, DK, None)", -2.743753297019945e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450436442015e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185426268027e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979089574284e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972009070426e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041765352834e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679477665665e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986433440666e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.898142907929293e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816859417255e-06], ["'autoclave' (unit, DK, None)", 0.0001330516735370024], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178250743564e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350931745736e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.37046711009566e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375020112117e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914201463436e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.758970528589513e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383334404136e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396592322e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710824406593e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816859417255e-06], ["'autoclave' (unit, DK, None)", 0.0001330516735370024], ["'waste polypropylene' (kilogram, CH, None)", 2.844125846544666e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985437962524e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780733971067e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101583346741412e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710824406593e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355750739085e-05], ["'autoclave' (unit, DK, None)", 0.0001774022313826699], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607485958226e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714180315916e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642720124994146e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.33900271921988e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396381206596e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988969541252e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789477626555e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.6287702525612176e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886174498504e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355750739085e-05], ["'autoclave' (unit, DK, None)", 0.0001774022313826699], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102942724e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724636745243e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428480083329435e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.89266847947992e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886174498504e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076492116409e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947834182844e-05], ["'autoclave' (unit, DK, None)", 0.0002661033470740049], ["'aluminium scrap' (kilogram, RER, None)", 4.90395676245679e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917957889574e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.42724432003381e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623725393345e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658173036596376e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393503401879e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076492116409e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389138703e-05], ["'autoclave' (unit, DK, None)", 0.0002661033470740049], ["'aluminium scrap' (kilogram, RER, None)", 4.90395676245679e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917957889574e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.42724432003381e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623725393345e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805804e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350931745736e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.39736996799845e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.585713067489011e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.5594201969407425e-06], ["'mechanical disinfection' (unit, DK, None)", 3.861473917091422e-05], ["'autoclave' (unit, DK, None)", 0.00019957751030550363], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221355752564e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222835779093e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.85448864006762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930396639625e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290865182981806e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.1531967517009395e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.5594201969407425e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389138703e-05], ["'autoclave' (unit, DK, None)", 0.00019957751030550363], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221355752564e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222835779093e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.85448864006762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393039663962e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805804e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350931745736e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.369079102815476e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.564181099972001e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426159045564], ["'autoclave' (unit, DK, None)", 0.0027162206146309365], ["'waste polypropylene' (kilogram, CH, None)", 6.352133529220465e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741355695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931941337234], ["'marginal heating grid' (megajoule, DK, None)", -0.0003171283037782337], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415065065965], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040953871512258656], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238117440987e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961131801659578], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440100168778]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426159045564], ["'autoclave' (unit, DK, None)", 0.0027162206146309365], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967108174327], ["'waste polyethylene' (kilogram, CH, None)", 5.1208877816198076e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000783928796089149], ["'marginal heating grid' (megajoule, DK, None)", -0.0021141886918548914], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440100168778]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047220339426], ["'autoclave' (unit, DK, None)", 0.003621627486174582], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817377138326], ["'waste polyethylene' (kilogram, CH, None)", 2.317430646702774e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165439844653], ["'marginal heating grid' (megajoule, DK, None)", -0.000907286550249363], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590332882804], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001232592249398076], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002085843394387312], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0033693329018759377], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546360923197]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047220339426], ["'autoclave' (unit, DK, None)", 0.003621627486174582], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146783589654], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058104191717], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427769598964372], ["'marginal heating grid' (megajoule, DK, None)", -0.006048577001662419], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546360923197]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.031796781215800894], ["'mechanical disinfection' (unit, DK, None)", 0.006515241779744306], ["'autoclave' (unit, DK, None)", 0.005432441229261875], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980032553314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377484210613], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573931684836e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205395883543504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740311795464415e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.32379269391125e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.031796781215800894], ["'wet wipe' (unit, GLO, None)", 0.001441630536187735], ["'autoclave' (unit, DK, None)", 0.005432441229261875], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980032553314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377484210613], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573931684836e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205395883543504], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988192439396e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741355695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791001453504], ["'marginal heating grid' (megajoule, DK, None)", -0.00031965960208639574]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01899385529333106], ["'mechanical disinfection' (unit, DK, None)", 0.003257620889872153], ["'autoclave' (unit, DK, None)", 0.004074330921946405], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766148895765], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434378596053], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863369672e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023771804617300383], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870155897732182e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.661896346955625e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01899385529333106], ["'wet wipe' (unit, GLO, None)", 0.001441630536187735], ["'autoclave' (unit, DK, None)", 0.004074330921946405], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766148895765], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434378596053], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863369672e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002377180461730038], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988192439396e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741355695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001175408944247621], ["'marginal heating grid' (megajoule, DK, None)", -0.0003169977057394401]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.123293317451023], ["'autoclave' (unit, DK, None)", 0.11495178592835892], ["'waste polypropylene' (kilogram, CH, None)", 0.017294968001656218], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022259534], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128506986513763], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012237667316], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519331684486], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005445273774202475], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970282801062], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562010910369], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605062509564]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.123293317451023], ["'autoclave' (unit, DK, None)", 0.11495178592835892], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100262781228], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056265305212], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004657675843], ["'marginal heating grid' (megajoule, DK, None)", -0.08703341491778212], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605062509564]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902816667242], ["'autoclave' (unit, DK, None)", 0.15326904790447854], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547013553116], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017209470997], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355122456638], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966849524504], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978251429844], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688058279293], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537715728093], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778031242358], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317290984797775]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902816667242], ["'autoclave' (unit, DK, None)", 0.15326904790447854], ["'waste polypropylene' (kilogram, CH, None)", 0.32327042993749944], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634555848475], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236748304431], ["'marginal heating grid' (megajoule, DK, None)", -0.24899778996830027], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317290984797775]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950133557733], ["'mechanical disinfection' (unit, DK, None)", 0.2674130254706446], ["'autoclave' (unit, DK, None)", 0.2299035718567179], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762076824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067889983738], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000368705948183958], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853139060606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824666425708e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00021916107121872587]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950133557733], ["'wet wipe' (unit, GLO, None)", 0.04043778623319986], ["'autoclave' (unit, DK, None)", 0.2299035718567179], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762076824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067889983738], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000368705948183958], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853139060606], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529255513382], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022259534], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038432846347200957], ["'marginal heating grid' (megajoule, DK, None)", -0.013159216529736279]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804060827142], ["'mechanical disinfection' (unit, DK, None)", 0.1337065127353223], ["'autoclave' (unit, DK, None)", 0.17242767889253838], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601274223568], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738793731582], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000737411896367916], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417217348721], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412333212845e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053560936294]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804060827142], ["'wet wipe' (unit, GLO, None)", 0.04043778623319986], ["'autoclave' (unit, DK, None)", 0.17242767889253838], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601274223568], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738793731582], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000737411896367916], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0509541721734872], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529255513382], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022259534], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003811280511387976], ["'marginal heating grid' (megajoule, DK, None)", -0.013049635994126915]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498015225494], ["'autoclave' (unit, DK, None)", 0.0012325866657373699], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934827444882e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016789541758e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590383478799945e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349135136213], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360348748838], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266721837397], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957425379244], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139957975570584], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00050565860626382]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498015225494], ["'autoclave' (unit, DK, None)", 0.0012325866657373699], ["'waste polypropylene' (kilogram, CH, None)", 1.287285395092137e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816322990796862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060255652533296e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.007714232756757476], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00050565860626382]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467006962049], ["'autoclave' (unit, DK, None)", 0.0016434488876498265], ["'waste polypropylene' (kilogram, CH, None)", 5.493626404407289e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316731736131e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604700442307998e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.003310499035712137], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134535243879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623964824847], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064203793747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157176217067], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667311113107]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467006962049], ["'autoclave' (unit, DK, None)", 0.0016434488876498265], ["'waste polypropylene' (kilogram, CH, None)", 3.6261560425130624e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666760638945e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736466961538668e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993571414245], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667311113107]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279359297039], ["'mechanical disinfection' (unit, DK, None)", 0.001101853344800163], ["'autoclave' (unit, DK, None)", 0.0024651733314747406], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713484817682], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723912079684], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298562034654076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096085503724e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288736426007817e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407082999892e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279359297039], ["'wet wipe' (unit, GLO, None)", 0.0013201850098718169], ["'autoclave' (unit, DK, None)", 0.0024651733314747406], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713484817682], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723912079684], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298562034654076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096085503724e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558228749988e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016789541758e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746752695818166e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011663710921012648]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001884293432039177], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266724000816], ["'autoclave' (unit, DK, None)", 0.001848879998606055], ["'aluminium scrap' (kilogram, RER, None)", -7.942370535188363e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322422729687], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712406930815e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001582583422768728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443682130039042e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703541499946e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001884293432039177], ["'wet wipe' (unit, GLO, None)", 0.0013201850098718169], ["'autoclave' (unit, DK, None)", 0.001848879998606055], ["'aluminium scrap' (kilogram, RER, None)", -7.942370535188363e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322422729687], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712406930815e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834227687278], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558228749988e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016789541758e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.958231587451782e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583885597647]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332009023658], ["'autoclave' (unit, DK, None)", 0.17693989203699806], ["'waste polypropylene' (kilogram, CH, None)", -6.1945246950373525e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869686487796e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581557049298825], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879565192828], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0014462727028048317], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376272913317083], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.98643071427439e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.003020574264239946], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392779799712]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332009023658], ["'autoclave' (unit, DK, None)", 0.17693989203699806], ["'waste polypropylene' (kilogram, CH, None)", -4.1103855453051586e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555286308833e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721038032865885], ["'marginal heating grid' (megajoule, DK, None)", -0.048939197101285525], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392779799712]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0298198539857026], ["'autoclave' (unit, DK, None)", 0.23591985604933075], ["'waste polypropylene' (kilogram, CH, None)", -1.754150451024596e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788138778481514e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970241529063], ["'marginal heating grid' (megajoule, DK, None)", -0.02100185072461191], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070635090675851], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627810294299316], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045781656479936], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659899267456], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949712151711]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0298198539857026], ["'autoclave' (unit, DK, None)", 0.23591985604933075], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578550831845519], ["'waste polyethylene' (kilogram, CH, None)", -1.5169004232484655e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646827686047], ["'marginal heating grid' (megajoule, DK, None)", -0.1400123381640794], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949712151711]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004863992334924249], ["'mechanical disinfection' (unit, DK, None)", 0.17642834332169174], ["'autoclave' (unit, DK, None)", 0.35387978407399623], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458624416972], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248686023315101], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888279630032956e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655483739335], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880464205202e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504565958058]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004863992334924249], ["'wet wipe' (unit, GLO, None)", 0.007110329552810682], ["'autoclave' (unit, DK, None)", 0.35387978407399623], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458624416972], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248686023315101], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888279630032956e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655483739335], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291966748463e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869686487796e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951262728286], ["'marginal heating grid' (megajoule, DK, None)", -0.007399474007260629]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072623753132747], ["'mechanical disinfection' (unit, DK, None)", 0.08821417166084587], ["'autoclave' (unit, DK, None)", 0.2654098380554971], ["'aluminium scrap' (kilogram, RER, None)", -0.000130378167744207], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521467301843522], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177655926006591e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308415259227], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440232102593e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752282979029e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072623753132747], ["'wet wipe' (unit, GLO, None)", 0.007110329552810682], ["'autoclave' (unit, DK, None)", 0.2654098380554971], ["'aluminium scrap' (kilogram, RER, None)", -0.000130378167744207], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521467301843522], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177655926006591e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308415259223], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291966748463e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869686487796e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003856566860407269], ["'marginal heating grid' (megajoule, DK, None)", -0.0073378564844308386]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647988680958], ["'autoclave' (unit, DK, None)", 0.0003262996492041772], ["'waste polypropylene' (kilogram, CH, None)", 2.849801380392533e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077878320291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462574481832e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262535085144914e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746281213509], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.045651972540135e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020686834804365e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771461413100065e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.200286786577922e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647988680958], ["'autoclave' (unit, DK, None)", 0.0003262996492041772], ["'waste polypropylene' (kilogram, CH, None)", 1.8909897010081293e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629518705063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641716321222e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508356723429946e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.200286786577922e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847827643197], ["'autoclave' (unit, DK, None)", 0.0004350661989389029], ["'waste polypropylene' (kilogram, CH, None)", 8.069998301485398e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895614379594e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.909427038572929e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371849561405915e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003697630261693651], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147107878518853e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.03099094473474e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.59759476425354e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613358017568e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847827643197], ["'autoclave' (unit, DK, None)", 0.0004350661989389029], ["'waste polypropylene' (kilogram, CH, None)", 5.3267315521355764e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486746349942e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180257152875], ["'marginal heating grid' (megajoule, DK, None)", -5.581233040937276e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613358017568e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0019920375016882126], ["'mechanical disinfection' (unit, DK, None)", 0.00012895528926033155], ["'autoclave' (unit, DK, None)", 0.0006525992984083546], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526088016636], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877301978063], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117560065464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346490087189e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989447176643e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.9124492716537114e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0019920375016882126], ["'wet wipe' (unit, GLO, None)", 7.156212388048737e-05], ["'autoclave' (unit, DK, None)", 0.0006525992984083546], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526088016636], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877301978063], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117560065464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346490087189e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430240900215e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077878320291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.025063458941399e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9496106812017194e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011900422679851817], ["'mechanical disinfection' (unit, DK, None)", 6.447764463016577e-05], ["'autoclave' (unit, DK, None)", 0.0004894494738062658], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082948194873], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605340543207], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823512013093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0016087442802421e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994723588299e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.4562246358268557e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011900422679851817], ["'wet wipe' (unit, GLO, None)", 7.156212388048737e-05], ["'autoclave' (unit, DK, None)", 0.0004894494738062658], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082948194873], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605340543207], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823512013093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010016087442802419], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430240900215e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077878320291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527464217813e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9250484348434505e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943658656377e-08], ["'autoclave' (unit, DK, None)", -1.8381427958307682e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598033035246e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977429837e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468183819766e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21892375723011e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895038375333e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278447670716e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925530957852394e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.171715684728447e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686341560015e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943658656377e-08], ["'autoclave' (unit, DK, None)", -1.8381427958307682e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264911238e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.7147694293203204e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4695645455879843e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949171486741e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686341560015e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348323724744e-08], ["'autoclave' (unit, DK, None)", -2.450857061107691e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.0377983215043735e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242728822e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931517734383e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.6374831363391175e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.727288338615574e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0878216687164295e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328470009275e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581883022098e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255386412168e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348323724744e-08], ["'autoclave' (unit, DK, None)", -2.450857061107691e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454267355605e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520235903e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287678489594e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.758322090892745e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255386412168e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.786409235369969e-08], ["'mechanical disinfection' (unit, DK, None)", 1.20610283876089e-07], ["'autoclave' (unit, DK, None)", -3.6762855916615375e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.0895595932004726e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687368719213e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039879178e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.0991378569183445e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.21867373314187e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476272019790346e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.786409235369969e-08], ["'wet wipe' (unit, GLO, None)", 9.85121516496614e-08], ["'autoclave' (unit, DK, None)", -3.6762855916615375e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.0895595932004726e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687368719213e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039879178e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.0991378569183445e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.35522035962052e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977429837e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914683257167e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.292508630707912e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168052696763e-08], ["'mechanical disinfection' (unit, DK, None)", 6.03051419380445e-08], ["'autoclave' (unit, DK, None)", -2.7572141937461525e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630596124353e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792167662394e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079758356e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205313861663e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368665709275e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136009895173e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168052696763e-08], ["'wet wipe' (unit, GLO, None)", 9.85121516496614e-08], ["'autoclave' (unit, DK, None)", -2.7572141937461525e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630596124353e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792167662394e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079758356e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205313861662e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.35522035962052e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977429837e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213145914667e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512727060896e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187527027142], ["'autoclave' (unit, DK, None)", 0.0002406014672476805], ["'waste polypropylene' (kilogram, CH, None)", 6.539683632339767e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216515218839e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907307094336316e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890805800634e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625675705689], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.306324012991473e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.807725906822456e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303645832924e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026655247186e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187527027142], ["'autoclave' (unit, DK, None)", 0.0002406014672476805], ["'waste polypropylene' (kilogram, CH, None)", 4.339416242019845e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.09047835464596e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.938204729557544e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345927203867089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026655247186e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452225295803], ["'autoclave' (unit, DK, None)", 0.00032080195633024065], ["'waste polypropylene' (kilogram, CH, None)", 1.8518917201859341e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690215660533e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317644917561407e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.869010600537024e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576763029747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9316547963821034e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556720689379e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719336854346e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487224896265]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452225295803], ["'autoclave' (unit, DK, None)", 0.00032080195633024065], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707723999565e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453365439685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096611707608e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0003246007067024683], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487224896265]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034621236398685496], ["'mechanical disinfection' (unit, DK, None)", 0.00019474644485571776], ["'autoclave' (unit, DK, None)", 0.00048120293449536116], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575560196573e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735860650472], ["'waste plastic, mixture' (kilogram, CH, None)", 1.753370545228413e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190428244015e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880642971119875e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.857046988582716e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034621236398685496], ["'wet wipe' (unit, GLO, None)", 7.240358807510184e-05], ["'autoclave' (unit, DK, None)", 0.00048120293449536116], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575560196573e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735860650472], ["'waste plastic, mixture' (kilogram, CH, None)", 1.753370545228413e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190428244015e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385930242e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216515218839e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305130379292454e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.715473452895706e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454442028908], ["'mechanical disinfection' (unit, DK, None)", 9.737322242785888e-05], ["'autoclave' (unit, DK, None)", 0.0003609022008715208], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565592085667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621976073753], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741090456826e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788228993795782e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214855599308e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.428523494291358e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454442028908], ["'wet wipe' (unit, GLO, None)", 7.240358807510184e-05], ["'autoclave' (unit, DK, None)", 0.0003609022008715208], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565592085667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621976073753], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741090456826e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001278822899379578], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385930242e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216515218839e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.906109823073653e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701188217952792e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848616736726], ["'autoclave' (unit, DK, None)", 0.0004133498533317366], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434864232e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137919321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.62636043744578e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3648060084978375e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548337837016], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059869216156e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.809821320968672e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657315298542576e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764832685993955e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848616736726], ["'autoclave' (unit, DK, None)", 0.0004133498533317366], ["'waste polypropylene' (kilogram, CH, None)", 2.966429391358509e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.581873066300318e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573624963853e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022432040056652254], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764832685993955e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00139652990763049], ["'autoclave' (unit, DK, None)", 0.0005511331377756487], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550782839835e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.620957687500419e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540485187517923e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626524026197202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260293762074], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435494618455e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451868903605766e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455013673966], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425501490052e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00139652990763049], ["'autoclave' (unit, DK, None)", 0.0005511331377756487], ["'waste polypropylene' (kilogram, CH, None)", 8.356139130587351e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961506461755e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360323458345296], ["'marginal heating grid' (megajoule, DK, None)", -0.0006417682684131468], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425501490052e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004489459916592413], ["'mechanical disinfection' (unit, DK, None)", 0.00046844771902105963], ["'autoclave' (unit, DK, None)", 0.0008266997066634734], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586974700357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774160069941], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287668586665e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701302981781e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160256512981643e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669459978668e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004489459916592413], ["'wet wipe' (unit, GLO, None)", 0.0010830399596394743], ["'autoclave' (unit, DK, None)", 0.0008266997066634734], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586974700357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774160069941], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287668586665e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701302981781e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161069512e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137919321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70319744505043e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3916636798413586e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00026785847956374483], ["'mechanical disinfection' (unit, DK, None)", 0.00023422385951052982], ["'autoclave' (unit, DK, None)", 0.0006200247799976049], ["'aluminium scrap' (kilogram, RER, None)", 1.055278905226494e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170915578224], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657533717333e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.376715040015197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.0801282564908e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.824334729989334e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00026785847956374483], ["'wet wipe' (unit, GLO, None)", 0.0010830399596394743], ["'autoclave' (unit, DK, None)", 0.0006200247799976049], ["'aluminium scrap' (kilogram, RER, None)", 1.055278905226494e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170915578224], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657533717333e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.376715040015195e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161069512e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137919321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396162485545e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.363420332541465e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374161010825], ["'autoclave' (unit, DK, None)", 0.00042203551455939604], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453391233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812956203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744510946243e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.458244583122783e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968769668734], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456863004392e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690898783085e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426347958656e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844311558715302e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374161010825], ["'autoclave' (unit, DK, None)", 0.00042203551455939604], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255812222202e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067903687302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496340630829e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00023054963887485222], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844311558715302e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175611186031], ["'autoclave' (unit, DK, None)", 0.000562714019412528], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951424089194e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.637790014185863e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145243339152375e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846624091104e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521011330604], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923910224622e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258690969678e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263172811151146], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036737748435e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175611186031], ["'autoclave' (unit, DK, None)", 0.000562714019412528], ["'waste polypropylene' (kilogram, CH, None)", 8.446832623161185e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006477407415e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001876349555943493], ["'marginal heating grid' (megajoule, DK, None)", -0.0006595897749394069], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036737748435e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004621911662926317], ["'mechanical disinfection' (unit, DK, None)", 0.000479373937964336], ["'autoclave' (unit, DK, None)", 0.0008440710291187923], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879400459558e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133081393378], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398690658e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565864304033e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515117612638623e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529505263565e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004621911662926317], ["'wet wipe' (unit, GLO, None)", 0.001680844034576372], ["'autoclave' (unit, DK, None)", 0.0008440710291187923], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879400459558e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133081393378], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398690658e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565864304033e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353045586e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812956203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916268773019352e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.485848075331383e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742429124835], ["'mechanical disinfection' (unit, DK, None)", 0.000239686968982168], ["'autoclave' (unit, DK, None)", 0.000633053271839094], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859298557092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848713489781], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318797381316e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401589915053619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.25755880631929e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.9027647526317827e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742429124835], ["'wet wipe' (unit, GLO, None)", 0.001680844034576372], ["'autoclave' (unit, DK, None)", 0.000633053271839094], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859298557092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848713489781], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318797381316e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401589915053617e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353045586e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812956203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693184956181e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.456820427805065e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981149936201], ["'autoclave' (unit, DK, None)", 0.000582201990383525], ["'waste polypropylene' (kilogram, CH, None)", 1.345061882715116e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832685661632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.56343476117344e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.835781306324318e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025766812743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135755938516], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533250287321e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025141086125], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001321828226470398]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981149936201], ["'autoclave' (unit, DK, None)", 0.000582201990383525], ["'waste polypropylene' (kilogram, CH, None)", 8.925176978763853e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553543555971e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.70895650744896e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032238542042162125], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001321828226470398]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367462603101], ["'autoclave' (unit, DK, None)", 0.0007762693205113668], ["'waste polypropylene' (kilogram, CH, None)", 3.808913555725983e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.2754403243877775e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513572852503e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001383490305628306], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847356923284], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033347981401368347], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826076778719714e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648284749648], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00037605176442939486]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367462603101], ["'autoclave' (unit, DK, None)", 0.0007762693205113668], ["'waste polypropylene' (kilogram, CH, None)", 0.00025141343602151704], ["'waste polyethylene' (kilogram, CH, None)", 2.84596179647697e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333009048568348], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268704188707], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00037605176442939486]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553722832007], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740479274578], ["'autoclave' (unit, DK, None)", 0.0011644039807670505], ["'aluminium scrap' (kilogram, RER, None)", 9.403572035658452e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436534752845], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911013967e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153423556979e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869600148238e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.11806984152545e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553722832007], ["'wet wipe' (unit, GLO, None)", 0.01086142235275649], ["'autoclave' (unit, DK, None)", 0.0011644039807670505], ["'aluminium scrap' (kilogram, RER, None)", 9.403572035658452e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436534752845], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911013967e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153423556979e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.307992295633309e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832685661632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787562436386e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8743802105958846e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905331310753], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870239637289], ["'autoclave' (unit, DK, None)", 0.0008733029855752877], ["'aluminium scrap' (kilogram, RER, None)", 5.61481447835881e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071919254135], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869822027934e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.1369877087950117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.1879348000741e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.059034920762725e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905331310753], ["'wet wipe' (unit, GLO, None)", 0.01086142235275649], ["'autoclave' (unit, DK, None)", 0.0008733029855752877], ["'aluminium scrap' (kilogram, RER, None)", 5.61481447835881e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071919254135], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869822027934e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004136987708795011], ["'waste wipe incineration' (kilogram, CH, None)", 1.307992295633309e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832685661632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908214435665e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8337898613882566e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891573280512e-10], ["'autoclave' (unit, DK, None)", 1.919708423859138e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534146551e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252645638e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912516805015e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129974582525e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873225239221e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0932949935886196e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393997938130239e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420604807461e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225955824951e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891573280512e-10], ["'autoclave' (unit, DK, None)", 1.919708423859138e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036676684e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134562733e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750112033437e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.41075331638835e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225955824951e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934486159692e-09], ["'autoclave' (unit, DK, None)", 2.5596112318121843e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266353704723e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932572587537e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469429888864e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.751121639867734e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.361653060083887e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.532933444672303e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.62487695797871e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.37019888678158e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6543902323691867e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934486159692e-09], ["'autoclave' (unit, DK, None)", 2.5596112318121843e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652610379e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.93900374892605e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979619925915e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.834081093245156e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6543902323691867e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234356093134e-10], ["'mechanical disinfection' (unit, DK, None)", 1.9507225122121224e-09], ["'autoclave' (unit, DK, None)", 3.839416847718278e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.0393434234680045e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648014739603e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229635896625e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884619913123e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787278971469e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.614308211927477e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234356093134e-10], ["'wet wipe' (unit, GLO, None)", 4.979514052885282e-10], ["'autoclave' (unit, DK, None)", 3.839416847718278e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.0393434234680045e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648014739603e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229635896625e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884619913123e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285788850565e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252645638e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0540151712450965e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.692885323271769e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094697412676e-10], ["'mechanical disinfection' (unit, DK, None)", 9.753612561060612e-10], ["'autoclave' (unit, DK, None)", 2.8795626357887074e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668790059945e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979782170086e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245927179325e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245159211635e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758936394857255e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541059637385e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094697412676e-10], ["'wet wipe' (unit, GLO, None)", 4.979514052885282e-10], ["'autoclave' (unit, DK, None)", 2.8795626357887074e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668790059945e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979782170086e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245927179325e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124515921163e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285788850565e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252645638e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256234850249e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169912675394e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419949201748e-07], ["'autoclave' (unit, DK, None)", 2.3557948179250374e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645560554e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446689949955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844133982155417e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0432718498105068e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114160135807e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791570688918e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.557927568538281e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190238086491e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.9854176195087944e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419949201748e-07], ["'autoclave' (unit, DK, None)", 2.3557948179250374e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.997656772742803e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.420272820513176e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627559881036113e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621812332070047e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.9854176195087944e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507900657069e-06], ["'autoclave' (unit, DK, None)", 3.141059757233383e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.52521129776154e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.095281647797572e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854867615626e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.84568783596366e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005641097827e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830472731615e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828576477077e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.52794091213704e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260885881032e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507900657069e-06], ["'autoclave' (unit, DK, None)", 3.141059757233383e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.62720217674029e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573485357e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903245077089e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125223975773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260885881032e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228048859078e-07], ["'mechanical disinfection' (unit, DK, None)", 2.538955345329483e-07], ["'autoclave' (unit, DK, None)", 4.711589635850076e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226124944527e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.47242743486264e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997321674e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739914967398e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341491375155e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.430143451750243e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228048859078e-07], ["'wet wipe' (unit, GLO, None)", 1.353680533877114e-07], ["'autoclave' (unit, DK, None)", 4.711589635850076e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226124944527e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.47242743486264e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997321674e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739914967398e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005179616348e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446689949955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817619438642e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.059581118062253e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.1796858441585885e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694776726647414e-07], ["'autoclave' (unit, DK, None)", 3.533692226887556e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961966281277e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479791250837e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994643348e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348182576576e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670745687569e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717258751215e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.1796858441585885e-07], ["'wet wipe' (unit, GLO, None)", 1.353680533877114e-07], ["'autoclave' (unit, DK, None)", 3.533692226887556e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961966281277e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479791250837e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994643348e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348182576576e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005179616348e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446689949955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842550911981776e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304008035016e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384657055907], ["'autoclave' (unit, DK, None)", 0.00227703466076432], ["'waste polypropylene' (kilogram, CH, None)", 3.488480812682454e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356918858749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758054642795e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0004305808180472847], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824940015289], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406137792195635], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144661368989], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791264889461], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258812852683494e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384657055907], ["'autoclave' (unit, DK, None)", 0.00227703466076432], ["'waste polypropylene' (kilogram, CH, None)", 0.0002314786333649105], ["'waste polyethylene' (kilogram, CH, None)", 2.762838055055331e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738387030951964], ["'marginal heating grid' (megajoule, DK, None)", -0.0028705387869818987], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258812852683494e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628552666888], ["'autoclave' (unit, DK, None)", 0.0030360462143524266], ["'waste polypropylene' (kilogram, CH, None)", 9.878595198530688e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077305546132e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340824488335657], ["'marginal heating grid' (megajoule, DK, None)", -0.0012318679233464332], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692711963563], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564619480277], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211390426146], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01394307398560412], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116053020767282e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628552666888], ["'autoclave' (unit, DK, None)", 0.0030360462143524266], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524883518607], ["'waste polyethylene' (kilogram, CH, None)", 8.322717112202441e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227216325557113], ["'marginal heating grid' (megajoule, DK, None)", -0.008212452822309554], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116053020767282e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509783195163], ["'mechanical disinfection' (unit, DK, None)", 0.003536637457851963], ["'autoclave' (unit, DK, None)", 0.004554069321528641], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917402460055], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999706783147], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847107792e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965058214987168e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062700529777e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.228377240214655e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509783195163], ["'wet wipe' (unit, GLO, None)", 0.012600254456358916], ["'autoclave' (unit, DK, None)", 0.004554069321528641], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917402460055], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999706783147], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847107792e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965058214987168e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372822616924e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356918858749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928324922728e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043401768723639467]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893134812007], ["'mechanical disinfection' (unit, DK, None)", 0.0017683187289259815], ["'autoclave' (unit, DK, None)", 0.00341555199114648], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372081785924], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519991539295], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694215584e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329006048430303e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031350264875e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.6141886201073274e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893134812007], ["'wet wipe' (unit, GLO, None)", 0.012600254456358916], ["'autoclave' (unit, DK, None)", 0.00341555199114648], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372081785924], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519991539295], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694215584e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329006048430301e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372822616924e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356918858749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118011420095e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0004304034986162873]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509584447492], ["'autoclave' (unit, DK, None)", 0.0005799645237772328], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812676531922e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732348878593e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.24448300031147e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425438487096082e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659208228008], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360061919633e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089139638114144e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518433388141e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470240117913e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509584447492], ["'autoclave' (unit, DK, None)", 0.0005799645237772328], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389719941743e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943502417192e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.496322000207647e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018950292324730722], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.909470240117913e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385770546687], ["'autoclave' (unit, DK, None)", 0.0007732860317029771], ["'waste polypropylene' (kilogram, CH, None)", 5.255722655130068e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351323652346e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587010212664322e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360851120279e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279228456314], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593805043772e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039313269596e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502629262372], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068816031658]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385770546687], ["'autoclave' (unit, DK, None)", 0.0007732860317029771], ["'waste polypropylene' (kilogram, CH, None)", 3.469123864772322e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112279270103e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467347510956], ["'marginal heating grid' (megajoule, DK, None)", -0.0005421573900746853], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016812068816031658]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779162560875], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123097380747], ["'autoclave' (unit, DK, None)", 0.001159929047554466], ["'aluminium scrap' (kilogram, RER, None)", 5.802154951987099e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854376534508], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674859925844e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205417435718e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384042920143362e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921646093465e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779162560875], ["'wet wipe' (unit, GLO, None)", 0.0002303881961012154], ["'autoclave' (unit, DK, None)", 0.001159929047554466], ["'aluminium scrap' (kilogram, RER, None)", 5.802154951987099e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854376534508], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674859925844e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1052205417435718e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531504852e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732348878593e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.310289948545733e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8652328561220358e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109947081175], ["'mechanical disinfection' (unit, DK, None)", 0.00026395615486903733], ["'autoclave' (unit, DK, None)", 0.0008699467856658493], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306978839744e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382224058947], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349719851688e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.849514578315385e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214600716791e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608230467326e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109947081175], ["'wet wipe' (unit, GLO, None)", 0.0002303881961012154], ["'autoclave' (unit, DK, None)", 0.0008699467856658493], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306978839744e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038621382224058947], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349719851688e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018495145783153848], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531504852e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732348878593e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087802538585e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732478915684e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325568740978], ["'autoclave' (unit, DK, None)", 0.05129836488669746], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070328440886], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722535424], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851479176389], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033447052309], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649432453812], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193844852762], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001197637258266051], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453518897975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479350992737]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325568740978], ["'autoclave' (unit, DK, None)", 0.05129836488669746], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766292703764], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720529617666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567652784259], ["'marginal heating grid' (megajoule, DK, None)", -0.03987355631368207], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.008216479350992737]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752922034259], ["'autoclave' (unit, DK, None)", 0.06839781984892994], ["'waste polypropylene' (kilogram, CH, None)", 0.0778230589674541], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304324912], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002239505045684218], ["'marginal heating grid' (megajoule, DK, None)", -0.017111406135785594], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666230988656], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040529321280624815], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.003607738095739548], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911320839367], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363723235665]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752922034259], ["'autoclave' (unit, DK, None)", 0.06839781984892994], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575409512], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488289228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930033637894798], ["'marginal heating grid' (megajoule, DK, None)", -0.11407604090523728], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.023375363723235665]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866788631344], ["'mechanical disinfection' (unit, DK, None)", 0.05095178624229582], ["'autoclave' (unit, DK, None)", 0.10259672977339494], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554840721846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613655360356], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742634612616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896507711101], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141008865296369e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040662340162079]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866788631344], ["'wet wipe' (unit, GLO, None)", 0.0546233287958177], ["'autoclave' (unit, DK, None)", 0.10259672977339494], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554840721846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613655360356], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742634612616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015366896507711101], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866462043], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722535424], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890332900638013], ["'marginal heating grid' (megajoule, DK, None)", -0.006028773682361521]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348325634377], ["'mechanical disinfection' (unit, DK, None)", 0.02547589312114791], ["'autoclave' (unit, DK, None)", 0.07694754733004619], ["'aluminium scrap' (kilogram, RER, None)", 0.0041101278573398604], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539460090338], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526922523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002571550024725259], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.5705044326481666e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.020331170081039e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348325634377], ["'wet wipe' (unit, GLO, None)", 0.0546233287958177], ["'autoclave' (unit, DK, None)", 0.07694754733004619], ["'aluminium scrap' (kilogram, RER, None)", 0.0041101278573398604], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539460090338], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526922523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.025715500247252585], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866462043], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722535424], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627856311549], ["'marginal heating grid' (megajoule, DK, None)", -0.00597857037066071]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693090266931], ["'autoclave' (unit, DK, None)", 0.022422925061976066], ["'waste polypropylene' (kilogram, CH, None)", 0.001433560326184235], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200031416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588126873337], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109422130460434], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119801794945], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002355257768907168], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173485924745], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853372318711], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077266026914026]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693090266931], ["'autoclave' (unit, DK, None)", 0.022422925061976066], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409641035578], ["'waste polyethylene' (kilogram, CH, None)", 0.001152752009562238], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002553058751248891], ["'marginal heating grid' (megajoule, DK, None)", -0.0067396147536402905], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031077266026914026]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403301253739], ["'autoclave' (unit, DK, None)", 0.02989723341596809], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521297512367], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172571888], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001095623997956535], ["'marginal heating grid' (megajoule, DK, None)", -0.0028922497993663938], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167599944213809], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088639887002156], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497846183207], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882738925948], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285493099907]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403301253739], ["'autoclave' (unit, DK, None)", 0.02989723341596809], ["'waste polypropylene' (kilogram, CH, None)", 0.02679552011559318], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266863016523], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159986376905], ["'marginal heating grid' (megajoule, DK, None)", -0.019281665329109292], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0008841285493099907]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528944138579], ["'mechanical disinfection' (unit, DK, None)", 0.03185291911372791], ["'autoclave' (unit, DK, None)", 0.04484585012395215], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900240123388], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756809273266], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658625368e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235513261453e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922630884045e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971196527272558e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528944138579], ["'wet wipe' (unit, GLO, None)", 0.0016886972418080975], ["'autoclave' (unit, DK, None)", 0.04484585012395215], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900240123388], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756809273266], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658625368e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.812235513261453e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780561318e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200031416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556600484523], ["'marginal heating grid' (megajoule, DK, None)", -0.001019011490631946]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00320120452166698], ["'mechanical disinfection' (unit, DK, None)", 0.015926459556863955], ["'autoclave' (unit, DK, None)", 0.0336343875929641], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135942583581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298390540682], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317250736e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.726397500195562e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461315442014e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598263636279e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00320120452166698], ["'wet wipe' (unit, GLO, None)", 0.0016886972418080975], ["'autoclave' (unit, DK, None)", 0.0336343875929641], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135942583581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298390540682], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317250736e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000972639750019556], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780561318e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200031416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011046894041], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258923683096]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341071062385], ["'autoclave' (unit, DK, None)", 0.026502074653614885], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899791578], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054519894477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008910295468], ["'marginal heating grid' (megajoule, DK, None)", -0.0012735798597540275], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336091424703], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003192075107692116], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484357389187], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511738425056], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317439605538134]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341071062385], ["'autoclave' (unit, DK, None)", 0.026502074653614885], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082729162], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355629324115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059401969787], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532398360184], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00045317439605538134]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575421089156], ["'autoclave' (unit, DK, None)", 0.03533609953815318], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222753615403], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052335122], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572187545778], ["'marginal heating grid' (megajoule, DK, None)", -0.0036436415912952883], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661184473502], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216343539378], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001127679606971433], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540108239595], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892524748537588]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575421089156], ["'autoclave' (unit, DK, None)", 0.03533609953815318], ["'waste polypropylene' (kilogram, CH, None)", 0.038793549528814544], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768752162285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714791697192], ["'marginal heating grid' (megajoule, DK, None)", -0.024290943941968585], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012892524748537588]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011953725715], ["'mechanical disinfection' (unit, DK, None)", 0.0387319196794597], ["'autoclave' (unit, DK, None)", 0.053004149307229784], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351981995135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904010482816], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143702814e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508483187671e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146887708975e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1380227093234854e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011953725715], ["'wet wipe' (unit, GLO, None)", 0.001791116759410556], ["'autoclave' (unit, DK, None)", 0.053004149307229784], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351981995135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904010482816], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143702814e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.475508483187671e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269840878646e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054519894477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004765747582035005], ["'marginal heating grid' (megajoule, DK, None)", -0.0012837454946276622]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209758735091], ["'mechanical disinfection' (unit, DK, None)", 0.01936595983972985], ["'autoclave' (unit, DK, None)", 0.03975311198042233], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611078177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098365100989], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228740563e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000141832113195814], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573443854477e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113546617427e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209758735091], ["'wet wipe' (unit, GLO, None)", 0.001791116759410556], ["'autoclave' (unit, DK, None)", 0.03975311198042233], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611078177], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002962098365100989], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995228740563e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014183211319581397], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269840878646e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054519894477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061847596471], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553810810445]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931196024554], ["'autoclave' (unit, DK, None)", 2.0531715887651507], ["'waste polypropylene' (kilogram, CH, None)", 0.079791783628079], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135068365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248205248708], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613455496336], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36128076422750305], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093595449441], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083045817671487], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534572941270262], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359165580291795]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931196024554], ["'autoclave' (unit, DK, None)", 2.0531715887651507], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594988405242], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454307066], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999498803499138], ["'marginal heating grid' (megajoule, DK, None)", -0.6173742303664225], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.009359165580291795]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865557855223], ["'autoclave' (unit, DK, None)", 2.737562118353534], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243401222373], ["'waste polyethylene' (kilogram, CH, None)", 0.029044425260894423], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052273891297], ["'marginal heating grid' (megajoule, DK, None)", -0.26494103286049175], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498330906544], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822417617372104], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0273615823118302], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.29674853355690883], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626233723678238]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865557855223], ["'autoclave' (unit, DK, None)", 2.737562118353534], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352080014768], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523197981395], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.45773681825942014], ["'marginal heating grid' (megajoule, DK, None)", -1.7662735524032782], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.026626233723678238]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.247111384923991], ["'mechanical disinfection' (unit, DK, None)", 2.140537855420658], ["'autoclave' (unit, DK, None)", 4.106343177530303], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888858441976], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045677329142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513570485], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504009044153326], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874771890837], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546258617768777]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.247111384923991], ["'wet wipe' (unit, GLO, None)", 0.14506379016430065], ["'autoclave' (unit, DK, None)", 4.106343177530303], ["'aluminium scrap' (kilogram, RER, None)", 0.4612888858441976], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.1256045677329142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513570485], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0017504009044153326], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092648845663], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135068365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080870506954], ["'marginal heating grid' (megajoule, DK, None)", -0.09334531093541133]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160858222083], ["'mechanical disinfection' (unit, DK, None)", 1.070268927710329], ["'autoclave' (unit, DK, None)", 3.0797573831477263], ["'aluminium scrap' (kilogram, RER, None)", 0.27543272972467275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511816985417678], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014702714097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002929181885730565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437385945413], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129308884389]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160858222083], ["'wet wipe' (unit, GLO, None)", 0.14506379016430065], ["'autoclave' (unit, DK, None)", 3.0797573831477263], ["'aluminium scrap' (kilogram, RER, None)", 0.27543272972467275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511816985417678], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014702714097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.029291818857305647], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092648845663], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135068365], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023989364966475055], ["'marginal heating grid' (megajoule, DK, None)", -0.0925679980045229]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192404296181], ["'autoclave' (unit, DK, None)", 0.013280171304077791], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584221584767], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296877822654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296588706820938], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536177007632], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930680310751], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942568255], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428652004272], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095979934157], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458887794262522]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192404296181], ["'autoclave' (unit, DK, None)", 0.013280171304077791], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069904042228], ["'waste polyethylene' (kilogram, CH, None)", 8.017874156125753e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001286439247121396], ["'marginal heating grid' (megajoule, DK, None)", -0.009568357451338423], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0018458887794262522]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337199908204], ["'autoclave' (unit, DK, None)", 0.01770689507210372], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249550598303], ["'waste polyethylene' (kilogram, CH, None)", 3.628446488810691e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647381772432], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181277490943], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112939822562], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03023536112775777], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896664083818], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805577279316], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436749063926]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337199908204], ["'autoclave' (unit, DK, None)", 0.01770689507210372], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746208569659], ["'waste polyethylene' (kilogram, CH, None)", 0.0002415288088296478], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003680431587848291], ["'marginal heating grid' (megajoule, DK, None)", -0.027374541849939617], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005251436749063926]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363992423546], ["'mechanical disinfection' (unit, DK, None)", 0.012412664554994332], ["'autoclave' (unit, DK, None)", 0.02656034260815559], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105383020773], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334981160548], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429769386118e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793311421364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394156166717655e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.4094325964573388e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363992423546], ["'wet wipe' (unit, GLO, None)", 0.03256387378383678], ["'autoclave' (unit, DK, None)", 0.02656034260815559], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105383020773], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334981160548], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429769386118e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00034522793311421364], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480709081661], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296877822654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450612872324056], ["'marginal heating grid' (megajoule, DK, None)", -0.0014467097224097581]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230871032806], ["'mechanical disinfection' (unit, DK, None)", 0.006206332277497166], ["'autoclave' (unit, DK, None)", 0.019920256956116687], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233333058637], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01921744147286559], ["'waste plastic, mixture' (kilogram, CH, None)", 4.8794859538772235e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005777164565989125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078083358785e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047162982286694e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230871032806], ["'wet wipe' (unit, GLO, None)", 0.03256387378383678], ["'autoclave' (unit, DK, None)", 0.019920256956116687], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233333058637], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01921744147286559], ["'waste plastic, mixture' (kilogram, CH, None)", 4.8794859538772235e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005777164565989124], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480709081661], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296877822654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642091490514], ["'marginal heating grid' (megajoule, DK, None)", -0.0014346625594274713]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956209597833e-05], ["'autoclave' (unit, DK, None)", -1.829168864679963e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929090561355e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679477665665e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797834886157e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.8993368969489813e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874338426384e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016595624974e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.03825101716574e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092293625629e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760278550683e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956209597833e-05], ["'autoclave' (unit, DK, None)", -1.829168864679963e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549195938596785e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.417353192901779e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985565907715e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912646326542e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.510760278550683e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399947021301], ["'autoclave' (unit, DK, None)", -2.4388918195732843e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192069570177e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.54650509004771e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702248102134e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842623328412e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769267437889e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179752081303e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.216474515487341e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814344489086283e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017374737544e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399947021301], ["'autoclave' (unit, DK, None)", -2.4388918195732843e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407306646983e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365189071382e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134832068094e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.5298950822189413e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.298017374737544e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.477328741794376e-05], ["'mechanical disinfection' (unit, DK, None)", 2.8681012349335156e-05], ["'autoclave' (unit, DK, None)", -3.6583377293599275e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652611474794e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307051508537e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489544787142e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041918463726e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118152821509e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.867262999003157e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.477328741794376e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503274846142e-05], ["'autoclave' (unit, DK, None)", -3.6583377293599275e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.9158652611474794e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307051508537e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489544787142e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.8255041918463726e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041765352834e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679477665665e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.179979234108167e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.9224792229243092e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584264853971e-05], ["'mechanical disinfection' (unit, DK, None)", 1.4340506174667578e-05], ["'autoclave' (unit, DK, None)", -2.743753297019945e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450436442015e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185426268027e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979089574284e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.728297200907043e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.648059076410748e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336314995015785e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584264853971e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503274846142e-05], ["'autoclave' (unit, DK, None)", -2.743753297019945e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450436442015e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185426268027e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.642979089574284e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.7282972009070426e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041765352834e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.123679477665665e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986433440666e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.898142907929293e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816859417255e-06], ["'autoclave' (unit, DK, None)", 0.0001330516735370024], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178250743564e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350931745736e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.37046711009566e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375020112117e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914201463436e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.758970528589513e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383334404136e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396592322e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710824406593e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816859417255e-06], ["'autoclave' (unit, DK, None)", 0.0001330516735370024], ["'waste polypropylene' (kilogram, CH, None)", 2.844125846544666e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985437962524e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780733971067e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101583346741412e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1551710824406593e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355750739085e-05], ["'autoclave' (unit, DK, None)", 0.0001774022313826699], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607485958226e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714180315916e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642720124994146e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.33900271921988e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396381206596e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988969541252e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789477626555e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.6287702525612176e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886174498504e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355750739085e-05], ["'autoclave' (unit, DK, None)", 0.0001774022313826699], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102942724e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724636745243e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428480083329435e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.89266847947992e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.2863886174498504e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076492116409e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947834182844e-05], ["'autoclave' (unit, DK, None)", 0.0002661033470740049], ["'aluminium scrap' (kilogram, RER, None)", 4.90395676245679e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917957889574e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.42724432003381e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623725393345e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658173036596376e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393503401879e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076492116409e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389138703e-05], ["'autoclave' (unit, DK, None)", 0.0002661033470740049], ["'aluminium scrap' (kilogram, RER, None)", 4.90395676245679e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.506917957889574e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.42724432003381e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.1604623725393345e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805804e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350931745736e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.39736996799845e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.585713067489011e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.5594201969407425e-06], ["'mechanical disinfection' (unit, DK, None)", 3.861473917091422e-05], ["'autoclave' (unit, DK, None)", 0.00019957751030550363], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221355752564e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222835779093e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.85448864006762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6153930396639625e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290865182981806e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.1531967517009395e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.5594201969407425e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389138703e-05], ["'autoclave' (unit, DK, None)", 0.00019957751030550363], ["'aluminium scrap' (kilogram, RER, None)", 2.9281221355752564e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0973222835779093e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.85448864006762e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.615393039663962e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805804e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350931745736e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.369079102815476e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.564181099972001e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426159045564], ["'autoclave' (unit, DK, None)", 0.0027162206146309365], ["'waste polypropylene' (kilogram, CH, None)", 6.352133529220465e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741355695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931941337234], ["'marginal heating grid' (megajoule, DK, None)", -0.0003171283037782337], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415065065965], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040953871512258656], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238117440987e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961131801659578], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440100168778]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426159045564], ["'autoclave' (unit, DK, None)", 0.0027162206146309365], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967108174327], ["'waste polyethylene' (kilogram, CH, None)", 5.1208877816198076e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000783928796089149], ["'marginal heating grid' (megajoule, DK, None)", -0.0021141886918548914], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007595440100168778]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047220339426], ["'autoclave' (unit, DK, None)", 0.003621627486174582], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817377138326], ["'waste polyethylene' (kilogram, CH, None)", 2.317430646702774e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165439844653], ["'marginal heating grid' (megajoule, DK, None)", -0.000907286550249363], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590332882804], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001232592249398076], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002085843394387312], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0033693329018759377], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546360923197]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047220339426], ["'autoclave' (unit, DK, None)", 0.003621627486174582], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146783589654], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058104191717], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427769598964372], ["'marginal heating grid' (megajoule, DK, None)", -0.006048577001662419], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0021608546360923197]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.031796781215800894], ["'mechanical disinfection' (unit, DK, None)", 0.006515241779744306], ["'autoclave' (unit, DK, None)", 0.005432441229261875], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980032553314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377484210613], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573931684836e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205395883543504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740311795464415e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.32379269391125e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.031796781215800894], ["'wet wipe' (unit, GLO, None)", 0.001441630536187735], ["'autoclave' (unit, DK, None)", 0.005432441229261875], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980032553314], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377484210613], ["'waste plastic, mixture' (kilogram, CH, None)", 3.370573931684836e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014205395883543504], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988192439396e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741355695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011852791001453504], ["'marginal heating grid' (megajoule, DK, None)", -0.00031965960208639574]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01899385529333106], ["'mechanical disinfection' (unit, DK, None)", 0.003257620889872153], ["'autoclave' (unit, DK, None)", 0.004074330921946405], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766148895765], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434378596053], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863369672e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023771804617300383], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870155897732182e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.661896346955625e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01899385529333106], ["'wet wipe' (unit, GLO, None)", 0.001441630536187735], ["'autoclave' (unit, DK, None)", 0.004074330921946405], ["'aluminium scrap' (kilogram, RER, None)", 0.00024987766148895765], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434378596053], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863369672e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.002377180461730038], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988192439396e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741355695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001175408944247621], ["'marginal heating grid' (megajoule, DK, None)", -0.0003169977057394401]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.123293317451023], ["'autoclave' (unit, DK, None)", 0.11495178592835892], ["'waste polypropylene' (kilogram, CH, None)", 0.017294968001656218], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022259534], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128506986513763], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012237667316], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519331684486], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005445273774202475], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970282801062], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562010910369], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605062509564]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.123293317451023], ["'autoclave' (unit, DK, None)", 0.11495178592835892], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100262781228], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056265305212], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004657675843], ["'marginal heating grid' (megajoule, DK, None)", -0.08703341491778212], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016280605062509564]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902816667242], ["'autoclave' (unit, DK, None)", 0.15326904790447854], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547013553116], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017209470997], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355122456638], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966849524504], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978251429844], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688058279293], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537715728093], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778031242358], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317290984797775]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902816667242], ["'autoclave' (unit, DK, None)", 0.15326904790447854], ["'waste polypropylene' (kilogram, CH, None)", 0.32327042993749944], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634555848475], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236748304431], ["'marginal heating grid' (megajoule, DK, None)", -0.24899778996830027], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.046317290984797775]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950133557733], ["'mechanical disinfection' (unit, DK, None)", 0.2674130254706446], ["'autoclave' (unit, DK, None)", 0.2299035718567179], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762076824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067889983738], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000368705948183958], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853139060606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824666425708e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00021916107121872587]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950133557733], ["'wet wipe' (unit, GLO, None)", 0.04043778623319986], ["'autoclave' (unit, DK, None)", 0.2299035718567179], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762076824], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067889983738], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000368705948183958], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0030448853139060606], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529255513382], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022259534], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038432846347200957], ["'marginal heating grid' (megajoule, DK, None)", -0.013159216529736279]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804060827142], ["'mechanical disinfection' (unit, DK, None)", 0.1337065127353223], ["'autoclave' (unit, DK, None)", 0.17242767889253838], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601274223568], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738793731582], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000737411896367916], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005095417217348721], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412333212845e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053560936294]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804060827142], ["'wet wipe' (unit, GLO, None)", 0.04043778623319986], ["'autoclave' (unit, DK, None)", 0.17242767889253838], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601274223568], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738793731582], ["'waste plastic, mixture' (kilogram, CH, None)", 0.000737411896367916], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0509541721734872], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529255513382], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022259534], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003811280511387976], ["'marginal heating grid' (megajoule, DK, None)", -0.013049635994126915]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498015225494], ["'autoclave' (unit, DK, None)", 0.0012325866657373699], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934827444882e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016789541758e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590383478799945e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349135136213], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360348748838], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266721837397], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957425379244], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139957975570584], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00050565860626382]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498015225494], ["'autoclave' (unit, DK, None)", 0.0012325866657373699], ["'waste polypropylene' (kilogram, CH, None)", 1.287285395092137e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816322990796862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060255652533296e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.007714232756757476], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00050565860626382]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467006962049], ["'autoclave' (unit, DK, None)", 0.0016434488876498265], ["'waste polypropylene' (kilogram, CH, None)", 5.493626404407289e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316731736131e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604700442307998e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.003310499035712137], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134535243879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623964824847], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064203793747], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157176217067], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667311113107]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467006962049], ["'autoclave' (unit, DK, None)", 0.0016434488876498265], ["'waste polypropylene' (kilogram, CH, None)", 3.6261560425130624e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666760638945e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736466961538668e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993571414245], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014385667311113107]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279359297039], ["'mechanical disinfection' (unit, DK, None)", 0.001101853344800163], ["'autoclave' (unit, DK, None)", 0.0024651733314747406], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713484817682], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723912079684], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298562034654076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096085503724e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288736426007817e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407082999892e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279359297039], ["'wet wipe' (unit, GLO, None)", 0.0013201850098718169], ["'autoclave' (unit, DK, None)", 0.0024651733314747406], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713484817682], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723912079684], ["'waste plastic, mixture' (kilogram, CH, None)", -3.6298562034654076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.457096085503724e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558228749988e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016789541758e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746752695818166e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011663710921012648]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001884293432039177], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266724000816], ["'autoclave' (unit, DK, None)", 0.001848879998606055], ["'aluminium scrap' (kilogram, RER, None)", -7.942370535188363e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322422729687], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712406930815e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001582583422768728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443682130039042e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703541499946e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001884293432039177], ["'wet wipe' (unit, GLO, None)", 0.0013201850098718169], ["'autoclave' (unit, DK, None)", 0.001848879998606055], ["'aluminium scrap' (kilogram, RER, None)", -7.942370535188363e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046999322422729687], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712406930815e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015825834227687278], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558228749988e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016789541758e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.958231587451782e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583885597647]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332009023658], ["'autoclave' (unit, DK, None)", 0.17693989203699806], ["'waste polypropylene' (kilogram, CH, None)", -6.1945246950373525e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869686487796e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581557049298825], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879565192828], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0014462727028048317], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376272913317083], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.98643071427439e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.003020574264239946], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392779799712]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332009023658], ["'autoclave' (unit, DK, None)", 0.17693989203699806], ["'waste polypropylene' (kilogram, CH, None)", -4.1103855453051586e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555286308833e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721038032865885], ["'marginal heating grid' (megajoule, DK, None)", -0.048939197101285525], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004941392779799712]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0298198539857026], ["'autoclave' (unit, DK, None)", 0.23591985604933075], ["'waste polypropylene' (kilogram, CH, None)", -1.754150451024596e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788138778481514e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970241529063], ["'marginal heating grid' (megajoule, DK, None)", -0.02100185072461191], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070635090675851], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627810294299316], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045781656479936], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659899267456], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949712151711]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0298198539857026], ["'autoclave' (unit, DK, None)", 0.23591985604933075], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578550831845519], ["'waste polyethylene' (kilogram, CH, None)", -1.5169004232484655e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646827686047], ["'marginal heating grid' (megajoule, DK, None)", -0.1400123381640794], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.014057949712151711]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004863992334924249], ["'mechanical disinfection' (unit, DK, None)", 0.17642834332169174], ["'autoclave' (unit, DK, None)", 0.35387978407399623], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458624416972], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248686023315101], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888279630032956e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655483739335], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880464205202e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504565958058]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004863992334924249], ["'wet wipe' (unit, GLO, None)", 0.007110329552810682], ["'autoclave' (unit, DK, None)", 0.35387978407399623], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835458624416972], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248686023315101], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888279630032956e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009241655483739335], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291966748463e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869686487796e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951262728286], ["'marginal heating grid' (megajoule, DK, None)", -0.007399474007260629]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072623753132747], ["'mechanical disinfection' (unit, DK, None)", 0.08821417166084587], ["'autoclave' (unit, DK, None)", 0.2654098380554971], ["'aluminium scrap' (kilogram, RER, None)", -0.000130378167744207], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521467301843522], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177655926006591e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015465308415259227], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440232102593e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752282979029e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072623753132747], ["'wet wipe' (unit, GLO, None)", 0.007110329552810682], ["'autoclave' (unit, DK, None)", 0.2654098380554971], ["'aluminium scrap' (kilogram, RER, None)", -0.000130378167744207], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521467301843522], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177655926006591e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015465308415259223], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291966748463e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549869686487796e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003856566860407269], ["'marginal heating grid' (megajoule, DK, None)", -0.0073378564844308386]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612647988680958], ["'autoclave' (unit, DK, None)", 0.0003262996492041772], ["'waste polypropylene' (kilogram, CH, None)", 2.849801380392533e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077878320291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462574481832e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262535085144914e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746281213509], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.045651972540135e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020686834804365e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771461413100065e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.200286786577922e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612647988680958], ["'autoclave' (unit, DK, None)", 0.0003262996492041772], ["'waste polypropylene' (kilogram, CH, None)", 1.8909897010081293e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629518705063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641716321222e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508356723429946e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.200286786577922e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488847827643197], ["'autoclave' (unit, DK, None)", 0.0004350661989389029], ["'waste polypropylene' (kilogram, CH, None)", 8.069998301485398e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895614379594e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.909427038572929e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371849561405915e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003697630261693651], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147107878518853e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.03099094473474e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.59759476425354e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613358017568e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488847827643197], ["'autoclave' (unit, DK, None)", 0.0004350661989389029], ["'waste polypropylene' (kilogram, CH, None)", 5.3267315521355764e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486746349942e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180257152875], ["'marginal heating grid' (megajoule, DK, None)", -5.581233040937276e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.104613358017568e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0019920375016882126], ["'mechanical disinfection' (unit, DK, None)", 0.00012895528926033155], ["'autoclave' (unit, DK, None)", 0.0006525992984083546], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526088016636], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877301978063], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117560065464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346490087189e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989447176643e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.9124492716537114e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0019920375016882126], ["'wet wipe' (unit, GLO, None)", 7.156212388048737e-05], ["'autoclave' (unit, DK, None)", 0.0006525992984083546], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526088016636], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877301978063], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117560065464e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.985346490087189e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430240900215e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077878320291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.025063458941399e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9496106812017194e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011900422679851817], ["'mechanical disinfection' (unit, DK, None)", 6.447764463016577e-05], ["'autoclave' (unit, DK, None)", 0.0004894494738062658], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082948194873], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605340543207], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823512013093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0016087442802421e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994723588299e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.4562246358268557e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011900422679851817], ["'wet wipe' (unit, GLO, None)", 7.156212388048737e-05], ["'autoclave' (unit, DK, None)", 0.0004894494738062658], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082948194873], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605340543207], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823512013093e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010016087442802419], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430240900215e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077878320291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527464217813e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9250484348434505e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943658656377e-08], ["'autoclave' (unit, DK, None)", -1.8381427958307682e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598033035246e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977429837e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468183819766e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21892375723011e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895038375333e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278447670716e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925530957852394e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.171715684728447e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686341560015e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.107943658656377e-08], ["'autoclave' (unit, DK, None)", -1.8381427958307682e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264911238e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.7147694293203204e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4695645455879843e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949171486741e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.6570686341560015e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348323724744e-08], ["'autoclave' (unit, DK, None)", -2.450857061107691e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.0377983215043735e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242728822e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931517734383e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.6374831363391175e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.727288338615574e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0878216687164295e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328470009275e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581883022098e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255386412168e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348323724744e-08], ["'autoclave' (unit, DK, None)", -2.450857061107691e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454267355605e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520235903e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287678489594e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.758322090892745e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.714255386412168e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.786409235369969e-08], ["'mechanical disinfection' (unit, DK, None)", 1.20610283876089e-07], ["'autoclave' (unit, DK, None)", -3.6762855916615375e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.0895595932004726e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687368719213e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039879178e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.0991378569183445e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.21867373314187e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476272019790346e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.786409235369969e-08], ["'wet wipe' (unit, GLO, None)", 9.85121516496614e-08], ["'autoclave' (unit, DK, None)", -3.6762855916615375e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.0895595932004726e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687368719213e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039879178e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.0991378569183445e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.35522035962052e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977429837e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914683257167e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.292508630707912e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168052696763e-08], ["'mechanical disinfection' (unit, DK, None)", 6.03051419380445e-08], ["'autoclave' (unit, DK, None)", -2.7572141937461525e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630596124353e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792167662394e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079758356e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205313861663e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368665709275e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136009895173e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168052696763e-08], ["'wet wipe' (unit, GLO, None)", 9.85121516496614e-08], ["'autoclave' (unit, DK, None)", -2.7572141937461525e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630596124353e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792167662394e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079758356e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.186205313861662e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.35522035962052e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977429837e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213145914667e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512727060896e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187527027142], ["'autoclave' (unit, DK, None)", 0.0002406014672476805], ["'waste polypropylene' (kilogram, CH, None)", 6.539683632339767e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216515218839e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907307094336316e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890805800634e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625675705689], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.306324012991473e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.807725906822456e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303645832924e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026655247186e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187527027142], ["'autoclave' (unit, DK, None)", 0.0002406014672476805], ["'waste polypropylene' (kilogram, CH, None)", 4.339416242019845e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.09047835464596e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.938204729557544e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345927203867089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.086026655247186e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452225295803], ["'autoclave' (unit, DK, None)", 0.00032080195633024065], ["'waste polypropylene' (kilogram, CH, None)", 1.8518917201859341e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690215660533e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317644917561407e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.869010600537024e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576763029747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9316547963821034e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556720689379e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719336854346e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487224896265]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452225295803], ["'autoclave' (unit, DK, None)", 0.00032080195633024065], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707723999565e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453365439685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096611707608e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0003246007067024683], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011624487224896265]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034621236398685496], ["'mechanical disinfection' (unit, DK, None)", 0.00019474644485571776], ["'autoclave' (unit, DK, None)", 0.00048120293449536116], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575560196573e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735860650472], ["'waste plastic, mixture' (kilogram, CH, None)", 1.753370545228413e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190428244015e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880642971119875e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.857046988582716e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034621236398685496], ["'wet wipe' (unit, GLO, None)", 7.240358807510184e-05], ["'autoclave' (unit, DK, None)", 0.00048120293449536116], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575560196573e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735860650472], ["'waste plastic, mixture' (kilogram, CH, None)", 1.753370545228413e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.64190428244015e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385930242e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216515218839e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305130379292454e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.715473452895706e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454442028908], ["'mechanical disinfection' (unit, DK, None)", 9.737322242785888e-05], ["'autoclave' (unit, DK, None)", 0.0003609022008715208], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565592085667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621976073753], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741090456826e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2788228993795782e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214855599308e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.428523494291358e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454442028908], ["'wet wipe' (unit, GLO, None)", 7.240358807510184e-05], ["'autoclave' (unit, DK, None)", 0.0003609022008715208], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565592085667e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621976073753], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741090456826e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001278822899379578], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385930242e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216515218839e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.906109823073653e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701188217952792e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848616736726], ["'autoclave' (unit, DK, None)", 0.0004133498533317366], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434864232e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137919321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.62636043744578e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3648060084978375e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548337837016], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059869216156e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.809821320968672e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657315298542576e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764832685993955e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848616736726], ["'autoclave' (unit, DK, None)", 0.0004133498533317366], ["'waste polypropylene' (kilogram, CH, None)", 2.966429391358509e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.581873066300318e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573624963853e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022432040056652254], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6764832685993955e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00139652990763049], ["'autoclave' (unit, DK, None)", 0.0005511331377756487], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550782839835e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.620957687500419e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540485187517923e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626524026197202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260293762074], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435494618455e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451868903605766e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455013673966], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425501490052e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00139652990763049], ["'autoclave' (unit, DK, None)", 0.0005511331377756487], ["'waste polypropylene' (kilogram, CH, None)", 8.356139130587351e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961506461755e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360323458345296], ["'marginal heating grid' (megajoule, DK, None)", -0.0006417682684131468], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.614425501490052e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004489459916592413], ["'mechanical disinfection' (unit, DK, None)", 0.00046844771902105963], ["'autoclave' (unit, DK, None)", 0.0008266997066634734], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586974700357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774160069941], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287668586665e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701302981781e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160256512981643e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669459978668e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004489459916592413], ["'wet wipe' (unit, GLO, None)", 0.0010830399596394743], ["'autoclave' (unit, DK, None)", 0.0008266997066634734], ["'aluminium scrap' (kilogram, RER, None)", 1.7673586974700357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774160069941], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287668586665e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.005701302981781e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161069512e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137919321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70319744505043e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3916636798413586e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00026785847956374483], ["'mechanical disinfection' (unit, DK, None)", 0.00023422385951052982], ["'autoclave' (unit, DK, None)", 0.0006200247799976049], ["'aluminium scrap' (kilogram, RER, None)", 1.055278905226494e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170915578224], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657533717333e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.376715040015197e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.0801282564908e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.824334729989334e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00026785847956374483], ["'wet wipe' (unit, GLO, None)", 0.0010830399596394743], ["'autoclave' (unit, DK, None)", 0.0006200247799976049], ["'aluminium scrap' (kilogram, RER, None)", 1.055278905226494e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170915578224], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657533717333e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.376715040015195e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161069512e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137919321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396162485545e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.363420332541465e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374161010825], ["'autoclave' (unit, DK, None)", 0.00042203551455939604], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453391233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812956203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744510946243e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.458244583122783e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968769668734], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456863004392e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690898783085e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426347958656e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844311558715302e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374161010825], ["'autoclave' (unit, DK, None)", 0.00042203551455939604], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255812222202e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067903687302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496340630829e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00023054963887485222], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6844311558715302e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175611186031], ["'autoclave' (unit, DK, None)", 0.000562714019412528], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951424089194e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.637790014185863e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145243339152375e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846624091104e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521011330604], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923910224622e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258690969678e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263172811151146], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036737748435e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175611186031], ["'autoclave' (unit, DK, None)", 0.000562714019412528], ["'waste polypropylene' (kilogram, CH, None)", 8.446832623161185e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006477407415e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001876349555943493], ["'marginal heating grid' (megajoule, DK, None)", -0.0006595897749394069], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.637036737748435e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004621911662926317], ["'mechanical disinfection' (unit, DK, None)", 0.000479373937964336], ["'autoclave' (unit, DK, None)", 0.0008440710291187923], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879400459558e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133081393378], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398690658e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565864304033e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515117612638623e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529505263565e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004621911662926317], ["'wet wipe' (unit, GLO, None)", 0.001680844034576372], ["'autoclave' (unit, DK, None)", 0.0008440710291187923], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879400459558e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133081393378], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398690658e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.020565864304033e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353045586e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812956203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.916268773019352e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.485848075331383e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742429124835], ["'mechanical disinfection' (unit, DK, None)", 0.000239686968982168], ["'autoclave' (unit, DK, None)", 0.000633053271839094], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859298557092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848713489781], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318797381316e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401589915053619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.25755880631929e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.9027647526317827e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742429124835], ["'wet wipe' (unit, GLO, None)", 0.001680844034576372], ["'autoclave' (unit, DK, None)", 0.000633053271839094], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859298557092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002343848713489781], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318797381316e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.401589915053617e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744353045586e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812956203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693184956181e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.456820427805065e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981149936201], ["'autoclave' (unit, DK, None)", 0.000582201990383525], ["'waste polypropylene' (kilogram, CH, None)", 1.345061882715116e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832685661632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.56343476117344e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.835781306324318e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025766812743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135755938516], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533250287321e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025141086125], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001321828226470398]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981149936201], ["'autoclave' (unit, DK, None)", 0.000582201990383525], ["'waste polypropylene' (kilogram, CH, None)", 8.925176978763853e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553543555971e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.70895650744896e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032238542042162125], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001321828226470398]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367462603101], ["'autoclave' (unit, DK, None)", 0.0007762693205113668], ["'waste polypropylene' (kilogram, CH, None)", 3.808913555725983e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.2754403243877775e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513572852503e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001383490305628306], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847356923284], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033347981401368347], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826076778719714e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648284749648], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00037605176442939486]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367462603101], ["'autoclave' (unit, DK, None)", 0.0007762693205113668], ["'waste polypropylene' (kilogram, CH, None)", 0.00025141343602151704], ["'waste polyethylene' (kilogram, CH, None)", 2.84596179647697e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333009048568348], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268704188707], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00037605176442939486]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553722832007], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740479274578], ["'autoclave' (unit, DK, None)", 0.0011644039807670505], ["'aluminium scrap' (kilogram, RER, None)", 9.403572035658452e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436534752845], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911013967e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153423556979e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869600148238e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.11806984152545e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553722832007], ["'wet wipe' (unit, GLO, None)", 0.01086142235275649], ["'autoclave' (unit, DK, None)", 0.0011644039807670505], ["'aluminium scrap' (kilogram, RER, None)", 9.403572035658452e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436534752845], ["'waste plastic, mixture' (kilogram, CH, None)", 5.54434911013967e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.472153423556979e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.307992295633309e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832685661632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.631787562436386e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8743802105958846e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905331310753], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870239637289], ["'autoclave' (unit, DK, None)", 0.0008733029855752877], ["'aluminium scrap' (kilogram, RER, None)", 5.61481447835881e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071919254135], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869822027934e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.1369877087950117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.1879348000741e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.059034920762725e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905331310753], ["'wet wipe' (unit, GLO, None)", 0.01086142235275649], ["'autoclave' (unit, DK, None)", 0.0008733029855752877], ["'aluminium scrap' (kilogram, RER, None)", 5.61481447835881e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071919254135], ["'waste plastic, mixture' (kilogram, CH, None)", 1.108869822027934e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0004136987708795011], ["'waste wipe incineration' (kilogram, CH, None)", 1.307992295633309e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832685661632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.559908214435665e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8337898613882566e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891573280512e-10], ["'autoclave' (unit, DK, None)", 1.919708423859138e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534146551e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252645638e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912516805015e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129974582525e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873225239221e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0932949935886196e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393997938130239e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420604807461e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225955824951e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891573280512e-10], ["'autoclave' (unit, DK, None)", 1.919708423859138e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036676684e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134562733e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750112033437e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.41075331638835e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.330225955824951e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934486159692e-09], ["'autoclave' (unit, DK, None)", 2.5596112318121843e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.2662266353704723e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932572587537e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469429888864e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.751121639867734e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.361653060083887e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.532933444672303e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.62487695797871e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.37019888678158e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6543902323691867e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934486159692e-09], ["'autoclave' (unit, DK, None)", 2.5596112318121843e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652610379e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.93900374892605e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979619925915e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.834081093245156e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.6543902323691867e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234356093134e-10], ["'mechanical disinfection' (unit, DK, None)", 1.9507225122121224e-09], ["'autoclave' (unit, DK, None)", 3.839416847718278e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.0393434234680045e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648014739603e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229635896625e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884619913123e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787278971469e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.614308211927477e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234356093134e-10], ["'wet wipe' (unit, GLO, None)", 4.979514052885282e-10], ["'autoclave' (unit, DK, None)", 3.839416847718278e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.0393434234680045e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648014739603e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229635896625e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.7449884619913123e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285788850565e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252645638e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0540151712450965e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.692885323271769e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094697412676e-10], ["'mechanical disinfection' (unit, DK, None)", 9.753612561060612e-10], ["'autoclave' (unit, DK, None)", 2.8795626357887074e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668790059945e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979782170086e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245927179325e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.9201245159211635e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758936394857255e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541059637385e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094697412676e-10], ["'wet wipe' (unit, GLO, None)", 4.979514052885282e-10], ["'autoclave' (unit, DK, None)", 2.8795626357887074e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668790059945e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978979782170086e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.208245927179325e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.920124515921163e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285788850565e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252645638e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256234850249e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169912675394e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419949201748e-07], ["'autoclave' (unit, DK, None)", 2.3557948179250374e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645560554e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446689949955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844133982155417e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0432718498105068e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114160135807e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791570688918e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.557927568538281e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190238086491e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.9854176195087944e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419949201748e-07], ["'autoclave' (unit, DK, None)", 2.3557948179250374e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.997656772742803e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.420272820513176e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627559881036113e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621812332070047e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.9854176195087944e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507900657069e-06], ["'autoclave' (unit, DK, None)", 3.141059757233383e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.52521129776154e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.095281647797572e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854867615626e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.84568783596366e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005641097827e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830472731615e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828576477077e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.52794091213704e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260885881032e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507900657069e-06], ["'autoclave' (unit, DK, None)", 3.141059757233383e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.62720217674029e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573485357e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903245077089e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125223975773e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1338260885881032e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228048859078e-07], ["'mechanical disinfection' (unit, DK, None)", 2.538955345329483e-07], ["'autoclave' (unit, DK, None)", 4.711589635850076e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226124944527e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.47242743486264e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997321674e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739914967398e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341491375155e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.430143451750243e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228048859078e-07], ["'wet wipe' (unit, GLO, None)", 1.353680533877114e-07], ["'autoclave' (unit, DK, None)", 4.711589635850076e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226124944527e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.47242743486264e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997321674e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.453739914967398e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005179616348e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446689949955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817619438642e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.059581118062253e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.1796858441585885e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694776726647414e-07], ["'autoclave' (unit, DK, None)", 3.533692226887556e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961966281277e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479791250837e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994643348e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348182576576e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670745687569e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717258751215e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.1796858441585885e-07], ["'wet wipe' (unit, GLO, None)", 1.353680533877114e-07], ["'autoclave' (unit, DK, None)", 3.533692226887556e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961966281277e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479791250837e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994643348e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2473348182576576e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005179616348e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.6287446689949955e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.842550911981776e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304008035016e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384657055907], ["'autoclave' (unit, DK, None)", 0.00227703466076432], ["'waste polypropylene' (kilogram, CH, None)", 3.488480812682454e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356918858749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758054642795e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0004305808180472847], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824940015289], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406137792195635], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144661368989], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791264889461], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258812852683494e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384657055907], ["'autoclave' (unit, DK, None)", 0.00227703466076432], ["'waste polypropylene' (kilogram, CH, None)", 0.0002314786333649105], ["'waste polyethylene' (kilogram, CH, None)", 2.762838055055331e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738387030951964], ["'marginal heating grid' (megajoule, DK, None)", -0.0028705387869818987], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.258812852683494e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628552666888], ["'autoclave' (unit, DK, None)", 0.0030360462143524266], ["'waste polypropylene' (kilogram, CH, None)", 9.878595198530688e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077305546132e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340824488335657], ["'marginal heating grid' (megajoule, DK, None)", -0.0012318679233464332], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692711963563], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564619480277], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211390426146], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01394307398560412], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116053020767282e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628552666888], ["'autoclave' (unit, DK, None)", 0.0030360462143524266], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524883518607], ["'waste polyethylene' (kilogram, CH, None)", 8.322717112202441e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227216325557113], ["'marginal heating grid' (megajoule, DK, None)", -0.008212452822309554], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.2116053020767282e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509783195163], ["'mechanical disinfection' (unit, DK, None)", 0.003536637457851963], ["'autoclave' (unit, DK, None)", 0.004554069321528641], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917402460055], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999706783147], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847107792e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965058214987168e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062700529777e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.228377240214655e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509783195163], ["'wet wipe' (unit, GLO, None)", 0.012600254456358916], ["'autoclave' (unit, DK, None)", 0.004554069321528641], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917402460055], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999706783147], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847107792e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.965058214987168e-08], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372822616924e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356918858749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928324922728e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043401768723639467]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893134812007], ["'mechanical disinfection' (unit, DK, None)", 0.0017683187289259815], ["'autoclave' (unit, DK, None)", 0.00341555199114648], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372081785924], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519991539295], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694215584e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329006048430303e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031350264875e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.6141886201073274e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893134812007], ["'wet wipe' (unit, GLO, None)", 0.012600254456358916], ["'autoclave' (unit, DK, None)", 0.00341555199114648], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372081785924], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519991539295], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694215584e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.3329006048430301e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372822616924e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356918858749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408118011420095e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0004304034986162873]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0005799644909131245], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812675779444e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483004844008e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425438755716868e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592060901423], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360043262512e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140436650648e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518466628264e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0005799644909131245], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389719442434e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943504655864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963220032293386e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018950292503811246], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385768288942], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'waste polypropylene' (kilogram, CH, None)", 5.255722654916983e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351324665446e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.358701022563166e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360927971202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279222439143], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593799428522e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039553819108e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502722896522], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385768288942], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'waste polypropylene' (kilogram, CH, None)", 3.469123864631672e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112279944476e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467348375445], ["'marginal heating grid' (megajoule, DK, None)", -0.00054215739519808], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123324807071], ["'autoclave' (unit, DK, None)", 0.0011599289818262492], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384042920904262e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921691188191e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0011599289818262492], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.31028995311445e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8652328831985258e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'mechanical disinfection' (unit, DK, None)", 0.00026395616624035355], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214604521291e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608455940953e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001856202418609379], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087807069256e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732747425847e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.051298360458616785], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032840825], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851457044721], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033471113848], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649427325464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193839025874], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372722297375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535180831945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.051298360458616785], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629268211], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720529644214], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567638029813], ["'marginal heating grid' (megajoule, DK, None)", -0.039873556474092325], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752917135578], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896736169], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304336927], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00223950503935247], ["'marginal heating grid' (megajoule, DK, None)", -0.017111406204624324], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666229545247], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932126308758], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381378034736], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911318544211], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752917135578], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575403412], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488297224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930033595683144], ["'marginal heating grid' (megajoule, DK, None)", -0.11407604136416215], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'mechanical disinfection' (unit, DK, None)", 0.050951790000367744], ["'autoclave' (unit, DK, None)", 0.10259672091723361], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141008828142822e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040662380555395]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.10259672091723361], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890332878329691], ["'marginal heating grid' (megajoule, DK, None)", -0.0060287737066151165]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'mechanical disinfection' (unit, DK, None)", 0.025475895000183872], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504414071393e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203311902776976e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02576948680615645], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627834188996], ["'marginal heating grid' (megajoule, DK, None)", -0.005978570394712339]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.022422925226011865], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261792392], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588120778632], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109422161243343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119746702577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552577626400457], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735043812086], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853364669916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.022422925226011865], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409641002428], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520095640084], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587471857547], ["'marginal heating grid' (megajoule, DK, None)", -0.006739614774162229], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403296558492], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'waste polypropylene' (kilogram, CH, None)", 0.00405952129749822], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172579899], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239962128737], ["'marginal heating grid' (megajoule, DK, None)", -0.0028922498081732136], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167599928707679], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088639868139943], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497901781081], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882717380048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403296558492], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201154998], ["'waste polyethylene' (kilogram, CH, None)", 0.003472526686306985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159974752497], ["'marginal heating grid' (megajoule, DK, None)", -0.019281665387821424], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'mechanical disinfection' (unit, DK, None)", 0.03185291957685582], ["'autoclave' (unit, DK, None)", 0.044845850452023744], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226206525574e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971196578949374e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.044845850452023744], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556539051004], ["'marginal heating grid' (megajoule, DK, None)", -0.0010190114937348076]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'mechanical disinfection' (unit, DK, None)", 0.01592645978842791], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613103262702e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598289474687e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009778919736834549], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011040801847], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258954453329]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.02650207486195923], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899784608], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280089021427084], ["'marginal heating grid' (megajoule, DK, None)", -0.001273579863963623], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733360836379447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920750990429534], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484382334474], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525117296026315], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.02650207486195923], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082682912], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355629345708], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059347618055], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532426424153], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575414475009], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227535956656], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052344894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572164221182], ["'marginal heating grid' (megajoule, DK, None)", -0.0036436416033387084], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661162557129], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216317507916], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796144859007], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540083387697], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575414475009], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952868427], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768752168789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714776147462], ["'marginal heating grid' (megajoule, DK, None)", -0.02429094402225805], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'mechanical disinfection' (unit, DK, None)", 0.03873192030681365], ["'autoclave' (unit, DK, None)", 0.053004149723918474], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146874022525e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1380227163903457e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.053004149723918474], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047657475738171703], ["'marginal heating grid' (megajoule, DK, None)", -0.0012837454988708582]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'mechanical disinfection' (unit, DK, None)", 0.019365960153406823], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.9685734370112525e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113581951728e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014260375560957775], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061839447069], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553852889064]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 2.0531716197943015], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178362766524], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248173623637], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613491520034], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807627730134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093580860915], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046211805763], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573132092247], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 2.0531716197943015], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594988377788], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454375346], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999498782415758], ["'marginal heating grid' (megajoule, DK, None)", -0.6173742327680023], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865545025357], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243401105206], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442526120342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052264843539], ["'marginal heating grid' (megajoule, DK, None)", -0.26494103389110985], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.016849828996892], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.1182241757346489], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.027361583499112267], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.296748538932176], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865545025357], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352079937432], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523198187078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368176562363], ["'marginal heating grid' (megajoule, DK, None)", -1.7662735592740655], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'mechanical disinfection' (unit, DK, None)", 2.140537961522276], ["'autoclave' (unit, DK, None)", 4.106343239588605], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874766581777], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546258678243575]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 4.106343239588605], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080867319204], ["'marginal heating grid' (megajoule, DK, None)", -0.0933453112985237]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'mechanical disinfection' (unit, DK, None)", 1.070268980761138], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437383290883], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129339121788]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.029745576059825436], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936493486301], ["'marginal heating grid' (megajoule, DK, None)", -0.09256799836461152]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.013280169987379015], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584220727953], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001929658864855387], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536259816522], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930679170731], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942567096566], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428694948376], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959814702853], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.013280169987379015], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069903473688], ["'waste polyethylene' (kilogram, CH, None)", 8.017874157064716e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864392432369246], ["'marginal heating grid' (megajoule, DK, None)", -0.00956835750654435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337198855755], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249550355673], ["'waste polyethylene' (kilogram, CH, None)", 3.6284464892356145e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647365102546], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181301182108], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112939501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361124271217], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966770202123], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805581606438], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337198855755], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746206968138], ["'waste polyethylene' (kilogram, CH, None)", 0.000241528808857933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804315767350335], ["'marginal heating grid' (megajoule, DK, None)", -0.027374542007880722], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'mechanical disinfection' (unit, DK, None)", 0.012412665566335057], ["'autoclave' (unit, DK, None)", 0.026560339974758037], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394156068901795e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.4094326103588845e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.026560339974758037], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450612813591905], ["'marginal heating grid' (megajoule, DK, None)", -0.0014467097307567446]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'mechanical disinfection' (unit, DK, None)", 0.006206332783167528], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078034450853e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047163051794422e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005805811990364631], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642033247442], ["'marginal heating grid' (megajoule, DK, None)", -0.00143466256770495]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.829168827838654e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929081463334e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547978168878826e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.89933691128862e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874307204355e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601656438133e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511034458437e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092275382697e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.829168827838654e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919593255978e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.41735319559402e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985445919217e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912741924134e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399944210107], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192066993824e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050912660695e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702196610066e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842664353325e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769258650233e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179742677875e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.216474541478184e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814344437697742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399944210107], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407304946418e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365197181434e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134797740049e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.529895109568883e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'mechanical disinfection' (unit, DK, None)", 2.86810135786533e-05], ["'autoclave' (unit, DK, None)", -3.658337655677309e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2961181226068994e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.867263023075831e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -3.658337655677309e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799792159662316e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.9224792373784055e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'mechanical disinfection' (unit, DK, None)", 1.434050678932665e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590613034427e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336315115379154e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7452489713597154e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986253532043e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.898142922263026e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00013305167343317166], ["'waste polypropylene' (kilogram, CH, None)", 4.286217824996316e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467102741391e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375218936446e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914186063814e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705272271223e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338086347e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396867534e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00013305167343317166], ["'waste polypropylene' (kilogram, CH, None)", 2.844125846492883e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985439685244e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780684942606e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101583479290964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.59735574945872e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607485737233e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.554671418109552e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642720103953988e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.339002776102422e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396376872266e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988965440853e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.43978949162187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770252638742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.59735574945872e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102796854e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724637264191e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428480069302663e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.892668517401614e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947844837337e-05], ["'autoclave' (unit, DK, None)", 0.0002661033468663434], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658173024250394e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393536779522e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.0002661033468663434], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.39736996058548e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.585713087530144e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'mechanical disinfection' (unit, DK, None)", 3.8614739224186685e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086512125189e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.153196768389761e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.721806709855898e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790954642355e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5641811198462465e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002716220503129679], ["'waste polypropylene' (kilogram, CH, None)", 6.352133528630832e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931895596341], ["'marginal heating grid' (megajoule, DK, None)", -0.000317128303876767], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921414950655587], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387138434472], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238524396341e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132076704114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002716220503129679], ["'waste polypropylene' (kilogram, CH, None)", 0.00042149671077830757], ["'waste polyethylene' (kilogram, CH, None)", 5.120887782042473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839287930397561], ["'marginal heating grid' (megajoule, DK, None)", -0.00211418869251178], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047208732205], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'waste polypropylene' (kilogram, CH, None)", 0.0001798781737546862], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306468940488e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00033641654267584363], ["'marginal heating grid' (megajoule, DK, None)", -0.0009072865505312611], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590300681209], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922455482393], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435169777149], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369332979353272], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047208732205], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'waste polypropylene' (kilogram, CH, None)", 0.001187314678248754], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058105464944], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427769511722925], ["'marginal heating grid' (megajoule, DK, None)", -0.00604857700354174], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'mechanical disinfection' (unit, DK, None)", 0.006515242097998756], ["'autoclave' (unit, DK, None)", 0.00543244100625936], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031171867687e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.323792695565377e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.00543244100625936], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001185279095534751], ["'marginal heating grid' (megajoule, DK, None)", -0.0003196596021857155]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'mechanical disinfection' (unit, DK, None)", 0.003257621048999378], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.87015585933841e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618963477826884e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0023855363882416387], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089396754153], ["'marginal heating grid' (megajoule, DK, None)", -0.00031699770583793277]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.11495178964016434], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800159526], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850689478584], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012335278325], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519318272677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054452737605579565], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970321660847], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.1042556201713489], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.11495178964016434], ["'waste polypropylene' (kilogram, CH, None)", 0.1147610026274078], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056265389], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004596523895], ["'marginal heating grid' (megajoule, DK, None)", -0.08703341556852218], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902804086997], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470135358544], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017209508914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355096213787], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966877450474], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978213681376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688017213267], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537832788519], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778032995744], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902804086997], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'waste polypropylene' (kilogram, CH, None)", 0.32327042993636], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634555873715], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236730809196], ["'marginal heating grid' (megajoule, DK, None)", -0.2489977918300316], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'mechanical disinfection' (unit, DK, None)", 0.26741303697822294], ["'autoclave' (unit, DK, None)", 0.22990357928032873], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824651026878e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002191610728573711]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.22990357928032873], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284625474087], ["'marginal heating grid' (megajoule, DK, None)", -0.013159216628126412]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'mechanical disinfection' (unit, DK, None)", 0.13370651848911147], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412325513431e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053642868555]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.05129882452743512], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805022189615], ["'marginal heating grid' (megajoule, DK, None)", -0.013049636091697726]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0012325867170950215], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934992006162e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590382167401403e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349141601152], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360313090275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266687670249], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695746347329], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958020774657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0012325867170950215], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854060116238e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816323540564542e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060254778267602e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.007714232761067435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467004805675], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'waste polypropylene' (kilogram, CH, None)", 5.493626451007353e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316980530583e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604700067124124e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0033104990375617204], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134525207528], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000732962395454153], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106421526912], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157188950608], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467004805675], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'waste polypropylene' (kilogram, CH, None)", 3.6261560732721804e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666926249841e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736466711416085e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993583744802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'mechanical disinfection' (unit, DK, None)", 0.00110185338300352], ["'autoclave' (unit, DK, None)", 0.002465173434190044], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288736205856733e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407093852912e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.002465173434190044], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746751373952123e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.001166371092752919]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'mechanical disinfection' (unit, DK, None)", 0.00055092669150176], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443681029283622e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703546926456e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.001579735819605608], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582314563659334e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583892059926]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.17693989128720167], ["'waste polypropylene' (kilogram, CH, None)", -6.194524749875135e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155588331333], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879474778726], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272625854205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376271339147415], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430747991568e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742637262906], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.17693989128720167], ["'waste polypropylene' (kilogram, CH, None)", -4.110385581692847e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555429665953e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103725554222], ["'marginal heating grid' (megajoule, DK, None)", -0.048939196498524844], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985175133248], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'waste polypropylene' (kilogram, CH, None)", -1.7541504665534263e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788139427236567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037969907947056], ["'marginal heating grid' (megajoule, DK, None)", -0.021001850465942162], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070634874092961], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627809820520095], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045781758048874], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659897820538], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985175133248], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578550934346049], ["'waste polyethylene' (kilogram, CH, None)", -1.5169004664330723e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646605298043], ["'marginal heating grid' (megajoule, DK, None)", -0.14001233643961442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'mechanical disinfection' (unit, DK, None)", 0.17642834190496381], ["'autoclave' (unit, DK, None)", 0.35387978257440345], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880268465339e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504414175345]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.35387978257440345], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951145199054], ["'marginal heating grid' (megajoule, DK, None)", -0.007399473916124847]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'mechanical disinfection' (unit, DK, None)", 0.08821417095248191], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401342326615e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752207087673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015491936833636514], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667438567363], ["'marginal heating grid' (megajoule, DK, None)", -0.00733785639405397]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.0003262996258248639], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013788326443e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016946251461488e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262545192405245e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746275416489], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456519651667992e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020690974210625e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771460563086902e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.0003262996258248639], ["'waste polypropylene' (kilogram, CH, None)", 1.890989699973063e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629524565095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.77964167640992e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508363461603496e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847746822613], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'waste polypropylene' (kilogram, CH, None)", 8.069998297068143e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895617031522e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270214453243e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371852453037234e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976302453775356], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.14710785632726e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030992191681054e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597594524813212e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847746822613], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'waste polypropylene' (kilogram, CH, None)", 5.3267315492198965e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486748115208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180142968844], ["'marginal heating grid' (megajoule, DK, None)", -5.5812349686914896e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'mechanical disinfection' (unit, DK, None)", 0.00012895529843011744], ["'autoclave' (unit, DK, None)", 0.000652599251649728], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989346674972e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.9124509684104516e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.000652599251649728], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634529069182e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9496116999953042e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'mechanical disinfection' (unit, DK, None)", 6.447764921505872e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994673337463e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.4562254842052258e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001001593302359888], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527458233583e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.925049445153252e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.8381428283523174e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803295596e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346818016522e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.218923757823886e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895018804374e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727843192814e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531022966723e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171575271337e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.8381428283523174e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264858627e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429329504e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564545344348e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949171882591e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348306423969e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321481921e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242770382e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931516688838e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.637483136508993e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883331071914e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821663978373e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328666158353e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819021727804e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348306423969e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.985345426720741e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520263567e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287677792564e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.758322091005995e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'mechanical disinfection' (unit, DK, None)", 1.206102859366087e-07], ["'autoclave' (unit, DK, None)", -3.676285656704636e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673732528364e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476272020787143e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -3.676285656704636e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914682888796e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.292508631306427e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030514296830434e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336866264174e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136010393571e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1699058439732695e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213142261626e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512727120249e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.0002406014485379755], ["'waste polypropylene' (kilogram, CH, None)", 6.539683631878085e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073070912404037e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890906376113e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625658181879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240111321366e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259608377471e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303862078796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.0002406014485379755], ["'waste polypropylene' (kilogram, CH, None)", 4.339416241713495e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478355835628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382047274936023e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345927270917409], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452205622064], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'waste polypropylene' (kilogram, CH, None)", 1.851891720055196e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690221044314e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317644908704171e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.869010629311113e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767580975487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654790786042e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556883403942e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719397768676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452205622064], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707723136608e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.533445336902342e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096605802786e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032460070862074084], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'mechanical disinfection' (unit, DK, None)", 0.00019474645685161061], ["'autoclave' (unit, DK, None)", 0.00048120289707595114], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8806429659226104e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.857047005466829e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.00048120289707595114], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305130348086215e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7154734630335326e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'mechanical disinfection' (unit, DK, None)", 9.737322842580531e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214829612986e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4285235027334146e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012852814376347447], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061098199790157e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701188228006198e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0004133497809497883], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434681384e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360424603675e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.364806017620218e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454830472067], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205983271205e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214316101667e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316793402096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0004133497809497883], ["'waste polypropylene' (kilogram, CH, None)", 2.96642939123718e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730663152096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573616402449e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022432040117468117], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529903910647], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'waste polypropylene' (kilogram, CH, None)", 1.265955078232205e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576875071582e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540485150777368e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626524052295825e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260284441248], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435483631782e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869236899951e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455434761155], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529903910647], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'waste polypropylene' (kilogram, CH, None)", 8.356139130245578e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961506506615e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360323433851594], ["'marginal heating grid' (megajoule, DK, None)", -0.000641768270153055], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'mechanical disinfection' (unit, DK, None)", 0.000468447753977553], ["'autoclave' (unit, DK, None)", 0.0008266995618995769], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160256491422953e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669475292866e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0008266995618995769], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70319743210582e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3916636890365525e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'mechanical disinfection' (unit, DK, None)", 0.0002342238769887765], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128245711455e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.824334737646433e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678336e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396149648728e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3634203416600875e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.00042203544102070576], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453199233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744497621588e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.458244592980846e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968735994905], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456825763508e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910122209905e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426498482766e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.00042203544102070576], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255810948183e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.61906790370459e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496331747725e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002305496395320564], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175607401839], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951423545494e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900141936864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.814524330103127e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846652294478e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521001852871], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923899016201e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259032687715e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173235162723], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175607401839], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'waste polypropylene' (kilogram, CH, None)", 8.446832622802306e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006477459494e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763495534020863], ["'marginal heating grid' (megajoule, DK, None)", -0.0006595897768196319], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'mechanical disinfection' (unit, DK, None)", 0.0004793739737223222], ["'autoclave' (unit, DK, None)", 0.0008440708820414117], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515117590269852e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529521812792e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.0008440708820414117], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.91626875958834e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.485848085268133e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869868611611], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558795134905e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.902764760906396e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806917e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693171637013e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.456820437659069e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0005822019915678908], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827013333e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434754642156e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8357813201025755e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025765651068], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135754995981], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533311865485e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025136653118], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0005822019915678908], ["'waste polypropylene' (kilogram, CH, None)", 8.925176978672398e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.44755354378733e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089565030947705e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032238542134017175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367461559987], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135556869536e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440324492478e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513554166858e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013834903095701894], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884735365367], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798139853159], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.982607696421652e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648272262304], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367461559987], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134360189408], ["'waste polyethylene' (kilogram, CH, None)", 2.8459617965466647e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001633300903611125], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268730467929], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740578532478], ["'autoclave' (unit, DK, None)", 0.0011644039831357818], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.437586958918384e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.118069864655705e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.0011644039831357818], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.63178755585297e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8743802244841194e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870289266239], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934794591902e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.0590349323278527e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004145293680673959], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.55990820790707e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.83378987516084e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.919708389086207e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534083158e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912412400758e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129909656358e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873215662858e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294976678303e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998023590785e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420607302126e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.919708389086207e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036634619e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134450593e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812749416005055e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.410753273104239e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934463612432e-09], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226635352521e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932572536788e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469131194054e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.7511216212927167e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530573885529e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334395827904e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876983722671e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.370198893808806e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934463612432e-09], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652491887e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.939003748892269e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979420796042e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.834081080861811e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'mechanical disinfection' (unit, DK, None)", 1.950722522015646e-09], ["'autoclave' (unit, DK, None)", 3.8394167781724144e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787103702779e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.6143082010279938e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 3.8394167781724144e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.05401506600749e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.692885257827365e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'mechanical disinfection' (unit, DK, None)", 9.75361261007823e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758935518513806e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541005139969e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.9271784786877694e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256130488986e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169847775964e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.3557946632761e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645467334e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8441339745121575e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.043271860660425e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.191811413744328e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979154617413e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276380705906e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419026153468e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.3557946632761e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567727366172e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728205264844e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562755983008105e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621812404402836e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507898287252e-06], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211297735143e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816478035948e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854845748682e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.845687867004676e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005634710857e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830465353378e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828785934792e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940918742164e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507898287252e-06], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202176722867e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573525448e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903230499127e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125244669784e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'mechanical disinfection' (unit, DK, None)", 2.5389554929696336e-07], ["'autoclave' (unit, DK, None)", 4.7115893265522015e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341478544029e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.430143469964547e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 4.7115893265522015e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817611734374e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0595811289987745e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694777464848168e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670739272006e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717349822735e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8425509043416634e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304116489515e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.002277034044264525], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808123419995e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758037346718e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043058082039944165], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249396967705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377921622355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144793360544], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791274896169], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.002277034044264525], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863334231956], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380551835423e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738386915644786], ["'marginal heating grid' (megajoule, DK, None)", -0.0028705388026629445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628552364363], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'waste polypropylene' (kilogram, CH, None)", 9.878595197566596e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077306126346e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340824438852537], ["'marginal heating grid' (megajoule, DK, None)", -0.001231867930075824], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692711067069], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01222356461847505], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211430187013], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074013792026], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628552364363], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524882882243], ["'waste polyethylene' (kilogram, CH, None)", 8.322717112588662e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227216292568367], ["'marginal heating grid' (megajoule, DK, None)", -0.00821245286717216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'mechanical disinfection' (unit, DK, None)", 0.003536637816022565], ["'autoclave' (unit, DK, None)", 0.004554068088529051], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062671493983e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.228377279701499e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.004554068088529051], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928307488596e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043401768960732635]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'mechanical disinfection' (unit, DK, None)", 0.0017683189080112825], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031335746977e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.6141886398507493e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.927490886244075e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117994131142e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043040350096747556]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -100,7 +100,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'mechanical disinfection' (unit, DK, None)", 0.00026395616624035355], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214604521291e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608455940953e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001856202418609379], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087807069256e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732747425847e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087807069256e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732747425847e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.051298360458616785], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032840825], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851457044721], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033471113848], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649427325464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193839025874], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372722297375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535180831945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
@@ -124,7 +124,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'mechanical disinfection' (unit, DK, None)", 0.025475895000183872], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504414071393e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203311902776976e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02576948680615645], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627834188996], ["'marginal heating grid' (megajoule, DK, None)", -0.005978570394712339]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627834188996], ["'marginal heating grid' (megajoule, DK, None)", -0.005978570394712339]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.022422925226011865], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261792392], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588120778632], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109422161243343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119746702577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552577626400457], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735043812086], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853364669916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
@@ -148,7 +148,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'mechanical disinfection' (unit, DK, None)", 0.01592645978842791], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613103262702e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598289474687e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009778919736834549], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011040801847], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258954453329]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011040801847], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258954453329]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.02650207486195923], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899784608], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280089021427084], ["'marginal heating grid' (megajoule, DK, None)", -0.001273579863963623], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733360836379447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920750990429534], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484382334474], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525117296026315], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
@@ -172,7 +172,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'mechanical disinfection' (unit, DK, None)", 0.019365960153406823], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.9685734370112525e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113581951728e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014260375560957775], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061839447069], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553852889064]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061839447069], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553852889064]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 2.0531716197943015], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178362766524], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248173623637], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613491520034], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807627730134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093580860915], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046211805763], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573132092247], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
@@ -196,7 +196,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'mechanical disinfection' (unit, DK, None)", 1.070268980761138], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437383290883], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129339121788]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.029745576059825436], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936493486301], ["'marginal heating grid' (megajoule, DK, None)", -0.09256799836461152]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936493486301], ["'marginal heating grid' (megajoule, DK, None)", -0.09256799836461152]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.013280169987379015], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584220727953], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001929658864855387], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536259816522], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930679170731], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942567096566], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428694948376], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959814702853], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
@@ -220,7 +220,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'mechanical disinfection' (unit, DK, None)", 0.006206332783167528], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078034450853e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047163051794422e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005805811990364631], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642033247442], ["'marginal heating grid' (megajoule, DK, None)", -0.00143466256770495]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642033247442], ["'marginal heating grid' (megajoule, DK, None)", -0.00143466256770495]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.829168827838654e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929081463334e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547978168878826e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.89933691128862e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874307204355e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601656438133e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511034458437e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092275382697e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
@@ -244,7 +244,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'mechanical disinfection' (unit, DK, None)", 1.434050678932665e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590613034427e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336315115379154e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7452489713597154e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986253532043e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.898142922263026e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986253532043e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.898142922263026e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00013305167343317166], ["'waste polypropylene' (kilogram, CH, None)", 4.286217824996316e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467102741391e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375218936446e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914186063814e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705272271223e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338086347e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396867534e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
@@ -268,7 +268,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'mechanical disinfection' (unit, DK, None)", 3.8614739224186685e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086512125189e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.153196768389761e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.721806709855898e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790954642355e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5641811198462465e-07]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790954642355e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5641811198462465e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002716220503129679], ["'waste polypropylene' (kilogram, CH, None)", 6.352133528630832e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931895596341], ["'marginal heating grid' (megajoule, DK, None)", -0.000317128303876767], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921414950655587], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387138434472], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238524396341e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132076704114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
@@ -292,7 +292,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'mechanical disinfection' (unit, DK, None)", 0.003257621048999378], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.87015585933841e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618963477826884e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0023855363882416387], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089396754153], ["'marginal heating grid' (megajoule, DK, None)", -0.00031699770583793277]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089396754153], ["'marginal heating grid' (megajoule, DK, None)", -0.00031699770583793277]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.11495178964016434], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800159526], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850689478584], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012335278325], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519318272677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054452737605579565], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970321660847], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.1042556201713489], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
@@ -316,7 +316,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'mechanical disinfection' (unit, DK, None)", 0.13370651848911147], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412325513431e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053642868555]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.05129882452743512], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805022189615], ["'marginal heating grid' (megajoule, DK, None)", -0.013049636091697726]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805022189615], ["'marginal heating grid' (megajoule, DK, None)", -0.013049636091697726]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0012325867170950215], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934992006162e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590382167401403e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349141601152], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360313090275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266687670249], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695746347329], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958020774657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
@@ -340,7 +340,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'mechanical disinfection' (unit, DK, None)", 0.00055092669150176], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443681029283622e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703546926456e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.001579735819605608], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582314563659334e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583892059926]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582314563659334e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583892059926]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.17693989128720167], ["'waste polypropylene' (kilogram, CH, None)", -6.194524749875135e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155588331333], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879474778726], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272625854205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376271339147415], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430747991568e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742637262906], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
@@ -364,7 +364,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'mechanical disinfection' (unit, DK, None)", 0.08821417095248191], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401342326615e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752207087673e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015491936833636514], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667438567363], ["'marginal heating grid' (megajoule, DK, None)", -0.00733785639405397]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667438567363], ["'marginal heating grid' (megajoule, DK, None)", -0.00733785639405397]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.0003262996258248639], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013788326443e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016946251461488e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262545192405245e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746275416489], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456519651667992e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020690974210625e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771460563086902e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
@@ -388,7 +388,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'mechanical disinfection' (unit, DK, None)", 6.447764921505872e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994673337463e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.4562254842052258e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001001593302359888], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527458233583e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.925049445153252e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527458233583e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.925049445153252e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.8381428283523174e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803295596e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346818016522e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.218923757823886e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895018804374e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727843192814e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531022966723e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171575271337e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
@@ -412,7 +412,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030514296830434e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336866264174e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136010393571e-11]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1699058439732695e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213142261626e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512727120249e-09]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213142261626e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512727120249e-09]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.0002406014485379755], ["'waste polypropylene' (kilogram, CH, None)", 6.539683631878085e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073070912404037e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890906376113e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625658181879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240111321366e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259608377471e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303862078796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
@@ -436,7 +436,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'mechanical disinfection' (unit, DK, None)", 9.737322842580531e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214829612986e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4285235027334146e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012852814376347447], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061098199790157e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701188228006198e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061098199790157e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701188228006198e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0004133497809497883], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434681384e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360424603675e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.364806017620218e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454830472067], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205983271205e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214316101667e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316793402096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
@@ -460,7 +460,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'mechanical disinfection' (unit, DK, None)", 0.0002342238769887765], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128245711455e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.824334737646433e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678336e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396149648728e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3634203416600875e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396149648728e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3634203416600875e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.00042203544102070576], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453199233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744497621588e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.458244592980846e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968735994905], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456825763508e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910122209905e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426498482766e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
@@ -484,7 +484,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869868611611], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558795134905e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.902764760906396e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806917e-05], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693171637013e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.456820437659069e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693171637013e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.456820437659069e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0005822019915678908], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827013333e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434754642156e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8357813201025755e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025765651068], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135754995981], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533311865485e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025136653118], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
@@ -508,7 +508,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870289266239], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934794591902e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.0590349323278527e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004145293680673959], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.55990820790707e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.83378987516084e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.55990820790707e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.83378987516084e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.919708389086207e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534083158e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912412400758e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129909656358e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873215662858e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294976678303e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998023590785e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420607302126e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
@@ -532,7 +532,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'mechanical disinfection' (unit, DK, None)", 9.75361261007823e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758935518513806e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541005139969e-13]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.9271784786877694e-10], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256130488986e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169847775964e-11]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256130488986e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169847775964e-11]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.3557946632761e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645467334e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8441339745121575e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.043271860660425e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.191811413744328e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979154617413e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276380705906e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419026153468e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
@@ -556,7 +556,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694777464848168e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670739272006e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717349822735e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-07], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8425509043416634e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304116489515e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8425509043416634e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304116489515e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.002277034044264525], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808123419995e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758037346718e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043058082039944165], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249396967705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377921622355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144793360544], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791274896169], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
@@ -580,7 +580,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'mechanical disinfection' (unit, DK, None)", 0.0017683189080112825], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031335746977e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.6141886398507493e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.927490886244075e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117994131142e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043040350096747556]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117994131142e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043040350096747556]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -14,573 +14,597 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0005799644909131245], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812675779444e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483004844008e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425438755716868e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592060901423], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360043262512e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140436650648e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518466628264e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0005799644909131245], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389719442434e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943504655864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963220032293386e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018950292503811246], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385768288942], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'waste polypropylene' (kilogram, CH, None)", 5.255722654916983e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351324665446e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.358701022563166e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360927971202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279222439143], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593799428522e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039553819108e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502722896522], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385768288942], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'waste polypropylene' (kilogram, CH, None)", 3.469123864631672e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112279944476e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467348375445], ["'marginal heating grid' (megajoule, DK, None)", -0.00054215739519808], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123324807071], ["'autoclave' (unit, DK, None)", 0.0011599289818262492], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384042920904262e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921691188191e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0011599289818262492], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.31028995311445e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8652328831985258e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'mechanical disinfection' (unit, DK, None)", 0.00026395616624035355], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214604521291e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608455940953e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0008699467363696867], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087807069256e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732747425847e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.051298360458616785], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032840825], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851457044721], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033471113848], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649427325464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193839025874], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372722297375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535180831945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.051298360458616785], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629268211], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720529644214], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567638029813], ["'marginal heating grid' (megajoule, DK, None)", -0.039873556474092325], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752917135578], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896736169], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304336927], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00223950503935247], ["'marginal heating grid' (megajoule, DK, None)", -0.017111406204624324], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666229545247], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932126308758], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381378034736], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911318544211], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752917135578], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575403412], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488297224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930033595683144], ["'marginal heating grid' (megajoule, DK, None)", -0.11407604136416215], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'mechanical disinfection' (unit, DK, None)", 0.050951790000367744], ["'autoclave' (unit, DK, None)", 0.10259672091723361], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141008828142822e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040662380555395]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.10259672091723361], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890332878329691], ["'marginal heating grid' (megajoule, DK, None)", -0.0060287737066151165]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'mechanical disinfection' (unit, DK, None)", 0.025475895000183872], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504414071393e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203311902776976e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.07694754068792518], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627834188996], ["'marginal heating grid' (megajoule, DK, None)", -0.005978570394712339]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.022422925226011865], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261792392], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588120778632], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109422161243343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119746702577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552577626400457], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735043812086], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853364669916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.022422925226011865], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409641002428], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520095640084], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587471857547], ["'marginal heating grid' (megajoule, DK, None)", -0.006739614774162229], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403296558492], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'waste polypropylene' (kilogram, CH, None)", 0.00405952129749822], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172579899], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239962128737], ["'marginal heating grid' (megajoule, DK, None)", -0.0028922498081732136], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167599928707679], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088639868139943], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497901781081], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882717380048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403296558492], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201154998], ["'waste polyethylene' (kilogram, CH, None)", 0.003472526686306985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159974752497], ["'marginal heating grid' (megajoule, DK, None)", -0.019281665387821424], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'mechanical disinfection' (unit, DK, None)", 0.03185291957685582], ["'autoclave' (unit, DK, None)", 0.044845850452023744], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226206525574e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971196578949374e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.044845850452023744], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556539051004], ["'marginal heating grid' (megajoule, DK, None)", -0.0010190114937348076]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'mechanical disinfection' (unit, DK, None)", 0.01592645978842791], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613103262702e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598289474687e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.0336343878390178], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011040801847], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258954453329]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.02650207486195923], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899784608], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280089021427084], ["'marginal heating grid' (megajoule, DK, None)", -0.001273579863963623], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733360836379447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920750990429534], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484382334474], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525117296026315], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.02650207486195923], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082682912], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355629345708], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059347618055], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532426424153], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575414475009], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227535956656], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052344894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572164221182], ["'marginal heating grid' (megajoule, DK, None)", -0.0036436416033387084], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661162557129], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216317507916], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796144859007], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540083387697], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575414475009], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952868427], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768752168789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714776147462], ["'marginal heating grid' (megajoule, DK, None)", -0.02429094402225805], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'mechanical disinfection' (unit, DK, None)", 0.03873192030681365], ["'autoclave' (unit, DK, None)", 0.053004149723918474], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146874022525e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1380227163903457e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.053004149723918474], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047657475738171703], ["'marginal heating grid' (megajoule, DK, None)", -0.0012837454988708582]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'mechanical disinfection' (unit, DK, None)", 0.019365960153406823], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.9685734370112525e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113581951728e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.03975311229293885], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061839447069], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553852889064]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 2.0531716197943015], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178362766524], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248173623637], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613491520034], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807627730134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093580860915], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046211805763], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573132092247], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 2.0531716197943015], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594988377788], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454375346], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999498782415758], ["'marginal heating grid' (megajoule, DK, None)", -0.6173742327680023], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865545025357], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243401105206], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442526120342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052264843539], ["'marginal heating grid' (megajoule, DK, None)", -0.26494103389110985], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.016849828996892], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.1182241757346489], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.027361583499112267], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.296748538932176], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865545025357], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352079937432], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523198187078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368176562363], ["'marginal heating grid' (megajoule, DK, None)", -1.7662735592740655], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'mechanical disinfection' (unit, DK, None)", 2.140537961522276], ["'autoclave' (unit, DK, None)", 4.106343239588605], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874766581777], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546258678243575]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 4.106343239588605], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080867319204], ["'marginal heating grid' (megajoule, DK, None)", -0.0933453112985237]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'mechanical disinfection' (unit, DK, None)", 1.070268980761138], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437383290883], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129339121788]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 3.0797574296914525], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936493486301], ["'marginal heating grid' (megajoule, DK, None)", -0.09256799836461152]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.013280169987379015], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584220727953], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001929658864855387], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536259816522], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930679170731], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942567096566], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428694948376], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959814702853], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.013280169987379015], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069903473688], ["'waste polyethylene' (kilogram, CH, None)", 8.017874157064716e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864392432369246], ["'marginal heating grid' (megajoule, DK, None)", -0.00956835750654435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337198855755], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249550355673], ["'waste polyethylene' (kilogram, CH, None)", 3.6284464892356145e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647365102546], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181301182108], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112939501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361124271217], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966770202123], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805581606438], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337198855755], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746206968138], ["'waste polyethylene' (kilogram, CH, None)", 0.000241528808857933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804315767350335], ["'marginal heating grid' (megajoule, DK, None)", -0.027374542007880722], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'mechanical disinfection' (unit, DK, None)", 0.012412665566335057], ["'autoclave' (unit, DK, None)", 0.026560339974758037], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394156068901795e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.4094326103588845e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.026560339974758037], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450612813591905], ["'marginal heating grid' (megajoule, DK, None)", -0.0014467097307567446]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'mechanical disinfection' (unit, DK, None)", 0.006206332783167528], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078034450853e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047163051794422e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.019920254981068523], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642033247442], ["'marginal heating grid' (megajoule, DK, None)", -0.00143466256770495]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.829168827838654e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929081463334e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547978168878826e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.89933691128862e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874307204355e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601656438133e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511034458437e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092275382697e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.829168827838654e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919593255978e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.41735319559402e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985445919217e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912741924134e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399944210107], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192066993824e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050912660695e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702196610066e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842664353325e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769258650233e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179742677875e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.216474541478184e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814344437697742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399944210107], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407304946418e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365197181434e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134797740049e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.529895109568883e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'mechanical disinfection' (unit, DK, None)", 2.86810135786533e-05], ["'autoclave' (unit, DK, None)", -3.658337655677309e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2961181226068994e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.867263023075831e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -3.658337655677309e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799792159662316e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.9224792373784055e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'mechanical disinfection' (unit, DK, None)", 1.434050678932665e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590613034427e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336315115379154e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -2.7437532417579813e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986253532043e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.898142922263026e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00013305167343317166], ["'waste polypropylene' (kilogram, CH, None)", 4.286217824996316e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467102741391e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375218936446e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914186063814e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705272271223e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338086347e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396867534e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00013305167343317166], ["'waste polypropylene' (kilogram, CH, None)", 2.844125846492883e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985439685244e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780684942606e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101583479290964e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.59735574945872e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607485737233e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.554671418109552e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642720103953988e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.339002776102422e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396376872266e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988965440853e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.43978949162187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770252638742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.59735574945872e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102796854e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724637264191e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428480069302663e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.892668517401614e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947844837337e-05], ["'autoclave' (unit, DK, None)", 0.0002661033468663434], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658173024250394e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393536779522e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.0002661033468663434], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.39736996058548e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.585713087530144e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'mechanical disinfection' (unit, DK, None)", 3.8614739224186685e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086512125189e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.153196768389761e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.0001995775101497575], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790954642355e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5641811198462465e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002716220503129679], ["'waste polypropylene' (kilogram, CH, None)", 6.352133528630832e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931895596341], ["'marginal heating grid' (megajoule, DK, None)", -0.000317128303876767], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921414950655587], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387138434472], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238524396341e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132076704114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002716220503129679], ["'waste polypropylene' (kilogram, CH, None)", 0.00042149671077830757], ["'waste polyethylene' (kilogram, CH, None)", 5.120887782042473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839287930397561], ["'marginal heating grid' (megajoule, DK, None)", -0.00211418869251178], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047208732205], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'waste polypropylene' (kilogram, CH, None)", 0.0001798781737546862], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306468940488e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00033641654267584363], ["'marginal heating grid' (megajoule, DK, None)", -0.0009072865505312611], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590300681209], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922455482393], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435169777149], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369332979353272], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047208732205], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'waste polypropylene' (kilogram, CH, None)", 0.001187314678248754], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058105464944], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427769511722925], ["'marginal heating grid' (megajoule, DK, None)", -0.00604857700354174], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'mechanical disinfection' (unit, DK, None)", 0.006515242097998756], ["'autoclave' (unit, DK, None)", 0.00543244100625936], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031171867687e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.323792695565377e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.00543244100625936], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001185279095534751], ["'marginal heating grid' (megajoule, DK, None)", -0.0003196596021857155]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'mechanical disinfection' (unit, DK, None)", 0.003257621048999378], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.87015585933841e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618963477826884e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.004074330754694519], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089396754153], ["'marginal heating grid' (megajoule, DK, None)", -0.00031699770583793277]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.11495178964016434], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800159526], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850689478584], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012335278325], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519318272677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054452737605579565], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970321660847], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.1042556201713489], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.11495178964016434], ["'waste polypropylene' (kilogram, CH, None)", 0.1147610026274078], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056265389], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004596523895], ["'marginal heating grid' (megajoule, DK, None)", -0.08703341556852218], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902804086997], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470135358544], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017209508914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355096213787], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966877450474], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978213681376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688017213267], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537832788519], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778032995744], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902804086997], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'waste polypropylene' (kilogram, CH, None)", 0.32327042993636], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634555873715], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236730809196], ["'marginal heating grid' (megajoule, DK, None)", -0.2489977918300316], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'mechanical disinfection' (unit, DK, None)", 0.26741303697822294], ["'autoclave' (unit, DK, None)", 0.22990357928032873], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824651026878e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002191610728573711]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.22990357928032873], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284625474087], ["'marginal heating grid' (megajoule, DK, None)", -0.013159216628126412]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'mechanical disinfection' (unit, DK, None)", 0.13370651848911147], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412325513431e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053642868555]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.1724276844602465], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805022189615], ["'marginal heating grid' (megajoule, DK, None)", -0.013049636091697726]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0012325867170950215], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934992006162e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590382167401403e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349141601152], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360313090275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266687670249], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695746347329], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958020774657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0012325867170950215], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854060116238e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816323540564542e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060254778267602e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.007714232761067435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467004805675], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'waste polypropylene' (kilogram, CH, None)", 5.493626451007353e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316980530583e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604700067124124e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0033104990375617204], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134525207528], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000732962395454153], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106421526912], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157188950608], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467004805675], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'waste polypropylene' (kilogram, CH, None)", 3.6261560732721804e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666926249841e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736466711416085e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993583744802], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'mechanical disinfection' (unit, DK, None)", 0.00110185338300352], ["'autoclave' (unit, DK, None)", 0.002465173434190044], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288736205856733e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407093852912e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.002465173434190044], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746751373952123e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.001166371092752919]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'mechanical disinfection' (unit, DK, None)", 0.00055092669150176], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443681029283622e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703546926456e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.0018488800756425324], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582314563659334e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583892059926]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.17693989128720167], ["'waste polypropylene' (kilogram, CH, None)", -6.194524749875135e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155588331333], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879474778726], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272625854205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376271339147415], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430747991568e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742637262906], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.17693989128720167], ["'waste polypropylene' (kilogram, CH, None)", -4.110385581692847e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555429665953e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103725554222], ["'marginal heating grid' (megajoule, DK, None)", -0.048939196498524844], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985175133248], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'waste polypropylene' (kilogram, CH, None)", -1.7541504665534263e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788139427236567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037969907947056], ["'marginal heating grid' (megajoule, DK, None)", -0.021001850465942162], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070634874092961], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627809820520095], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045781758048874], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659897820538], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985175133248], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578550934346049], ["'waste polyethylene' (kilogram, CH, None)", -1.5169004664330723e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646605298043], ["'marginal heating grid' (megajoule, DK, None)", -0.14001233643961442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'mechanical disinfection' (unit, DK, None)", 0.17642834190496381], ["'autoclave' (unit, DK, None)", 0.35387978257440345], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880268465339e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504414175345]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.35387978257440345], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951145199054], ["'marginal heating grid' (megajoule, DK, None)", -0.007399473916124847]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'mechanical disinfection' (unit, DK, None)", 0.08821417095248191], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401342326615e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752207087673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.2654098369308025], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667438567363], ["'marginal heating grid' (megajoule, DK, None)", -0.00733785639405397]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.0003262996258248639], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013788326443e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016946251461488e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262545192405245e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746275416489], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456519651667992e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020690974210625e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771460563086902e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.0003262996258248639], ["'waste polypropylene' (kilogram, CH, None)", 1.890989699973063e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629524565095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.77964167640992e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508363461603496e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488847746822613], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'waste polypropylene' (kilogram, CH, None)", 8.069998297068143e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895617031522e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270214453243e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371852453037234e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976302453775356], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.14710785632726e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030992191681054e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597594524813212e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488847746822613], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'waste polypropylene' (kilogram, CH, None)", 5.3267315492198965e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486748115208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180142968844], ["'marginal heating grid' (megajoule, DK, None)", -5.5812349686914896e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'mechanical disinfection' (unit, DK, None)", 0.00012895529843011744], ["'autoclave' (unit, DK, None)", 0.000652599251649728], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989346674972e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.9124509684104516e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.000652599251649728], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634529069182e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9496116999953042e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'mechanical disinfection' (unit, DK, None)", 6.447764921505872e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994673337463e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.4562254842052258e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0004894494387372958], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527458233583e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.925049445153252e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.8381428283523174e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803295596e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346818016522e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.218923757823886e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895018804374e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727843192814e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531022966723e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171575271337e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.8381428283523174e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264858627e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429329504e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564545344348e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949171882591e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348306423969e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321481921e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242770382e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931516688838e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.637483136508993e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883331071914e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821663978373e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328666158353e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819021727804e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348306423969e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.985345426720741e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520263567e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287677792564e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.758322091005995e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'mechanical disinfection' (unit, DK, None)", 1.206102859366087e-07], ["'autoclave' (unit, DK, None)", -3.676285656704636e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673732528364e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476272020787143e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -3.676285656704636e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914682888796e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.292508631306427e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030514296830434e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336866264174e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136010393571e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -2.757214242528476e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213142261626e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512727120249e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.0002406014485379755], ["'waste polypropylene' (kilogram, CH, None)", 6.539683631878085e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073070912404037e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890906376113e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625658181879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240111321366e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259608377471e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303862078796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.0002406014485379755], ["'waste polypropylene' (kilogram, CH, None)", 4.339416241713495e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478355835628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382047274936023e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345927270917409], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452205622064], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'waste polypropylene' (kilogram, CH, None)", 1.851891720055196e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690221044314e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317644908704171e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.869010629311113e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767580975487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654790786042e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556883403942e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719397768676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452205622064], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707723136608e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.533445336902342e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096605802786e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032460070862074084], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'mechanical disinfection' (unit, DK, None)", 0.00019474645685161061], ["'autoclave' (unit, DK, None)", 0.00048120289707595114], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8806429659226104e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.857047005466829e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.00048120289707595114], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305130348086215e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7154734630335326e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'mechanical disinfection' (unit, DK, None)", 9.737322842580531e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214829612986e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4285235027334146e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.00036090217280696326], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061098199790157e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701188228006198e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0004133497809497883], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434681384e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360424603675e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.364806017620218e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454830472067], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205983271205e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214316101667e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316793402096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0004133497809497883], ["'waste polypropylene' (kilogram, CH, None)", 2.96642939123718e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730663152096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573616402449e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022432040117468117], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529903910647], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'waste polypropylene' (kilogram, CH, None)", 1.265955078232205e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576875071582e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540485150777368e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626524052295825e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260284441248], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435483631782e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869236899951e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455434761155], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529903910647], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'waste polypropylene' (kilogram, CH, None)", 8.356139130245578e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961506506615e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360323433851594], ["'marginal heating grid' (megajoule, DK, None)", -0.000641768270153055], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'mechanical disinfection' (unit, DK, None)", 0.000468447753977553], ["'autoclave' (unit, DK, None)", 0.0008266995618995769], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160256491422953e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669475292866e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0008266995618995769], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70319743210582e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3916636890365525e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'mechanical disinfection' (unit, DK, None)", 0.0002342238769887765], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128245711455e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.824334737646433e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0006200246714246825], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396149648728e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3634203416600875e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.00042203544102070576], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453199233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744497621588e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.458244592980846e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968735994905], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456825763508e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910122209905e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426498482766e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.00042203544102070576], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255810948183e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.61906790370459e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496331747725e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002305496395320564], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175607401839], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951423545494e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900141936864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.814524330103127e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846652294478e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521001852871], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923899016201e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259032687715e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173235162723], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175607401839], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'waste polypropylene' (kilogram, CH, None)", 8.446832622802306e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006477459494e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763495534020863], ["'marginal heating grid' (megajoule, DK, None)", -0.0006595897768196319], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'mechanical disinfection' (unit, DK, None)", 0.0004793739737223222], ["'autoclave' (unit, DK, None)", 0.0008440708820414117], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515117590269852e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529521812792e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.0008440708820414117], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.91626875958834e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.485848085268133e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869868611611], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558795134905e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.902764760906396e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.0006330531615310587], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693171637013e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.456820437659069e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0005822019915678908], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827013333e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434754642156e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8357813201025755e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025765651068], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135754995981], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533311865485e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025136653118], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0005822019915678908], ["'waste polypropylene' (kilogram, CH, None)", 8.925176978672398e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.44755354378733e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089565030947705e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032238542134017175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367461559987], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135556869536e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440324492478e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513554166858e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013834903095701894], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884735365367], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798139853159], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.982607696421652e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648272262304], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367461559987], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134360189408], ["'waste polyethylene' (kilogram, CH, None)", 2.8459617965466647e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001633300903611125], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268730467929], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740578532478], ["'autoclave' (unit, DK, None)", 0.0011644039831357818], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.437586958918384e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.118069864655705e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.0011644039831357818], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.63178755585297e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8743802244841194e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870289266239], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934794591902e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.0590349323278527e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.0008733029873518362], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.55990820790707e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.83378987516084e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.919708389086207e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534083158e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912412400758e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129909656358e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873215662858e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294976678303e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998023590785e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420607302126e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.919708389086207e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036634619e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134450593e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812749416005055e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.410753273104239e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934463612432e-09], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226635352521e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932572536788e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469131194054e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.7511216212927167e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530573885529e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334395827904e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876983722671e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.370198893808806e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934463612432e-09], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652491887e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.939003748892269e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979420796042e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.834081080861811e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'mechanical disinfection' (unit, DK, None)", 1.950722522015646e-09], ["'autoclave' (unit, DK, None)", 3.8394167781724144e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787103702779e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.6143082010279938e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 3.8394167781724144e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.05401506600749e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.692885257827365e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'mechanical disinfection' (unit, DK, None)", 9.75361261007823e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758935518513806e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541005139969e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 2.87956258362931e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256130488986e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169847775964e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.3557946632761e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645467334e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8441339745121575e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.043271860660425e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.191811413744328e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979154617413e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276380705906e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419026153468e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.3557946632761e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567727366172e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728205264844e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562755983008105e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621812404402836e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507898287252e-06], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211297735143e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816478035948e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854845748682e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.845687867004676e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005634710857e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830465353378e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828785934792e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940918742164e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507898287252e-06], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202176722867e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573525448e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903230499127e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125244669784e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'mechanical disinfection' (unit, DK, None)", 2.5389554929696336e-07], ["'autoclave' (unit, DK, None)", 4.7115893265522015e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341478544029e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.430143469964547e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 4.7115893265522015e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817611734374e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0595811289987745e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694777464848168e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670739272006e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717349822735e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 3.53369199491415e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8425509043416634e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304116489515e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.002277034044264525], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808123419995e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758037346718e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043058082039944165], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249396967705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377921622355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144793360544], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791274896169], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.002277034044264525], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863334231956], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380551835423e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738386915644786], ["'marginal heating grid' (megajoule, DK, None)", -0.0028705388026629445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628552364363], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'waste polypropylene' (kilogram, CH, None)", 9.878595197566596e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077306126346e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340824438852537], ["'marginal heating grid' (megajoule, DK, None)", -0.001231867930075824], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692711067069], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01222356461847505], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211430187013], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074013792026], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628552364363], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524882882243], ["'waste polyethylene' (kilogram, CH, None)", 8.322717112588662e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227216292568367], ["'marginal heating grid' (megajoule, DK, None)", -0.00821245286717216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'mechanical disinfection' (unit, DK, None)", 0.003536637816022565], ["'autoclave' (unit, DK, None)", 0.004554068088529051], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062671493983e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.228377279701499e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.004554068088529051], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928307488596e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043401768960732635]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'mechanical disinfection' (unit, DK, None)", 0.0017683189080112825], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031335746977e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.6141886398507493e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.0034155510663967876], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117994131142e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043040350096747556]]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>H200 REC</t>
+  </si>
+  <si>
+    <t>H200 SU</t>
+  </si>
+  <si>
+    <t>H400 REC</t>
+  </si>
+  <si>
+    <t>H400 SU</t>
+  </si>
+  <si>
+    <t>alubox (large + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (large + wipe)</t>
+  </si>
+  <si>
+    <t>alubox (small + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (small + wipe)</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0004971124207826781], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812675779444e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483004844008e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425438505131843e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592060901423], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360043262512e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140436650648e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518466628264e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0004971124207826781], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389719442434e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943504655864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963220032293386e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018950292336754562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385768799599], ["'autoclave' (unit, DK, None)", 0.0009942248415653557], ["'waste polypropylene' (kilogram, CH, None)", 5.255722654916983e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351324665446e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.358701022563166e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360856280211e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279222439143], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593799428522e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039553819108e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502722896522], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001589385768799599], ["'autoclave' (unit, DK, None)", 0.0009942248415653557], ["'waste polypropylene' (kilogram, CH, None)", 3.469123864631672e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112279944476e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467348375445], ["'marginal heating grid' (megajoule, DK, None)", -0.0005421573904186807], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123324807071], ["'autoclave' (unit, DK, None)", 0.0013919147781914988], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384042920904262e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921649121219e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0013919147781914988], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.31028995311445e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.865232857940008e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'mechanical disinfection' (unit, DK, None)", 0.00026395616624035355], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214604521291e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608245606097e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087807069256e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732496944018e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.04397002325024296], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032840825], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851457044721], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033436765041], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649427325464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193839025874], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372722297375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535180831945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.04397002325024296], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629268211], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720529644214], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567638029813], ["'marginal heating grid' (megajoule, DK, None)", -0.03987355624510028], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752917304875], ["'autoclave' (unit, DK, None)", 0.08794004650048588], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896736169], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304336927], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00223950503935247], ["'marginal heating grid' (megajoule, DK, None)", -0.017111406106354286], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666229545247], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932126308758], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381378034736], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911318544211], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752917304875], ["'autoclave' (unit, DK, None)", 0.08794004650048588], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575403412], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488297224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930033595683144], ["'marginal heating grid' (megajoule, DK, None)", -0.11407604070902856], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'mechanical disinfection' (unit, DK, None)", 0.050951790000367744], ["'autoclave' (unit, DK, None)", 0.1231160651006803], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141008828142822e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040662322892321]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.1231160651006803], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890332878329691], ["'marginal heating grid' (megajoule, DK, None)", -0.00602877367199214]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'mechanical disinfection' (unit, DK, None)", 0.025475895000183872], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504414071393e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203311614461604e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627834188996], ["'marginal heating grid' (megajoule, DK, None)", -0.005978570360377678]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.019219650193724458], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261792392], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588120778632], ["'marginal heating grid' (megajoule, DK, None)", -0.001010942214869587], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119746702577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552577626400457], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735043812086], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853364669916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.019219650193724458], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409641002428], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520095640084], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587471857547], ["'marginal heating grid' (megajoule, DK, None)", -0.006739614765797248], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403296965695], ["'autoclave' (unit, DK, None)", 0.0384393003874489], ["'waste polypropylene' (kilogram, CH, None)", 0.00405952129749822], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172579899], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239962128737], ["'marginal heating grid' (megajoule, DK, None)", -0.002892249804583452], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167599928707679], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088639868139943], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497901781081], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882717380048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403296965695], ["'autoclave' (unit, DK, None)", 0.0384393003874489], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201154998], ["'waste polyethylene' (kilogram, CH, None)", 0.003472526686306985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159974752497], ["'marginal heating grid' (megajoule, DK, None)", -0.019281665363889675], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'mechanical disinfection' (unit, DK, None)", 0.03185291957685582], ["'autoclave' (unit, DK, None)", 0.05381502054242848], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226206525574e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971196557885305e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.05381502054242848], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556539051004], ["'marginal heating grid' (megajoule, DK, None)", -0.0010190114924700452]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'mechanical disinfection' (unit, DK, None)", 0.01592645978842791], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613103262702e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598278942652e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011040801847], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258941911024]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.022716064167393624], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899784608], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280089021427084], ["'marginal heating grid' (megajoule, DK, None)", -0.0012735798622066086], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733360836379447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920750990429534], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484382334474], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525117296026315], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.022716064167393624], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082682912], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355629345708], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059347618055], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532414710724], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575415011756], ["'autoclave' (unit, DK, None)", 0.045432128334787235], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227535956656], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052344894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572164221182], ["'marginal heating grid' (megajoule, DK, None)", -0.0036436415983119867], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661162557129], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216317507916], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796144859007], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540083387697], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575415011756], ["'autoclave' (unit, DK, None)", 0.045432128334787235], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952868427], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768752168789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714776147462], ["'marginal heating grid' (megajoule, DK, None)", -0.024290943988746577], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'mechanical disinfection' (unit, DK, None)", 0.03873192030681365], ["'autoclave' (unit, DK, None)", 0.06360497966870216], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146874022525e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1380227134407567e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.06360497966870216], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047657475738171703], ["'marginal heating grid' (megajoule, DK, None)", -0.0012837454970998194]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'mechanical disinfection' (unit, DK, None)", 0.019365960153406823], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.9685734370112525e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113567203784e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061839447069], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553835326155]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 1.7598613883951155], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178362766524], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248173623637], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613461893939], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807627730134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093580860915], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046211805763], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573132092247], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 1.7598613883951155], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594988377788], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454375346], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999498782415758], ["'marginal heating grid' (megajoule, DK, None)", -0.6173742307929293], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865545374508], ["'autoclave' (unit, DK, None)", 3.5197227767902297], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243401105206], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442526120342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052264843539], ["'marginal heating grid' (megajoule, DK, None)", -0.2649410330435236], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.016849828996892], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.1182241757346489], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.027361583499112267], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.296748538932176], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.158865545374508], ["'autoclave' (unit, DK, None)", 3.5197227767902297], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352079937432], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523198187078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368176562363], ["'marginal heating grid' (megajoule, DK, None)", -1.7662735536234908], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'mechanical disinfection' (unit, DK, None)", 2.140537961522276], ["'autoclave' (unit, DK, None)", 4.927611887506324], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874766581777], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546258628508756]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 4.927611887506324], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080867319204], ["'marginal heating grid' (megajoule, DK, None)", -0.09334531099989803]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'mechanical disinfection' (unit, DK, None)", 1.070268980761138], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437383290883], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129314254378]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936493486301], ["'marginal heating grid' (megajoule, DK, None)", -0.09256799806847257]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.01138300284632487], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584220727953], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001929658864855387], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536237909066], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930679170731], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942567096566], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428694948376], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959814702853], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.01138300284632487], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069903473688], ["'waste polyethylene' (kilogram, CH, None)", 8.017874157064716e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864392432369246], ["'marginal heating grid' (megajoule, DK, None)", -0.009568357491939378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337198844534], ["'autoclave' (unit, DK, None)", 0.02276600569264973], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249550355673], ["'waste polyethylene' (kilogram, CH, None)", 3.6284464892356145e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647365102546], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181294914506], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112939501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361124271217], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966770202123], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805581606438], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337198844534], ["'autoclave' (unit, DK, None)", 0.02276600569264973], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746206968138], ["'waste polyethylene' (kilogram, CH, None)", 0.000241528808857933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804315767350335], ["'marginal heating grid' (megajoule, DK, None)", -0.027374541966096705], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'mechanical disinfection' (unit, DK, None)", 0.012412665566335057], ["'autoclave' (unit, DK, None)", 0.03187240796970964], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394156068901795e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.4094326066811694e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.03187240796970964], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450612813591905], ["'marginal heating grid' (megajoule, DK, None)", -0.0014467097285485125]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'mechanical disinfection' (unit, DK, None)", 0.006206332783167528], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078034450853e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047163033405847e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642033247442], ["'marginal heating grid' (megajoule, DK, None)", -0.0014346625655151065]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.567858995290275e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929081463334e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547978168878826e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.899336905932254e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874307204355e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601656438133e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511034458437e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092275382697e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.567858995290275e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919593255978e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.41735319559402e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985445919217e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912706215028e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399944216296], ["'autoclave' (unit, DK, None)", -3.135717990580549e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192066993824e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050912660695e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702196610066e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842649029059e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769258650233e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179742677875e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.216474541478184e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814344437697742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001434399944216296], ["'autoclave' (unit, DK, None)", -3.135717990580549e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407304946418e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365197181434e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134797740049e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.529895099352706e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'mechanical disinfection' (unit, DK, None)", 2.86810135786533e-05], ["'autoclave' (unit, DK, None)", -4.39000518681277e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2961181226068994e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.86726301408383e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -4.39000518681277e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799792159662316e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.922479231979286e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'mechanical disinfection' (unit, DK, None)", 1.434050678932665e-05], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590613034427e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.433631507041915e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986253532043e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.8981429169088664e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00011404429151414714], ["'waste polypropylene' (kilogram, CH, None)", 4.286217824996316e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467102741391e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375101697107e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914186063814e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705272271223e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338086347e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396867534e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00011404429151414714], ["'waste polypropylene' (kilogram, CH, None)", 2.844125846492883e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985439685244e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780684942606e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101583401131408e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355749470606e-05], ["'autoclave' (unit, DK, None)", 0.00022808858302829417], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607485737233e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.554671418109552e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642720103953988e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.339002742560895e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396376872266e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988965440853e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.43978949162187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770252638742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.597355749470606e-05], ["'autoclave' (unit, DK, None)", 0.00022808858302829417], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102796854e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724637264191e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428480069302663e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.892668495040596e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947844837337e-05], ["'autoclave' (unit, DK, None)", 0.00031932401623961204], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658173024250394e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393517097963e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.00031932401623961204], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.39736996058548e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.585713075712631e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'mechanical disinfection' (unit, DK, None)", 3.8614739224186685e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086512125189e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.1531967585489817e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790954642355e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5641811081271407e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002328189002682582], ["'waste polypropylene' (kilogram, CH, None)", 6.352133528630832e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931895596341], ["'marginal heating grid' (megajoule, DK, None)", -0.0003171283040024058], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921414950655587], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387138434472], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238524396341e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132076704114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002328189002682582], ["'waste polypropylene' (kilogram, CH, None)", 0.00042149671077830757], ["'waste polyethylene' (kilogram, CH, None)", 5.120887782042473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839287930397561], ["'marginal heating grid' (megajoule, DK, None)", -0.002114188693349372], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047208453272], ["'autoclave' (unit, DK, None)", 0.004656378005365162], ["'waste polypropylene' (kilogram, CH, None)", 0.0001798781737546862], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306468940488e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00033641654267584363], ["'marginal heating grid' (megajoule, DK, None)", -0.0009072865508907068], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590300681209], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922455482393], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435169777149], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369332979353272], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01754047208453272], ["'autoclave' (unit, DK, None)", 0.004656378005365162], ["'waste polypropylene' (kilogram, CH, None)", 0.001187314678248754], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058105464944], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427769511722925], ["'marginal heating grid' (megajoule, DK, None)", -0.006048577005938045], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'mechanical disinfection' (unit, DK, None)", 0.006515242097998756], ["'autoclave' (unit, DK, None)", 0.00651892920751123], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031171867687e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.323792697674539e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.00651892920751123], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001185279095534751], ["'marginal heating grid' (megajoule, DK, None)", -0.00031965960231235713]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'mechanical disinfection' (unit, DK, None)", 0.003257621048999378], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.87015585933841e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618963488372694e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089396754153], ["'marginal heating grid' (megajoule, DK, None)", -0.0003169977059635198]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.09853010540585513], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800159526], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850689478584], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012286878167], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519318272677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054452737605579565], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970321660847], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.1042556201713489], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.09853010540585513], ["'waste polypropylene' (kilogram, CH, None)", 0.1147610026274078], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056265389], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004596523895], ["'marginal heating grid' (megajoule, DK, None)", -0.08703341524585445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902804270386], ["'autoclave' (unit, DK, None)", 0.1970602108117102], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470135358544], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017209508914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355096213787], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966863603457], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978213681376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688017213267], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537832788519], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778032995744], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.3534902804270386], ["'autoclave' (unit, DK, None)", 0.1970602108117102], ["'waste polypropylene' (kilogram, CH, None)", 0.32327042993636], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634555873715], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236730809196], ["'marginal heating grid' (megajoule, DK, None)", -0.24899779090689708], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'mechanical disinfection' (unit, DK, None)", 0.26741303697822294], ["'autoclave' (unit, DK, None)", 0.2758842951363944], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824651026878e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00021916107204485324]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.2758842951363944], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284625474087], ["'marginal heating grid' (megajoule, DK, None)", -0.013159216579339926]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'mechanical disinfection' (unit, DK, None)", 0.13370651848911147], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412325513431e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053602242662]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805022189615], ["'marginal heating grid' (megajoule, DK, None)", -0.013049636043317499]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0010565029003671612], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934992006162e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590382167401403e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.001157134911898548], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360313090275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266687670249], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695746347329], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958020774657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0010565029003671612], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854060116238e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816323540564542e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060254778267602e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00771423274599032], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467005289416], ["'autoclave' (unit, DK, None)", 0.002113005800734322], ["'waste polypropylene' (kilogram, CH, None)", 5.493626451007353e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316980530583e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604700067124124e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0033104990310915015], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134525207528], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000732962395454153], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106421526912], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157188950608], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467005289416], ["'autoclave' (unit, DK, None)", 0.002113005800734322], ["'waste polypropylene' (kilogram, CH, None)", 3.6261560732721804e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666926249841e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736466711416085e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993540610008], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'mechanical disinfection' (unit, DK, None)", 0.00110185338300352], ["'autoclave' (unit, DK, None)", 0.002958208121028052], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288736205856733e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407055886842e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.002958208121028052], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746751373952123e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011663710904733]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'mechanical disinfection' (unit, DK, None)", 0.00055092669150176], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443681029283622e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703527943421e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582314563659334e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583869453565]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.15166276396045855], ["'waste polypropylene' (kilogram, CH, None)", -6.194524749875135e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155588331333], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879508102228], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272625854205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376271339147415], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430747991568e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742637262906], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.15166276396045855], ["'waste polypropylene' (kilogram, CH, None)", -4.110385581692847e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555429665953e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103725554222], ["'marginal heating grid' (megajoule, DK, None)", -0.04893919672068152], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985196710944], ["'autoclave' (unit, DK, None)", 0.303325527920917], ["'waste polypropylene' (kilogram, CH, None)", -1.7541504665534263e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788139427236567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037969907947056], ["'marginal heating grid' (megajoule, DK, None)", -0.02100185056127886], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070634874092961], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627809820520095], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045781758048874], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659897820538], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985196710944], ["'autoclave' (unit, DK, None)", 0.303325527920917], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578550934346049], ["'waste polyethylene' (kilogram, CH, None)", -1.5169004664330723e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646605298043], ["'marginal heating grid' (megajoule, DK, None)", -0.14001233707519237], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'mechanical disinfection' (unit, DK, None)", 0.17642834190496381], ["'autoclave' (unit, DK, None)", 0.424655739089284], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880268465339e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504470117188]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.424655739089284], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951145199054], ["'marginal heating grid' (megajoule, DK, None)", -0.007399473949714335]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'mechanical disinfection' (unit, DK, None)", 0.08821417095248191], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401342326615e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752235058594e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667438567363], ["'marginal heating grid' (megajoule, DK, None)", -0.007337856427363748]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.00027968539356416905], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013788326443e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016946251461488e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262553415370442e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746275416489], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456519651667992e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020690974210625e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771460563086902e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.00027968539356416905], ["'waste polypropylene' (kilogram, CH, None)", 1.890989699973063e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629524565095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.77964167640992e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508368943580297e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847738535434], ["'autoclave' (unit, DK, None)", 0.0005593707871283379], ["'waste polypropylene' (kilogram, CH, None)", 8.069998297068143e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895617031522e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270214453243e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371854805582132e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976302453775356], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.14710785632726e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030992191681054e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597594524813212e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847738535434], ["'autoclave' (unit, DK, None)", 0.0005593707871283379], ["'waste polypropylene' (kilogram, CH, None)", 5.3267315492198965e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486748115208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180142968844], ["'marginal heating grid' (megajoule, DK, None)", -5.5812365370547545e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'mechanical disinfection' (unit, DK, None)", 0.00012895529843011744], ["'autoclave' (unit, DK, None)", 0.0007831191019796734], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989346674972e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.91245234884107e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0007831191019796734], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634529069182e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.949612528855344e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'mechanical disinfection' (unit, DK, None)", 6.447764921505872e-05], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994673337463e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.456226174420535e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527458233583e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.925050267111138e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.5755509957305577e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803295596e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346818016522e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21892375266443e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895018804374e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727843192814e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531022966723e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171575271337e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.5755509957305577e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264858627e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429329504e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564545344348e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949168442954e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348307337927e-08], ["'autoclave' (unit, DK, None)", -3.151101991461114e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321481921e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242770382e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931516688838e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.6374831350329014e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883331071914e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821663978373e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328666158353e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819021727804e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348307337927e-08], ["'autoclave' (unit, DK, None)", -3.151101991461114e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.985345426720741e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520263567e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287677792564e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.7583220900219342e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'mechanical disinfection' (unit, DK, None)", 1.206102859366087e-07], ["'autoclave' (unit, DK, None)", -4.411542788045562e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673732528364e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476272012125706e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -4.411542788045562e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914682888796e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.292508626105788e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030514296830434e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336866264174e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136006062853e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213142261626e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512726604516e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.00020622981303255043], ["'waste polypropylene' (kilogram, CH, None)", 6.539683631878085e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073070912404037e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890833260046e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625658181879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240111321366e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259608377471e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303862078796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.00020622981303255043], ["'waste polypropylene' (kilogram, CH, None)", 4.339416241713495e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478355835628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382047274936023e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345927222173364], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452210399818], ["'autoclave' (unit, DK, None)", 0.0004124596260651007], ["'waste polypropylene' (kilogram, CH, None)", 1.851891720055196e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690221044314e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317644908704171e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.86901060839301e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767580975487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654790786042e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556883403942e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719397768676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452210399818], ["'autoclave' (unit, DK, None)", 0.0004124596260651007], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707723136608e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.533445336902342e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096605802786e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032460070722620065], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'mechanical disinfection' (unit, DK, None)", 0.00019474645685161061], ["'autoclave' (unit, DK, None)", 0.0005774434764911412], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8806429659226104e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8570469931924663e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.0005774434764911412], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305130348086215e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.715473455663565e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'mechanical disinfection' (unit, DK, None)", 9.737322842580531e-05], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214829612986e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4285234965962332e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061098199790157e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7011882206976024e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0003542998122426757], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434681384e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360424603675e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.364806004552659e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454830472067], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205983271205e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214316101667e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316793402096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0003542998122426757], ["'waste polypropylene' (kilogram, CH, None)", 2.96642939123718e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730663152096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573616402449e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002243204003035106], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529904804517], ["'autoclave' (unit, DK, None)", 0.0007085996244853511], ["'waste polypropylene' (kilogram, CH, None)", 1.265955078232205e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576875071582e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540485150777368e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626524014910263e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260284441248], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435483631782e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869236899951e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455434761155], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529904804517], ["'autoclave' (unit, DK, None)", 0.0007085996244853511], ["'waste polypropylene' (kilogram, CH, None)", 8.356139130245578e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961506506615e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360323433851594], ["'marginal heating grid' (megajoule, DK, None)", -0.0006417682676606841], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'mechanical disinfection' (unit, DK, None)", 0.000468447753977553], ["'autoclave' (unit, DK, None)", 0.000992039474279492], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160256491422953e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669453355697e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.000992039474279492], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70319743210582e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.391663675864689e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'mechanical disinfection' (unit, DK, None)", 0.0002342238769887765], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128245711455e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8243347266778486e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396149648728e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3634203285979105e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.0003617446637320335], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453199233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744497621588e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.4582445799251364e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968735994905], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456825763508e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910122209905e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426498482766e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.0003617446637320335], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255810948183e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.61906790370459e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496331747725e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002305496386616758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175608306901], ["'autoclave' (unit, DK, None)", 0.0007234893274640667], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951423545494e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900141936864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.814524330103127e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846614942815e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521001852871], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923899016201e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259032687715e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173235162723], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001493175608306901], ["'autoclave' (unit, DK, None)", 0.0007234893274640667], ["'waste polypropylene' (kilogram, CH, None)", 8.446832622802306e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006477459494e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763495534020863], ["'marginal heating grid' (megajoule, DK, None)", -0.000659589774329521], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'mechanical disinfection' (unit, DK, None)", 0.0004793739737223222], ["'autoclave' (unit, DK, None)", 0.001012885058449694], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515117590269852e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529499895515e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.001012885058449694], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.91626875958834e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.485848072108213e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869868611611], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558795134905e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.9027647499477577e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693171637013e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.4568204246087354e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0004990302784867635], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827013333e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434754642156e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8357813253747044e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025765651068], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135754995981], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533311865485e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025136653118], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0004990302784867635], ["'waste polypropylene' (kilogram, CH, None)", 8.925176978672398e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.44755354378733e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089565030947705e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.000322385421691647], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00519036746155282], ["'autoclave' (unit, DK, None)", 0.0009980605569735266], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135556869536e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440324492478e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513554166858e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013834903110785163], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884735365367], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798139853159], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.982607696421652e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648272262304], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00519036746155282], ["'autoclave' (unit, DK, None)", 0.0009980605569735266], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134360189408], ["'waste polyethylene' (kilogram, CH, None)", 2.8459617965466647e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001633300903611125], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268740523442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740578532478], ["'autoclave' (unit, DK, None)", 0.001397284779762938], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.437586958918384e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.118069873506293e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.001397284779762938], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.63178755585297e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.87438022979833e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870289266239], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934794591902e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.0590349367531467e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.55990820790707e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.833789880430798e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.645464333502463e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534083158e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912412400758e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129921805339e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873215662858e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294976678303e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998023590785e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420607302126e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.645464333502463e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036634619e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134450593e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812749416005055e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.41075328120356e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934465808188e-09], ["'autoclave' (unit, DK, None)", 3.2909286670049246e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226635352521e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932572536788e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469131194054e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.751121624768473e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530573885529e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334395827904e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876983722671e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.370198893808806e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.679934465808188e-09], ["'autoclave' (unit, DK, None)", 3.2909286670049246e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652491887e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.939003748892269e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979420796042e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.8340810831789819e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'mechanical disinfection' (unit, DK, None)", 1.950722522015646e-09], ["'autoclave' (unit, DK, None)", 4.6073001338068965e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787103702779e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.6143082030675046e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 4.6073001338068965e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.05401506600749e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.692885270073319e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'mechanical disinfection' (unit, DK, None)", 9.75361261007823e-10], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758935518513806e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541015337523e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256130488986e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169859919942e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.0192525685223712e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645467334e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8441339745121575e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.043271851818843e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.191811413744328e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979154617413e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276380705906e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419026153468e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.0192525685223712e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567727366172e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728205264844e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562755983008105e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621812345458954e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507898599279e-06], ["'autoclave' (unit, DK, None)", 4.038505137044741e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211297735143e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816478035948e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854845748682e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.8456878417093985e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005634710857e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830465353378e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828785934792e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940918742164e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.261507898599279e-06], ["'autoclave' (unit, DK, None)", 4.038505137044741e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202176722867e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573525448e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903230499127e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125227806265e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'mechanical disinfection' (unit, DK, None)", 2.5389554929696336e-07], ["'autoclave' (unit, DK, None)", 5.65390719186264e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341478544029e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.4301434551217375e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 5.65390719186264e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817611734374e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0595811200866194e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694777464848168e-07], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670739272006e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717275608688e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8425509043416634e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304028110104e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.00195174346651245], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808123419995e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758037346718e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0004305808200506561], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249396967705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377921622355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144793360544], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791274896169], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.00195174346651245], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863334231956], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380551835423e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738386915644786], ["'marginal heating grid' (megajoule, DK, None)", -0.0028705388003377077], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628552357955], ["'autoclave' (unit, DK, None)", 0.0039034869330248985], ["'waste polypropylene' (kilogram, CH, None)", 9.878595197566596e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077306126346e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340824438852537], ["'marginal heating grid' (megajoule, DK, None)", -0.001231867929077968], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692711067069], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01222356461847505], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211430187013], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074013792026], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1607628552357955], ["'autoclave' (unit, DK, None)", 0.0039034869330248985], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524882882243], ["'waste polyethylene' (kilogram, CH, None)", 8.322717112588662e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227216292568367], ["'marginal heating grid' (megajoule, DK, None)", -0.008212452860519786], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'mechanical disinfection' (unit, DK, None)", 0.003536637816022565], ["'autoclave' (unit, DK, None)", 0.00546488170623486], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062671493983e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.22837727384626e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.00546488170623486], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928307488596e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043401768925575683]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'mechanical disinfection' (unit, DK, None)", 0.0017683189080112825], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031335746977e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.61418863692313e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117994131142e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043040350061883365]]</t>
   </si>
 </sst>
 </file>
@@ -938,79 +962,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1073,9 +1097,12 @@
       <c r="U2" t="s">
         <v>181</v>
       </c>
+      <c r="V2" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -1138,9 +1165,12 @@
       <c r="U3" t="s">
         <v>182</v>
       </c>
+      <c r="V3" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -1203,9 +1233,12 @@
       <c r="U4" t="s">
         <v>183</v>
       </c>
+      <c r="V4" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -1268,9 +1301,12 @@
       <c r="U5" t="s">
         <v>184</v>
       </c>
+      <c r="V5" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -1333,9 +1369,12 @@
       <c r="U6" t="s">
         <v>185</v>
       </c>
+      <c r="V6" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
@@ -1398,9 +1437,12 @@
       <c r="U7" t="s">
         <v>186</v>
       </c>
+      <c r="V7" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -1463,9 +1505,12 @@
       <c r="U8" t="s">
         <v>187</v>
       </c>
+      <c r="V8" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -1527,6 +1572,9 @@
       </c>
       <c r="U9" t="s">
         <v>188</v>
+      </c>
+      <c r="V9" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -103,508 +103,508 @@
     <t>alubox (small + wipe)</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0004971124207826781], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812675779444e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483004844008e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425438505131843e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592060901423], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360043262512e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140436650648e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518466628264e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509585530258], ["'autoclave' (unit, DK, None)", 0.0004971124207826781], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389719442434e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943504655864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963220032293386e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018950292336754562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838870379816e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385768799599], ["'autoclave' (unit, DK, None)", 0.0009942248415653557], ["'waste polypropylene' (kilogram, CH, None)", 5.255722654916983e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351324665446e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.358701022563166e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360856280211e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279222439143], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593799428522e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039553819108e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502722896522], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385768799599], ["'autoclave' (unit, DK, None)", 0.0009942248415653557], ["'waste polypropylene' (kilogram, CH, None)", 3.469123864631672e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112279944476e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467348375445], ["'marginal heating grid' (megajoule, DK, None)", -0.0005421573904186807], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861216681817]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123324807071], ["'autoclave' (unit, DK, None)", 0.0013919147781914988], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384042920904262e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921649121219e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007516779154697748], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0013919147781914988], ["'aluminium scrap' (kilogram, RER, None)", 5.802154952990689e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854366992268], ["'waste plastic, mixture' (kilogram, CH, None)", 4.7556748607563226e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.109217016580529e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.31028995311445e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.865232857940008e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'mechanical disinfection' (unit, DK, None)", 0.00026395616624035355], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214604521291e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859608245606097e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004487109941942407], ["'wet wipe' (unit, GLO, None)", 0.000230388196669463], ["'autoclave' (unit, DK, None)", 0.0007732859878841659], ["'aluminium scrap' (kilogram, RER, None)", 3.4644306984832115e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138216699131], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349721512645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024186093794e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.00049531493813e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732352235063e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.241087807069256e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8413732496944018e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.04397002325024296], ["'waste polypropylene' (kilogram, CH, None)", 0.02748207032840825], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851457044721], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033436765041], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649427325464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193839025874], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372722297375], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.042624535180831945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325567843465], ["'autoclave' (unit, DK, None)", 0.04397002325024296], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629268211], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720529644214], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567638029813], ["'marginal heating grid' (megajoule, DK, None)", -0.03987355624510028], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728848074254]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752917304875], ["'autoclave' (unit, DK, None)", 0.08794004650048588], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896736169], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304336927], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00223950503935247], ["'marginal heating grid' (megajoule, DK, None)", -0.017111406106354286], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666229545247], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932126308758], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381378034736], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911318544211], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752917304875], ["'autoclave' (unit, DK, None)", 0.08794004650048588], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575403412], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488297224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930033595683144], ["'marginal heating grid' (megajoule, DK, None)", -0.11407604070902856], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443745069226]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'mechanical disinfection' (unit, DK, None)", 0.050951790000367744], ["'autoclave' (unit, DK, None)", 0.1231160651006803], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141008828142822e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040662322892321]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1815866785748443], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.1231160651006803], ["'aluminium scrap' (kilogram, RER, None)", 0.006883554843857202], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613630284514], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003789874263462646], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157434214826], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890332878329691], ["'marginal heating grid' (megajoule, DK, None)", -0.00602877367199214]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'mechanical disinfection' (unit, DK, None)", 0.025475895000183872], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504414071393e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203311614461604e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10827348308776873], ["'wet wipe' (unit, GLO, None)", 0.05462332905729462], ["'autoclave' (unit, DK, None)", 0.06839781394482239], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127859211962], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0885453944509366], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526925292], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002576948680615645], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832866336603], ["'waste polyethylene' (kilogram, CH, None)", 0.033144876722575226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007824627834188996], ["'marginal heating grid' (megajoule, DK, None)", -0.005978570360377678]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.019219650193724458], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261792392], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588120778632], ["'marginal heating grid' (megajoule, DK, None)", -0.001010942214869587], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913119746702577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552577626400457], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735043812086], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853364669916], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0058766930876585], ["'autoclave' (unit, DK, None)", 0.019219650193724458], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409641002428], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520095640084], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587471857547], ["'marginal heating grid' (megajoule, DK, None)", -0.006739614765797248], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508227340463]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403296965695], ["'autoclave' (unit, DK, None)", 0.0384393003874489], ["'waste polypropylene' (kilogram, CH, None)", 0.00405952129749822], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718172579899], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239962128737], ["'marginal heating grid' (megajoule, DK, None)", -0.002892249804583452], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167599928707679], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088639868139943], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497901781081], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882717380048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403296965695], ["'autoclave' (unit, DK, None)", 0.0384393003874489], ["'waste polypropylene' (kilogram, CH, None)", 0.0267955201154998], ["'waste polyethylene' (kilogram, CH, None)", 0.003472526686306985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159974752497], ["'marginal heating grid' (megajoule, DK, None)", -0.019281665363889675], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028153098341]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'mechanical disinfection' (unit, DK, None)", 0.03185291957685582], ["'autoclave' (unit, DK, None)", 0.05381502054242848], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289226206525574e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971196557885305e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005367528914274854], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.05381502054242848], ["'aluminium scrap' (kilogram, RER, None)", 0.00130769002439711], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369756511916847], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011658619976e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436213998677646e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038601556539051004], ["'marginal heating grid' (megajoule, DK, None)", -0.0010190114924700452]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'mechanical disinfection' (unit, DK, None)", 0.01592645978842791], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2144613103262702e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485598278942652e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032012045045230427], ["'wet wipe' (unit, GLO, None)", 0.0016886972632109208], ["'autoclave' (unit, DK, None)", 0.02989723363468249], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135944881026], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0021152983727571965], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023317239952e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77891973683455e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429780192382e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352000340702], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003828011040801847], ["'marginal heating grid' (megajoule, DK, None)", -0.0010105258941911024]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.022716064167393624], ["'waste polypropylene' (kilogram, CH, None)", 0.002075454899784608], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280089021427084], ["'marginal heating grid' (megajoule, DK, None)", -0.0012735798622066086], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733360836379447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920750990429534], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484382334474], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525117296026315], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341065606205], ["'autoclave' (unit, DK, None)", 0.022716064167393624], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082682912], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355629345708], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059347618055], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532414710724], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399066999653]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575415011756], ["'autoclave' (unit, DK, None)", 0.045432128334787235], ["'waste polypropylene' (kilogram, CH, None)", 0.0058772227535956656], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132052344894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572164221182], ["'marginal heating grid' (megajoule, DK, None)", -0.0036436415983119867], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661162557129], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216317507916], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796144859007], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540083387697], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575415011756], ["'autoclave' (unit, DK, None)", 0.045432128334787235], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952868427], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768752168789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714776147462], ["'marginal heating grid' (megajoule, DK, None)", -0.024290943988746577], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266696592623]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'mechanical disinfection' (unit, DK, None)", 0.03873192030681365], ["'autoclave' (unit, DK, None)", 0.06360497966870216], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146874022525e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1380227134407567e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007372011915156417], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.06360497966870216], ["'aluminium scrap' (kilogram, RER, None)", 0.0018338351987097481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952903972500468], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976143630233e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521619774040491e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047657475738171703], ["'marginal heating grid' (megajoule, DK, None)", -0.0012837454970998194]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'mechanical disinfection' (unit, DK, None)", 0.019365960153406823], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.9685734370112525e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0690113567203784e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004397209736769797], ["'wet wipe' (unit, GLO, None)", 0.0017911167873107885], ["'autoclave' (unit, DK, None)", 0.03533609981594564], ["'aluminium scrap' (kilogram, RER, None)", 0.001094971611382835], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620983423855373], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952287260466e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260375560957777], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269835763285e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405451992685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004726061839447069], ["'marginal heating grid' (megajoule, DK, None)", -0.0012730553835326155]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 1.7598613883951155], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178362766524], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999248173623637], ["'marginal heating grid' (megajoule, DK, None)", -0.09260613461893939], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807627730134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093580860915], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046211805763], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573132092247], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931177910816], ["'autoclave' (unit, DK, None)", 1.7598613883951155], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594988377788], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454375346], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999498782415758], ["'marginal heating grid' (megajoule, DK, None)", -0.6173742307929293], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504147659155549]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865545374508], ["'autoclave' (unit, DK, None)", 3.5197227767902297], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243401105206], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442526120342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052264843539], ["'marginal heating grid' (megajoule, DK, None)", -0.2649410330435236], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.016849828996892], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.1182241757346489], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.027361583499112267], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.296748538932176], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865545374508], ["'autoclave' (unit, DK, None)", 3.5197227767902297], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352079937432], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523198187078], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368176562363], ["'marginal heating grid' (megajoule, DK, None)", -1.7662735536234908], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703869856196468]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'mechanical disinfection' (unit, DK, None)", 2.140537961522276], ["'autoclave' (unit, DK, None)", 4.927611887506324], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874766581777], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546258628508756]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.24711138401214153], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 4.927611887506324], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888585811684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560456609108994], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073513263268], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775162235952311], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02419080867319204], ["'marginal heating grid' (megajoule, DK, None)", -0.09334531099989803]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'mechanical disinfection' (unit, DK, None)", 1.070268980761138], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002014437383290883], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773129314254378]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14678160814125787], ["'wet wipe' (unit, GLO, None)", 0.14506379175203699], ["'autoclave' (unit, DK, None)", 2.7375621597257354], ["'aluminium scrap' (kilogram, RER, None)", 0.2754327297329839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0751181688722791], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00039600147026526536], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002974557605982544], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613092582133082], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135170738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02398936493486301], ["'marginal heating grid' (megajoule, DK, None)", -0.09256799806847257]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.01138300284632487], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584220727953], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001929658864855387], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352536237909066], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930679170731], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942567096566], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428694948376], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959814702853], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192404144263], ["'autoclave' (unit, DK, None)", 0.01138300284632487], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069903473688], ["'waste polyethylene' (kilogram, CH, None)", 8.017874157064716e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864392432369246], ["'marginal heating grid' (megajoule, DK, None)", -0.009568357491939378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001855042051521965]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337198844534], ["'autoclave' (unit, DK, None)", 0.02276600569264973], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249550355673], ["'waste polyethylene' (kilogram, CH, None)", 3.6284464892356145e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520647365102546], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181294914506], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112939501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361124271217], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966770202123], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805581606438], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337198844534], ["'autoclave' (unit, DK, None)", 0.02276600569264973], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746206968138], ["'waste polyethylene' (kilogram, CH, None)", 0.000241528808857933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804315767350335], ["'marginal heating grid' (megajoule, DK, None)", -0.027374541966096705], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00527747722885521]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'mechanical disinfection' (unit, DK, None)", 0.012412665566335057], ["'autoclave' (unit, DK, None)", 0.03187240796970964], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394156068901795e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.4094326066811694e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04210363986644737], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.03187240796970964], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105391151318], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03213334975444817], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429770444227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982672451946], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019450612813591905], ["'marginal heating grid' (megajoule, DK, None)", -0.0014467097285485125]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'mechanical disinfection' (unit, DK, None)", 0.006206332783167528], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197078034450853e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047163033405847e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.025044230836408516], ["'wet wipe' (unit, GLO, None)", 0.0325638738379376], ["'autoclave' (unit, DK, None)", 0.017706893316505355], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233337913334], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441438682495], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485954088845e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811990364631], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480708917153], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296879230455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019288642033247442], ["'marginal heating grid' (megajoule, DK, None)", -0.0014346625655151065]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.567858995290275e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929081463334e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547978168878826e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.899336905932254e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874307204355e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601656438133e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511034458437e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092275382697e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956204267672e-05], ["'autoclave' (unit, DK, None)", -1.567858995290275e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919593255978e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.41735319559402e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985445919217e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912706215028e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766177448635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399944216296], ["'autoclave' (unit, DK, None)", -3.135717990580549e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192066993824e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465050912660695e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702196610066e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842649029059e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769258650233e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179742677875e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.216474541478184e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814344437697742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001434399944216296], ["'autoclave' (unit, DK, None)", -3.135717990580549e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407304946418e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365197181434e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134797740049e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.529895099352706e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265169387096e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'mechanical disinfection' (unit, DK, None)", 2.86810135786533e-05], ["'autoclave' (unit, DK, None)", -4.39000518681277e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2961181226068994e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.86726301408383e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.47732872914224e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -4.39000518681277e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.915865262339413e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307040044158e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895451912587e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341173646028e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1799792159662316e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.922479231979286e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'mechanical disinfection' (unit, DK, None)", 1.434050678932665e-05], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590613034427e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.433631507041915e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.867584257649877e-05], ["'wet wipe' (unit, GLO, None)", 1.9581503382192752e-05], ["'autoclave' (unit, DK, None)", -2.4388917704515388e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.741045044355898e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185357704975e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429790903825173e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248971359716e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417651442965e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236794817021754e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1534986253532043e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.8981429169088664e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00011404429151414714], ["'waste polypropylene' (kilogram, CH, None)", 4.286217824996316e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370467102741391e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5652375101697107e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914186063814e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705272271223e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338086347e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134396867534e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816857589734e-06], ["'autoclave' (unit, DK, None)", 0.00011404429151414714], ["'waste polypropylene' (kilogram, CH, None)", 2.844125846492883e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4353985439685244e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780684942606e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101583401131408e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718102269604e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355749470606e-05], ["'autoclave' (unit, DK, None)", 0.00022808858302829417], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607485737233e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.554671418109552e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642720103953988e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.339002742560895e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396376872266e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988965440853e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.43978949162187e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770252638742e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355749470606e-05], ["'autoclave' (unit, DK, None)", 0.00022808858302829417], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102796854e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724637264191e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428480069302663e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.892668495040596e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185360570805e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947844837337e-05], ["'autoclave' (unit, DK, None)", 0.00031932401623961204], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658173024250394e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393517097963e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.973076482961174e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.00031932401623961204], ["'aluminium scrap' (kilogram, RER, None)", 4.9039567749072156e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179500206154e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320051496e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052341278904e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.39736996058548e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.585713075712631e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'mechanical disinfection' (unit, DK, None)", 3.8614739224186685e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086512125189e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.1531967585489817e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.559420191824945e-06], ["'wet wipe' (unit, GLO, None)", 9.715466389852625e-05], ["'autoclave' (unit, DK, None)", 0.00017740223124422888], ["'aluminium scrap' (kilogram, RER, None)", 2.928122143009328e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322278871856e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488640102992e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7218067098558984e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.678254584805908e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350934328624e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3690790954642355e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5641811081271407e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002328189002682582], ["'waste polypropylene' (kilogram, CH, None)", 6.352133528630832e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758931895596341], ["'marginal heating grid' (megajoule, DK, None)", -0.0003171283040024058], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921414950655587], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387138434472], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238524396341e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132076704114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.006116426127638029], ["'autoclave' (unit, DK, None)", 0.002328189002682582], ["'waste polypropylene' (kilogram, CH, None)", 0.00042149671077830757], ["'waste polyethylene' (kilogram, CH, None)", 5.120887782042473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839287930397561], ["'marginal heating grid' (megajoule, DK, None)", -0.002114188693349372], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138510458623]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047208453272], ["'autoclave' (unit, DK, None)", 0.004656378005365162], ["'waste polypropylene' (kilogram, CH, None)", 0.0001798781737546862], ["'waste polyethylene' (kilogram, CH, None)", 2.3174306468940488e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00033641654267584363], ["'marginal heating grid' (megajoule, DK, None)", -0.0009072865508907068], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590300681209], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922455482393], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435169777149], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369332979353272], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01754047208453272], ["'autoclave' (unit, DK, None)", 0.004656378005365162], ["'waste polypropylene' (kilogram, CH, None)", 0.001187314678248754], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058105464944], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022427769511722925], ["'marginal heating grid' (megajoule, DK, None)", -0.006048577005938045], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684501648425005]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'mechanical disinfection' (unit, DK, None)", 0.006515242097998756], ["'autoclave' (unit, DK, None)", 0.00651892920751123], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031171867687e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.323792697674539e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0317967811945136], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.00651892920751123], ["'aluminium scrap' (kilogram, RER, None)", 0.00041848980072481856], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.028961377462524772], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739316502947e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532866987673], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001185279095534751], ["'marginal heating grid' (megajoule, DK, None)", -0.00031965960231235713]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'mechanical disinfection' (unit, DK, None)", 0.003257621048999378], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.87015585933841e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618963488372694e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.018993855281630462], ["'wet wipe' (unit, GLO, None)", 0.001441630557066282], ["'autoclave' (unit, DK, None)", 0.0036216273375062388], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776617273685], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434365626778], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147863300589e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536388241639], ["'waste wipe incineration' (kilogram, CH, None)", 4.8189988154885385e-06], ["'waste polyethylene' (kilogram, CH, None)", 7.677809741989401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011754089396754153], ["'marginal heating grid' (megajoule, DK, None)", -0.0003169977059635198]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.09853010540585513], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800159526], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850689478584], ["'marginal heating grid' (megajoule, DK, None)", -0.013055012286878167], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519318272677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054452737605579565], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970321660847], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.1042556201713489], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933173298051], ["'autoclave' (unit, DK, None)", 0.09853010540585513], ["'waste polypropylene' (kilogram, CH, None)", 0.1147610026274078], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056265389], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004596523895], ["'marginal heating grid' (megajoule, DK, None)", -0.08703341524585445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016390726542638522]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902804270386], ["'autoclave' (unit, DK, None)", 0.1970602108117102], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470135358544], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017209508914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355096213787], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966863603457], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978213681376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688017213267], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537832788519], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778032995744], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902804270386], ["'autoclave' (unit, DK, None)", 0.1970602108117102], ["'waste polypropylene' (kilogram, CH, None)", 0.32327042993636], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634555873715], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236730809196], ["'marginal heating grid' (megajoule, DK, None)", -0.24899779090689708], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663057962605073]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'mechanical disinfection' (unit, DK, None)", 0.26741303697822294], ["'autoclave' (unit, DK, None)", 0.2758842951363944], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824651026878e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00021916107204485324]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16390950099089863], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.2758842951363944], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561762516846], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378067853040778], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594818359413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808185757495], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003843284625474087], ["'marginal heating grid' (megajoule, DK, None)", -0.013159216579339926]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'mechanical disinfection' (unit, DK, None)", 0.13370651848911147], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200412325513431e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010958053602242662]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0977804058954511], ["'wet wipe' (unit, GLO, None)", 0.04043778658089412], ["'autoclave' (unit, DK, None)", 0.15326905285355244], ["'aluminium scrap' (kilogram, RER, None)", 0.024812601276850914], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402738771637739], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118963671883], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0051298824527435125], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529254925724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519022385156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038112805022189615], ["'marginal heating grid' (megajoule, DK, None)", -0.013049636043317499]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0010565029003671612], ["'waste polypropylene' (kilogram, CH, None)", 1.9399934992006162e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590382167401403e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.001157134911898548], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360313090275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266687670249], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695746347329], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958020774657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498010742], ["'autoclave' (unit, DK, None)", 0.0010565029003671612], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854060116238e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816323540564542e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060254778267602e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00771423274599032], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748755303713]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467005289416], ["'autoclave' (unit, DK, None)", 0.002113005800734322], ["'waste polypropylene' (kilogram, CH, None)", 5.493626451007353e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316980530583e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604700067124124e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0033104990310915015], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134525207528], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000732962395454153], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106421526912], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004828157188950608], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467005289416], ["'autoclave' (unit, DK, None)", 0.002113005800734322], ["'waste polypropylene' (kilogram, CH, None)", 3.6261560732721804e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666926249841e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736466711416085e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993540610008], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00143597826271531]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'mechanical disinfection' (unit, DK, None)", 0.00110185338300352], ["'autoclave' (unit, DK, None)", 0.002958208121028052], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288736205856733e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407055886842e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.003174279361292885], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.002958208121028052], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713486387428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858723922934256], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856196969573e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.44007956912957e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9746751373952123e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011663710904733]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'mechanical disinfection' (unit, DK, None)", 0.00055092669150176], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443681029283622e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703527943421e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018842934347165247], ["'wet wipe' (unit, GLO, None)", 0.0013201850125669028], ["'autoclave' (unit, DK, None)", 0.0016434489561266954], ["'aluminium scrap' (kilogram, RER, None)", -7.942370536125649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932248764576], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712393939146e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358196056082], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558210276337e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016871969099e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9582314563659334e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011566583869453565]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.15166276396045855], ["'waste polypropylene' (kilogram, CH, None)", -6.194524749875135e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003858155588331333], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879508102228], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272625854205], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376271339147415], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986430747991568e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205742637262906], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332106336622], ["'autoclave' (unit, DK, None)", 0.15166276396045855], ["'waste polypropylene' (kilogram, CH, None)", -4.110385581692847e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035555429665953e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103725554222], ["'marginal heating grid' (megajoule, DK, None)", -0.04893919672068152], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900949877795]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985196710944], ["'autoclave' (unit, DK, None)", 0.303325527920917], ["'waste polypropylene' (kilogram, CH, None)", -1.7541504665534263e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788139427236567e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037969907947056], ["'marginal heating grid' (megajoule, DK, None)", -0.02100185056127886], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070634874092961], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627809820520095], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045781758048874], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659897820538], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981985196710944], ["'autoclave' (unit, DK, None)", 0.303325527920917], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578550934346049], ["'waste polyethylene' (kilogram, CH, None)", -1.5169004664330723e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646605298043], ["'marginal heating grid' (megajoule, DK, None)", -0.14001233707519237], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215491753208]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'mechanical disinfection' (unit, DK, None)", 0.17642834190496381], ["'autoclave' (unit, DK, None)", 0.424655739089284], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880268465339e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504470117188]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00486399215623748], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.424655739089284], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835457227988906], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001424868347966269], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888247653209885e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567915752458], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003888951145199054], ["'marginal heating grid' (megajoule, DK, None)", -0.007399473949714335]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'mechanical disinfection' (unit, DK, None)", 0.08821417095248191], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2384401342326615e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752235058594e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029072624464628613], ["'wet wipe' (unit, GLO, None)", 0.007110329403405222], ["'autoclave' (unit, DK, None)", 0.23591985504960222], ["'aluminium scrap' (kilogram, RER, None)", -0.00013037815940622173], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521465780604947], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177649530641977e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491936833636516], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291844267826e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498699014248805e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038565667438567363], ["'marginal heating grid' (megajoule, DK, None)", -0.007337856427363748]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.00027968539356416905], ["'waste polypropylene' (kilogram, CH, None)", 2.8498013788326443e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016946251461488e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262553415370442e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746275416489], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456519651667992e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0020690974210625e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771460563086902e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612647987361922], ["'autoclave' (unit, DK, None)", 0.00027968539356416905], ["'waste polypropylene' (kilogram, CH, None)", 1.890989699973063e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596629524565095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.77964167640992e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508368943580297e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002374473784084e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488847738535434], ["'autoclave' (unit, DK, None)", 0.0005593707871283379], ["'waste polypropylene' (kilogram, CH, None)", 8.069998297068143e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895617031522e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094270214453243e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371854805582132e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976302453775356], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.14710785632726e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030992191681054e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597594524813212e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488847738535434], ["'autoclave' (unit, DK, None)", 0.0005593707871283379], ["'waste polypropylene' (kilogram, CH, None)", 5.3267315492198965e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486748115208e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396180142968844], ["'marginal heating grid' (megajoule, DK, None)", -5.5812365370547545e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104472991117687e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'mechanical disinfection' (unit, DK, None)", 0.00012895529843011744], ["'autoclave' (unit, DK, None)", 0.0007831191019796734], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989346674972e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.91245234884107e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001992037492392039], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0007831191019796734], ["'aluminium scrap' (kilogram, RER, None)", -0.0001845452606899686], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877218108652], ["'waste plastic, mixture' (kilogram, CH, None)", 4.4574117573248883e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254213293163e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0250634529069182e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.949612528855344e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'mechanical disinfection' (unit, DK, None)", 6.447764921505872e-05], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994673337463e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.456226174420535e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001190042262699349], ["'wet wipe' (unit, GLO, None)", 7.156212978421176e-05], ["'autoclave' (unit, DK, None)", 0.0004350661677664852], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082936838282], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605290384868], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823514649777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.001593302359888e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543023831133e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088077879198893e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.016527458233583e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.925050267111138e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.5755509957305577e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.132159803295596e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346818016522e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21892375266443e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895018804374e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.022727843192814e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531022966723e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171575271337e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.10794365528885e-08], ["'autoclave' (unit, DK, None)", -1.5755509957305577e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976264858627e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429329504e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564545344348e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949168442954e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607145556658e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348307337927e-08], ["'autoclave' (unit, DK, None)", -3.151101991461114e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321481921e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242770382e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931516688838e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.6374831350329014e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883331071914e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821663978373e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328666158353e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819021727804e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348307337927e-08], ["'autoclave' (unit, DK, None)", -3.151101991461114e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.985345426720741e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536520263567e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287677792564e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.7583220900219342e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439184764378e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'mechanical disinfection' (unit, DK, None)", 1.206102859366087e-07], ["'autoclave' (unit, DK, None)", -4.411542788045562e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673732528364e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476272012125706e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.7864092295920897e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -4.411542788045562e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.089559594005786e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687318395463e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220039880062e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0893977288050586e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.733914682888796e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.292508626105788e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030514296830434e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336866264174e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738136006062853e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.2536168023481187e-08], ["'wet wipe' (unit, GLO, None)", 9.85121517140695e-08], ["'autoclave' (unit, DK, None)", -2.450857104469756e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.247663060093283e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6714792137566132e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440079760124e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905843973271e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359620438e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747977567525e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7028213142261626e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.21512726604516e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.00020622981303255043], ["'waste polypropylene' (kilogram, CH, None)", 6.539683631878085e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073070912404037e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7018890833260046e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625658181879], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240111321366e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259608377471e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952303862078796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002937187526076833], ["'autoclave' (unit, DK, None)", 0.00020622981303255043], ["'waste polypropylene' (kilogram, CH, None)", 4.339416241713495e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478355835628e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382047274936023e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345927222173364], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.1066626318764345e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452210399818], ["'autoclave' (unit, DK, None)", 0.0004124596260651007], ["'waste polypropylene' (kilogram, CH, None)", 1.851891720055196e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690221044314e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317644908704171e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.86901060839301e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00033925767580975487], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.931654790786042e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556883403942e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719397768676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452210399818], ["'autoclave' (unit, DK, None)", 0.0004124596260651007], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707723136608e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.533445336902342e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545096605802786e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032460070722620065], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195272332008]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'mechanical disinfection' (unit, DK, None)", 0.00019474645685161061], ["'autoclave' (unit, DK, None)", 0.0005774434764911412], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8806429659226104e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8570469931924663e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003462123633881376], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.0005774434764911412], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575566480924e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029167358543930906], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705455837314e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498783034724e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9305130348086215e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.715473455663565e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'mechanical disinfection' (unit, DK, None)", 9.737322842580531e-05], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403214829612986e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4285234965962332e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020666454405354208], ["'wet wipe' (unit, GLO, None)", 7.24035885347384e-05], ["'autoclave' (unit, DK, None)", 0.0003208019313839673], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565595838015e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443621938651306], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741091167463e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.285281437634745e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.87332385892615e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216517002523e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9061098199790157e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.7011882206976024e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0003542998122426757], ["'waste polypropylene' (kilogram, CH, None)", 4.470534434681384e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626360424603675e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.364806004552659e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454830472067], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205983271205e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098214316101667e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316793402096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848613104029], ["'autoclave' (unit, DK, None)", 0.0003542998122426757], ["'waste polypropylene' (kilogram, CH, None)", 2.96642939123718e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730663152096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417573616402449e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002243204003035106], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517564027853e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529904804517], ["'autoclave' (unit, DK, None)", 0.0007085996244853511], ["'waste polypropylene' (kilogram, CH, None)", 1.265955078232205e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576875071582e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7540485150777368e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626524014910263e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260284441248], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435483631782e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869236899951e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455434761155], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529904804517], ["'autoclave' (unit, DK, None)", 0.0007085996244853511], ["'waste polypropylene' (kilogram, CH, None)", 8.356139130245578e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961506506615e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360323433851594], ["'marginal heating grid' (megajoule, DK, None)", -0.0006417682676606841], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651320028500328e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'mechanical disinfection' (unit, DK, None)", 0.000468447753977553], ["'autoclave' (unit, DK, None)", 0.000992039474279492], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160256491422953e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669453355697e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044894599093045067], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.000992039474279492], ["'aluminium scrap' (kilogram, RER, None)", 1.76735869906145e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00038247741531320976], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828766836625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955658335589e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70319743210582e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.391663675864689e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'mechanical disinfection' (unit, DK, None)", 0.0002342238769887765], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128245711455e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8243347266778486e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002678584791496801], ["'wet wipe' (unit, GLO, None)", 0.0010830399602792167], ["'autoclave' (unit, DK, None)", 0.0005511330412663844], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789061767177e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022874170874086257], ["'waste plastic, mixture' (kilogram, CH, None)", 2.01365753367325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417303123678338e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688161015706e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346137941648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.622396149648728e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3634203285979105e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.0003617446637320335], ["'waste polypropylene' (kilogram, CH, None)", 4.519055453199233e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837744497621588e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.4582445799251364e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968735994905], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0062456825763508e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536910122209905e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426498482766e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374157356989], ["'autoclave' (unit, DK, None)", 0.0003617446637320335], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255810948183e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.61906790370459e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496331747725e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002305496386616758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975379379565078e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175608306901], ["'autoclave' (unit, DK, None)", 0.0007234893274640667], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951423545494e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900141936864e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.814524330103127e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846614942815e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521001852871], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923899016201e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885259032687715e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173235162723], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175608306901], ["'autoclave' (unit, DK, None)", 0.0007234893274640667], ["'waste polypropylene' (kilogram, CH, None)", 8.446832622802306e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006477459494e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763495534020863], ["'marginal heating grid' (megajoule, DK, None)", -0.000659589774329521], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324703237026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'mechanical disinfection' (unit, DK, None)", 0.0004793739737223222], ["'autoclave' (unit, DK, None)", 0.001012885058449694], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515117590269852e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529499895515e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00046219116553120385], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.001012885058449694], ["'aluminium scrap' (kilogram, RER, None)", 1.8810879417008305e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133073986205], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159398468431e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078864975621e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.91626875958834e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.485848072108213e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869868611611], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257558795134905e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.9027647499477577e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027576742385183796], ["'wet wipe' (unit, GLO, None)", 0.0016808440352460252], ["'autoclave' (unit, DK, None)", 0.000562713921360941], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859308438247e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023438487090599], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318796936862e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610824806918e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744352988308e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112812982122e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.833693171637013e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.4568204246087354e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0004990302784867635], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618827013333e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434754642156e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8357813253747044e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025765651068], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135754995981], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533311865485e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025136653118], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981150043788], ["'autoclave' (unit, DK, None)", 0.0004990302784867635], ["'waste polypropylene' (kilogram, CH, None)", 8.925176978672398e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.44755354378733e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089565030947705e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.000322385421691647], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821062618516]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00519036746155282], ["'autoclave' (unit, DK, None)", 0.0009980605569735266], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135556869536e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440324492478e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513554166858e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013834903110785163], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884735365367], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003334798139853159], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.982607696421652e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648272262304], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00519036746155282], ["'autoclave' (unit, DK, None)", 0.0009980605569735266], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134360189408], ["'waste polyethylene' (kilogram, CH, None)", 2.8459617965466647e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001633300903611125], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268740523442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00037680677643335585]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740578532478], ["'autoclave' (unit, DK, None)", 0.001397284779762938], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.437586958918384e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.118069873506293e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015368553710744205], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.001397284779762938], ["'aluminium scrap' (kilogram, RER, None)", 9.403572052913184e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436523665368], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349110175724e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168506352986e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.63178755585297e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.87438022979833e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870289266239], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934794591902e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.0590349367531467e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009141905324054208], ["'wet wipe' (unit, GLO, None)", 0.010861422353810468], ["'autoclave' (unit, DK, None)", 0.000776269322090521], ["'aluminium scrap' (kilogram, RER, None)", 5.614814488661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071912623238], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698220351448e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.14529368067396e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922956019536e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832686008514e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.55990820790707e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.833789880430798e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.645464333502463e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534083158e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.021912412400758e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129921805339e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873215662858e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093294976678303e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393998023590785e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.196420607302126e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891656317931e-10], ["'autoclave' (unit, DK, None)", 1.645464333502463e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036634619e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784134450593e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812749416005055e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.41075328120356e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764401065068e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934465808188e-09], ["'autoclave' (unit, DK, None)", 3.2909286670049246e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226635352521e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932572536788e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469131194054e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.751121624768473e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530573885529e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334395827904e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.624876983722671e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.370198893808806e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934465808188e-09], ["'autoclave' (unit, DK, None)", 3.2909286670049246e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652491887e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.939003748892269e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979420796042e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.8340810831789819e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6608022773916124e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'mechanical disinfection' (unit, DK, None)", 1.950722522015646e-09], ["'autoclave' (unit, DK, None)", 4.6073001338068965e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787103702779e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.6143082030675046e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.214234328310664e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 4.6073001338068965e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.039343437295966e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517647980959486e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229633078633e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037218447645e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.05401506600749e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.692885270073319e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'mechanical disinfection' (unit, DK, None)", 9.75361261007823e-10], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758935518513806e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541015337523e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.900094696676921e-10], ["'wet wipe' (unit, GLO, None)", 4.979514050091314e-10], ["'autoclave' (unit, DK, None)", 2.5596111854482755e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118668872625844e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.897897958014714e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459266157266e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.92717847868777e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.4860285798942184e-12], ["'waste polyethylene' (kilogram, CH, None)", 9.650749252477505e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.020256130488986e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.612169859919942e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.0192525685223712e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.0105531645467334e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8441339745121575e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.043271851818843e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.191811413744328e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.357979154617413e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.5579276380705906e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419026153468e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.40141994645053e-07], ["'autoclave' (unit, DK, None)", 2.0192525685223712e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567727366172e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728205264844e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562755983008105e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621812345458954e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.0034604565959483e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507898599279e-06], ["'autoclave' (unit, DK, None)", 4.038505137044741e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211297735143e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816478035948e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854845748682e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.8456878417093985e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005634710857e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830465353378e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828785934792e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940918742164e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507898599279e-06], ["'autoclave' (unit, DK, None)", 4.038505137044741e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202176722867e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573525448e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903230499127e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125227806265e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.138959161544227e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'mechanical disinfection' (unit, DK, None)", 2.5389554929696336e-07], ["'autoclave' (unit, DK, None)", 5.65390719186264e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341478544029e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.4301434551217375e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.328228040893419e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 5.65390719186264e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226134187837e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.4724274270087955e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.594387997343364e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484588127234e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.874817611734374e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0595811200866194e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'mechanical disinfection' (unit, DK, None)", 1.2694777464848168e-07], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670739272006e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7150717275608688e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.17968583945337e-07], ["'wet wipe' (unit, GLO, None)", 1.353680540709169e-07], ["'autoclave' (unit, DK, None)", 3.1410595510348e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7334961971800398e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6747479744280694e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775994686728e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981769485251e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051795551103e-09], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669014949e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8425509043416634e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0424304028110104e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.00195174346651245], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808123419995e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758037346718e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0004305808200506561], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249396967705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377921622355], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144793360544], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791274896169], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384656616871], ["'autoclave' (unit, DK, None)", 0.00195174346651245], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863334231956], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380551835423e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738386915644786], ["'marginal heating grid' (megajoule, DK, None)", -0.0028705388003377077], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.15861597627025e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628552357955], ["'autoclave' (unit, DK, None)", 0.0039034869330248985], ["'waste polypropylene' (kilogram, CH, None)", 9.878595197566596e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077306126346e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340824438852537], ["'marginal heating grid' (megajoule, DK, None)", -0.001231867929077968], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692711067069], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01222356461847505], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211430187013], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074013792026], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1607628552357955], ["'autoclave' (unit, DK, None)", 0.0039034869330248985], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524882882243], ["'waste polyethylene' (kilogram, CH, None)", 8.322717112588662e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227216292568367], ["'marginal heating grid' (megajoule, DK, None)", -0.008212452860519786], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520872666667578e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'mechanical disinfection' (unit, DK, None)", 0.003536637816022565], ["'autoclave' (unit, DK, None)", 0.00546488170623486], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762062671493983e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.22837727384626e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008637509767303885], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.00546488170623486], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917405322989], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999689974286], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799847118507e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.15181710189105e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.461928307488596e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043401768925575683]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'mechanical disinfection' (unit, DK, None)", 0.0017683189080112825], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031335746977e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.61418863692313e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005117893125066074], ["'wet wipe' (unit, GLO, None)", 0.012600254469592833], ["'autoclave' (unit, DK, None)", 0.0030360453923527], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372083495364], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464519981486708], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599694237014e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274908862440752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.600437282167206e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356919050978e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.408117994131142e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043040350061883365]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509606354026], ["'autoclave' (unit, DK, None)", 0.0004971124513474341], ["'waste polypropylene' (kilogram, CH, None)", 1.855981269126108e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732429620416e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483159700848e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.8425437163225612e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002802659215357268], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9546360140914084e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140089354082e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.795518673847759e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838831811919e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509606354026], ["'autoclave' (unit, DK, None)", 0.0004971124513474341], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389729715295e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4805943556269766e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.496322106467232e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001895029144215041], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838831811919e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0015893857750737604], ["'autoclave' (unit, DK, None)", 0.0009942249026948678], ["'waste polypropylene' (kilogram, CH, None)", 5.255722659301035e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351348023043e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.358701066866852e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.132360472368255e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279248522113], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593828818801e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039449200197e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508503306613407], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861106958592]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0015893857750737604], ["'autoclave' (unit, DK, None)", 0.0009942249026948678], ["'waste polypropylene' (kilogram, CH, None)", 3.4691238675254355e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112295492542e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001572467377911236], ["'marginal heating grid' (megajoule, DK, None)", -0.0005421573648245503], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016872861106958592]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007453050983382416], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123143091455], ["'autoclave' (unit, DK, None)", 0.0013919148637728156], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549789075376e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854437884033], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674886654262e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170093673558e-05], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.38404294690086e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921423848657e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007453050983382416], ["'wet wipe' (unit, GLO, None)", 0.00029122168060537803], ["'autoclave' (unit, DK, None)", 0.0013919148637728156], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549789075376e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854437884033], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674886654262e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170093673558e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495315866535e-06], ["'waste polyethylene' (kilogram, CH, None)", 4.154625151965656e-06], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5006303325215058e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.1738929410182914e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004423504789292443], ["'mechanical disinfection' (unit, DK, None)", 0.00026395615715457275], ["'autoclave' (unit, DK, None)", 0.000773286035429342], ["'aluminium scrap' (kilogram, RER, None)", 3.464430713958001e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138259096154], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349773308523e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.856202406538604e-05], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214734504282e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859607119243283e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004423504789292443], ["'wet wipe' (unit, GLO, None)", 0.00029122168060537803], ["'autoclave' (unit, DK, None)", 0.000773286035429342], ["'aluminium scrap' (kilogram, RER, None)", 3.464430713958001e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138259096154], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349773308523e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.856202406538604e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495315866535e-06], ["'waste polyethylene' (kilogram, CH, None)", 4.154625151965656e-06], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4937101177870006e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.150033333899047e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.218332557054139], ["'autoclave' (unit, DK, None)", 0.0439700272167516], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070328945465], ["'waste polyethylene' (kilogram, CH, None)", 0.0331448767234401], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851966925253], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033202105601], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1290664944457786], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193854607851], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372732191876], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453567387113], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728787261765]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.218332557054139], ["'autoclave' (unit, DK, None)", 0.0439700272167516], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629303858], ["'waste polyethylene' (kilogram, CH, None)", 0.02210672053022106], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567977950168], ["'marginal heating grid' (megajoule, DK, None)", -0.03987355468070401], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728787261765]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.625175292571358], ["'autoclave' (unit, DK, None)", 0.08794005443350315], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896888296], ["'waste polyethylene' (kilogram, CH, None)", 0.010004279304597977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022395051852264723], ["'marginal heating grid' (megajoule, DK, None)", -0.017111405435006596], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666234401054], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040529321309984795], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381407840724], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911457428489], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443727768458]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.625175292571358], ["'autoclave' (unit, DK, None)", 0.08794005443350315], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575503825], ["'waste polyethylene' (kilogram, CH, None)", 0.06659383488470993], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034568176494], ["'marginal heating grid' (megajoule, DK, None)", -0.1140760362333773], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443727768458]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.18020492757515427], ["'mechanical disinfection' (unit, DK, None)", 0.05095178397201392], ["'autoclave' (unit, DK, None)", 0.12311607620690448], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355487913415], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613751089897], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742637434534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157320480077], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141009684104974e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040661928957691]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.18020492757515427], ["'wet wipe' (unit, GLO, None)", 0.08053966671666475], ["'autoclave' (unit, DK, None)", 0.12311607620690448], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355487913415], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613751089897], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742637434534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157320480077], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286925153], ["'waste polyethylene' (kilogram, CH, None)", 0.06203261331726405], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001424796663722265], ["'marginal heating grid' (megajoule, DK, None)", -0.010886455426059188]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10689790157238184], ["'mechanical disinfection' (unit, DK, None)", 0.02547589198600696], ["'autoclave' (unit, DK, None)", 0.06839782011494693], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127880275608], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539517341663], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527486907], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769486615828756], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504842052469e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203309644788455e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10689790157238184], ["'wet wipe' (unit, GLO, None)", 0.08053966671666475], ["'autoclave' (unit, DK, None)", 0.06839782011494693], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127880275608], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539517341663], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527486907], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769486615828756], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286925153], ["'waste polyethylene' (kilogram, CH, None)", 0.06203261331726405], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0014182261588802116], ["'marginal heating grid' (megajoule, DK, None)", -0.010836252116414398]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693216440328], ["'autoclave' (unit, DK, None)", 0.01921964937433718], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603264266597], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200538238], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829587830932697], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109421779916983], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002191312037558076], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552578263955686], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173505008988], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853445825685], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508353372744]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.005876693216440328], ["'autoclave' (unit, DK, None)", 0.01921964937433718], ["'waste polypropylene' (kilogram, CH, None)", 0.00951240964264419], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520099002746], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530585539551313], ["'marginal heating grid' (megajoule, DK, None)", -0.006739614519944656], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508353372744]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.016824033366016622], ["'autoclave' (unit, DK, None)", 0.03843929874867435], ["'waste polypropylene' (kilogram, CH, None)", 0.00405952129819886], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718174101654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239132895534], ["'marginal heating grid' (megajoule, DK, None)", -0.00289224969907785], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006167600105709816], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007088640060025497], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497903672192], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948882945987847], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028511652205]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.016824033366016622], ["'autoclave' (unit, DK, None)", 0.03843929874867435], ["'waste polypropylene' (kilogram, CH, None)", 0.026795520120124483], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266873199463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0073041594219303615], ["'marginal heating grid' (megajoule, DK, None)", -0.019281664660518998], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028511652205]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005389153397282496], ["'mechanical disinfection' (unit, DK, None)", 0.03185291871222994], ["'autoclave' (unit, DK, None)", 0.05381501824814411], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900303205928], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369758277820924], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116606304296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436216355800376e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289221340735746e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971195938797594e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005389153397282496], ["'wet wipe' (unit, GLO, None)", 0.002312561514529465], ["'autoclave' (unit, DK, None)", 0.05381501824814411], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900303205928], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369758277820924], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116606304296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436216355800376e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429789769801e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0032346823936678956], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006970474132621514], ["'marginal heating grid' (megajoule, DK, None)", -0.0018400795627008632]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032232687141426006], ["'mechanical disinfection' (unit, DK, None)", 0.01592645935611497], ["'autoclave' (unit, DK, None)", 0.02989723236008006], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135980249774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298478367593], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321260859e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.778920131283684e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461067036779e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485597969398797e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032232687141426006], ["'wet wipe' (unit, GLO, None)", 0.002312561514529465], ["'autoclave' (unit, DK, None)", 0.02989723236008006], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135980249774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298478367593], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321260859e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.778920131283684e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429789769801e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0032346823936678956], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006938329521951141], ["'marginal heating grid' (megajoule, DK, None)", -0.001831593964731464]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341237572266], ["'autoclave' (unit, DK, None)", 0.022716063064180173], ["'waste polypropylene' (kilogram, CH, None)", 0.0020754549001144314], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054526759454], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008510711305], ["'marginal heating grid' (megajoule, DK, None)", -0.0012735798126265194], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733361672985453], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920751838226556], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484381444121], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511835683189], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00045563992356158754]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341237572266], ["'autoclave' (unit, DK, None)", 0.022716063064180173], ["'waste polypropylene' (kilogram, CH, None)", 0.01377171008487146], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355633902868], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003152005673807537], ["'marginal heating grid' (megajoule, DK, None)", -0.008490532084176796], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00045563992356158754]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575467680386], ["'autoclave' (unit, DK, None)", 0.045432126128360326], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222754529652], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132054407212], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526571044357573], ["'marginal heating grid' (megajoule, DK, None)", -0.003643641456466092], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661398025707], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216572670127], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796142176927], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.019584540382206167], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266744562871]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575467680386], ["'autoclave' (unit, DK, None)", 0.045432126128360326], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354953484919], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768753541578], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714029571721], ["'marginal heating grid' (megajoule, DK, None)", -0.024290943043107277], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001296266744562871]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007400791086289904], ["'mechanical disinfection' (unit, DK, None)", 0.03873191916609001], ["'autoclave' (unit, DK, None)", 0.06360497657970449], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835206817194], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904209149261], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976170804192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620089395515e-05], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146216906898e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.138022630208162e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007400791086289904], ["'wet wipe' (unit, GLO, None)", 0.0026208116544002916], ["'autoclave' (unit, DK, None)", 0.06360497657970449], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835206817194], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904209149261], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976170804192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620089395515e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269963053485e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.004683401030696265], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000860574622588065], ["'marginal heating grid' (megajoule, DK, None)", -0.002318122871614619]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004426557933451473], ["'mechanical disinfection' (unit, DK, None)", 0.019365959583045007], ["'autoclave' (unit, DK, None)", 0.03533609809983582], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716162237406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984839140224], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952341608384e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376088683863], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573108453439e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.069011315104081e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004426557933451473], ["'wet wipe' (unit, GLO, None)", 0.0026208116544002916], ["'autoclave' (unit, DK, None)", 0.03533609809983582], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716162237406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984839140224], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952341608384e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376088683863], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269963053485e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.004683401030696265], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000856606049479611], ["'marginal heating grid' (megajoule, DK, None)", -0.002307432758463578]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931416780268], ["'autoclave' (unit, DK, None)", 1.7598611959389336], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178367142978], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621146388641], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999242160823445], ["'marginal heating grid' (megajoule, DK, None)", -0.09260612809818344], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807737396949], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093692386483], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083045744204493], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573840613741], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504149862196488]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931416780268], ["'autoclave' (unit, DK, None)", 1.7598611959389336], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594991281789], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023461857378], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999494773882297], ["'marginal heating grid' (megajoule, DK, None)", -0.6173741873212231], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504149862196488]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.1588656174702603], ["'autoclave' (unit, DK, None)", 3.519722391877866], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243413498342], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442529506296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866050544614635], ["'marginal heating grid' (megajoule, DK, None)", -0.2649410143880013], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0168498598633797], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822417909124365], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.027361582090519723], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.296748558890528], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.027038704829476717]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.1588656174702603], ["'autoclave' (unit, DK, None)", 3.519722391877866], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352088117717], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523220725798], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.45773670297430935], ["'marginal heating grid' (megajoule, DK, None)", -1.7662734292533417], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.027038704829476717]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2598027187771365], ["'mechanical disinfection' (unit, DK, None)", 2.1405378488222087], ["'autoclave' (unit, DK, None)", 4.927611348629014], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888742337676], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560459461265142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0001980007394502002], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775166356196596], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028873757182699], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546257533836586]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2598027187771365], ["'wet wipe' (unit, GLO, None)", 0.21190830633339414], ["'autoclave' (unit, DK, None)", 4.927611348629014], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888742337676], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560459461265142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0001980007394502002], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775166356196596], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093847993095], ["'waste polyethylene' (kilogram, CH, None)", 0.18009309301498008], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043682532969559], ["'marginal heating grid' (megajoule, DK, None)", -0.1685582493282072]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.15949157249899765], ["'mechanical disinfection' (unit, DK, None)", 1.0702689244111043], ["'autoclave' (unit, DK, None)", 2.737561860349452], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273066759083], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818592968025], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014789004004], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745582954785843], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144368785913444], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773128766918293]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.15949157249899765], ["'wet wipe' (unit, GLO, None)", 0.21190830633339414], ["'autoclave' (unit, DK, None)", 2.737561860349452], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273066759083], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818592968025], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014789004004], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745582954785843], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093847993095], ["'waste polyethylene' (kilogram, CH, None)", 0.18009309301498008], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.04348108928169984], ["'marginal heating grid' (megajoule, DK, None)", -0.16778093645151534]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404821786], ["'autoclave' (unit, DK, None)", 0.011383004191293044], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584233952178], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296895198524], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296590936522564], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352535663359938], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930683034435], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01004594257091713], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00035284286892519516], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095991561485], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420291310898]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1432192404821786], ["'autoclave' (unit, DK, None)", 0.011383004191293044], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069912248641], ["'waste polyethylene' (kilogram, CH, None)", 8.01787416771498e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001286439395768171], ["'marginal heating grid' (megajoule, DK, None)", -0.009568357108906626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420291310898]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337201427828], ["'autoclave' (unit, DK, None)", 0.02276600838258608], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249554100477], ["'waste polyethylene' (kilogram, CH, None)", 3.628446494055334e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005520648019677744], ["'marginal heating grid' (megajoule, DK, None)", -0.004106181130539176], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28151129405891623], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03023536113577], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001062896675304233], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805610032353], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005277477165154588]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337201427828], ["'autoclave' (unit, DK, None)", 0.02276600838258608], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746231686317], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880917875934], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003680432013118499], ["'marginal heating grid' (megajoule, DK, None)", -0.02737454087026117], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005277477165154588]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04181610251757598], ["'mechanical disinfection' (unit, DK, None)", 0.012412663978440286], ["'autoclave' (unit, DK, None)", 0.031872411735620526], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105470234295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.032133350036326336], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429810478303e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982253685893], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415990983017e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.409432510228711e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04181610251757598], ["'wet wipe' (unit, GLO, None)", 0.049723596207509976], ["'autoclave' (unit, DK, None)", 0.031872411735620526], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105470234295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.032133350036326336], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429810478303e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982253685893], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715618257], ["'waste polyethylene' (kilogram, CH, None)", 0.00022498574005692652], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003512294113856379], ["'marginal heating grid' (megajoule, DK, None)", -0.0026123954586155145]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02475864817499921], ["'mechanical disinfection' (unit, DK, None)", 0.006206331989220143], ["'autoclave' (unit, DK, None)", 0.017706895408678067], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233385133288], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441607260535], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485962095661e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811920286861], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197079954915042e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047162551143556e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02475864817499921], ["'wet wipe' (unit, GLO, None)", 0.049723596207509976], ["'autoclave' (unit, DK, None)", 0.017706895408678067], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233385133288], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441607260535], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485962095661e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811920286861], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715618257], ["'waste polyethylene' (kilogram, CH, None)", 0.00022498574005692652], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00034960970339014617], ["'marginal heating grid' (megajoule, DK, None)", -0.0026003482960643702]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956232422229e-05], ["'autoclave' (unit, DK, None)", -1.5678592386459884e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929734780243e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236795990284114e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797048837636e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.899336826653608e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874465633165e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601672492965e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251107228042e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092603011579e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766212552716e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956232422229e-05], ["'autoclave' (unit, DK, None)", -1.5678592386459884e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919636606913e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.4173532738473904e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.103198032558424e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.9328912177690724e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766212552716e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00014343999538950618], ["'autoclave' (unit, DK, None)", -3.1357184772919755e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.303719225199852e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465051266792177e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025699999260758e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.294842422217236e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769303241123e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179790998244e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745426175257e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814345360596e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.313426526925599e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00014343999538950618], ["'autoclave' (unit, DK, None)", -3.1357184772919755e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407427061729e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365432910294e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.01713333284051e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.5298949481448236e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.313426526925599e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.460121308176907e-05], ["'mechanical disinfection' (unit, DK, None)", 2.8681010658928864e-05], ["'autoclave' (unit, DK, None)", -4.390005868208768e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.91586528020241e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307102195109e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895947745046e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341239299543e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296116833242234e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.867262880994771e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.460121308176907e-05], ["'wet wipe' (unit, GLO, None)", 2.569878566239029e-05], ["'autoclave' (unit, DK, None)", -4.390005868208768e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.91586528020241e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307102195109e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895947745046e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341239299543e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041793205515e-08], ["'waste polyethylene' (kilogram, CH, None)", 9.589271910108221e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.742244908177927e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.277265659950623e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.850571165257081e-05], ["'mechanical disinfection' (unit, DK, None)", 1.4340505329464432e-05], ["'autoclave' (unit, DK, None)", -2.4388921490048706e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450550217823e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185729400512e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791895490092e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248982346404e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.64805841662111e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336314404973855e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.850571165257081e-05], ["'wet wipe' (unit, GLO, None)", 2.569878566239029e-05], ["'autoclave' (unit, DK, None)", -2.4388921490048706e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450550217823e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185729400512e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791895490092e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248982346404e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041793205515e-08], ["'waste polyethylene' (kilogram, CH, None)", 9.589271910108221e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.715764324011712e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.252929345545648e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.55181686813981e-06], ["'autoclave' (unit, DK, None)", 0.00011404429155662207], ["'waste polypropylene' (kilogram, CH, None)", 4.286217828778845e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735098049748e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370466900400025e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.565237405214121e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914265222999e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705349824287e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338172844e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134416997227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718107291166e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.55181686813981e-06], ["'autoclave' (unit, DK, None)", 0.00011404429155662207], ["'waste polypropylene' (kilogram, CH, None)", 2.844125849002785e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.43539854704786e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469779336000166e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.7101582701427475e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718107291166e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.5973557532626116e-05], ["'autoclave' (unit, DK, None)", 0.00022808858311324407], ["'waste polypropylene' (kilogram, CH, None)", 1.2137607496448504e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.554671419503089e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719525066524e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.339002442288753e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.524396399152168e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293988988782066e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789491882432e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.628770258309078e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.383118537485683e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.5973557532626116e-05], ["'autoclave' (unit, DK, None)", 0.00022808858311324407], ["'waste polypropylene' (kilogram, CH, None)", 8.011622109867001e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724646540319e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479683377687e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.8926682948591685e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.383118537485683e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.931847811640741e-06], ["'mechanical disinfection' (unit, DK, None)", 7.72294782606356e-05], ["'autoclave' (unit, DK, None)", 0.00031932401635854186], ["'aluminium scrap' (kilogram, RER, None)", 4.9039569084001706e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179968634585e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443223871465e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052342218063e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172684569743e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393340903724e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.931847811640741e-06], ["'wet wipe' (unit, GLO, None)", 9.800669075142083e-05], ["'autoclave' (unit, DK, None)", 0.00031932401635854186], ["'aluminium scrap' (kilogram, RER, None)", 4.9039569084001706e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179968634585e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443223871465e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052342218063e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6782545849938857e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.639907889927969e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.134799195445918e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.6691502497080093e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.518756577331173e-06], ["'mechanical disinfection' (unit, DK, None)", 3.86147391303178e-05], ["'autoclave' (unit, DK, None)", 0.000177402231310301], ["'aluminium scrap' (kilogram, RER, None)", 2.9281222227171425e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322306886352e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488644774293e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.72180671142752e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086342284864e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.153196670451862e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.518756577331173e-06], ["'wet wipe' (unit, GLO, None)", 9.800669075142083e-05], ["'autoclave' (unit, DK, None)", 0.000177402231310301], ["'aluminium scrap' (kilogram, RER, None)", 2.9281222227171425e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322306886352e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488644774293e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.72180671142752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6782545849938857e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.639907889927969e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.106508332023066e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.6476182830034894e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426163388865], ["'autoclave' (unit, DK, None)", 0.002328188398062871], ["'waste polypropylene' (kilogram, CH, None)", 6.352133549199562e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809773723931e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758930364708477], ["'marginal heating grid' (megajoule, DK, None)", -0.0003171282780147067], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002992141514353949], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387157098804], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238490731553e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132806204181], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138573815562]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.006116426163388865], ["'autoclave' (unit, DK, None)", 0.002328188398062871], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967121431485], ["'waste polyethylene' (kilogram, CH, None)", 5.12088780320853e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839286909805652], ["'marginal heating grid' (megajoule, DK, None)", -0.002114188520098045], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138573815562]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.017540472247907817], ["'autoclave' (unit, DK, None)", 0.00465637679612574], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817433714649], ["'waste polyethylene' (kilogram, CH, None)", 2.317430656472636e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00033641649887798794], ["'marginal heating grid' (megajoule, DK, None)", -0.000907286476541336], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590354969725], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012325922511656593], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435068366027], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369333184846249], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002168450182867149]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.017540472247907817], ["'autoclave' (unit, DK, None)", 0.00465637679612574], ["'waste polypropylene' (kilogram, CH, None)", 0.0011873146820933762], ["'waste polyethylene' (kilogram, CH, None)", 0.00015426058169225145], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002242776659186588], ["'marginal heating grid' (megajoule, DK, None)", -0.0060485765102755735], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002168450182867149]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03186287332983513], ["'mechanical disinfection' (unit, DK, None)", 0.006515241287536411], ["'autoclave' (unit, DK, None)", 0.00651892751457604], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489803857514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137758906813], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739438322505e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014255328788370246], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740309148698247e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.323792261405935e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03186287332983513], ["'wet wipe' (unit, GLO, None)", 0.002156270107559983], ["'autoclave' (unit, DK, None)", 0.00651892751457604], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489803857514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137758906813], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739438322505e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014255328788370246], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998888485851e-06], ["'waste polyethylene' (kilogram, CH, None)", 0.0001436947884256589], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002140317014599857], ["'marginal heating grid' (megajoule, DK, None)", -0.0005772251626582853]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01906024268875041], ["'mechanical disinfection' (unit, DK, None)", 0.0032576206437682055], ["'autoclave' (unit, DK, None)", 0.0036216263969866885], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776635978815], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434441306393], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887664501e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536408070757], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870154574349098e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618961307029675e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01906024268875041], ["'wet wipe' (unit, GLO, None)", 0.002156270107559983], ["'autoclave' (unit, DK, None)", 0.0036216263969866885], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776635978815], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434441306393], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887664501e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536408070757], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998888485851e-06], ["'waste polyethylene' (kilogram, CH, None)", 0.0001436947884256589], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00021304468600255065], ["'marginal heating grid' (megajoule, DK, None)", -0.0005745632665275823]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933201466666], ["'autoclave' (unit, DK, None)", 0.0985300837475404], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800723724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519034758522], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128499712881373], ["'marginal heating grid' (megajoule, DK, None)", -0.013055011425611779], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519456712886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005445273901784881], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970294124974], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562150727959], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072684528023]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1232933201466666], ["'autoclave' (unit, DK, None)", 0.0985300837475404], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100266484522], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056273641695], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025418999808587583], ["'marginal heating grid' (megajoule, DK, None)", -0.08703340950407852], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072684528023]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.35349028922038483], ["'autoclave' (unit, DK, None)", 0.1970601674950807], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547015133536], ["'waste polyethylene' (kilogram, CH, None)", 0.0062940172132436275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908353041510612], ["'marginal heating grid' (megajoule, DK, None)", -0.03734966617199903], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978603330972], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688442265174], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537749840016], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778070627594], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.046630580487047234]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.35349028922038483], ["'autoclave' (unit, DK, None)", 0.1970601674950807], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704300418176], ["'waste polyethylene' (kilogram, CH, None)", 0.0418963455835974], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272235361007079], ["'marginal heating grid' (megajoule, DK, None)", -0.2489977744799935], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.046630580487047234]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16336888895417775], ["'mechanical disinfection' (unit, DK, None)", 0.26741302056831284], ["'autoclave' (unit, DK, None)", 0.2758842344931131], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561779205053], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068235254952], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059486790566], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808751774103], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400823445364373e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002191610575863402]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16336888895417775], ["'wet wipe' (unit, GLO, None)", 0.05478041950640196], ["'autoclave' (unit, DK, None)", 0.2758842344931131], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561779205053], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068235254952], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059486790566], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808751774103], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529274405759], ["'waste polyethylene' (kilogram, CH, None)", 0.039026732872392104], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006940008499545947], ["'marginal heating grid' (megajoule, DK, None)", -0.02376224895751828]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09724739192742922], ["'mechanical disinfection' (unit, DK, None)", 0.13370651028415642], ["'autoclave' (unit, DK, None)", 0.1532690191628406], ["'aluminium scrap' (kilogram, RER, None)", 0.02481260137649516], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402739000222015], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118973581132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882547462705], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200411722682178e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001095805287931701]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09724739192742922], ["'wet wipe' (unit, GLO, None)", 0.05478041950640196], ["'autoclave' (unit, DK, None)", 0.1532690191628406], ["'aluminium scrap' (kilogram, RER, None)", 0.02481260137649516], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402739000222015], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118973581132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882547462705], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529274405759], ["'waste polyethylene' (kilogram, CH, None)", 0.039026732872392104], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006908004382319121], ["'marginal heating grid' (megajoule, DK, None)", -0.023652668428725106]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498011606148], ["'autoclave' (unit, DK, None)", 0.0010565028334877102], ["'waste polypropylene' (kilogram, CH, None)", 1.93999358407859e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121017160117388e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037640284009e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349100950358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360361889106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266741605423], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695742587325], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958062492569], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748754633775]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498011606148], ["'autoclave' (unit, DK, None)", 0.0010565028334877102], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854623325224e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816325462434322e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060250935226725e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.007714232733966906], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748754633775]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467006984554], ["'autoclave' (unit, DK, None)", 0.0021130056669754196], ["'waste polypropylene' (kilogram, CH, None)", 5.493626691362737e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420317850262573e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.60469841791499e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.003310499025931753], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005400134538942299], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623970774447], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.000705106420394256], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0048281572007021325], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.001435978260809379]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02155467006984554], ["'autoclave' (unit, DK, None)", 0.0021130056669754196], ["'waste polypropylene' (kilogram, CH, None)", 3.6261562319225987e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.27066750518998e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736465611943329e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.022069993506211683], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.001435978260809379]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0031289132390162596], ["'mechanical disinfection' (unit, DK, None)", 0.0011018533438172222], ["'autoclave' (unit, DK, None)", 0.0029582079337655887], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713425787533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724009448305], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856105597163e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079556600034e-05], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288735238130767e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407025610374e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0031289132390162596], ["'wet wipe' (unit, GLO, None)", 0.0025347173168332356], ["'autoclave' (unit, DK, None)", 0.0029582079337655887], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713425787533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724009448305], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856105597163e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079556600034e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.9695581898136e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.8411697308619e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5657678578704365e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0021061741667395945]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018394876157484016], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266719086111], ["'autoclave' (unit, DK, None)", 0.0016434488520919936], ["'aluminium scrap' (kilogram, RER, None)", -7.942370499941829e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932300504549], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712211194326e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817508872], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367619065379e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703512805187e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018394876157484016], ["'wet wipe' (unit, GLO, None)", 0.0025347173168332356], ["'autoclave' (unit, DK, None)", 0.0016434488520919936], ["'aluminium scrap' (kilogram, RER, None)", -7.942370499941829e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932300504549], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712211194326e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817508872], ["'waste wipe incineration' (kilogram, CH, None)", -9.9695581898136e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.8411697308619e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.5493241816797804e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.002096461463226789]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0101233207725325], ["'autoclave' (unit, DK, None)", 0.1516627666415412], ["'waste polypropylene' (kilogram, CH, None)", -6.194524932559215e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549868628896746e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581556259421703], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879669314296], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272429249381], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001537627636195329], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.98643039002451e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.003020574195308825], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900957579572]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0101233207725325], ["'autoclave' (unit, DK, None)", 0.1516627666415412], ["'waste polypropylene' (kilogram, CH, None)", -4.110385702913124e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035554580924711e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025721037506281134], ["'marginal heating grid' (megajoule, DK, None)", -0.04893919779542864], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900957579572]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985406540573], ["'autoclave' (unit, DK, None)", 0.3033255332830823], ["'waste polypropylene' (kilogram, CH, None)", -1.75415051828546e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.278813558630302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970015549584], ["'marginal heating grid' (megajoule, DK, None)", -0.021001851022497676], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004070634320735013], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627811332238368], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045780679716198], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659705095283], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215493944315]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02981985406540573], ["'autoclave' (unit, DK, None)", 0.3033255332830823], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578551275811618], ["'waste polyethylene' (kilogram, CH, None)", -1.5169002107599883e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646677033061], ["'marginal heating grid' (megajoule, DK, None)", -0.1400123401499845], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01408215493944315]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004896093590465519], ["'mechanical disinfection' (unit, DK, None)", 0.17642834278576996], ["'autoclave' (unit, DK, None)", 0.42465574659631544], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835456954729776], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248687383782935], ["'waste plastic, mixture' (kilogram, CH, None)", 5.58883000407825e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567930156732], ["'steel recycling' (kilogram, RER, None)", 3.888645475090454e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.296389332504725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880331604548e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00012323504740752012]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004896093590465519], ["'wet wipe' (unit, GLO, None)", 0.00818023198603731], ["'autoclave' (unit, DK, None)", 0.42465574659631544], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835456954729776], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248687383782935], ["'waste plastic, mixture' (kilogram, CH, None)", 5.58883000407825e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567930156732], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291796060154e-06], ["'waste polyethylene' (kilogram, CH, None)", -1.4130029360504002e-05], ["'steel recycling' (kilogram, RER, None)", 3.888645475090454e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.296389332504725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007022472176518335], ["'marginal heating grid' (megajoule, DK, None)", -0.013361597671773499]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029393679311195083], ["'mechanical disinfection' (unit, DK, None)", 0.08821417139288498], ["'autoclave' (unit, DK, None)", 0.23591985922017522], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781577746084], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521468115475191], ["'waste plastic, mixture' (kilogram, CH, None)", 1.11776600081565e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001549193685774113], ["'steel recycling' (kilogram, RER, None)", 3.888645475090454e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.296389332504725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440165802265e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.161752370376006e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0029393679311195083], ["'wet wipe' (unit, GLO, None)", 0.00818023198603731], ["'autoclave' (unit, DK, None)", 0.23591985922017522], ["'aluminium scrap' (kilogram, RER, None)", -0.0001303781577746084], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008521468115475191], ["'waste plastic, mixture' (kilogram, CH, None)", 1.11776600081565e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001549193685774113], ["'waste wipe incineration' (kilogram, CH, None)", -9.067291796060154e-06], ["'waste polyethylene' (kilogram, CH, None)", -1.4130029360504002e-05], ["'steel recycling' (kilogram, RER, None)", 3.888645475090454e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.296389332504725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006990087774860308], ["'marginal heating grid' (megajoule, DK, None)", -0.013299980148069736]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647963843943], ["'autoclave' (unit, DK, None)", 0.00027968540981776957], ["'waste polypropylene' (kilogram, CH, None)", 2.849801400580576e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.0880778856459023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.01694619190986e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.9262496554300728e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000131374628334231], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456519725550072e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.00206954434602e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771479176328833e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002375545727934e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002612647963843943], ["'autoclave' (unit, DK, None)", 0.00027968540981776957], ["'waste polypropylene' (kilogram, CH, None)", 1.8909897144039337e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.059662956756487e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641279399067e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.9508331036200486e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.2002375545727934e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847775457703], ["'autoclave' (unit, DK, None)", 0.0005593708196355389], ["'waste polypropylene' (kilogram, CH, None)", 8.069998358653408e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320895636490843e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.909426851071408e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.371838537944344e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00036976302676853097], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1471078785636134e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.0309935379886985e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.5975997679799534e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104473296078928e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488847775457703], ["'autoclave' (unit, DK, None)", 0.0005593708196355389], ["'waste polypropylene' (kilogram, CH, None)", 5.326731589870237e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204486761068372e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019396179007142734], ["'marginal heating grid' (megajoule, DK, None)", -5.581225691962895e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104473296078928e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002021740400779984], ["'mechanical disinfection' (unit, DK, None)", 0.00012895517404208637], ["'autoclave' (unit, DK, None)", 0.0007831191474897549], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526087178426], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877388989919], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411791862719e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254413773801e-06], ["'steel recycling' (kilogram, RER, None)", 2.408285820699817e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.118101406434583e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071988346951776e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.9124428032866706e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002021740400779984], ["'wet wipe' (unit, GLO, None)", 0.00010043538257216302], ["'autoclave' (unit, DK, None)", 0.0007831191474897549], ["'aluminium scrap' (kilogram, RER, None)", -0.00018454526087178426], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018139877388989919], ["'waste plastic, mixture' (kilogram, CH, None)", 4.457411791862719e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254413773801e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430372223464e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.779521914419854e-06], ["'steel recycling' (kilogram, RER, None)", 2.408285820699817e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.118101406434583e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.851007846776347e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.3262513955190196e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012197632238411058], ["'mechanical disinfection' (unit, DK, None)", 6.447758702104318e-05], ["'autoclave' (unit, DK, None)", 0.00043506619304986376], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082947694382], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605392580896], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823583725438e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0015933359090167e-05], ["'steel recycling' (kilogram, RER, None)", 2.408285820699817e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.118101406434583e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994173475865e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.4562214016433353e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012197632238411058], ["'wet wipe' (unit, GLO, None)", 0.00010043538257216302], ["'autoclave' (unit, DK, None)", 0.00043506619304986376], ["'aluminium scrap' (kilogram, RER, None)", -0.00011019082947694382], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0010848605392580896], ["'waste plastic, mixture' (kilogram, CH, None)", 8.914823583725438e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0015933359090167e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.6705430372223464e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.779521914419854e-06], ["'steel recycling' (kilogram, RER, None)", 2.408285820699817e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.118101406434583e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.8424718526028703e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.301689181502585e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943666698919e-08], ["'autoclave' (unit, DK, None)", -1.5755509573175476e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598031407264e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747975709686e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.704346912742752e-09], ["'marginal heating grid' (megajoule, DK, None)", -9.218923659457073e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895076413233e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278487798456e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925530969939152e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.171715795161523e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518606473889026e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.107943666698919e-08], ["'autoclave' (unit, DK, None)", -1.5755509573175476e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976263830988e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.714769429205591e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.469564608495168e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.145949106304715e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518606473889026e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348339721345e-08], ["'autoclave' (unit, DK, None)", -3.1511019146350937e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798321043366e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098242209621e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931787695346e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.6374831083667915e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883493216053e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821680793711e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.0862328506419176e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819141300067e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699438993679188e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348339721345e-08], ["'autoclave' (unit, DK, None)", -3.1511019146350937e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.9853454264312646e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536519890295e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287858463569e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.7583220722445274e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699438993679188e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.759878112396708e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2061028339257914e-07], ["'autoclave' (unit, DK, None)", -4.411542680489134e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.0895596083298277e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687768211552e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220038526903e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.089397603186207e-10], ["'steel recycling' (kilogram, RER, None)", 1.0763091567222483e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035833233538027e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673891550061e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.5476271855653815e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.759878112396708e-08], ["'wet wipe' (unit, GLO, None)", 1.0254611249958541e-07], ["'autoclave' (unit, DK, None)", -4.411542680489134e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.0895596083298277e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7948687768211552e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220038526903e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.089397603186207e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203596159427e-08], ["'waste polyethylene' (kilogram, CH, None)", 4.8117326486649325e-09], ["'steel recycling' (kilogram, RER, None)", 1.0763091567222483e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035833233538027e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.742515245365451e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.6779943883205665e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.227242497267117e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030514169628957e-08], ["'autoclave' (unit, DK, None)", -2.4508570447161854e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630686460793e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.671479240657993e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440077053806e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905633758306e-10], ["'steel recycling' (kilogram, RER, None)", 1.0763091567222483e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035833233538027e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.109336945775022e-11], ["'marginal heating grid' (megajoule, DK, None)", -7.738135927826907e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.227242497267117e-08], ["'wet wipe' (unit, GLO, None)", 1.0254611249958541e-07], ["'autoclave' (unit, DK, None)", -2.4508570447161854e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2476630686460793e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.671479240657993e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440077053806e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905633758306e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.3552203596159427e-08], ["'waste polyethylene' (kilogram, CH, None)", 4.8117326486649325e-09], ["'steel recycling' (kilogram, RER, None)", 1.0763091567222483e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035833233538027e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.711421875907696e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.6702562523927392e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187533019219], ["'autoclave' (unit, DK, None)", 0.00020622983167474046], ["'waste polypropylene' (kilogram, CH, None)", 6.539683633534363e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216532020238e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.907307390461885e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.701889026225451e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625693462773], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240152144187e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259439937033e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.4952305053061865e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.106662603046493e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0002937187533019219], ["'autoclave' (unit, DK, None)", 0.00020622983167474046], ["'waste polypropylene' (kilogram, CH, None)", 4.339416242812521e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.09047836585203e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382049269745898e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011345926841503007], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.106662603046493e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.000842545223439615], ["'autoclave' (unit, DK, None)", 0.00041245966334948076], ["'waste polypropylene' (kilogram, CH, None)", 1.851891720524217e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.303669026637301e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645764760293e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.869010445031483e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576768027602], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9316548030725226e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556832663288e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719733256864e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195190312648]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.000842545223439615], ["'autoclave' (unit, DK, None)", 0.00041245966334948076], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707726232456e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453399196623e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.545097176506866e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032460069633543216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195190312648]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003448305311550726], ["'mechanical disinfection' (unit, DK, None)", 0.0001947464424953882], ["'autoclave' (unit, DK, None)", 0.0005774435286892733], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575682217484e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735892228277], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705488599645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498729115436e-06], ["'steel recycling' (kilogram, RER, None)", 5.196203846571063e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.253546674571045e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8806434682407945e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8570468973348886e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003448305311550726], ["'wet wipe' (unit, GLO, None)", 0.0001040196056912909], ["'autoclave' (unit, DK, None)", 0.0005774435286892733], ["'aluminium scrap' (kilogram, RER, None)", 1.8711575682217484e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002916735892228277], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705488599645e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498729115436e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323862316686e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.428414837185439e-06], ["'steel recycling' (kilogram, RER, None)", 5.196203846571063e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.253546674571045e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.291773385403281e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.0977154611982585e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020528964469969377], ["'mechanical disinfection' (unit, DK, None)", 9.73732212476941e-05], ["'autoclave' (unit, DK, None)", 0.0003208019603829296], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565664943594e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622164925717], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741097719929e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2852814286117032e-05], ["'steel recycling' (kilogram, RER, None)", 5.196203846571063e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.253546674571045e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403217341203906e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4285234486674443e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020528964469969377], ["'wet wipe' (unit, GLO, None)", 0.0001040196056912909], ["'autoclave' (unit, DK, None)", 0.0003208019603829296], ["'aluminium scrap' (kilogram, RER, None)", 1.1172565664943594e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017443622164925717], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741097719929e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2852814286117032e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323862316686e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.428414837185439e-06], ["'steel recycling' (kilogram, RER, None)", 5.196203846571063e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.253546674571045e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.267370168062074e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.0834302267115834e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00048758486216994503], ["'autoclave' (unit, DK, None)", 0.0003542999081068418], ["'waste polypropylene' (kilogram, CH, None)", 4.470534428451969e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346127523451e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626362779297782e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.3648058646614726e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024974548322390637], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.762205986008643e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098213389160553e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657316328467866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894515971205574e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00048758486216994503], ["'autoclave' (unit, DK, None)", 0.0003542999081068418], ["'waste polypropylene' (kilogram, CH, None)", 2.966429387103643e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.5818730593665588e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.41757518619852e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022432039097743152], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894515971205574e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0013965299071317552], ["'autoclave' (unit, DK, None)", 0.0007085998162136834], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550764681744e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576843625829e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.754049188742707e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.626523614689311e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260289414584], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.313435491870672e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451868957670097e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734455303793768], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651319575352472e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0013965299071317552], ["'autoclave' (unit, DK, None)", 0.0007085998162136834], ["'waste polypropylene' (kilogram, CH, None)", 8.356139118601812e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0789961485574639e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360327924951396], ["'marginal heating grid' (megajoule, DK, None)", -0.0006417682409792873], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651319575352472e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004454151278031329], ["'mechanical disinfection' (unit, DK, None)", 0.00046844771233182925], ["'autoclave' (unit, DK, None)", 0.0009920397426991573], ["'aluminium scrap' (kilogram, RER, None)", 1.767358717965928e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774222267267], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828761405938e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955360437498e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315999935996e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9366738553532692e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160260444366645e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.648669218513311e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004454151278031329], ["'wet wipe' (unit, GLO, None)", 0.001139748842970422], ["'autoclave' (unit, DK, None)", 0.0009920397426991573], ["'aluminium scrap' (kilogram, RER, None)", 1.767358717965928e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003824774222267267], ["'waste plastic, mixture' (kilogram, CH, None)", 1.006828761405938e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955360437498e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688159115164e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.005092302765857e-05], ["'steel recycling' (kilogram, RER, None)", 7.005315999935996e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9366738553532692e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7521549500010666e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.124495187567915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002643367876890432], ["'mechanical disinfection' (unit, DK, None)", 0.00023422385616591462], ["'autoclave' (unit, DK, None)", 0.0005511331903884206], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789174644641e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002287417128755111], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657522811876e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.41730262516529e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315999935996e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9366738553532692e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080130222183301e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8243346092566553e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002643367876890432], ["'wet wipe' (unit, GLO, None)", 0.001139748842970422], ["'autoclave' (unit, DK, None)", 0.0005511331903884206], ["'aluminium scrap' (kilogram, RER, None)", 1.0552789174644641e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002287417128755111], ["'waste plastic, mixture' (kilogram, CH, None)", 2.013657522811876e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.41730262516529e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688159115164e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.005092302765857e-05], ["'steel recycling' (kilogram, RER, None)", 7.005315999935996e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9366738553532692e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7440748197788822e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.0962518414753464e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374166494231], ["'autoclave' (unit, DK, None)", 0.00036174476116166993], ["'waste polypropylene' (kilogram, CH, None)", 4.519055447095627e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112802683338e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837746880486947e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.458244435024203e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00027021968755809036], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.006245685536762e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9536909197852904e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426456374794e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.697537776162831e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374166494231], ["'autoclave' (unit, DK, None)", 0.00036174476116166993], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255770447618e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.6190678968355842e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558497920324631e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00023054962900161355], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.697537776162831e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0014931756108268461], ["'autoclave' (unit, DK, None)", 0.0007234895223233395], ["'waste polypropylene' (kilogram, CH, None)", 1.279695140626145e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6377900110851542e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.814525011827737e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.893846200389252e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605521007429696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923907926177e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.8852587542362946e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263173116548718], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324242944256e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0014931756108268461], ["'autoclave' (unit, DK, None)", 0.0007234895223233395], ["'waste polypropylene' (kilogram, CH, None)", 8.446832611393697e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.090200645676744e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763500078851594], ["'marginal heating grid' (megajoule, DK, None)", -0.0006595897466926167], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324242944256e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000458615607762308], ["'mechanical disinfection' (unit, DK, None)", 0.0004793739309427154], ["'autoclave' (unit, DK, None)", 0.001012885331252676], ["'aluminium scrap' (kilogram, RER, None)", 1.881087960964234e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133144631216], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159344256999e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078562380485e-06], ["'steel recycling' (kilogram, RER, None)", 7.481077215914529e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.0699128747798558e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515121590506045e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.805529256643013e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000458615607762308], ["'wet wipe' (unit, GLO, None)", 0.0017441038854222814], ["'autoclave' (unit, DK, None)", 0.001012885331252676], ["'aluminium scrap' (kilogram, RER, None)", 1.881087960964234e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003919133144631216], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159344256999e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078562380485e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744351139393e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.0155293685755972e-05], ["'steel recycling' (kilogram, RER, None)", 7.481077215914529e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.0699128747798558e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7906303022957723e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.294568617518186e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002722019576771293], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869654713577], ["'autoclave' (unit, DK, None)", 0.0005627140729181531], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859423458833e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000234384875130935], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318688513998e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610318433671e-06], ["'steel recycling' (kilogram, RER, None)", 7.481077215914529e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.0699128747798558e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257560795253002e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.9027646283215064e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002722019576771293], ["'wet wipe' (unit, GLO, None)", 0.0017441038854222814], ["'autoclave' (unit, DK, None)", 0.0005627140729181531], ["'aluminium scrap' (kilogram, RER, None)", 1.1231859423458833e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000234384875130935], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0366318688513998e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.442610318433671e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744351139393e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.0155293685755972e-05], ["'steel recycling' (kilogram, RER, None)", 7.481077215914529e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.0699128747798558e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7823727415005182e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.26554097123497e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0018029811520964335], ["'autoclave' (unit, DK, None)", 0.0004990302637708101], ["'waste polypropylene' (kilogram, CH, None)", 1.345061883297949e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832695761844e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434097488472e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.8357812403627136e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025778712283], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135768144898], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533360128017e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251724583857], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821092929334]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0018029811520964335], ["'autoclave' (unit, DK, None)", 0.0004990302637708101], ["'waste polypropylene' (kilogram, CH, None)", 8.92517698263125e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553550292532e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.708956064992314e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00032238541602418094], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821092929334]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367469046673], ["'autoclave' (unit, DK, None)", 0.0009980605275416198], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135573764354e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440327436373e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499511674086487e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013834902867570557], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002680884739041537], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033347981438106], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.982607710960159e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0005129648373122214], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003768067772956794]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367469046673], ["'autoclave' (unit, DK, None)", 0.0009980605275416198], ["'waste polypropylene' (kilogram, CH, None)", 0.0002514134361304578], ["'waste polyethylene' (kilogram, CH, None)", 2.8459617985062788e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333007782724337], ["'marginal heating grid' (megajoule, DK, None)", -0.0009223268578380369], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003768067772956794]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015290118015511421], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740327069384], ["'autoclave' (unit, DK, None)", 0.0013972847385582685], ["'aluminium scrap' (kilogram, RER, None)", 9.40357218175879e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436578001403], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349114299483e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168563041885e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329430828661e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6619917556082666e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375868485986828e-07], ["'marginal heating grid' (megajoule, DK, None)", -8.118069730792379e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0015290118015511421], ["'wet wipe' (unit, GLO, None)", 0.011286328331695086], ["'autoclave' (unit, DK, None)", 0.0013972847385582685], ["'aluminium scrap' (kilogram, RER, None)", 9.40357218175879e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008417436578001403], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349114299483e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168563041885e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922984657925e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.6510329081976298e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329430828661e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6619917556082666e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5586846025780966e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.801910162419528e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009063805319978987], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870163534692], ["'autoclave' (unit, DK, None)", 0.0007762692991990379], ["'aluminium scrap' (kilogram, RER, None)", 5.614814565594416e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071945119058], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698228598965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.145293690160478e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329430828661e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6619917556082666e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934242993394e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.0590348653961896e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0009063805319978987], ["'wet wipe' (unit, GLO, None)", 0.011286328331695086], ["'autoclave' (unit, DK, None)", 0.0007762692991990379], ["'aluminium scrap' (kilogram, RER, None)", 5.614814565594416e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005034071945119058], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698228598965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.145293690160478e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079922984657925e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.6510329081976298e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329430828661e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6619917556082666e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.551496668335102e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.761319813765565e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891649336986e-10], ["'autoclave' (unit, DK, None)", 1.6454643829479175e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846534139867e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749254129271e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219124796585705e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.616129936223993e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873208099892e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0932950309594105e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.393997970261304e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964206347084914e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764367741123e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891649336986e-10], ["'autoclave' (unit, DK, None)", 1.6454643829479175e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300036672248e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784135552275e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.681274986439047e-10], ["'marginal heating grid' (megajoule, DK, None)", -6.410753290815996e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764367741123e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.6799344902447444e-09], ["'autoclave' (unit, DK, None)", 3.290928765895834e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226635368579e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.9129325730353485e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469323614939e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.7511216288935703e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530552599035e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334559198226e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248769676578067e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.3701989710098353e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.660802267911161e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.6799344902447444e-09], ["'autoclave' (unit, DK, None)", 3.290928765895834e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591652597882e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037492241378e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.670979549076631e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.8340810859290466e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.660802267911161e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.160729355923695e-10], ["'mechanical disinfection' (unit, DK, None)", 1.950722499621582e-09], ["'autoclave' (unit, DK, None)", 4.6073002722541695e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.03934346105836e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648082475329e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229639357857e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.749203715612343e-11], ["'steel recycling' (kilogram, RER, None)", 1.9251712168894692e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.529843821010712e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.75178721661186e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.6143082054880368e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.160729355923695e-10], ["'wet wipe' (unit, GLO, None)", 6.064702580500718e-10], ["'autoclave' (unit, DK, None)", 4.6073002722541695e-09], ["'aluminium scrap' (kilogram, RER, None)", 4.03934346105836e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.517648082475329e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229639357857e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.749203715612343e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028581508982e-12], ["'waste polyethylene' (kilogram, CH, None)", 1.8061952732498818e-10], ["'steel recycling' (kilogram, RER, None)", 1.9251712168894692e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.529843821010712e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.320536345108418e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7502924057509279e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.846820770065678e-10], ["'mechanical disinfection' (unit, DK, None)", 9.75361249810791e-10], ["'autoclave' (unit, DK, None)", 2.5596112623634273e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669014509624e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978980187265527e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459278715713e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.9271784682582186e-11], ["'steel recycling' (kilogram, RER, None)", 1.9251712168894692e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.529843821010712e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.375893608305921e-13], ["'marginal heating grid' (megajoule, DK, None)", -8.071541027440184e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.846820770065678e-10], ["'wet wipe' (unit, GLO, None)", 6.064702580500718e-10], ["'autoclave' (unit, DK, None)", 2.5596112623634273e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.4118669014509624e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.8978980187265527e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459278715713e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.9271784682582186e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.486028581508982e-12], ["'waste polyethylene' (kilogram, CH, None)", 1.8061952732498818e-10], ["'steel recycling' (kilogram, RER, None)", 1.9251712168894692e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.529843821010712e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.286777409025354e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.7422208647234874e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419960974469e-07], ["'autoclave' (unit, DK, None)", 2.019252653730814e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.01055316480454e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669577839e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844133996495467e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.0432717655667562e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.191811421388317e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791624989814e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.557927621019628e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190437557418e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.003460441733546e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419960974469e-07], ["'autoclave' (unit, DK, None)", 2.019252653730814e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.997656772907685e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728209019165e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627559976636444e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.3621811770445042e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.003460441733546e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.2615079034524722e-06], ["'autoclave' (unit, DK, None)", 4.038505307461626e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211298465192e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816479734945e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997854908641715e-08], ["'marginal heating grid' (megajoule, DK, None)", -5.8456875949469454e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005656225396e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830489074605e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828734570818e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940968326034e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1389591573159677e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.2615079034524722e-06], ["'autoclave' (unit, DK, None)", 4.038505307461626e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202177204748e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780574656392e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903272427816e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.897125063297963e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1389591573159677e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.307488840556954e-07], ["'mechanical disinfection' (unit, DK, None)", 2.538955281450978e-07], ["'autoclave' (unit, DK, None)", 5.653907430446279e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226288561524e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427475102837e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879993463314e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484560330779e-09], ["'steel recycling' (kilogram, RER, None)", 2.2714473576037863e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.120782441508017e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341515448519e-11], ["'marginal heating grid' (megajoule, DK, None)", -3.430143310326012e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.307488840556954e-07], ["'wet wipe' (unit, GLO, None)", 1.8593632593099953e-07], ["'autoclave' (unit, DK, None)", 5.653907430446279e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.9032226288561524e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.472427475102837e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879993463314e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484560330779e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005180729499e-09], ["'waste polyethylene' (kilogram, CH, None)", 6.79141204214568e-08], ["'steel recycling' (kilogram, RER, None)", 2.2714473576037863e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.120782441508017e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.996950525189176e-09], ["'marginal heating grid' (megajoule, DK, None)", -3.71908769731237e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.159075476465285e-07], ["'mechanical disinfection' (unit, DK, None)", 1.269477640725489e-07], ["'autoclave' (unit, DK, None)", 3.1410596835812657e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496206397597e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674748003190848e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775998692663e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2529817648336953e-08], ["'steel recycling' (kilogram, RER, None)", 2.2714473576037863e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.120782441508017e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.226670757724251e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.715071655163006e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.159075476465285e-07], ["'wet wipe' (unit, GLO, None)", 1.8593632593099953e-07], ["'autoclave' (unit, DK, None)", 3.1410596835812657e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.733496206397597e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.674748003190848e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775998692663e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2529817648336953e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005180729499e-09], ["'waste polyethylene' (kilogram, CH, None)", 6.79141204214568e-08], ["'steel recycling' (kilogram, RER, None)", 2.2714473576037863e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.120782441508017e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.96468381761193e-09], ["'marginal heating grid' (megajoule, DK, None)", -3.701936980760739e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.056193846577767416], ["'autoclave' (unit, DK, None)", 0.0019517442494832184], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808130805655e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569167059234e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410759738261271e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00043058080007625233], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04075824940254373], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377922150192], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144750335439], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.004949791290223832], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.158488823502683e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.056193846577767416], ["'autoclave' (unit, DK, None)", 0.0019517442494832184], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863339132723], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380536194556e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004273839825507514], ["'marginal heating grid' (megajoule, DK, None)", -0.002870538667175016], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.158488823502683e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16076285528331763], ["'autoclave' (unit, DK, None)", 0.0039034884989664355], ["'waste polypropylene' (kilogram, CH, None)", 9.87859519965805e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077299048154e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001834082930507507], ["'marginal heating grid' (megajoule, DK, None)", -0.0012318678719323028], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11471692712636482], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564620063684], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00034962114172262186], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074056968544], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520510925091496e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16076285528331763], ["'autoclave' (unit, DK, None)", 0.0039034884989664355], ["'waste polypropylene' (kilogram, CH, None)", 0.000652052488426274], ["'waste polyethylene' (kilogram, CH, None)", 8.322717107877038e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227219536716722], ["'marginal heating grid' (megajoule, DK, None)", -0.008212452479548684], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520510925091496e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008594039442447016], ["'mechanical disinfection' (unit, DK, None)", 0.0035366373103875135], ["'autoclave' (unit, DK, None)", 0.005464883898553013], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917425916774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999767761061], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799824555298e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1517933211044577e-07], ["'steel recycling' (kilogram, RER, None)", 3.1826590313312887e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.199152209325779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762065526904983e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.2283769385258754e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008594039442447016], ["'wet wipe' (unit, GLO, None)", 0.019273989488450136], ["'autoclave' (unit, DK, None)", 0.005464883898553013], ["'aluminium scrap' (kilogram, RER, None)", 0.0006667917425916774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005792999767761061], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799824555298e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1517933211044577e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372828821745e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.75266799089916e-05], ["'steel recycling' (kilogram, RER, None)", 3.1826590313312887e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.199152209325779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011668627773740958], ["'marginal heating grid' (megajoule, DK, None)", -0.0007837272472750707]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005075046792421832], ["'mechanical disinfection' (unit, DK, None)", 0.0017683186551937567], ["'autoclave' (unit, DK, None)", 0.003036046610307229], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372095791785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464520028007311], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599649110597e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274510906468843e-07], ["'steel recycling' (kilogram, RER, None)", 3.1826590313312887e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.199152209325779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381032763452478e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.6141884692629377e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005075046792421832], ["'wet wipe' (unit, GLO, None)", 0.019273989488450136], ["'autoclave' (unit, DK, None)", 0.003036046610307229], ["'aluminium scrap' (kilogram, RER, None)", 0.0003981372095791785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003464520028007311], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6499599649110597e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274510906468843e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372828821745e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.75266799089916e-05], ["'steel recycling' (kilogram, RER, None)", 3.1826590313312887e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.199152209325779e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00011614817446106426], ["'marginal heating grid' (megajoule, DK, None)", -0.0007801130588058076]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_consq/data_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_case1_consq_recipe.xlsx
@@ -118,13 +118,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.0007453050983382416], ["'mechanical disinfection' (unit, DK, None)", 0.0005279123143091455], ["'autoclave' (unit, DK, None)", 0.0013919148637728156], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549789075376e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854437884033], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674886654262e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170093673558e-05], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.38404294690086e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.771921423848657e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007453050983382416], ["'wet wipe' (unit, GLO, None)", 0.00029122168060537803], ["'autoclave' (unit, DK, None)", 0.0013919148637728156], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549789075376e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854437884033], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674886654262e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170093673558e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495315866535e-06], ["'waste polyethylene' (kilogram, CH, None)", 4.154625151965656e-06], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5006303325215058e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.1738929410182914e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007453050983382416], ["'wet wipe' (unit, GLO, None)", 0.0001917455506899976], ["'autoclave' (unit, DK, None)", 0.0013919148637728156], ["'aluminium scrap' (kilogram, RER, None)", 5.8021549789075376e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006457854437884033], ["'waste plastic, mixture' (kilogram, CH, None)", 4.755674886654262e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170093673558e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495315866535e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.775588592860366e-07], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5006303325215058e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.1738929410182914e-05]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0004423504789292443], ["'mechanical disinfection' (unit, DK, None)", 0.00026395615715457275], ["'autoclave' (unit, DK, None)", 0.000773286035429342], ["'aluminium scrap' (kilogram, RER, None)", 3.464430713958001e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138259096154], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349773308523e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.856202406538604e-05], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214734504282e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3859607119243283e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004423504789292443], ["'wet wipe' (unit, GLO, None)", 0.00029122168060537803], ["'autoclave' (unit, DK, None)", 0.000773286035429342], ["'aluminium scrap' (kilogram, RER, None)", 3.464430713958001e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138259096154], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349773308523e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.856202406538604e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495315866535e-06], ["'waste polyethylene' (kilogram, CH, None)", 4.154625151965656e-06], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4937101177870006e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.150033333899047e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004423504789292443], ["'wet wipe' (unit, GLO, None)", 0.0001917455506899976], ["'autoclave' (unit, DK, None)", 0.000773286035429342], ["'aluminium scrap' (kilogram, RER, None)", 3.464430713958001e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003862138259096154], ["'waste plastic, mixture' (kilogram, CH, None)", 9.511349773308523e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.856202406538604e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495315866535e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.775588592860366e-07], ["'steel recycling' (kilogram, RER, None)", 8.912370698030605e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.5883795379510543e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4937101177870006e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.150033333899047e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.218332557054139], ["'autoclave' (unit, DK, None)", 0.0439700272167516], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070328945465], ["'waste polyethylene' (kilogram, CH, None)", 0.0331448767234401], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851966925253], ["'marginal heating grid' (megajoule, DK, None)", -0.005981033202105601], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1290664944457786], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193854607851], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372732191876], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453567387113], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728787261765]]</t>
@@ -142,13 +142,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.18020492757515427], ["'mechanical disinfection' (unit, DK, None)", 0.05095178397201392], ["'autoclave' (unit, DK, None)", 0.12311607620690448], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355487913415], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613751089897], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742637434534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157320480077], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141009684104974e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010040661928957691]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.18020492757515427], ["'wet wipe' (unit, GLO, None)", 0.08053966671666475], ["'autoclave' (unit, DK, None)", 0.12311607620690448], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355487913415], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613751089897], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742637434534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157320480077], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286925153], ["'waste polyethylene' (kilogram, CH, None)", 0.06203261331726405], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001424796663722265], ["'marginal heating grid' (megajoule, DK, None)", -0.010886455426059188]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.18020492757515427], ["'wet wipe' (unit, GLO, None)", 0.038160752637220456], ["'autoclave' (unit, DK, None)", 0.12311607620690448], ["'aluminium scrap' (kilogram, RER, None)", 0.00688355487913415], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14805613751089897], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742637434534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157320480077], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286925153], ["'waste polyethylene' (kilogram, CH, None)", 0.014595909015826834], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001424796663722265], ["'marginal heating grid' (megajoule, DK, None)", -0.010886455426059188]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.10689790157238184], ["'mechanical disinfection' (unit, DK, None)", 0.02547589198600696], ["'autoclave' (unit, DK, None)", 0.06839782011494693], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127880275608], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539517341663], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527486907], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769486615828756], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504842052469e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.0203309644788455e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.10689790157238184], ["'wet wipe' (unit, GLO, None)", 0.08053966671666475], ["'autoclave' (unit, DK, None)", 0.06839782011494693], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127880275608], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539517341663], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527486907], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769486615828756], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286925153], ["'waste polyethylene' (kilogram, CH, None)", 0.06203261331726405], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0014182261588802116], ["'marginal heating grid' (megajoule, DK, None)", -0.010836252116414398]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10689790157238184], ["'wet wipe' (unit, GLO, None)", 0.038160752637220456], ["'autoclave' (unit, DK, None)", 0.06839782011494693], ["'aluminium scrap' (kilogram, RER, None)", 0.004110127880275608], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08854539517341663], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748527486907], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769486615828756], ["'waste wipe incineration' (kilogram, CH, None)", 0.001784583286925153], ["'waste polyethylene' (kilogram, CH, None)", 0.014595909015826834], ["'steel recycling' (kilogram, RER, None)", 3.794794317536728e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.252125577853673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0014182261588802116], ["'marginal heating grid' (megajoule, DK, None)", -0.010836252116414398]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.005876693216440328], ["'autoclave' (unit, DK, None)", 0.01921964937433718], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603264266597], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200538238], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829587830932697], ["'marginal heating grid' (megajoule, DK, None)", -0.0010109421779916983], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002191312037558076], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552578263955686], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002906173505008988], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853445825685], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003124508353372744]]</t>
@@ -166,13 +166,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.005389153397282496], ["'mechanical disinfection' (unit, DK, None)", 0.03185291871222994], ["'autoclave' (unit, DK, None)", 0.05381501824814411], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900303205928], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369758277820924], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116606304296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436216355800376e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4289221340735746e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6971195938797594e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005389153397282496], ["'wet wipe' (unit, GLO, None)", 0.002312561514529465], ["'autoclave' (unit, DK, None)", 0.05381501824814411], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900303205928], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369758277820924], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116606304296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436216355800376e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429789769801e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0032346823936678956], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006970474132621514], ["'marginal heating grid' (megajoule, DK, None)", -0.0018400795627008632]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005389153397282496], ["'wet wipe' (unit, GLO, None)", 0.001292406234360594], ["'autoclave' (unit, DK, None)", 0.05381501824814411], ["'aluminium scrap' (kilogram, RER, None)", 0.0013076900303205928], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035369758277820924], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116606304296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.8436216355800376e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429789769801e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0007611017396865635], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006970474132621514], ["'marginal heating grid' (megajoule, DK, None)", -0.0018400795627008632]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0032232687141426006], ["'mechanical disinfection' (unit, DK, None)", 0.01592645935611497], ["'autoclave' (unit, DK, None)", 0.02989723236008006], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135980249774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298478367593], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321260859e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.778920131283684e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461067036779e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.485597969398797e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032232687141426006], ["'wet wipe' (unit, GLO, None)", 0.002312561514529465], ["'autoclave' (unit, DK, None)", 0.02989723236008006], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135980249774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298478367593], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321260859e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.778920131283684e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429789769801e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0032346823936678956], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006938329521951141], ["'marginal heating grid' (megajoule, DK, None)", -0.001831593964731464]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0032232687141426006], ["'wet wipe' (unit, GLO, None)", 0.001292406234360594], ["'autoclave' (unit, DK, None)", 0.02989723236008006], ["'aluminium scrap' (kilogram, RER, None)", 0.0007808135980249774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002115298478367593], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023321260859e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.778920131283684e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429789769801e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0007611017396865635], ["'steel recycling' (kilogram, RER, None)", 1.1503916135267049e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0598512911532661e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006938329521951141], ["'marginal heating grid' (megajoule, DK, None)", -0.001831593964731464]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007822341237572266], ["'autoclave' (unit, DK, None)", 0.022716063064180173], ["'waste polypropylene' (kilogram, CH, None)", 0.0020754549001144314], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054526759454], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008510711305], ["'marginal heating grid' (megajoule, DK, None)", -0.0012735798126265194], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029733361672985453], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031920751838226556], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484381444121], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.006952511835683189], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00045563992356158754]]</t>
@@ -190,13 +190,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.007400791086289904], ["'mechanical disinfection' (unit, DK, None)", 0.03873191916609001], ["'autoclave' (unit, DK, None)", 0.06360497657970449], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835206817194], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904209149261], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976170804192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620089395515e-05], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146216906898e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.138022630208162e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.007400791086289904], ["'wet wipe' (unit, GLO, None)", 0.0026208116544002916], ["'autoclave' (unit, DK, None)", 0.06360497657970449], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835206817194], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904209149261], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976170804192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620089395515e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269963053485e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.004683401030696265], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000860574622588065], ["'marginal heating grid' (megajoule, DK, None)", -0.002318122871614619]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007400791086289904], ["'wet wipe' (unit, GLO, None)", 0.0012640780413713014], ["'autoclave' (unit, DK, None)", 0.06360497657970449], ["'aluminium scrap' (kilogram, RER, None)", 0.001833835206817194], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004952904209149261], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976170804192e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620089395515e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269963053485e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0011019767131050034], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000860574622588065], ["'marginal heating grid' (megajoule, DK, None)", -0.002318122871614619]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.004426557933451473], ["'mechanical disinfection' (unit, DK, None)", 0.019365959583045007], ["'autoclave' (unit, DK, None)", 0.03533609809983582], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716162237406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984839140224], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952341608384e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376088683863], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573108453439e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.069011315104081e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004426557933451473], ["'wet wipe' (unit, GLO, None)", 0.0026208116544002916], ["'autoclave' (unit, DK, None)", 0.03533609809983582], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716162237406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984839140224], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952341608384e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376088683863], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269963053485e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.004683401030696265], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000856606049479611], ["'marginal heating grid' (megajoule, DK, None)", -0.002307432758463578]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004426557933451473], ["'wet wipe' (unit, GLO, None)", 0.0012640780413713014], ["'autoclave' (unit, DK, None)", 0.03533609809983582], ["'aluminium scrap' (kilogram, RER, None)", 0.0010949716162237406], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029620984839140224], ["'waste plastic, mixture' (kilogram, CH, None)", 5.0329952341608384e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376088683863], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990269963053485e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0011019767131050034], ["'steel recycling' (kilogram, RER, None)", 1.6691574099815155e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4441823802113305e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000856606049479611], ["'marginal heating grid' (megajoule, DK, None)", -0.002307432758463578]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.7548931416780268], ["'autoclave' (unit, DK, None)", 1.7598611959389336], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178367142978], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621146388641], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999242160823445], ["'marginal heating grid' (megajoule, DK, None)", -0.09260612809818344], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807737396949], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093692386483], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083045744204493], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534573840613741], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504149862196488]]</t>
@@ -214,13 +214,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.2598027187771365], ["'mechanical disinfection' (unit, DK, None)", 2.1405378488222087], ["'autoclave' (unit, DK, None)", 4.927611348629014], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888742337676], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560459461265142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0001980007394502002], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775166356196596], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028873757182699], ["'marginal heating grid' (megajoule, DK, None)", -0.0015546257533836586]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2598027187771365], ["'wet wipe' (unit, GLO, None)", 0.21190830633339414], ["'autoclave' (unit, DK, None)", 4.927611348629014], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888742337676], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560459461265142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0001980007394502002], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775166356196596], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093847993095], ["'waste polyethylene' (kilogram, CH, None)", 0.18009309301498008], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043682532969559], ["'marginal heating grid' (megajoule, DK, None)", -0.1685582493282072]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2598027187771365], ["'wet wipe' (unit, GLO, None)", 0.10260282313854517], ["'autoclave' (unit, DK, None)", 4.927611348629014], ["'aluminium scrap' (kilogram, RER, None)", 0.46128888742337676], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12560459461265142], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0001980007394502002], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775166356196596], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093847993095], ["'waste polyethylene' (kilogram, CH, None)", 0.04237484541528942], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043682532969559], ["'marginal heating grid' (megajoule, DK, None)", -0.1685582493282072]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.15949157249899765], ["'mechanical disinfection' (unit, DK, None)", 1.0702689244111043], ["'autoclave' (unit, DK, None)", 2.737561860349452], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273066759083], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818592968025], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014789004004], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745582954785843], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144368785913444], ["'marginal heating grid' (megajoule, DK, None)", -0.0007773128766918293]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.15949157249899765], ["'wet wipe' (unit, GLO, None)", 0.21190830633339414], ["'autoclave' (unit, DK, None)", 2.737561860349452], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273066759083], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818592968025], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014789004004], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745582954785843], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093847993095], ["'waste polyethylene' (kilogram, CH, None)", 0.18009309301498008], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.04348108928169984], ["'marginal heating grid' (megajoule, DK, None)", -0.16778093645151534]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.15949157249899765], ["'wet wipe' (unit, GLO, None)", 0.10260282313854517], ["'autoclave' (unit, DK, None)", 2.737561860349452], ["'aluminium scrap' (kilogram, RER, None)", 0.27543273066759083], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07511818592968025], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014789004004], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745582954785843], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613093847993095], ["'waste polyethylene' (kilogram, CH, None)", 0.04237484541528942], ["'steel recycling' (kilogram, RER, None)", 0.00011983729597709846], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0020054488808280363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.04348108928169984], ["'marginal heating grid' (megajoule, DK, None)", -0.16778093645151534]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1432192404821786], ["'autoclave' (unit, DK, None)", 0.011383004191293044], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584233952178], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296895198524], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296590936522564], ["'marginal heating grid' (megajoule, DK, None)", -0.0014352535663359938], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930683034435], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01004594257091713], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00035284286892519516], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095991561485], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420291310898]]</t>
@@ -238,13 +238,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.04181610251757598], ["'mechanical disinfection' (unit, DK, None)", 0.012412663978440286], ["'autoclave' (unit, DK, None)", 0.031872411735620526], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105470234295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.032133350036326336], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429810478303e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982253685893], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.239415990983017e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.409432510228711e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04181610251757598], ["'wet wipe' (unit, GLO, None)", 0.049723596207509976], ["'autoclave' (unit, DK, None)", 0.031872411735620526], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105470234295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.032133350036326336], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429810478303e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982253685893], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715618257], ["'waste polyethylene' (kilogram, CH, None)", 0.00022498574005692652], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003512294113856379], ["'marginal heating grid' (megajoule, DK, None)", -0.0026123954586155145]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.04181610251757598], ["'wet wipe' (unit, GLO, None)", 0.021663674682369898], ["'autoclave' (unit, DK, None)", 0.031872411735620526], ["'aluminium scrap' (kilogram, RER, None)", 0.0022789105470234295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.032133350036326336], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429810478303e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00034693982253685893], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715618257], ["'waste polyethylene' (kilogram, CH, None)", 5.2937821189865055e-05], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003512294113856379], ["'marginal heating grid' (megajoule, DK, None)", -0.0026123954586155145]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.02475864817499921], ["'mechanical disinfection' (unit, DK, None)", 0.006206331989220143], ["'autoclave' (unit, DK, None)", 0.017706895408678067], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233385133288], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441607260535], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485962095661e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811920286861], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6197079954915042e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2047162551143556e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02475864817499921], ["'wet wipe' (unit, GLO, None)", 0.049723596207509976], ["'autoclave' (unit, DK, None)", 0.017706895408678067], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233385133288], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441607260535], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485962095661e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811920286861], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715618257], ["'waste polyethylene' (kilogram, CH, None)", 0.00022498574005692652], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00034960970339014617], ["'marginal heating grid' (megajoule, DK, None)", -0.0026003482960643702]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02475864817499921], ["'wet wipe' (unit, GLO, None)", 0.021663674682369898], ["'autoclave' (unit, DK, None)", 0.017706895408678067], ["'aluminium scrap' (kilogram, RER, None)", 0.0013607233385133288], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.019217441607260535], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485962095661e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805811920286861], ["'waste wipe incineration' (kilogram, CH, None)", 0.00013305480715618257], ["'waste polyethylene' (kilogram, CH, None)", 5.2937821189865055e-05], ["'steel recycling' (kilogram, RER, None)", 9.002978699462565e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2055845572863052e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00034960970339014617], ["'marginal heating grid' (megajoule, DK, None)", -0.0026003482960643702]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.971956232422229e-05], ["'autoclave' (unit, DK, None)", -1.5678592386459884e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929734780243e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236795990284114e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797048837636e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.899336826653608e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874465633165e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.583601672492965e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251107228042e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092603011579e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766212552716e-05]]</t>
@@ -262,13 +262,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 6.460121308176907e-05], ["'mechanical disinfection' (unit, DK, None)", 2.8681010658928864e-05], ["'autoclave' (unit, DK, None)", -4.390005868208768e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.91586528020241e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307102195109e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895947745046e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341239299543e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296116833242234e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.867262880994771e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.460121308176907e-05], ["'wet wipe' (unit, GLO, None)", 2.569878566239029e-05], ["'autoclave' (unit, DK, None)", -4.390005868208768e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.91586528020241e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307102195109e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895947745046e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341239299543e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041793205515e-08], ["'waste polyethylene' (kilogram, CH, None)", 9.589271910108221e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.742244908177927e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.277265659950623e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.460121308176907e-05], ["'wet wipe' (unit, GLO, None)", 1.5695683259862705e-05], ["'autoclave' (unit, DK, None)", -4.390005868208768e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.91586528020241e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.861307102195109e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895947745046e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341239299543e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041793205515e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.2562992729666397e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.742244908177927e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.277265659950623e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 3.850571165257081e-05], ["'mechanical disinfection' (unit, DK, None)", 1.4340505329464432e-05], ["'autoclave' (unit, DK, None)", -2.4388921490048706e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450550217823e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185729400512e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791895490092e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248982346404e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.64805841662111e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.4336314404973855e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.850571165257081e-05], ["'wet wipe' (unit, GLO, None)", 2.569878566239029e-05], ["'autoclave' (unit, DK, None)", -2.4388921490048706e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450550217823e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185729400512e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791895490092e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248982346404e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041793205515e-08], ["'waste polyethylene' (kilogram, CH, None)", 9.589271910108221e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.715764324011712e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.252929345545648e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.850571165257081e-05], ["'wet wipe' (unit, GLO, None)", 1.5695683259862705e-05], ["'autoclave' (unit, DK, None)", -2.4388921490048706e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7410450550217823e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.9073185729400512e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791895490092e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248982346404e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.964041793205515e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.2562992729666397e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059648188523433e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.546784564994701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.715764324011712e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.252929345545648e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.55181686813981e-06], ["'autoclave' (unit, DK, None)", 0.00011404429155662207], ["'waste polypropylene' (kilogram, CH, None)", 4.286217828778845e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.150735098049748e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.370466900400025e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.565237405214121e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914265222999e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705349824287e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738338172844e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134416997227e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718107291166e-06]]</t>
@@ -286,13 +286,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 5.931847811640741e-06], ["'mechanical disinfection' (unit, DK, None)", 7.72294782606356e-05], ["'autoclave' (unit, DK, None)", 0.00031932401635854186], ["'aluminium scrap' (kilogram, RER, None)", 4.9039569084001706e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179968634585e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443223871465e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052342218063e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172684569743e-10], ["'marginal heating grid' (megajoule, DK, None)", -4.306393340903724e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.931847811640741e-06], ["'wet wipe' (unit, GLO, None)", 9.800669075142083e-05], ["'autoclave' (unit, DK, None)", 0.00031932401635854186], ["'aluminium scrap' (kilogram, RER, None)", 4.9039569084001706e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179968634585e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443223871465e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052342218063e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6782545849938857e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.639907889927969e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.134799195445918e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.6691502497080093e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.931847811640741e-06], ["'wet wipe' (unit, GLO, None)", 9.661343938794375e-05], ["'autoclave' (unit, DK, None)", 0.00031932401635854186], ["'aluminium scrap' (kilogram, RER, None)", 4.9039569084001706e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.5069179968634585e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.4272443223871465e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.224052342218063e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6782545849938857e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.2682136211595217e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.134799195445918e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.6691502497080093e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 3.518756577331173e-06], ["'mechanical disinfection' (unit, DK, None)", 3.86147391303178e-05], ["'autoclave' (unit, DK, None)", 0.000177402231310301], ["'aluminium scrap' (kilogram, RER, None)", 2.9281222227171425e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322306886352e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488644774293e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.72180671142752e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086342284864e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.153196670451862e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.518756577331173e-06], ["'wet wipe' (unit, GLO, None)", 9.800669075142083e-05], ["'autoclave' (unit, DK, None)", 0.000177402231310301], ["'aluminium scrap' (kilogram, RER, None)", 2.9281222227171425e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322306886352e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488644774293e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.72180671142752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6782545849938857e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.639907889927969e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.106508332023066e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.6476182830034894e-07]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.518756577331173e-06], ["'wet wipe' (unit, GLO, None)", 9.661343938794375e-05], ["'autoclave' (unit, DK, None)", 0.000177402231310301], ["'aluminium scrap' (kilogram, RER, None)", 2.9281222227171425e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.097322306886352e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488644774293e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.72180671142752e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6782545849938857e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.2682136211595217e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293091415906e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4292130995714715e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.106508332023066e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.6476182830034894e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.006116426163388865], ["'autoclave' (unit, DK, None)", 0.002328188398062871], ["'waste polypropylene' (kilogram, CH, None)", 6.352133549199562e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809773723931e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758930364708477], ["'marginal heating grid' (megajoule, DK, None)", -0.0003171282780147067], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002992141514353949], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387157098804], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238490731553e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132806204181], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138573815562]]</t>
@@ -310,13 +310,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.03186287332983513], ["'mechanical disinfection' (unit, DK, None)", 0.006515241287536411], ["'autoclave' (unit, DK, None)", 0.00651892751457604], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489803857514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137758906813], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739438322505e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014255328788370246], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9740309148698247e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.323792261405935e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03186287332983513], ["'wet wipe' (unit, GLO, None)", 0.002156270107559983], ["'autoclave' (unit, DK, None)", 0.00651892751457604], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489803857514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137758906813], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739438322505e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014255328788370246], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998888485851e-06], ["'waste polyethylene' (kilogram, CH, None)", 0.0001436947884256589], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002140317014599857], ["'marginal heating grid' (megajoule, DK, None)", -0.0005772251626582853]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03186287332983513], ["'wet wipe' (unit, GLO, None)", 0.0009876772094836183], ["'autoclave' (unit, DK, None)", 0.00651892751457604], ["'aluminium scrap' (kilogram, RER, None)", 0.000418489803857514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02896137758906813], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739438322505e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014255328788370246], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998888485851e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.381053845309621e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002140317014599857], ["'marginal heating grid' (megajoule, DK, None)", -0.0005772251626582853]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.01906024268875041], ["'mechanical disinfection' (unit, DK, None)", 0.0032576206437682055], ["'autoclave' (unit, DK, None)", 0.0036216263969866885], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776635978815], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434441306393], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887664501e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536408070757], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870154574349098e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.6618961307029675e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01906024268875041], ["'wet wipe' (unit, GLO, None)", 0.002156270107559983], ["'autoclave' (unit, DK, None)", 0.0036216263969866885], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776635978815], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434441306393], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887664501e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536408070757], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998888485851e-06], ["'waste polyethylene' (kilogram, CH, None)", 0.0001436947884256589], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00021304468600255065], ["'marginal heating grid' (megajoule, DK, None)", -0.0005745632665275823]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01906024268875041], ["'wet wipe' (unit, GLO, None)", 0.0009876772094836183], ["'autoclave' (unit, DK, None)", 0.0036216263969866885], ["'aluminium scrap' (kilogram, RER, None)", 0.0002498776635978815], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.017320434441306393], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147887664501e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002385536408070757], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998888485851e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.381053845309621e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006589884845795447], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.801414526015262e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00021304468600255065], ["'marginal heating grid' (megajoule, DK, None)", -0.0005745632665275823]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1232933201466666], ["'autoclave' (unit, DK, None)", 0.0985300837475404], ["'waste polypropylene' (kilogram, CH, None)", 0.01729496800723724], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519034758522], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038128499712881373], ["'marginal heating grid' (megajoule, DK, None)", -0.013055011425611779], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04991519456712886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005445273901784881], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970294124974], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562150727959], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072684528023]]</t>
@@ -334,13 +334,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.16336888895417775], ["'mechanical disinfection' (unit, DK, None)", 0.26741302056831284], ["'autoclave' (unit, DK, None)", 0.2758842344931131], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561779205053], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068235254952], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059486790566], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808751774103], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400823445364373e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002191610575863402]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16336888895417775], ["'wet wipe' (unit, GLO, None)", 0.05478041950640196], ["'autoclave' (unit, DK, None)", 0.2758842344931131], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561779205053], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068235254952], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059486790566], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808751774103], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529274405759], ["'waste polyethylene' (kilogram, CH, None)", 0.039026732872392104], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006940008499545947], ["'marginal heating grid' (megajoule, DK, None)", -0.02376224895751828]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16336888895417775], ["'wet wipe' (unit, GLO, None)", 0.03132705969601886], ["'autoclave' (unit, DK, None)", 0.2758842344931131], ["'aluminium scrap' (kilogram, RER, None)", 0.04155561779205053], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12378068235254952], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059486790566], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654808751774103], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529274405759], ["'waste polyethylene' (kilogram, CH, None)", 0.009182760675856964], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006940008499545947], ["'marginal heating grid' (megajoule, DK, None)", -0.02376224895751828]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.09724739192742922], ["'mechanical disinfection' (unit, DK, None)", 0.13370651028415642], ["'autoclave' (unit, DK, None)", 0.1532690191628406], ["'aluminium scrap' (kilogram, RER, None)", 0.02481260137649516], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402739000222015], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118973581132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882547462705], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.200411722682178e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001095805287931701]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09724739192742922], ["'wet wipe' (unit, GLO, None)", 0.05478041950640196], ["'autoclave' (unit, DK, None)", 0.1532690191628406], ["'aluminium scrap' (kilogram, RER, None)", 0.02481260137649516], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402739000222015], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118973581132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882547462705], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529274405759], ["'waste polyethylene' (kilogram, CH, None)", 0.039026732872392104], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006908004382319121], ["'marginal heating grid' (megajoule, DK, None)", -0.023652668428725106]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09724739192742922], ["'wet wipe' (unit, GLO, None)", 0.03132705969601886], ["'autoclave' (unit, DK, None)", 0.1532690191628406], ["'aluminium scrap' (kilogram, RER, None)", 0.02481260137649516], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07402739000222015], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118973581132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882547462705], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529274405759], ["'waste polyethylene' (kilogram, CH, None)", 0.009182760675856964], ["'steel recycling' (kilogram, RER, None)", 6.343405373905927e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001626968456494765], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006908004382319121], ["'marginal heating grid' (megajoule, DK, None)", -0.023652668428725106]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007527498011606148], ["'autoclave' (unit, DK, None)", 0.0010565028334877102], ["'waste polypropylene' (kilogram, CH, None)", 1.93999358407859e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121017160117388e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.959037640284009e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0011571349100950358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360361889106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024353266741605423], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0002340695742587325], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139958062492569], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748754633775]]</t>
@@ -358,13 +358,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.0031289132390162596], ["'mechanical disinfection' (unit, DK, None)", 0.0011018533438172222], ["'autoclave' (unit, DK, None)", 0.0029582079337655887], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713425787533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724009448305], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856105597163e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079556600034e-05], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.288735238130767e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9425407025610374e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0031289132390162596], ["'wet wipe' (unit, GLO, None)", 0.0025347173168332356], ["'autoclave' (unit, DK, None)", 0.0029582079337655887], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713425787533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724009448305], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856105597163e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079556600034e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.9695581898136e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.8411697308619e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5657678578704365e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0021061741667395945]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0031289132390162596], ["'wet wipe' (unit, GLO, None)", 0.0005486897796877032], ["'autoclave' (unit, DK, None)", 0.0029582079337655887], ["'aluminium scrap' (kilogram, RER, None)", -0.00013301713425787533], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007858724009448305], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856105597163e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079556600034e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.9695581898136e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.3743928778498588e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5657678578704365e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.0021061741667395945]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0018394876157484016], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266719086111], ["'autoclave' (unit, DK, None)", 0.0016434488520919936], ["'aluminium scrap' (kilogram, RER, None)", -7.942370499941829e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932300504549], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712211194326e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817508872], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.644367619065379e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.712703512805187e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018394876157484016], ["'wet wipe' (unit, GLO, None)", 0.0025347173168332356], ["'autoclave' (unit, DK, None)", 0.0016434488520919936], ["'aluminium scrap' (kilogram, RER, None)", -7.942370499941829e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932300504549], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712211194326e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817508872], ["'waste wipe incineration' (kilogram, CH, None)", -9.9695581898136e-07], ["'waste polyethylene' (kilogram, CH, None)", 5.8411697308619e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.5493241816797804e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.002096461463226789]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0018394876157484016], ["'wet wipe' (unit, GLO, None)", 0.0005486897796877032], ["'autoclave' (unit, DK, None)", 0.0016434488520919936], ["'aluminium scrap' (kilogram, RER, None)", -7.942370499941829e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004699932300504549], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712211194326e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817508872], ["'waste wipe incineration' (kilogram, CH, None)", -9.9695581898136e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.3743928778498588e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626551904963e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 2.233872120115565e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.5493241816797804e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.002096461463226789]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0101233207725325], ["'autoclave' (unit, DK, None)", 0.1516627666415412], ["'waste polypropylene' (kilogram, CH, None)", -6.194524932559215e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.549868628896746e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581556259421703], ["'marginal heating grid' (megajoule, DK, None)", -0.007340879669314296], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272429249381], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001537627636195329], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.98643039002451e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.003020574195308825], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949900957579572]]</t>
@@ -382,13 +382,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.004896093590465519], ["'mechanical disinfection' (unit, DK, None)", 0.17642834278576996], ["'autoclave' (unit, DK, None)", 0.42465574659631544], ["'aluminium scrap' (kilogram, RER, None)", -0.00021835456954729776], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014248687383782935], ["'waste plastic, mixture' (kilogram, CH, None)", 5.58883000407825e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257567930156732], ["'steel recycling' (kilogram, RER, None)", 3.888645475090454e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -7.296389332504725e-06], ["'market for 